--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlightTest\Desktop\PFDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30564960-F89A-439B-8E6A-F14473D2C8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
+    <sheet name="Metric Units" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="96">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -232,16 +247,93 @@
   </si>
   <si>
     <t>FRONT</t>
+  </si>
+  <si>
+    <t>Post-Flight Data Sheet AE3202 - Metric</t>
+  </si>
+  <si>
+    <t>data of flight:</t>
+  </si>
+  <si>
+    <t>flight number</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>co-ordinator</t>
+  </si>
+  <si>
+    <t>block fuel [kg]:</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>Stationary measurments CL-CD Series 1</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>[kg/hr]</t>
+  </si>
+  <si>
+    <t>[kg]</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Stationary measurements CL-CD Series 2</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>5 3 20</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CD0</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +345,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -294,6 +393,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -671,6 +781,3064 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL - alpha</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8386682072143845E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3301208723085525E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.009585658731935E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3887680307737106E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.914788131248011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3697841964277998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D95-41AB-B55F-905DE84267D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL - CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$R$28:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0230666837175869E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0362151202501514E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0684080169129458E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1288325036624177E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2436876416565503E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3712716797531775E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8386682072143845E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3301208723085525E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.009585658731935E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3887680307737106E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.914788131248011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3697841964277998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7945-49AE-B5D1-37433B5D1A7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL - alpha</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$28:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$R$28:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0230666837175869E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0362151202501514E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0684080169129458E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1288325036624177E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2436876416565503E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3712716797531775E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FABB-4967-AE4B-351A56165EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -688,7 +3856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -729,6 +3903,187 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>170814</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>439419</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C7704E-2274-4232-BF29-8DD10ECBACE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>633095</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3D843A-BD66-4722-AEF9-109252FC0387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>58419</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8ECB8D-B11B-450B-B97D-1A781146CB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="F28">
+            <v>1.8</v>
+          </cell>
+          <cell r="Q28">
+            <v>5.8386682072143845E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>2.5</v>
+          </cell>
+          <cell r="Q29">
+            <v>7.3301208723085525E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30">
+            <v>3.9</v>
+          </cell>
+          <cell r="Q30">
+            <v>1.009585658731935E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>5.7</v>
+          </cell>
+          <cell r="Q31">
+            <v>1.3887680307737106E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="Q32">
+            <v>1.914788131248011E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33">
+            <v>10.3</v>
+          </cell>
+          <cell r="Q33">
+            <v>2.3697841964277998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,6 +4162,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -842,6 +4214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1017,54 +4406,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.15625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +4465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1083,7 +4476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +4487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +4498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1116,7 +4509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1127,7 +4520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1138,7 +4531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1149,7 +4542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1160,7 +4553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1171,18 +4564,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1190,7 +4583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +4615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +4644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1281,7 +4674,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1311,7 +4704,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1341,7 +4734,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1371,7 +4764,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1401,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1431,7 +4824,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1445,23 +4838,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +4886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1522,7 +4915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1536,7 +4929,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1550,7 +4943,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1564,7 +4957,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1578,7 +4971,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1592,7 +4985,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1606,7 +4999,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1620,17 +5013,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1638,7 +5031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +5072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -1717,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1758,7 +5151,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1799,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1840,7 +5233,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1881,7 +5274,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1922,7 +5315,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1963,7 +5356,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2004,17 +5397,17 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2022,7 +5415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -2036,7 +5429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -2115,7 +5508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2156,7 +5549,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2197,17 +5590,17 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -2218,7 +5611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +5622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +5642,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -2360,4 +5753,1731 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
+  <dimension ref="A1:R84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF48" sqref="AF48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43895</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Imperial Units'!$D8</f>
+        <v>Chipke</v>
+      </c>
+      <c r="G8">
+        <f>'Imperial Units'!$H8</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="str">
+        <f>'Imperial Units'!$D9</f>
+        <v>Hans</v>
+      </c>
+      <c r="G9">
+        <f>'Imperial Units'!$H9</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="str">
+        <f>'Imperial Units'!$D10</f>
+        <v>Marta</v>
+      </c>
+      <c r="G10">
+        <f>'Imperial Units'!$H10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="str">
+        <f>'Imperial Units'!$D11</f>
+        <v>Jari</v>
+      </c>
+      <c r="G11">
+        <f>'Imperial Units'!$H11</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="str">
+        <f>'Imperial Units'!$D12</f>
+        <v>Martin</v>
+      </c>
+      <c r="G12">
+        <f>'Imperial Units'!$H12</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="str">
+        <f>'Imperial Units'!$D13</f>
+        <v>Wessel</v>
+      </c>
+      <c r="G13">
+        <f>'Imperial Units'!$H13</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="str">
+        <f>'Imperial Units'!$D14</f>
+        <v>Simon</v>
+      </c>
+      <c r="G14">
+        <f>'Imperial Units'!$H14</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="str">
+        <f>'Imperial Units'!$D15</f>
+        <v>Niek</v>
+      </c>
+      <c r="G15">
+        <f>'Imperial Units'!$H15</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="str">
+        <f>'Imperial Units'!$D16</f>
+        <v>Julian</v>
+      </c>
+      <c r="G16">
+        <f>'Imperial Units'!$H16</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>50000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20">
+        <v>2.0569000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21">
+        <v>15.911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22">
+        <f>P21^2/P19</f>
+        <v>8.4386640333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
+        <f>'Imperial Units'!B28</f>
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="C28" s="8">
+        <f>B28-$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <f>'Imperial Units'!D28*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E28" s="9">
+        <f>'Imperial Units'!E28/0.514444</f>
+        <v>482.07385060375861</v>
+      </c>
+      <c r="F28" s="10">
+        <f>'Imperial Units'!F28</f>
+        <v>1.8</v>
+      </c>
+      <c r="G28" s="9">
+        <f>'Imperial Units'!G28*0.45359237</f>
+        <v>340.1942775</v>
+      </c>
+      <c r="H28" s="9">
+        <f>'Imperial Units'!H28*0.45359237</f>
+        <v>364.23467311000002</v>
+      </c>
+      <c r="I28" s="9">
+        <f>'Imperial Units'!I28*0.45359237</f>
+        <v>134.71693389000001</v>
+      </c>
+      <c r="J28" s="9">
+        <f>'Imperial Units'!J28</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P28" s="9">
+        <f>P18-I28*9.81</f>
+        <v>298678.42687853909</v>
+      </c>
+      <c r="Q28" s="11">
+        <f>2*P28/(1.225*E28^2*$P$19)</f>
+        <v>6.9943821752081081E-2</v>
+      </c>
+      <c r="R28" s="11">
+        <f>$P$23+Q28^2/(PI()*$P$22*$P$24)</f>
+        <v>4.0230666837175869E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <f>'Imperial Units'!B29</f>
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" ref="C29:C33" si="0">B29-$B$28</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="D29" s="9">
+        <f>'Imperial Units'!D29*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E29" s="9">
+        <f>'Imperial Units'!E29/0.514444</f>
+        <v>429.59000396544616</v>
+      </c>
+      <c r="F29" s="10">
+        <f>'Imperial Units'!F29</f>
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="9">
+        <f>'Imperial Units'!G29*0.45359237</f>
+        <v>288.48474732</v>
+      </c>
+      <c r="H29" s="9">
+        <f>'Imperial Units'!H29*0.45359237</f>
+        <v>310.71077345000003</v>
+      </c>
+      <c r="I29" s="9">
+        <f>'Imperial Units'!I29*0.45359237</f>
+        <v>151.49985158000001</v>
+      </c>
+      <c r="J29" s="9">
+        <f>'Imperial Units'!J29</f>
+        <v>8.5</v>
+      </c>
+      <c r="P29" s="9">
+        <f>P28-I29*9.81</f>
+        <v>297192.21333453926</v>
+      </c>
+      <c r="Q29" s="11">
+        <f t="shared" ref="Q29:Q33" si="1">2*P29/(1.225*E29^2*$P$19)</f>
+        <v>8.7639873901786611E-2</v>
+      </c>
+      <c r="R29" s="11">
+        <f t="shared" ref="R29:R33" si="2">$P$23+Q29^2/(PI()*$P$22*$P$24)</f>
+        <v>4.0362151202501514E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8">
+        <f>'Imperial Units'!B30</f>
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15347222222222212</v>
+      </c>
+      <c r="D30" s="9">
+        <f>'Imperial Units'!D30*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E30" s="9">
+        <f>'Imperial Units'!E30/0.514444</f>
+        <v>365.44308029639768</v>
+      </c>
+      <c r="F30" s="10">
+        <f>'Imperial Units'!F30</f>
+        <v>3.9</v>
+      </c>
+      <c r="G30" s="9">
+        <f>'Imperial Units'!G30*0.45359237</f>
+        <v>244.03269506000001</v>
+      </c>
+      <c r="H30" s="9">
+        <f>'Imperial Units'!H30*0.45359237</f>
+        <v>263.99075934000001</v>
+      </c>
+      <c r="I30" s="9">
+        <f>'Imperial Units'!I30*0.45359237</f>
+        <v>164.20043794</v>
+      </c>
+      <c r="J30" s="9">
+        <f>'Imperial Units'!J30</f>
+        <v>6.8</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30:P33" si="3">P29-I30*9.81</f>
+        <v>295581.40703834785</v>
+      </c>
+      <c r="Q30" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12045096358498925</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" si="2"/>
+        <v>4.0684080169129458E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8">
+        <f>'Imperial Units'!B31</f>
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24513888888888891</v>
+      </c>
+      <c r="D31" s="9">
+        <f>'Imperial Units'!D31*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E31" s="9">
+        <f>'Imperial Units'!E31/0.514444</f>
+        <v>311.01538748629588</v>
+      </c>
+      <c r="F31" s="10">
+        <f>'Imperial Units'!F31</f>
+        <v>5.7</v>
+      </c>
+      <c r="G31" s="9">
+        <f>'Imperial Units'!G31*0.45359237</f>
+        <v>209.55967494000001</v>
+      </c>
+      <c r="H31" s="9">
+        <f>'Imperial Units'!H31*0.45359237</f>
+        <v>225.43540789000002</v>
+      </c>
+      <c r="I31" s="9">
+        <f>'Imperial Units'!I31*0.45359237</f>
+        <v>180.98335563000001</v>
+      </c>
+      <c r="J31" s="9">
+        <f>'Imperial Units'!J31</f>
+        <v>5.2</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="3"/>
+        <v>293805.96031961753</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="1"/>
+        <v>0.165298724180302</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="2"/>
+        <v>4.1288325036624177E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8">
+        <f>'Imperial Units'!B32</f>
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30486111111111103</v>
+      </c>
+      <c r="D32" s="9">
+        <f>'Imperial Units'!D32*0.3048</f>
+        <v>1527.048</v>
+      </c>
+      <c r="E32" s="9">
+        <f>'Imperial Units'!E32/0.514444</f>
+        <v>264.36307936335152</v>
+      </c>
+      <c r="F32" s="10">
+        <f>'Imperial Units'!F32</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G32" s="9">
+        <f>'Imperial Units'!G32*0.45359237</f>
+        <v>197.31268095000001</v>
+      </c>
+      <c r="H32" s="9">
+        <f>'Imperial Units'!H32*0.45359237</f>
+        <v>216.81715286000002</v>
+      </c>
+      <c r="I32" s="9">
+        <f>'Imperial Units'!I32*0.45359237</f>
+        <v>189.60161066000001</v>
+      </c>
+      <c r="J32" s="9">
+        <f>'Imperial Units'!J32</f>
+        <v>4</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="3"/>
+        <v>291945.96851904294</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2273387829667767</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" si="2"/>
+        <v>4.2436876416565503E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2.0187499999999998</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="D33" s="9">
+        <f>'Imperial Units'!D33*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E33" s="9">
+        <f>'Imperial Units'!E33/0.514444</f>
+        <v>237.14923295830062</v>
+      </c>
+      <c r="F33" s="10">
+        <f>'Imperial Units'!F33</f>
+        <v>10.3</v>
+      </c>
+      <c r="G33" s="9">
+        <f>'Imperial Units'!G33*0.45359237</f>
+        <v>195.95190384</v>
+      </c>
+      <c r="H33" s="9">
+        <f>'Imperial Units'!H33*0.45359237</f>
+        <v>216.36356049</v>
+      </c>
+      <c r="I33" s="9">
+        <f>'Imperial Units'!I33*0.45359237</f>
+        <v>200.03423517000002</v>
+      </c>
+      <c r="J33" s="9">
+        <f>'Imperial Units'!J33</f>
+        <v>3.8</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="3"/>
+        <v>289983.63267202524</v>
+      </c>
+      <c r="Q33" s="11">
+        <f t="shared" si="1"/>
+        <v>0.28060970660384815</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" si="2"/>
+        <v>4.3712716797531775E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8">
+        <f>'Imperial Units'!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <f>B44-$B$28</f>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D44" s="9">
+        <f>'Imperial Units'!D44*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <f>'Imperial Units'!E44/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <f>'Imperial Units'!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <f>'Imperial Units'!G44*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f>'Imperial Units'!H44*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <f>'Imperial Units'!I44*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <f>'Imperial Units'!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <f>'Imperial Units'!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" ref="C45:C49" si="4">B45-$B$28</f>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D45" s="9">
+        <f>'Imperial Units'!D45*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <f>'Imperial Units'!E45/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <f>'Imperial Units'!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <f>'Imperial Units'!G45*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <f>'Imperial Units'!H45*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <f>'Imperial Units'!I45*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <f>'Imperial Units'!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8">
+        <f>'Imperial Units'!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D46" s="9">
+        <f>'Imperial Units'!D46*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <f>'Imperial Units'!E46/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <f>'Imperial Units'!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <f>'Imperial Units'!G46*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <f>'Imperial Units'!H46*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <f>'Imperial Units'!I46*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
+        <f>'Imperial Units'!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8">
+        <f>'Imperial Units'!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D47" s="9">
+        <f>'Imperial Units'!D47*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <f>'Imperial Units'!E47/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <f>'Imperial Units'!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <f>'Imperial Units'!G47*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <f>'Imperial Units'!H47*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <f>'Imperial Units'!I47*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <f>'Imperial Units'!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8">
+        <f>'Imperial Units'!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D48" s="9">
+        <f>'Imperial Units'!D48*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <f>'Imperial Units'!E48/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <f>'Imperial Units'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <f>'Imperial Units'!G48*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <f>'Imperial Units'!H48*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <f>'Imperial Units'!I48*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
+        <f>'Imperial Units'!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.65208333333333335</v>
+      </c>
+      <c r="D49" s="9">
+        <f>'Imperial Units'!D49*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <f>'Imperial Units'!E49/0.514444</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <f>'Imperial Units'!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <f>'Imperial Units'!G49*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f>'Imperial Units'!H49*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <f>'Imperial Units'!I49*0.45359237</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <f>'Imperial Units'!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+      <c r="K57" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="12">
+        <f>'Imperial Units'!B59</f>
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="C59" s="13">
+        <f>'Imperial Units'!C59</f>
+        <v>25</v>
+      </c>
+      <c r="D59" s="13">
+        <f>'Imperial Units'!D59*0.3048</f>
+        <v>1990.3440000000001</v>
+      </c>
+      <c r="E59" s="13">
+        <f>'Imperial Units'!E59/0.514444</f>
+        <v>311.01538748629588</v>
+      </c>
+      <c r="F59" s="14">
+        <f>'Imperial Units'!F59</f>
+        <v>5.5</v>
+      </c>
+      <c r="G59" s="14">
+        <f>'Imperial Units'!G59</f>
+        <v>-0.1</v>
+      </c>
+      <c r="H59" s="14">
+        <f>'Imperial Units'!H59</f>
+        <v>3.1</v>
+      </c>
+      <c r="I59" s="13">
+        <f>'Imperial Units'!I59</f>
+        <v>-1</v>
+      </c>
+      <c r="J59" s="13">
+        <f>'Imperial Units'!J59*0.45359237</f>
+        <v>200.48782754000001</v>
+      </c>
+      <c r="K59" s="13">
+        <f>'Imperial Units'!K59*0.45359237</f>
+        <v>217.27074523000002</v>
+      </c>
+      <c r="L59" s="13">
+        <f>'Imperial Units'!L59*0.45359237</f>
+        <v>242.67191795000002</v>
+      </c>
+      <c r="M59" s="14">
+        <f>'Imperial Units'!M59</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="12">
+        <f>'Imperial Units'!B60</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C60" s="13">
+        <f>'Imperial Units'!C60</f>
+        <v>35</v>
+      </c>
+      <c r="D60" s="13">
+        <f>'Imperial Units'!D60*0.3048</f>
+        <v>2045.2080000000001</v>
+      </c>
+      <c r="E60" s="13">
+        <f>'Imperial Units'!E60/0.514444</f>
+        <v>289.63307959661302</v>
+      </c>
+      <c r="F60" s="14">
+        <f>'Imperial Units'!F60</f>
+        <v>6.5</v>
+      </c>
+      <c r="G60" s="14">
+        <f>'Imperial Units'!G60</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H60" s="14">
+        <f>'Imperial Units'!H60</f>
+        <v>3.1</v>
+      </c>
+      <c r="I60" s="13">
+        <f>'Imperial Units'!I60</f>
+        <v>-25</v>
+      </c>
+      <c r="J60" s="13">
+        <f>'Imperial Units'!J60*0.45359237</f>
+        <v>198.67345806</v>
+      </c>
+      <c r="K60" s="13">
+        <f>'Imperial Units'!K60*0.45359237</f>
+        <v>215.45637575000001</v>
+      </c>
+      <c r="L60" s="13">
+        <f>'Imperial Units'!L60*0.45359237</f>
+        <v>252.65095009000001</v>
+      </c>
+      <c r="M60" s="14">
+        <f>'Imperial Units'!M60</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="12">
+        <f>'Imperial Units'!B61</f>
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="C61" s="13">
+        <f>'Imperial Units'!C61</f>
+        <v>28</v>
+      </c>
+      <c r="D61" s="13">
+        <f>'Imperial Units'!D61*0.3048</f>
+        <v>2097.0239999999999</v>
+      </c>
+      <c r="E61" s="13">
+        <f>'Imperial Units'!E61/0.514444</f>
+        <v>272.1384640505089</v>
+      </c>
+      <c r="F61" s="14">
+        <f>'Imperial Units'!F61</f>
+        <v>7.5</v>
+      </c>
+      <c r="G61" s="14">
+        <f>'Imperial Units'!G61</f>
+        <v>-0.9</v>
+      </c>
+      <c r="H61" s="14">
+        <f>'Imperial Units'!H61</f>
+        <v>3.1</v>
+      </c>
+      <c r="I61" s="13">
+        <f>'Imperial Units'!I61</f>
+        <v>-39</v>
+      </c>
+      <c r="J61" s="13">
+        <f>'Imperial Units'!J61*0.45359237</f>
+        <v>196.85908858000002</v>
+      </c>
+      <c r="K61" s="13">
+        <f>'Imperial Units'!K61*0.45359237</f>
+        <v>213.64200627000002</v>
+      </c>
+      <c r="L61" s="13">
+        <f>'Imperial Units'!L61*0.45359237</f>
+        <v>257.64046616000002</v>
+      </c>
+      <c r="M61" s="14">
+        <f>'Imperial Units'!M61</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="12">
+        <f>'Imperial Units'!B62</f>
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="C62" s="13">
+        <f>'Imperial Units'!C62</f>
+        <v>17</v>
+      </c>
+      <c r="D62" s="13">
+        <f>'Imperial Units'!D62*0.3048</f>
+        <v>2179.3200000000002</v>
+      </c>
+      <c r="E62" s="13">
+        <f>'Imperial Units'!E62/0.514444</f>
+        <v>252.70000233261541</v>
+      </c>
+      <c r="F62" s="14">
+        <f>'Imperial Units'!F62</f>
+        <v>9.1</v>
+      </c>
+      <c r="G62" s="14">
+        <f>'Imperial Units'!G62</f>
+        <v>-1.5</v>
+      </c>
+      <c r="H62" s="14">
+        <f>'Imperial Units'!H62</f>
+        <v>3.1</v>
+      </c>
+      <c r="I62" s="13">
+        <f>'Imperial Units'!I62</f>
+        <v>-50</v>
+      </c>
+      <c r="J62" s="13">
+        <f>'Imperial Units'!J62*0.45359237</f>
+        <v>195.04471910000001</v>
+      </c>
+      <c r="K62" s="13">
+        <f>'Imperial Units'!K62*0.45359237</f>
+        <v>211.37404442000002</v>
+      </c>
+      <c r="L62" s="13">
+        <f>'Imperial Units'!L62*0.45359237</f>
+        <v>268.52668304000002</v>
+      </c>
+      <c r="M62" s="14">
+        <f>'Imperial Units'!M62</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="12">
+        <f>'Imperial Units'!B63</f>
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="C63" s="13">
+        <f>'Imperial Units'!C63</f>
+        <v>50</v>
+      </c>
+      <c r="D63" s="13">
+        <f>'Imperial Units'!D63*0.3048</f>
+        <v>1959.864</v>
+      </c>
+      <c r="E63" s="13">
+        <f>'Imperial Units'!E63/0.514444</f>
+        <v>332.39769537597874</v>
+      </c>
+      <c r="F63" s="14">
+        <f>'Imperial Units'!F63</f>
+        <v>4.8</v>
+      </c>
+      <c r="G63" s="14">
+        <f>'Imperial Units'!G63</f>
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="14">
+        <f>'Imperial Units'!H63</f>
+        <v>3.1</v>
+      </c>
+      <c r="I63" s="13">
+        <f>'Imperial Units'!I63</f>
+        <v>29</v>
+      </c>
+      <c r="J63" s="13">
+        <f>'Imperial Units'!J63*0.45359237</f>
+        <v>202.30219702000002</v>
+      </c>
+      <c r="K63" s="13">
+        <f>'Imperial Units'!K63*0.45359237</f>
+        <v>219.08511471</v>
+      </c>
+      <c r="L63" s="13">
+        <f>'Imperial Units'!L63*0.45359237</f>
+        <v>279.41289992000003</v>
+      </c>
+      <c r="M63" s="14">
+        <f>'Imperial Units'!M63</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="12">
+        <f>'Imperial Units'!B64</f>
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C64" s="13">
+        <f>'Imperial Units'!C64</f>
+        <v>36</v>
+      </c>
+      <c r="D64" s="13">
+        <f>'Imperial Units'!D64*0.3048</f>
+        <v>1813.5600000000002</v>
+      </c>
+      <c r="E64" s="13">
+        <f>'Imperial Units'!E64/0.514444</f>
+        <v>353.78000326566155</v>
+      </c>
+      <c r="F64" s="14">
+        <f>'Imperial Units'!F64</f>
+        <v>4</v>
+      </c>
+      <c r="G64" s="14">
+        <f>'Imperial Units'!G64</f>
+        <v>0.6</v>
+      </c>
+      <c r="H64" s="14">
+        <f>'Imperial Units'!H64</f>
+        <v>3.1</v>
+      </c>
+      <c r="I64" s="13">
+        <f>'Imperial Units'!I64</f>
+        <v>43</v>
+      </c>
+      <c r="J64" s="13">
+        <f>'Imperial Units'!J64*0.45359237</f>
+        <v>206.38452835000001</v>
+      </c>
+      <c r="K64" s="13">
+        <f>'Imperial Units'!K64*0.45359237</f>
+        <v>222.71385367000002</v>
+      </c>
+      <c r="L64" s="13">
+        <f>'Imperial Units'!L64*0.45359237</f>
+        <v>288.03115495000003</v>
+      </c>
+      <c r="M64" s="14">
+        <f>'Imperial Units'!M64</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="12">
+        <f>'Imperial Units'!B65</f>
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="C65" s="13">
+        <f>'Imperial Units'!C65</f>
+        <v>10</v>
+      </c>
+      <c r="D65" s="13">
+        <f>'Imperial Units'!D65*0.3048</f>
+        <v>1542.288</v>
+      </c>
+      <c r="E65" s="13">
+        <f>'Imperial Units'!E65/0.514444</f>
+        <v>369.33077263997637</v>
+      </c>
+      <c r="F65" s="14">
+        <f>'Imperial Units'!F65</f>
+        <v>3.6</v>
+      </c>
+      <c r="G65" s="14">
+        <f>'Imperial Units'!G65</f>
+        <v>0.9</v>
+      </c>
+      <c r="H65" s="14">
+        <f>'Imperial Units'!H65</f>
+        <v>3.1</v>
+      </c>
+      <c r="I65" s="13">
+        <f>'Imperial Units'!I65</f>
+        <v>79</v>
+      </c>
+      <c r="J65" s="13">
+        <f>'Imperial Units'!J65*0.45359237</f>
+        <v>211.37404442000002</v>
+      </c>
+      <c r="K65" s="13">
+        <f>'Imperial Units'!K65*0.45359237</f>
+        <v>228.61055448000002</v>
+      </c>
+      <c r="L65" s="13">
+        <f>'Imperial Units'!L65*0.45359237</f>
+        <v>303.90688790000002</v>
+      </c>
+      <c r="M65" s="14">
+        <f>'Imperial Units'!M65</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>59</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>83</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="12">
+        <f>'Imperial Units'!B75</f>
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="C75" s="13">
+        <f>'Imperial Units'!C75</f>
+        <v>55</v>
+      </c>
+      <c r="D75" s="13">
+        <f>'Imperial Units'!D75*0.3048</f>
+        <v>1676.4</v>
+      </c>
+      <c r="E75" s="13">
+        <f>'Imperial Units'!E75/0.514444</f>
+        <v>309.07154131450653</v>
+      </c>
+      <c r="F75" s="14">
+        <f>'Imperial Units'!F75</f>
+        <v>5.7</v>
+      </c>
+      <c r="G75" s="14">
+        <f>'Imperial Units'!G75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <f>'Imperial Units'!H75</f>
+        <v>3.1</v>
+      </c>
+      <c r="I75" s="13">
+        <f>'Imperial Units'!I75</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="13">
+        <f>'Imperial Units'!J75*0.45359237</f>
+        <v>203.20938176000001</v>
+      </c>
+      <c r="K75" s="13">
+        <f>'Imperial Units'!K75*0.45359237</f>
+        <v>219.53870708000002</v>
+      </c>
+      <c r="L75" s="13">
+        <f>'Imperial Units'!L75*0.45359237</f>
+        <v>317.06106663000003</v>
+      </c>
+      <c r="M75" s="14">
+        <f>'Imperial Units'!M75</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="12">
+        <f>'Imperial Units'!B76</f>
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="C76" s="13">
+        <f>'Imperial Units'!C76</f>
+        <v>37</v>
+      </c>
+      <c r="D76" s="13">
+        <f>'Imperial Units'!D76*0.3048</f>
+        <v>1697.7360000000001</v>
+      </c>
+      <c r="E76" s="13">
+        <f>'Imperial Units'!E76/0.514444</f>
+        <v>307.12769514271719</v>
+      </c>
+      <c r="F76" s="14">
+        <f>'Imperial Units'!F76</f>
+        <v>5.9</v>
+      </c>
+      <c r="G76" s="14">
+        <f>'Imperial Units'!G76</f>
+        <v>-0.6</v>
+      </c>
+      <c r="H76" s="14">
+        <f>'Imperial Units'!H76</f>
+        <v>3.1</v>
+      </c>
+      <c r="I76" s="13">
+        <f>'Imperial Units'!I76</f>
+        <v>-33</v>
+      </c>
+      <c r="J76" s="13">
+        <f>'Imperial Units'!J76*0.45359237</f>
+        <v>202.75578939000002</v>
+      </c>
+      <c r="K76" s="13">
+        <f>'Imperial Units'!K76*0.45359237</f>
+        <v>219.08511471</v>
+      </c>
+      <c r="L76" s="13">
+        <f>'Imperial Units'!L76*0.45359237</f>
+        <v>329.30806061999999</v>
+      </c>
+      <c r="M76" s="14">
+        <f>'Imperial Units'!M76</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="8">
+        <f>'Imperial Units'!D83</f>
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E83" s="8" t="str">
+        <f>'Imperial Units'!E83</f>
+        <v>Dutch Roll</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8">
+        <f>'Imperial Units'!G83</f>
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="H83" s="8" t="str">
+        <f>'Imperial Units'!H83</f>
+        <v>Aper. Roll</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8">
+        <f>'Imperial Units'!J83</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="8">
+        <f>'Imperial Units'!D84</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E84" s="8" t="str">
+        <f>'Imperial Units'!E84</f>
+        <v>Dutch Roll YD</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
+        <f>'Imperial Units'!G84</f>
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="H84" s="8" t="str">
+        <f>'Imperial Units'!H84</f>
+        <v xml:space="preserve">Spiral </v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8">
+        <f>'Imperial Units'!J84</f>
+        <v>3.6111111111111115E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30564960-F89A-439B-8E6A-F14473D2C8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -288,9 +288,6 @@
     <t>[kg]</t>
   </si>
   <si>
-    <t>Lift</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -323,17 +320,45 @@
   <si>
     <t>e</t>
   </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Assigment value</t>
+  </si>
+  <si>
+    <t>CL^2</t>
+  </si>
+  <si>
+    <t>OEW [kg]:</t>
+  </si>
+  <si>
+    <t>pax W [kg]:</t>
+  </si>
+  <si>
+    <t>lbs-kg</t>
+  </si>
+  <si>
+    <t>TAKE-OFF WEIGHT</t>
+  </si>
+  <si>
+    <t>Substract fuel [kg]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,16 +381,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,11 +434,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -399,13 +489,28 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,6 +910,503 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>CL - CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$S$28:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2216175016557923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3496505739740031E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6651164861071029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2613390514462628E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4099903457022128E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7097837419158349E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8386682072143845E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3301208723085525E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.009585658731935E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3887680307737106E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.914788131248011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3697841964277998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0739-4E87-BA35-9A1F20201B4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>CL - alpha</c:v>
           </c:tx>
           <c:spPr>
@@ -888,7 +1490,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D95-41AB-B55F-905DE84267D3}"/>
+              <c16:uniqueId val="{00000000-B811-4DC7-9247-01349E584C0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,503 +1833,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>CL - CD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Metric Units'!$R$28:$R$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.0230666837175869E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0362151202501514E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0684080169129458E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1288325036624177E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2436876416565503E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3712716797531775E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.8386682072143845E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3301208723085525E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.009585658731935E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3887680307737106E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.914788131248011E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3697841964277998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7945-49AE-B5D1-37433B5D1A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="755222975"/>
-        <c:axId val="661598095"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="755222975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>C</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>D</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>[-]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL" sz="1400">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="661598095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="661598095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" i="1">
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>C</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>L</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>[-]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755222975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1807,27 +1912,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$R$28:$R$33</c:f>
+              <c:f>'Metric Units'!$S$28:$S$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0230666837175869E-2</c:v>
+                  <c:v>4.2216175016557923E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0362151202501514E-2</c:v>
+                  <c:v>4.3496505739740031E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0684080169129458E-2</c:v>
+                  <c:v>4.6651164861071029E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1288325036624177E-2</c:v>
+                  <c:v>5.2613390514462628E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2436876416565503E-2</c:v>
+                  <c:v>6.4099903457022128E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3712716797531775E-2</c:v>
+                  <c:v>7.7097837419158349E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1940,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FABB-4967-AE4B-351A56165EC8}"/>
+              <c16:uniqueId val="{00000000-0BFE-46A1-A5FA-36B654C315FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2078,7 +2183,2413 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL^2 - CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$S$28:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2216175016557923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3496505739740031E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6651164861071029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2613390514462628E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4099903457022128E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7097837419158349E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$T$28:$T$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7002137767096719E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4156257179524079E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14106240020577471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26751331200897871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51112704276398835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78679601214205896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABEB-44A5-B46A-BB6112C3B19E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="30000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL - CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2377491582914923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6407176571454255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1018377690061076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8176015633290898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9380106058440343E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7290350831026291E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6107760231027826E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$R$59:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.51235750020238557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58989362693827274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66766156198440596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77303039075602054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4460264899510662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39321582917293663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35991319439458458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-667B-467A-880C-FA6A4D330E36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL - alpha</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$F$59:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$R$59:$R$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.51235750020238557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58989362693827274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66766156198440596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77303039075602054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4460264899510662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39321582917293663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35991319439458458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F5-4FDB-B960-EC1BD21E96AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CD - alpha</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$F$59:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2377491582914923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6407176571454255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1018377690061076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8176015633290898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9380106058440343E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7290350831026291E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6107760231027826E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EDA-4766-8AAF-987F062F1DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CL^2 - CD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2377491582914923E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6407176571454255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1018377690061076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8176015633290898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9380106058440343E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7290350831026291E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6107760231027826E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$T$59:$T$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26251020801363756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34797449110239009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44577196135145675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59757598503240583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19893962973806856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15461868831216008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12953750749931403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B07-45DE-8FD4-269F8E8643E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="30000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2291,6 +4802,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3324,6 +6035,2586 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3909,23 +9200,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>170814</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>439419</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C7704E-2274-4232-BF29-8DD10ECBACE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3583B0-BD4D-4E44-BDBA-17B2A9AED9B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,23 +9238,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>363220</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>633095</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>266247</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3D843A-BD66-4722-AEF9-109252FC0387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC8C164-D251-4F22-A88E-8FBD668ABE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,23 +9276,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>23495</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>58419</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>272416</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8ECB8D-B11B-450B-B97D-1A781146CB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DCBAEF-95E7-430E-B63C-F0BDB80391F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,6 +9307,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>271144</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89988</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8F27E5-18A3-483C-B704-0EC1F8CCA629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>273685</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A085C478-3319-4554-9CC5-82CC8B444AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>273867</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>89988</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5CEBC4-2BE6-4A99-8A2A-746048DFDCB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>272416</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>89988</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F40829D-8403-4F6F-8F25-715C97C20BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>274954</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA51A4D5-317D-4196-BC40-F50D3D42156F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4410,7 +9891,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4431,8 +9912,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>88</v>
+      <c r="D3" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -4443,7 +9924,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
@@ -4568,7 +10049,9 @@
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>4100</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
@@ -4651,7 +10134,10 @@
       <c r="B28" s="3">
         <v>0.65208333333333335</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3">
+        <f>B28-$B$28</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="2">
         <v>5020</v>
       </c>
@@ -4681,7 +10167,10 @@
       <c r="B29" s="3">
         <v>0.72152777777777777</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:C33" si="0">B29-$B$28</f>
+        <v>6.944444444444442E-2</v>
+      </c>
       <c r="D29" s="2">
         <v>5020</v>
       </c>
@@ -4711,7 +10200,10 @@
       <c r="B30" s="3">
         <v>0.80555555555555547</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15347222222222212</v>
+      </c>
       <c r="D30" s="2">
         <v>5020</v>
       </c>
@@ -4741,7 +10233,10 @@
       <c r="B31" s="3">
         <v>0.89722222222222225</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24513888888888891</v>
+      </c>
       <c r="D31" s="2">
         <v>5020</v>
       </c>
@@ -4771,7 +10266,10 @@
       <c r="B32" s="3">
         <v>0.95694444444444438</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30486111111111103</v>
+      </c>
       <c r="D32" s="2">
         <v>5010</v>
       </c>
@@ -4801,7 +10299,10 @@
       <c r="B33" s="6">
         <v>1.01875</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
+      </c>
       <c r="D33" s="2">
         <v>5020</v>
       </c>
@@ -5757,25 +11258,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF48" sqref="AF48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1015625" customWidth="1"/>
+    <col min="12" max="12" width="10.68359375" customWidth="1"/>
+    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O1" s="24"/>
+      <c r="P1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="19">
+        <v>300000</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0.45359237000000002</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="18">
+        <f>9165*$H$2</f>
+        <v>4157.1740710499998</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>P2*9.80665</f>
+        <v>40767.951103862477</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -5785,8 +11330,17 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="21"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="S3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="19">
+        <v>2.0569000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -5796,21 +11350,85 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="18">
+        <f>4100*$H$2</f>
+        <v>1859.7287170000002</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" ref="Q3:Q33" si="0">P4*9.80665</f>
+        <v>18237.70862256805</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="19">
+        <v>15.911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="21"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="19">
+        <f>T4^2/T2</f>
+        <v>8.4386640333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="16">
+        <f>D8</f>
+        <v>80</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="0"/>
+        <v>784.53199999999993</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="U6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7" s="21"/>
+      <c r="P7" s="16">
+        <f>D9</f>
+        <v>102</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="0"/>
+        <v>1000.2782999999999</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5818,12 +11436,21 @@
         <f>'Imperial Units'!$D8</f>
         <v>Chipke</v>
       </c>
-      <c r="G8">
+      <c r="D8">
         <f>'Imperial Units'!$H8</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8" s="21"/>
+      <c r="P8" s="16">
+        <f>D10</f>
+        <v>60</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="0"/>
+        <v>588.399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5831,12 +11458,21 @@
         <f>'Imperial Units'!$D9</f>
         <v>Hans</v>
       </c>
-      <c r="G9">
+      <c r="D9">
         <f>'Imperial Units'!$H9</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" s="21"/>
+      <c r="P9" s="16">
+        <f>D11</f>
+        <v>75</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="0"/>
+        <v>735.49874999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -5844,12 +11480,21 @@
         <f>'Imperial Units'!$D10</f>
         <v>Marta</v>
       </c>
-      <c r="G10">
+      <c r="D10">
         <f>'Imperial Units'!$H10</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" s="21"/>
+      <c r="P10" s="16">
+        <f>D12</f>
+        <v>83</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="0"/>
+        <v>813.9519499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5857,12 +11502,21 @@
         <f>'Imperial Units'!$D11</f>
         <v>Jari</v>
       </c>
-      <c r="G11">
+      <c r="D11">
         <f>'Imperial Units'!$H11</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="21"/>
+      <c r="P11" s="16">
+        <f>D13</f>
+        <v>66</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="0"/>
+        <v>647.23889999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5870,12 +11524,21 @@
         <f>'Imperial Units'!$D12</f>
         <v>Martin</v>
       </c>
-      <c r="G12">
+      <c r="D12">
         <f>'Imperial Units'!$H12</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="21"/>
+      <c r="P12" s="16">
+        <f>D14</f>
+        <v>89</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="0"/>
+        <v>872.79184999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5883,12 +11546,21 @@
         <f>'Imperial Units'!$D13</f>
         <v>Wessel</v>
       </c>
-      <c r="G13">
+      <c r="D13">
         <f>'Imperial Units'!$H13</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O13" s="21"/>
+      <c r="P13" s="16">
+        <f>D15</f>
+        <v>85</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="0"/>
+        <v>833.56524999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5896,12 +11568,21 @@
         <f>'Imperial Units'!$D14</f>
         <v>Simon</v>
       </c>
-      <c r="G14">
+      <c r="D14">
         <f>'Imperial Units'!$H14</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14" s="21"/>
+      <c r="P14" s="16">
+        <f>D16</f>
+        <v>90</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="0"/>
+        <v>882.59849999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5909,12 +11590,15 @@
         <f>'Imperial Units'!$D15</f>
         <v>Niek</v>
       </c>
-      <c r="G15">
+      <c r="D15">
         <f>'Imperial Units'!$H15</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O15" s="22"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5922,84 +11606,73 @@
         <f>'Imperial Units'!$D16</f>
         <v>Julian</v>
       </c>
-      <c r="G16">
+      <c r="D16">
         <f>'Imperial Units'!$H16</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18">
-        <v>50000</v>
-      </c>
-      <c r="O18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="O19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="O20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20">
-        <v>2.0569000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="20">
+        <f>SUM(P2:P15)</f>
+        <v>6746.9027880499998</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="0"/>
+        <v>66164.514226430532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O17" s="21"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="15"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" s="21"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20" s="21"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O21" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21">
-        <v>15.911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="O22" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22">
-        <f>P21^2/P19</f>
-        <v>8.4386640333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O21" s="21"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O22" s="21"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="O23" t="s">
-        <v>94</v>
-      </c>
-      <c r="P23">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="O24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O23" s="21"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O24" s="21"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6030,8 +11703,14 @@
       <c r="J25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -6059,19 +11738,25 @@
       <c r="J26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="P27" t="s">
+      <c r="O26" s="21"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O27" s="21"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" t="s">
-        <v>85</v>
-      </c>
-      <c r="R27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6088,8 +11773,8 @@
         <v>1530.096</v>
       </c>
       <c r="E28" s="9">
-        <f>'Imperial Units'!E28/0.514444</f>
-        <v>482.07385060375861</v>
+        <f>'Imperial Units'!E28*0.514444</f>
+        <v>127.58211200000001</v>
       </c>
       <c r="F28" s="10">
         <f>'Imperial Units'!F28</f>
@@ -6111,20 +11796,35 @@
         <f>'Imperial Units'!J28</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="P28" s="9">
-        <f>P18-I28*9.81</f>
-        <v>298678.42687853909</v>
-      </c>
-      <c r="Q28" s="11">
-        <f>2*P28/(1.225*E28^2*$P$19)</f>
-        <v>6.9943821752081081E-2</v>
-      </c>
-      <c r="R28" s="11">
-        <f>$P$23+Q28^2/(PI()*$P$22*$P$24)</f>
-        <v>4.0230666837175869E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="9">
+        <f>E28/SQRT(1.4*287*(J28+273.15))</f>
+        <v>0.37811439589565582</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="18">
+        <f>$P$16-I28</f>
+        <v>6612.1858541599995</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="0"/>
+        <v>64843.392406698156</v>
+      </c>
+      <c r="R28" s="27">
+        <f>2*Q28/(1.225*E28^2*$T$2)</f>
+        <v>0.21679976422288083</v>
+      </c>
+      <c r="S28" s="27">
+        <f>$T$6+R28^2/(PI()*$T$5*$T$7)</f>
+        <v>4.2216175016557923E-2</v>
+      </c>
+      <c r="T28" s="28">
+        <f>R28^2</f>
+        <v>4.7002137767096719E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6133,7 +11833,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="0">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="1">B29-$B$28</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="D29" s="9">
@@ -6141,8 +11841,8 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="9">
-        <f>'Imperial Units'!E29/0.514444</f>
-        <v>429.59000396544616</v>
+        <f>'Imperial Units'!E29*0.514444</f>
+        <v>113.69212400000001</v>
       </c>
       <c r="F29" s="10">
         <f>'Imperial Units'!F29</f>
@@ -6164,20 +11864,35 @@
         <f>'Imperial Units'!J29</f>
         <v>8.5</v>
       </c>
-      <c r="P29" s="9">
-        <f>P28-I29*9.81</f>
-        <v>297192.21333453926</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" ref="Q29:Q33" si="1">2*P29/(1.225*E29^2*$P$19)</f>
-        <v>8.7639873901786611E-2</v>
-      </c>
-      <c r="R29" s="11">
-        <f t="shared" ref="R29:R33" si="2">$P$23+Q29^2/(PI()*$P$22*$P$24)</f>
-        <v>4.0362151202501514E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="9">
+        <f t="shared" ref="K29:K33" si="2">E29/SQRT(1.4*287*(J29+273.15))</f>
+        <v>0.3379640735189966</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" ref="P29:P33" si="3">$P$16-I29</f>
+        <v>6595.40293647</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="0"/>
+        <v>64678.808206933521</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" ref="R29:R33" si="4">2*Q29/(1.225*E29^2*$T$2)</f>
+        <v>0.27231646512747643</v>
+      </c>
+      <c r="S29" s="27">
+        <f>$T$6+R29^2/(PI()*$T$5*$T$7)</f>
+        <v>4.3496505739740031E-2</v>
+      </c>
+      <c r="T29" s="28">
+        <f t="shared" ref="T29:T33" si="5">R29^2</f>
+        <v>7.4156257179524079E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6186,7 +11901,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15347222222222212</v>
       </c>
       <c r="D30" s="9">
@@ -6194,8 +11909,8 @@
         <v>1530.096</v>
       </c>
       <c r="E30" s="9">
-        <f>'Imperial Units'!E30/0.514444</f>
-        <v>365.44308029639768</v>
+        <f>'Imperial Units'!E30*0.514444</f>
+        <v>96.715472000000005</v>
       </c>
       <c r="F30" s="10">
         <f>'Imperial Units'!F30</f>
@@ -6217,20 +11932,35 @@
         <f>'Imperial Units'!J30</f>
         <v>6.8</v>
       </c>
-      <c r="P30" s="9">
-        <f t="shared" ref="P30:P33" si="3">P29-I30*9.81</f>
-        <v>295581.40703834785</v>
-      </c>
-      <c r="Q30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.12045096358498925</v>
-      </c>
-      <c r="R30" s="11">
+      <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>4.0684080169129458E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28837044891924335</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="3"/>
+        <v>6582.7023501100002</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="0"/>
+        <v>64554.258001706228</v>
+      </c>
+      <c r="R30" s="27">
+        <f t="shared" si="4"/>
+        <v>0.37558274748152998</v>
+      </c>
+      <c r="S30" s="27">
+        <f>$T$6+R30^2/(PI()*$T$5*$T$7)</f>
+        <v>4.6651164861071029E-2</v>
+      </c>
+      <c r="T30" s="28">
+        <f t="shared" si="5"/>
+        <v>0.14106240020577471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6239,7 +11969,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24513888888888891</v>
       </c>
       <c r="D31" s="9">
@@ -6247,8 +11977,8 @@
         <v>1530.096</v>
       </c>
       <c r="E31" s="9">
-        <f>'Imperial Units'!E31/0.514444</f>
-        <v>311.01538748629588</v>
+        <f>'Imperial Units'!E31*0.514444</f>
+        <v>82.311040000000006</v>
       </c>
       <c r="F31" s="10">
         <f>'Imperial Units'!F31</f>
@@ -6270,20 +12000,35 @@
         <f>'Imperial Units'!J31</f>
         <v>5.2</v>
       </c>
-      <c r="P31" s="9">
+      <c r="K31" s="9">
+        <f t="shared" si="2"/>
+        <v>0.24612600925785433</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" s="18">
         <f t="shared" si="3"/>
-        <v>293805.96031961753</v>
-      </c>
-      <c r="Q31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.165298724180302</v>
-      </c>
-      <c r="R31" s="11">
-        <f t="shared" si="2"/>
-        <v>4.1288325036624177E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>6565.9194324199998</v>
+      </c>
+      <c r="Q31" s="18">
+        <f t="shared" si="0"/>
+        <v>64389.673801941586</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="4"/>
+        <v>0.51721689068414878</v>
+      </c>
+      <c r="S31" s="27">
+        <f>$T$6+R31^2/(PI()*$T$5*$T$7)</f>
+        <v>5.2613390514462628E-2</v>
+      </c>
+      <c r="T31" s="28">
+        <f t="shared" si="5"/>
+        <v>0.26751331200897871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6292,7 +12037,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30486111111111103</v>
       </c>
       <c r="D32" s="9">
@@ -6300,8 +12045,8 @@
         <v>1527.048</v>
       </c>
       <c r="E32" s="9">
-        <f>'Imperial Units'!E32/0.514444</f>
-        <v>264.36307936335152</v>
+        <f>'Imperial Units'!E32*0.514444</f>
+        <v>69.964383999999995</v>
       </c>
       <c r="F32" s="10">
         <f>'Imperial Units'!F32</f>
@@ -6323,28 +12068,43 @@
         <f>'Imperial Units'!J32</f>
         <v>4</v>
       </c>
-      <c r="P32" s="9">
+      <c r="K32" s="9">
+        <f t="shared" si="2"/>
+        <v>0.209659529607583</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" s="18">
         <f t="shared" si="3"/>
-        <v>291945.96851904294</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" si="1"/>
-        <v>0.2273387829667767</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" si="2"/>
-        <v>4.2436876416565503E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>6557.3011773899998</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="0"/>
+        <v>64305.157591251635</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="4"/>
+        <v>0.71493149515459753</v>
+      </c>
+      <c r="S32" s="27">
+        <f>$T$6+R32^2/(PI()*$T$5*$T$7)</f>
+        <v>6.4099903457022128E-2</v>
+      </c>
+      <c r="T32" s="28">
+        <f t="shared" si="5"/>
+        <v>0.51112704276398835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>2.0187499999999998</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="D33" s="9">
@@ -6352,8 +12112,8 @@
         <v>1530.096</v>
       </c>
       <c r="E33" s="9">
-        <f>'Imperial Units'!E33/0.514444</f>
-        <v>237.14923295830062</v>
+        <f>'Imperial Units'!E33*0.514444</f>
+        <v>62.762168000000003</v>
       </c>
       <c r="F33" s="10">
         <f>'Imperial Units'!F33</f>
@@ -6375,41 +12135,83 @@
         <f>'Imperial Units'!J33</f>
         <v>3.8</v>
       </c>
-      <c r="P33" s="9">
+      <c r="K33" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18814482878273514</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" s="18">
         <f t="shared" si="3"/>
-        <v>289983.63267202524</v>
-      </c>
-      <c r="Q33" s="11">
-        <f t="shared" si="1"/>
-        <v>0.28060970660384815</v>
-      </c>
-      <c r="R33" s="11">
-        <f t="shared" si="2"/>
-        <v>4.3712716797531775E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>6546.8685528799997</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="0"/>
+        <v>64202.848494100646</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" si="4"/>
+        <v>0.88701522655592502</v>
+      </c>
+      <c r="S33" s="27">
+        <f>$T$6+R33^2/(PI()*$T$5*$T$7)</f>
+        <v>7.7097837419158349E-2</v>
+      </c>
+      <c r="T33" s="28">
+        <f t="shared" si="5"/>
+        <v>0.78679601214205896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O34" s="21"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O35" s="21"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O36" s="21"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O38" s="21"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O39" s="21"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O40" s="21"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -6440,8 +12242,11 @@
       <c r="J41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O41" s="21"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -6469,8 +12274,16 @@
       <c r="J42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O42" s="21"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O43" s="21"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6510,8 +12323,11 @@
         <f>'Imperial Units'!J44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O44" s="21"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2</v>
       </c>
@@ -6520,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" ref="C45:C49" si="4">B45-$B$28</f>
+        <f t="shared" ref="C45:C49" si="6">B45-$B$28</f>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D45" s="9">
@@ -6551,8 +12367,11 @@
         <f>'Imperial Units'!J45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O45" s="21"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>3</v>
       </c>
@@ -6561,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D46" s="9">
@@ -6592,8 +12411,11 @@
         <f>'Imperial Units'!J46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O46" s="21"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>4</v>
       </c>
@@ -6602,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D47" s="9">
@@ -6633,8 +12455,11 @@
         <f>'Imperial Units'!J47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O47" s="21"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5</v>
       </c>
@@ -6643,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D48" s="9">
@@ -6674,14 +12499,17 @@
         <f>'Imperial Units'!J48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O48" s="21"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D49" s="9">
@@ -6712,27 +12540,54 @@
         <f>'Imperial Units'!J49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O49" s="21"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50" s="8"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O50" s="21"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O51" s="21"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O52" s="21"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O53" s="21"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O54" s="21"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O55" s="21"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6772,8 +12627,11 @@
       <c r="M56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O56" s="21"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>58</v>
       </c>
@@ -6810,394 +12668,632 @@
       <c r="M57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O57" s="21"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="O58" s="21"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <f>'Imperial Units'!B59</f>
         <v>2.013888888888889E-2</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="12">
         <f>'Imperial Units'!C59</f>
         <v>25</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <f>'Imperial Units'!D59*0.3048</f>
         <v>1990.3440000000001</v>
       </c>
-      <c r="E59" s="13">
-        <f>'Imperial Units'!E59/0.514444</f>
-        <v>311.01538748629588</v>
-      </c>
-      <c r="F59" s="14">
+      <c r="E59" s="12">
+        <f>'Imperial Units'!E59*0.514444</f>
+        <v>82.311040000000006</v>
+      </c>
+      <c r="F59" s="13">
         <f>'Imperial Units'!F59</f>
         <v>5.5</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <f>'Imperial Units'!G59</f>
         <v>-0.1</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <f>'Imperial Units'!H59</f>
         <v>3.1</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <f>'Imperial Units'!I59</f>
         <v>-1</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="12">
         <f>'Imperial Units'!J59*0.45359237</f>
         <v>200.48782754000001</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="12">
         <f>'Imperial Units'!K59*0.45359237</f>
         <v>217.27074523000002</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="12">
         <f>'Imperial Units'!L59*0.45359237</f>
         <v>242.67191795000002</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="13">
         <f>'Imperial Units'!M59</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N59" s="9">
+        <f>E59/SQRT(1.4*287*(J28+273.15))</f>
+        <v>0.24394477154558439</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" s="18">
+        <f>$P$16-L59</f>
+        <v>6504.2308701000002</v>
+      </c>
+      <c r="Q59" s="18">
+        <f t="shared" ref="Q59:Q65" si="7">P59*9.80665</f>
+        <v>63784.715662266164</v>
+      </c>
+      <c r="R59" s="29">
+        <f>2*Q59/(1.225*E59^2*$T$2)</f>
+        <v>0.51235750020238557</v>
+      </c>
+      <c r="S59" s="29">
+        <f>$T$6+R59^2/(PI()*$T$5*$T$7)</f>
+        <v>5.2377491582914923E-2</v>
+      </c>
+      <c r="T59" s="30">
+        <f>R59^2</f>
+        <v>0.26251020801363756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <f>'Imperial Units'!B60</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="12">
         <f>'Imperial Units'!C60</f>
         <v>35</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <f>'Imperial Units'!D60*0.3048</f>
         <v>2045.2080000000001</v>
       </c>
-      <c r="E60" s="13">
-        <f>'Imperial Units'!E60/0.514444</f>
-        <v>289.63307959661302</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="E60" s="12">
+        <f>'Imperial Units'!E60*0.514444</f>
+        <v>76.652156000000005</v>
+      </c>
+      <c r="F60" s="13">
         <f>'Imperial Units'!F60</f>
         <v>6.5</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <f>'Imperial Units'!G60</f>
         <v>-0.4</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <f>'Imperial Units'!H60</f>
         <v>3.1</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="12">
         <f>'Imperial Units'!I60</f>
         <v>-25</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="12">
         <f>'Imperial Units'!J60*0.45359237</f>
         <v>198.67345806</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="12">
         <f>'Imperial Units'!K60*0.45359237</f>
         <v>215.45637575000001</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="12">
         <f>'Imperial Units'!L60*0.45359237</f>
         <v>252.65095009000001</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="13">
         <f>'Imperial Units'!M60</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="9">
+        <f t="shared" ref="N60:N65" si="8">E60/SQRT(1.4*287*(J29+273.15))</f>
+        <v>0.22785813101507013</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" s="18">
+        <f t="shared" ref="P60:P65" si="9">$P$16-L60</f>
+        <v>6494.2518379599996</v>
+      </c>
+      <c r="Q60" s="18">
+        <f t="shared" si="7"/>
+        <v>63686.85478673043</v>
+      </c>
+      <c r="R60" s="29">
+        <f t="shared" ref="R60:R64" si="10">2*Q60/(1.225*E60^2*$T$2)</f>
+        <v>0.58989362693827274</v>
+      </c>
+      <c r="S60" s="29">
+        <f>$T$6+R60^2/(PI()*$T$5*$T$7)</f>
+        <v>5.6407176571454255E-2</v>
+      </c>
+      <c r="T60" s="30">
+        <f t="shared" ref="T60:T64" si="11">R60^2</f>
+        <v>0.34797449110239009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <f>'Imperial Units'!B61</f>
         <v>2.1527777777777781E-2</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="12">
         <f>'Imperial Units'!C61</f>
         <v>28</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <f>'Imperial Units'!D61*0.3048</f>
         <v>2097.0239999999999</v>
       </c>
-      <c r="E61" s="13">
-        <f>'Imperial Units'!E61/0.514444</f>
-        <v>272.1384640505089</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="E61" s="12">
+        <f>'Imperial Units'!E61*0.514444</f>
+        <v>72.02216</v>
+      </c>
+      <c r="F61" s="13">
         <f>'Imperial Units'!F61</f>
         <v>7.5</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <f>'Imperial Units'!G61</f>
         <v>-0.9</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <f>'Imperial Units'!H61</f>
         <v>3.1</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="12">
         <f>'Imperial Units'!I61</f>
         <v>-39</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="12">
         <f>'Imperial Units'!J61*0.45359237</f>
         <v>196.85908858000002</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="12">
         <f>'Imperial Units'!K61*0.45359237</f>
         <v>213.64200627000002</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="12">
         <f>'Imperial Units'!L61*0.45359237</f>
         <v>257.64046616000002</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="13">
         <f>'Imperial Units'!M61</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N61" s="9">
+        <f t="shared" si="8"/>
+        <v>0.21474395132284077</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" s="18">
+        <f t="shared" si="9"/>
+        <v>6489.2623218899998</v>
+      </c>
+      <c r="Q61" s="18">
+        <f t="shared" si="7"/>
+        <v>63637.924348962566</v>
+      </c>
+      <c r="R61" s="29">
+        <f t="shared" si="10"/>
+        <v>0.66766156198440596</v>
+      </c>
+      <c r="S61" s="29">
+        <f>$T$6+R61^2/(PI()*$T$5*$T$7)</f>
+        <v>6.1018377690061076E-2</v>
+      </c>
+      <c r="T61" s="30">
+        <f t="shared" si="11"/>
+        <v>0.44577196135145675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <f>'Imperial Units'!B62</f>
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="12">
         <f>'Imperial Units'!C62</f>
         <v>17</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <f>'Imperial Units'!D62*0.3048</f>
         <v>2179.3200000000002</v>
       </c>
-      <c r="E62" s="13">
-        <f>'Imperial Units'!E62/0.514444</f>
-        <v>252.70000233261541</v>
-      </c>
-      <c r="F62" s="14">
+      <c r="E62" s="12">
+        <f>'Imperial Units'!E62*0.514444</f>
+        <v>66.877719999999997</v>
+      </c>
+      <c r="F62" s="13">
         <f>'Imperial Units'!F62</f>
         <v>9.1</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <f>'Imperial Units'!G62</f>
         <v>-1.5</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <f>'Imperial Units'!H62</f>
         <v>3.1</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <f>'Imperial Units'!I62</f>
         <v>-50</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="12">
         <f>'Imperial Units'!J62*0.45359237</f>
         <v>195.04471910000001</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="12">
         <f>'Imperial Units'!K62*0.45359237</f>
         <v>211.37404442000002</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="12">
         <f>'Imperial Units'!L62*0.45359237</f>
         <v>268.52668304000002</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M62" s="13">
         <f>'Imperial Units'!M62</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N62" s="9">
+        <f t="shared" si="8"/>
+        <v>0.19997738252200661</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P62" s="18">
+        <f t="shared" si="9"/>
+        <v>6478.3761050100002</v>
+      </c>
+      <c r="Q62" s="18">
+        <f t="shared" si="7"/>
+        <v>63531.167030196317</v>
+      </c>
+      <c r="R62" s="29">
+        <f t="shared" si="10"/>
+        <v>0.77303039075602054</v>
+      </c>
+      <c r="S62" s="29">
+        <f>$T$6+R62^2/(PI()*$T$5*$T$7)</f>
+        <v>6.8176015633290898E-2</v>
+      </c>
+      <c r="T62" s="30">
+        <f t="shared" si="11"/>
+        <v>0.59757598503240583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>5</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <f>'Imperial Units'!B63</f>
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <f>'Imperial Units'!C63</f>
         <v>50</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <f>'Imperial Units'!D63*0.3048</f>
         <v>1959.864</v>
       </c>
-      <c r="E63" s="13">
-        <f>'Imperial Units'!E63/0.514444</f>
-        <v>332.39769537597874</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E63" s="12">
+        <f>'Imperial Units'!E63*0.514444</f>
+        <v>87.969924000000006</v>
+      </c>
+      <c r="F63" s="13">
         <f>'Imperial Units'!F63</f>
         <v>4.8</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <f>'Imperial Units'!G63</f>
         <v>0.3</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <f>'Imperial Units'!H63</f>
         <v>3.1</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <f>'Imperial Units'!I63</f>
         <v>29</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="12">
         <f>'Imperial Units'!J63*0.45359237</f>
         <v>202.30219702000002</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="12">
         <f>'Imperial Units'!K63*0.45359237</f>
         <v>219.08511471</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="12">
         <f>'Imperial Units'!L63*0.45359237</f>
         <v>279.41289992000003</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="13">
         <f>'Imperial Units'!M63</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N63" s="9">
+        <f t="shared" si="8"/>
+        <v>0.26361602619776986</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P63" s="18">
+        <f t="shared" si="9"/>
+        <v>6467.4898881299996</v>
+      </c>
+      <c r="Q63" s="18">
+        <f t="shared" si="7"/>
+        <v>63424.40971143006</v>
+      </c>
+      <c r="R63" s="29">
+        <f t="shared" si="10"/>
+        <v>0.4460264899510662</v>
+      </c>
+      <c r="S63" s="29">
+        <f>$T$6+R63^2/(PI()*$T$5*$T$7)</f>
+        <v>4.9380106058440343E-2</v>
+      </c>
+      <c r="T63" s="30">
+        <f t="shared" si="11"/>
+        <v>0.19893962973806856</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f>'Imperial Units'!B64</f>
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="12">
         <f>'Imperial Units'!C64</f>
         <v>36</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <f>'Imperial Units'!D64*0.3048</f>
         <v>1813.5600000000002</v>
       </c>
-      <c r="E64" s="13">
-        <f>'Imperial Units'!E64/0.514444</f>
-        <v>353.78000326566155</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="E64" s="12">
+        <f>'Imperial Units'!E64*0.514444</f>
+        <v>93.628808000000006</v>
+      </c>
+      <c r="F64" s="13">
         <f>'Imperial Units'!F64</f>
         <v>4</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <f>'Imperial Units'!G64</f>
         <v>0.6</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <f>'Imperial Units'!H64</f>
         <v>3.1</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="12">
         <f>'Imperial Units'!I64</f>
         <v>43</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="12">
         <f>'Imperial Units'!J64*0.45359237</f>
         <v>206.38452835000001</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="12">
         <f>'Imperial Units'!K64*0.45359237</f>
         <v>222.71385367000002</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="12">
         <f>'Imperial Units'!L64*0.45359237</f>
         <v>288.03115495000003</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="13">
         <f>'Imperial Units'!M64</f>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N64" s="9">
+        <f t="shared" si="8"/>
+        <v>0.28067507244637535</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" s="18">
+        <f t="shared" si="9"/>
+        <v>6458.8716330999996</v>
+      </c>
+      <c r="Q64" s="18">
+        <f t="shared" si="7"/>
+        <v>63339.893500740109</v>
+      </c>
+      <c r="R64" s="29">
+        <f t="shared" si="10"/>
+        <v>0.39321582917293663</v>
+      </c>
+      <c r="S64" s="29">
+        <f>$T$6+R64^2/(PI()*$T$5*$T$7)</f>
+        <v>4.7290350831026291E-2</v>
+      </c>
+      <c r="T64" s="30">
+        <f t="shared" si="11"/>
+        <v>0.15461868831216008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <f>'Imperial Units'!B65</f>
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <f>'Imperial Units'!C65</f>
         <v>10</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <f>'Imperial Units'!D65*0.3048</f>
         <v>1542.288</v>
       </c>
-      <c r="E65" s="13">
-        <f>'Imperial Units'!E65/0.514444</f>
-        <v>369.33077263997637</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="E65" s="12">
+        <f>'Imperial Units'!E65*0.514444</f>
+        <v>97.74436</v>
+      </c>
+      <c r="F65" s="13">
         <f>'Imperial Units'!F65</f>
         <v>3.6</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <f>'Imperial Units'!G65</f>
         <v>0.9</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <f>'Imperial Units'!H65</f>
         <v>3.1</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="12">
         <f>'Imperial Units'!I65</f>
         <v>79</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="12">
         <f>'Imperial Units'!J65*0.45359237</f>
         <v>211.37404442000002</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="12">
         <f>'Imperial Units'!K65*0.45359237</f>
         <v>228.61055448000002</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="12">
         <f>'Imperial Units'!L65*0.45359237</f>
         <v>303.90688790000002</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="13">
         <f>'Imperial Units'!M65</f>
         <v>6.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N65" s="9">
+        <f t="shared" si="8"/>
+        <v>0.29504355938219456</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" s="18">
+        <f t="shared" si="9"/>
+        <v>6442.9959001500001</v>
+      </c>
+      <c r="Q65" s="18">
+        <f t="shared" si="7"/>
+        <v>63184.205744205996</v>
+      </c>
+      <c r="R65" s="29">
+        <f t="shared" ref="R65" si="12">2*Q65/(1.225*E65^2*$T$2)</f>
+        <v>0.35991319439458458</v>
+      </c>
+      <c r="S65" s="29">
+        <f>$T$6+R65^2/(PI()*$T$5*$T$7)</f>
+        <v>4.6107760231027826E-2</v>
+      </c>
+      <c r="T65" s="30">
+        <f t="shared" ref="T65" si="13">R65^2</f>
+        <v>0.12953750749931403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N66" s="9"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N67" s="9"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N68" s="9"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N69" s="9"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N70" s="9"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
@@ -7208,8 +13304,24 @@
       <c r="G71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N71" s="9"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="N72" s="9"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -7249,8 +13361,15 @@
       <c r="M73" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N73" s="9"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>58</v>
       </c>
@@ -7287,114 +13406,175 @@
       <c r="M74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N74" s="9"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <f>'Imperial Units'!B75</f>
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <f>'Imperial Units'!C75</f>
         <v>55</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="12">
         <f>'Imperial Units'!D75*0.3048</f>
         <v>1676.4</v>
       </c>
-      <c r="E75" s="13">
-        <f>'Imperial Units'!E75/0.514444</f>
-        <v>309.07154131450653</v>
-      </c>
-      <c r="F75" s="14">
+      <c r="E75" s="12">
+        <f>'Imperial Units'!E75*0.514444</f>
+        <v>81.796596000000008</v>
+      </c>
+      <c r="F75" s="13">
         <f>'Imperial Units'!F75</f>
         <v>5.7</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="13">
         <f>'Imperial Units'!G75</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <f>'Imperial Units'!H75</f>
         <v>3.1</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="12">
         <f>'Imperial Units'!I75</f>
         <v>0</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="12">
         <f>'Imperial Units'!J75*0.45359237</f>
         <v>203.20938176000001</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="12">
         <f>'Imperial Units'!K75*0.45359237</f>
         <v>219.53870708000002</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="12">
         <f>'Imperial Units'!L75*0.45359237</f>
         <v>317.06106663000003</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="13">
         <f>'Imperial Units'!M75</f>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N75" s="9">
+        <f t="shared" ref="N75:N76" si="14">E75/SQRT(1.4*287*(J44+273.15))</f>
+        <v>0.24690487337773126</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P75" s="18">
+        <f t="shared" ref="P75" si="15">$P$16-L75</f>
+        <v>6429.8417214199999</v>
+      </c>
+      <c r="Q75" s="18">
+        <f t="shared" ref="Q75:Q76" si="16">P75*9.80665</f>
+        <v>63055.207317363442</v>
+      </c>
+      <c r="R75" s="29">
+        <f t="shared" ref="R75:R76" si="17">2*Q75/(1.225*E75^2*$T$2)</f>
+        <v>0.51288872127463514</v>
+      </c>
+      <c r="S75" s="29">
+        <f>$T$6+R75^2/(PI()*$T$5*$T$7)</f>
+        <v>5.2403171281094313E-2</v>
+      </c>
+      <c r="T75" s="30">
+        <f t="shared" ref="T75:T76" si="18">R75^2</f>
+        <v>0.26305484041073035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <f>'Imperial Units'!B76</f>
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="12">
         <f>'Imperial Units'!C76</f>
         <v>37</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <f>'Imperial Units'!D76*0.3048</f>
         <v>1697.7360000000001</v>
       </c>
-      <c r="E76" s="13">
-        <f>'Imperial Units'!E76/0.514444</f>
-        <v>307.12769514271719</v>
-      </c>
-      <c r="F76" s="14">
+      <c r="E76" s="12">
+        <f>'Imperial Units'!E76*0.514444</f>
+        <v>81.282151999999996</v>
+      </c>
+      <c r="F76" s="13">
         <f>'Imperial Units'!F76</f>
         <v>5.9</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <f>'Imperial Units'!G76</f>
         <v>-0.6</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <f>'Imperial Units'!H76</f>
         <v>3.1</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="12">
         <f>'Imperial Units'!I76</f>
         <v>-33</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="12">
         <f>'Imperial Units'!J76*0.45359237</f>
         <v>202.75578939000002</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="12">
         <f>'Imperial Units'!K76*0.45359237</f>
         <v>219.08511471</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="12">
         <f>'Imperial Units'!L76*0.45359237</f>
         <v>329.30806061999999</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M76" s="13">
         <f>'Imperial Units'!M76</f>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="N76" s="9">
+        <f t="shared" si="14"/>
+        <v>0.24535201253887759</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P76" s="18">
+        <f t="shared" ref="P76" si="19">$P$16-L76</f>
+        <v>6417.5947274299997</v>
+      </c>
+      <c r="Q76" s="18">
+        <f t="shared" si="16"/>
+        <v>62935.105333751402</v>
+      </c>
+      <c r="R76" s="29">
+        <f t="shared" si="17"/>
+        <v>0.5184122185962482</v>
+      </c>
+      <c r="S76" s="29">
+        <f>$T$6+R76^2/(PI()*$T$5*$T$7)</f>
+        <v>5.2671758909737437E-2</v>
+      </c>
+      <c r="T76" s="30">
+        <f t="shared" si="18"/>
+        <v>0.26875122838988424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
@@ -7476,6 +13656,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/088ac5db3e9756e7/Documents/MATLAB/31/B31/Testflightdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25E8A786-7441-444D-8C99-FB49118896D8}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1900" windowWidth="30470" windowHeight="17170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -507,8 +507,8 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -969,24 +969,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.8386682072143845E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3301208723085525E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.009585658731935E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3887680307737106E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.914788131248011E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3697841964277998E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1440,22 +1422,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,24 +1448,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.8386682072143845E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3301208723085525E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.009585658731935E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3887680307737106E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.914788131248011E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3697841964277998E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1890,22 +1854,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9514,51 +9478,33 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="28">
-          <cell r="F28">
-            <v>1.8</v>
-          </cell>
-          <cell r="Q28">
-            <v>5.8386682072143845E-3</v>
+          <cell r="F28" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="F29">
-            <v>2.5</v>
-          </cell>
-          <cell r="Q29">
-            <v>7.3301208723085525E-3</v>
+          <cell r="F29" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="F30">
-            <v>3.9</v>
-          </cell>
-          <cell r="Q30">
-            <v>1.009585658731935E-2</v>
+          <cell r="F30" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="F31">
-            <v>5.7</v>
-          </cell>
-          <cell r="Q31">
-            <v>1.3887680307737106E-2</v>
+          <cell r="F31" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="F32">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="Q32">
-            <v>1.914788131248011E-2</v>
+          <cell r="F32" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="F33">
-            <v>10.3</v>
-          </cell>
-          <cell r="Q33">
-            <v>2.3697841964277998E-2</v>
+          <cell r="F33" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
       </sheetData>
@@ -9894,21 +9840,21 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.15625" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9920,7 +9866,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9932,13 +9878,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -9946,7 +9892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -9957,7 +9903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -9968,7 +9914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -9979,7 +9925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -9990,7 +9936,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -10001,7 +9947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -10012,7 +9958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -10023,7 +9969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -10034,7 +9980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -10045,7 +9991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -10053,12 +9999,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -10066,7 +10012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -10098,7 +10044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -10127,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -10160,7 +10106,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10193,7 +10139,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10226,7 +10172,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10259,7 +10205,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -10292,7 +10238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10325,7 +10271,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10339,23 +10285,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -10387,7 +10333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -10416,7 +10362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -10430,7 +10376,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -10444,7 +10390,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10458,7 +10404,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4</v>
       </c>
@@ -10472,7 +10418,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -10486,7 +10432,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -10500,7 +10446,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7</v>
       </c>
@@ -10514,17 +10460,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -10532,7 +10478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -10573,7 +10519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -10611,7 +10557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -10652,7 +10598,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -10693,7 +10639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3</v>
       </c>
@@ -10734,7 +10680,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4</v>
       </c>
@@ -10775,7 +10721,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -10816,7 +10762,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6</v>
       </c>
@@ -10857,7 +10803,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7</v>
       </c>
@@ -10898,17 +10844,17 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -10916,7 +10862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -10930,7 +10876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -10971,7 +10917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -11009,7 +10955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -11050,7 +10996,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2</v>
       </c>
@@ -11091,17 +11037,17 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -11112,7 +11058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -11123,7 +11069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -11143,7 +11089,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -11261,20 +11207,20 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1015625" customWidth="1"/>
-    <col min="12" max="12" width="10.68359375" customWidth="1"/>
-    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -11295,7 +11241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
         <v>100</v>
       </c>
@@ -11320,7 +11266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -11340,7 +11286,7 @@
         <v>2.0569000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -11358,7 +11304,7 @@
         <v>1859.7287170000002</v>
       </c>
       <c r="Q4" s="18">
-        <f t="shared" ref="Q3:Q33" si="0">P4*9.80665</f>
+        <f t="shared" ref="Q4:Q33" si="0">P4*9.80665</f>
         <v>18237.70862256805</v>
       </c>
       <c r="S4" s="19" t="s">
@@ -11368,7 +11314,7 @@
         <v>15.911</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O5" s="21"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="18"/>
@@ -11380,7 +11326,7 @@
         <v>8.4386640333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11388,7 +11334,7 @@
         <v>99</v>
       </c>
       <c r="P6" s="16">
-        <f>D8</f>
+        <f t="shared" ref="P6:P14" si="1">D8</f>
         <v>80</v>
       </c>
       <c r="Q6" s="18">
@@ -11405,13 +11351,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="16">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="Q7" s="18">
@@ -11428,7 +11374,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -11442,7 +11388,7 @@
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="16">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q8" s="18">
@@ -11450,7 +11396,7 @@
         <v>588.399</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -11464,7 +11410,7 @@
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="16">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="Q9" s="18">
@@ -11472,7 +11418,7 @@
         <v>735.49874999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -11486,7 +11432,7 @@
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="16">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="Q10" s="18">
@@ -11494,7 +11440,7 @@
         <v>813.9519499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -11508,7 +11454,7 @@
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="16">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="Q11" s="18">
@@ -11516,7 +11462,7 @@
         <v>647.23889999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11530,7 +11476,7 @@
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="16">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="Q12" s="18">
@@ -11538,7 +11484,7 @@
         <v>872.79184999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -11552,7 +11498,7 @@
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="16">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="Q13" s="18">
@@ -11560,7 +11506,7 @@
         <v>833.56524999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -11574,7 +11520,7 @@
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="16">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="Q14" s="18">
@@ -11582,7 +11528,7 @@
         <v>882.59849999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -11598,7 +11544,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -11622,28 +11568,28 @@
         <v>66164.514226430532</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O17" s="21"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D18" s="15"/>
       <c r="O18" s="21"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O19" s="21"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="18"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O20" s="21"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -11651,12 +11597,12 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O22" s="21"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -11667,12 +11613,12 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O24" s="21"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11710,7 +11656,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -11742,7 +11688,7 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O27" s="21"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="18"/>
@@ -11756,7 +11702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11816,7 +11762,7 @@
         <v>0.21679976422288083</v>
       </c>
       <c r="S28" s="27">
-        <f>$T$6+R28^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" ref="S28:S33" si="2">$T$6+R28^2/(PI()*$T$5*$T$7)</f>
         <v>4.2216175016557923E-2</v>
       </c>
       <c r="T28" s="28">
@@ -11824,7 +11770,7 @@
         <v>4.7002137767096719E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11833,7 +11779,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="1">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="3">B29-$B$28</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="D29" s="9">
@@ -11865,14 +11811,14 @@
         <v>8.5</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" ref="K29:K33" si="2">E29/SQRT(1.4*287*(J29+273.15))</f>
+        <f t="shared" ref="K29:K33" si="4">E29/SQRT(1.4*287*(J29+273.15))</f>
         <v>0.3379640735189966</v>
       </c>
       <c r="O29" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" ref="P29:P33" si="3">$P$16-I29</f>
+        <f t="shared" ref="P29:P33" si="5">$P$16-I29</f>
         <v>6595.40293647</v>
       </c>
       <c r="Q29" s="18">
@@ -11880,19 +11826,19 @@
         <v>64678.808206933521</v>
       </c>
       <c r="R29" s="27">
-        <f t="shared" ref="R29:R33" si="4">2*Q29/(1.225*E29^2*$T$2)</f>
+        <f t="shared" ref="R29:R33" si="6">2*Q29/(1.225*E29^2*$T$2)</f>
         <v>0.27231646512747643</v>
       </c>
       <c r="S29" s="27">
-        <f>$T$6+R29^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="2"/>
         <v>4.3496505739740031E-2</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" ref="T29:T33" si="5">R29^2</f>
+        <f t="shared" ref="T29:T33" si="7">R29^2</f>
         <v>7.4156257179524079E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11901,7 +11847,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15347222222222212</v>
       </c>
       <c r="D30" s="9">
@@ -11933,14 +11879,14 @@
         <v>6.8</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28837044891924335</v>
       </c>
       <c r="O30" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6582.7023501100002</v>
       </c>
       <c r="Q30" s="18">
@@ -11948,19 +11894,19 @@
         <v>64554.258001706228</v>
       </c>
       <c r="R30" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.37558274748152998</v>
       </c>
       <c r="S30" s="27">
-        <f>$T$6+R30^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="2"/>
         <v>4.6651164861071029E-2</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14106240020577471</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11969,7 +11915,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24513888888888891</v>
       </c>
       <c r="D31" s="9">
@@ -12001,14 +11947,14 @@
         <v>5.2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24612600925785433</v>
       </c>
       <c r="O31" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6565.9194324199998</v>
       </c>
       <c r="Q31" s="18">
@@ -12016,19 +11962,19 @@
         <v>64389.673801941586</v>
       </c>
       <c r="R31" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.51721689068414878</v>
       </c>
       <c r="S31" s="27">
-        <f>$T$6+R31^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="2"/>
         <v>5.2613390514462628E-2</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26751331200897871</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12037,7 +11983,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30486111111111103</v>
       </c>
       <c r="D32" s="9">
@@ -12069,14 +12015,14 @@
         <v>4</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.209659529607583</v>
       </c>
       <c r="O32" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6557.3011773899998</v>
       </c>
       <c r="Q32" s="18">
@@ -12084,19 +12030,19 @@
         <v>64305.157591251635</v>
       </c>
       <c r="R32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.71493149515459753</v>
       </c>
       <c r="S32" s="27">
-        <f>$T$6+R32^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="2"/>
         <v>6.4099903457022128E-2</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.51112704276398835</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6</v>
       </c>
@@ -12104,7 +12050,7 @@
         <v>2.0187499999999998</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="D33" s="9">
@@ -12136,14 +12082,14 @@
         <v>3.8</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18814482878273514</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6546.8685528799997</v>
       </c>
       <c r="Q33" s="18">
@@ -12151,19 +12097,19 @@
         <v>64202.848494100646</v>
       </c>
       <c r="R33" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88701522655592502</v>
       </c>
       <c r="S33" s="27">
-        <f>$T$6+R33^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="2"/>
         <v>7.7097837419158349E-2</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.78679601214205896</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7</v>
       </c>
@@ -12172,7 +12118,7 @@
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>43</v>
       </c>
@@ -12180,12 +12126,12 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O36" s="21"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -12193,12 +12139,12 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O38" s="21"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -12206,12 +12152,12 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O40" s="21"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -12246,7 +12192,7 @@
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -12278,12 +12224,12 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O43" s="21"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -12327,7 +12273,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -12336,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" ref="C45:C49" si="6">B45-$B$28</f>
+        <f t="shared" ref="C45:C49" si="8">B45-$B$28</f>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D45" s="9">
@@ -12371,7 +12317,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -12380,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D46" s="9">
@@ -12415,7 +12361,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4</v>
       </c>
@@ -12424,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D47" s="9">
@@ -12459,7 +12405,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -12468,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D48" s="9">
@@ -12503,13 +12449,13 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.65208333333333335</v>
       </c>
       <c r="D49" s="9">
@@ -12544,7 +12490,7 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7</v>
       </c>
@@ -12553,12 +12499,12 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O51" s="21"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -12566,12 +12512,12 @@
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O53" s="21"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -12582,12 +12528,12 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O55" s="21"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -12631,7 +12577,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>58</v>
       </c>
@@ -12672,12 +12618,12 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O58" s="21"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12741,7 +12687,7 @@
         <v>6504.2308701000002</v>
       </c>
       <c r="Q59" s="18">
-        <f t="shared" ref="Q59:Q65" si="7">P59*9.80665</f>
+        <f t="shared" ref="Q59:Q65" si="9">P59*9.80665</f>
         <v>63784.715662266164</v>
       </c>
       <c r="R59" s="29">
@@ -12749,7 +12695,7 @@
         <v>0.51235750020238557</v>
       </c>
       <c r="S59" s="29">
-        <f>$T$6+R59^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" ref="S59:S65" si="10">$T$6+R59^2/(PI()*$T$5*$T$7)</f>
         <v>5.2377491582914923E-2</v>
       </c>
       <c r="T59" s="30">
@@ -12757,7 +12703,7 @@
         <v>0.26251020801363756</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -12810,34 +12756,34 @@
         <v>2</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" ref="N60:N65" si="8">E60/SQRT(1.4*287*(J29+273.15))</f>
+        <f t="shared" ref="N60:N65" si="11">E60/SQRT(1.4*287*(J29+273.15))</f>
         <v>0.22785813101507013</v>
       </c>
       <c r="O60" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P60" s="18">
-        <f t="shared" ref="P60:P65" si="9">$P$16-L60</f>
+        <f t="shared" ref="P60:P65" si="12">$P$16-L60</f>
         <v>6494.2518379599996</v>
       </c>
       <c r="Q60" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63686.85478673043</v>
       </c>
       <c r="R60" s="29">
-        <f t="shared" ref="R60:R64" si="10">2*Q60/(1.225*E60^2*$T$2)</f>
+        <f t="shared" ref="R60:R64" si="13">2*Q60/(1.225*E60^2*$T$2)</f>
         <v>0.58989362693827274</v>
       </c>
       <c r="S60" s="29">
-        <f>$T$6+R60^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="10"/>
         <v>5.6407176571454255E-2</v>
       </c>
       <c r="T60" s="30">
-        <f t="shared" ref="T60:T64" si="11">R60^2</f>
+        <f t="shared" ref="T60:T64" si="14">R60^2</f>
         <v>0.34797449110239009</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3</v>
       </c>
@@ -12890,34 +12836,34 @@
         <v>1.5</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21474395132284077</v>
       </c>
       <c r="O61" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P61" s="18">
+        <f t="shared" si="12"/>
+        <v>6489.2623218899998</v>
+      </c>
+      <c r="Q61" s="18">
         <f t="shared" si="9"/>
-        <v>6489.2623218899998</v>
-      </c>
-      <c r="Q61" s="18">
-        <f t="shared" si="7"/>
         <v>63637.924348962566</v>
       </c>
       <c r="R61" s="29">
+        <f t="shared" si="13"/>
+        <v>0.66766156198440596</v>
+      </c>
+      <c r="S61" s="29">
         <f t="shared" si="10"/>
-        <v>0.66766156198440596</v>
-      </c>
-      <c r="S61" s="29">
-        <f>$T$6+R61^2/(PI()*$T$5*$T$7)</f>
         <v>6.1018377690061076E-2</v>
       </c>
       <c r="T61" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.44577196135145675</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4</v>
       </c>
@@ -12970,34 +12916,34 @@
         <v>0.8</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.19997738252200661</v>
       </c>
       <c r="O62" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P62" s="18">
+        <f t="shared" si="12"/>
+        <v>6478.3761050100002</v>
+      </c>
+      <c r="Q62" s="18">
         <f t="shared" si="9"/>
-        <v>6478.3761050100002</v>
-      </c>
-      <c r="Q62" s="18">
-        <f t="shared" si="7"/>
         <v>63531.167030196317</v>
       </c>
       <c r="R62" s="29">
+        <f t="shared" si="13"/>
+        <v>0.77303039075602054</v>
+      </c>
+      <c r="S62" s="29">
         <f t="shared" si="10"/>
-        <v>0.77303039075602054</v>
-      </c>
-      <c r="S62" s="29">
-        <f>$T$6+R62^2/(PI()*$T$5*$T$7)</f>
         <v>6.8176015633290898E-2</v>
       </c>
       <c r="T62" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.59757598503240583</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -13050,34 +12996,34 @@
         <v>3.2</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.26361602619776986</v>
       </c>
       <c r="O63" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P63" s="18">
+        <f t="shared" si="12"/>
+        <v>6467.4898881299996</v>
+      </c>
+      <c r="Q63" s="18">
         <f t="shared" si="9"/>
-        <v>6467.4898881299996</v>
-      </c>
-      <c r="Q63" s="18">
-        <f t="shared" si="7"/>
         <v>63424.40971143006</v>
       </c>
       <c r="R63" s="29">
+        <f t="shared" si="13"/>
+        <v>0.4460264899510662</v>
+      </c>
+      <c r="S63" s="29">
         <f t="shared" si="10"/>
-        <v>0.4460264899510662</v>
-      </c>
-      <c r="S63" s="29">
-        <f>$T$6+R63^2/(PI()*$T$5*$T$7)</f>
         <v>4.9380106058440343E-2</v>
       </c>
       <c r="T63" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.19893962973806856</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6</v>
       </c>
@@ -13130,34 +13076,34 @@
         <v>4.2</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.28067507244637535</v>
       </c>
       <c r="O64" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P64" s="18">
+        <f t="shared" si="12"/>
+        <v>6458.8716330999996</v>
+      </c>
+      <c r="Q64" s="18">
         <f t="shared" si="9"/>
-        <v>6458.8716330999996</v>
-      </c>
-      <c r="Q64" s="18">
-        <f t="shared" si="7"/>
         <v>63339.893500740109</v>
       </c>
       <c r="R64" s="29">
+        <f t="shared" si="13"/>
+        <v>0.39321582917293663</v>
+      </c>
+      <c r="S64" s="29">
         <f t="shared" si="10"/>
-        <v>0.39321582917293663</v>
-      </c>
-      <c r="S64" s="29">
-        <f>$T$6+R64^2/(PI()*$T$5*$T$7)</f>
         <v>4.7290350831026291E-2</v>
       </c>
       <c r="T64" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.15461868831216008</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7</v>
       </c>
@@ -13210,34 +13156,34 @@
         <v>6.8</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.29504355938219456</v>
       </c>
       <c r="O65" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P65" s="18">
+        <f t="shared" si="12"/>
+        <v>6442.9959001500001</v>
+      </c>
+      <c r="Q65" s="18">
         <f t="shared" si="9"/>
-        <v>6442.9959001500001</v>
-      </c>
-      <c r="Q65" s="18">
-        <f t="shared" si="7"/>
         <v>63184.205744205996</v>
       </c>
       <c r="R65" s="29">
-        <f t="shared" ref="R65" si="12">2*Q65/(1.225*E65^2*$T$2)</f>
+        <f t="shared" ref="R65" si="15">2*Q65/(1.225*E65^2*$T$2)</f>
         <v>0.35991319439458458</v>
       </c>
       <c r="S65" s="29">
-        <f>$T$6+R65^2/(PI()*$T$5*$T$7)</f>
+        <f t="shared" si="10"/>
         <v>4.6107760231027826E-2</v>
       </c>
       <c r="T65" s="30">
-        <f t="shared" ref="T65" si="13">R65^2</f>
+        <f t="shared" ref="T65" si="16">R65^2</f>
         <v>0.12953750749931403</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N66" s="9"/>
       <c r="O66" s="21"/>
       <c r="P66" s="16"/>
@@ -13246,7 +13192,7 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N67" s="9"/>
       <c r="O67" s="21"/>
       <c r="P67" s="16"/>
@@ -13255,7 +13201,7 @@
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
@@ -13267,7 +13213,7 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N69" s="9"/>
       <c r="O69" s="21"/>
       <c r="P69" s="16"/>
@@ -13276,7 +13222,7 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -13291,7 +13237,7 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -13312,7 +13258,7 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N72" s="9"/>
       <c r="O72" s="21"/>
       <c r="P72" s="16"/>
@@ -13321,7 +13267,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -13369,7 +13315,7 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>58</v>
       </c>
@@ -13414,7 +13360,7 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -13467,22 +13413,22 @@
         <v>4.2</v>
       </c>
       <c r="N75" s="9">
-        <f t="shared" ref="N75:N76" si="14">E75/SQRT(1.4*287*(J44+273.15))</f>
+        <f t="shared" ref="N75:N76" si="17">E75/SQRT(1.4*287*(J44+273.15))</f>
         <v>0.24690487337773126</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P75" s="18">
-        <f t="shared" ref="P75" si="15">$P$16-L75</f>
+        <f t="shared" ref="P75" si="18">$P$16-L75</f>
         <v>6429.8417214199999</v>
       </c>
       <c r="Q75" s="18">
-        <f t="shared" ref="Q75:Q76" si="16">P75*9.80665</f>
+        <f t="shared" ref="Q75:Q76" si="19">P75*9.80665</f>
         <v>63055.207317363442</v>
       </c>
       <c r="R75" s="29">
-        <f t="shared" ref="R75:R76" si="17">2*Q75/(1.225*E75^2*$T$2)</f>
+        <f t="shared" ref="R75:R76" si="20">2*Q75/(1.225*E75^2*$T$2)</f>
         <v>0.51288872127463514</v>
       </c>
       <c r="S75" s="29">
@@ -13490,11 +13436,11 @@
         <v>5.2403171281094313E-2</v>
       </c>
       <c r="T75" s="30">
-        <f t="shared" ref="T75:T76" si="18">R75^2</f>
+        <f t="shared" ref="T75:T76" si="21">R75^2</f>
         <v>0.26305484041073035</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2</v>
       </c>
@@ -13547,22 +13493,22 @@
         <v>4.2</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.24535201253887759</v>
       </c>
       <c r="O76" s="21" t="s">
         <v>102</v>
       </c>
       <c r="P76" s="18">
-        <f t="shared" ref="P76" si="19">$P$16-L76</f>
+        <f t="shared" ref="P76" si="22">$P$16-L76</f>
         <v>6417.5947274299997</v>
       </c>
       <c r="Q76" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62935.105333751402</v>
       </c>
       <c r="R76" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.5184122185962482</v>
       </c>
       <c r="S76" s="29">
@@ -13570,16 +13516,16 @@
         <v>5.2671758909737437E-2</v>
       </c>
       <c r="T76" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.26875122838988424</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -13590,7 +13536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -13601,7 +13547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -13628,7 +13574,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>40</v>
       </c>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27056F88-D958-4733-BA84-1D5F7E847216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="118">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -267,9 +267,6 @@
     <t>block fuel [kg]:</t>
   </si>
   <si>
-    <t>lift</t>
-  </si>
-  <si>
     <t>Stationary measurments CL-CD Series 1</t>
   </si>
   <si>
@@ -288,19 +285,10 @@
     <t>[kg]</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Stationary measurements CL-CD Series 2</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
     <t>5 3 20</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>S</t>
@@ -321,13 +309,7 @@
     <t>e</t>
   </si>
   <si>
-    <t>Wrong</t>
-  </si>
-  <si>
     <t>Assigment value</t>
-  </si>
-  <si>
-    <t>CL^2</t>
   </si>
   <si>
     <t>OEW [kg]:</t>
@@ -347,18 +329,193 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>[Pa]</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>[K]</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>T_ISA</t>
+  </si>
+  <si>
+    <t>delta T</t>
+  </si>
+  <si>
+    <t>delta Ttemp</t>
+  </si>
+  <si>
+    <t>T (from Thrust.exe)</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sorted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sorted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sorted</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,8 +550,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +608,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -504,13 +702,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,54 +1148,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$28:$S$33</c:f>
+              <c:f>'Metric Units'!$AD$28:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2216175016557923E-2</c:v>
+                  <c:v>2.5622950860809738E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3496505739740031E-2</c:v>
+                  <c:v>2.6618474259435056E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6651164861071029E-2</c:v>
+                  <c:v>3.0569968561275404E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2613390514462628E-2</c:v>
+                  <c:v>3.5075521279669161E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4099903457022128E-2</c:v>
+                  <c:v>4.7899467507162341E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7097837419158349E-2</c:v>
+                  <c:v>6.1560481291906714E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
+              <c:f>'Metric Units'!$AC$28:$AC$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.8386682072143845E-3</c:v>
+                  <c:v>0.23297031533557547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3301208723085525E-3</c:v>
+                  <c:v>0.2926664204145073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.009585658731935E-2</c:v>
+                  <c:v>0.40396750068752335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3887680307737106E-2</c:v>
+                  <c:v>0.55816044999566483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.914788131248011E-2</c:v>
+                  <c:v>0.77482248224934502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3697841964277998E-2</c:v>
+                  <c:v>0.96310423186684524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1500,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1435,9 +1645,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$28:$F$33</c:f>
+              <c:f>'Metric Units'!$H$28:$H$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
@@ -1462,27 +1672,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$Q$28:$Q$33</c:f>
+              <c:f>'Metric Units'!$AC$28:$AC$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.8386682072143845E-3</c:v>
+                  <c:v>0.23297031533557547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3301208723085525E-3</c:v>
+                  <c:v>0.2926664204145073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.009585658731935E-2</c:v>
+                  <c:v>0.40396750068752335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3887680307737106E-2</c:v>
+                  <c:v>0.55816044999566483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.914788131248011E-2</c:v>
+                  <c:v>0.77482248224934502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3697841964277998E-2</c:v>
+                  <c:v>0.96310423186684524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1805,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1740,7 +1950,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1912,27 +2122,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$28:$S$33</c:f>
+              <c:f>'Metric Units'!$AD$28:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2216175016557923E-2</c:v>
+                  <c:v>2.5622950860809738E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3496505739740031E-2</c:v>
+                  <c:v>2.6618474259435056E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6651164861071029E-2</c:v>
+                  <c:v>3.0569968561275404E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2613390514462628E-2</c:v>
+                  <c:v>3.5075521279669161E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4099903457022128E-2</c:v>
+                  <c:v>4.7899467507162341E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7097837419158349E-2</c:v>
+                  <c:v>6.1560481291906714E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,56 +2536,101 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="1.0000000000000002E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$28:$S$33</c:f>
+              <c:f>'Metric Units'!$AD$28:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2216175016557923E-2</c:v>
+                  <c:v>2.5622950860809738E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3496505739740031E-2</c:v>
+                  <c:v>2.6618474259435056E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6651164861071029E-2</c:v>
+                  <c:v>3.0569968561275404E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2613390514462628E-2</c:v>
+                  <c:v>3.5075521279669161E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4099903457022128E-2</c:v>
+                  <c:v>4.7899467507162341E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7097837419158349E-2</c:v>
+                  <c:v>6.1560481291906714E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$T$28:$T$33</c:f>
+              <c:f>'Metric Units'!$AF$28:$AF$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.7002137767096719E-2</c:v>
+                  <c:v>5.4275167827557473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4156257179524079E-2</c:v>
+                  <c:v>8.5653633638241133E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14106240020577471</c:v>
+                  <c:v>0.16318974161172417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26751331200897871</c:v>
+                  <c:v>0.31154308793936308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51112704276398835</c:v>
+                  <c:v>0.60034987899903658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78679601214205896</c:v>
+                  <c:v>0.92756976143982595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,7 +3063,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2830,60 +3087,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:f>'Metric Units'!$AH$45:$AH$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2377491582914923E-2</c:v>
+                  <c:v>2.332695998475437E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6407176571454255E-2</c:v>
+                  <c:v>2.5753591665663003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1018377690061076E-2</c:v>
+                  <c:v>2.9567378779607054E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8176015633290898E-2</c:v>
+                  <c:v>3.4451415880983244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9380106058440343E-2</c:v>
+                  <c:v>4.0498336001998425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7290350831026291E-2</c:v>
+                  <c:v>4.6624576756713963E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6107760231027826E-2</c:v>
+                  <c:v>5.5218158721281649E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$R$59:$R$65</c:f>
+              <c:f>'Metric Units'!$AG$45:$AG$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.51235750020238557</c:v>
+                  <c:v>0.38723338090377868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58989362693827274</c:v>
+                  <c:v>0.42714202196542572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66766156198440596</c:v>
+                  <c:v>0.48597842484991205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77303039075602054</c:v>
+                  <c:v>0.55923047088683875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4460264899510662</c:v>
+                  <c:v>0.64481580733201926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39321582917293663</c:v>
+                  <c:v>0.73119246711242358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35991319439458458</c:v>
+                  <c:v>0.84917204201754848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,7 +3300,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3188,7 +3445,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3304,7 +3561,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3326,60 +3585,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$F$59:$F$65</c:f>
+              <c:f>'Metric Units'!$AI$45:$AI$51</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$R$59:$R$65</c:f>
+              <c:f>'Metric Units'!$AG$45:$AG$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.51235750020238557</c:v>
+                  <c:v>0.38723338090377868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58989362693827274</c:v>
+                  <c:v>0.42714202196542572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66766156198440596</c:v>
+                  <c:v>0.48597842484991205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77303039075602054</c:v>
+                  <c:v>0.55923047088683875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4460264899510662</c:v>
+                  <c:v>0.64481580733201926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39321582917293663</c:v>
+                  <c:v>0.73119246711242358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35991319439458458</c:v>
+                  <c:v>0.84917204201754848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,7 +3751,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3637,7 +3896,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3758,7 +4017,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3780,60 +4041,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$F$59:$F$65</c:f>
+              <c:f>'Metric Units'!$AI$45:$AI$51</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:f>'Metric Units'!$AH$45:$AH$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2377491582914923E-2</c:v>
+                  <c:v>2.332695998475437E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6407176571454255E-2</c:v>
+                  <c:v>2.5753591665663003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1018377690061076E-2</c:v>
+                  <c:v>2.9567378779607054E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8176015633290898E-2</c:v>
+                  <c:v>3.4451415880983244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9380106058440343E-2</c:v>
+                  <c:v>4.0498336001998425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7290350831026291E-2</c:v>
+                  <c:v>4.6624576756713963E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6107760231027826E-2</c:v>
+                  <c:v>5.5218158721281649E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,7 +4207,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4084,7 +4345,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4222,62 +4483,107 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="1.0000000000000002E-2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metric Units'!$S$59:$S$65</c:f>
+              <c:f>'Metric Units'!$AH$45:$AH$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2377491582914923E-2</c:v>
+                  <c:v>2.332695998475437E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6407176571454255E-2</c:v>
+                  <c:v>2.5753591665663003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1018377690061076E-2</c:v>
+                  <c:v>2.9567378779607054E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8176015633290898E-2</c:v>
+                  <c:v>3.4451415880983244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9380106058440343E-2</c:v>
+                  <c:v>4.0498336001998425E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7290350831026291E-2</c:v>
+                  <c:v>4.6624576756713963E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6107760231027826E-2</c:v>
+                  <c:v>5.5218158721281649E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$T$59:$T$65</c:f>
+              <c:f>'Metric Units'!$AJ$45:$AJ$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.26251020801363756</c:v>
+                  <c:v>0.14994969128617094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34797449110239009</c:v>
+                  <c:v>0.18245030692871222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44577196135145675</c:v>
+                  <c:v>0.23617502941960161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59757598503240583</c:v>
+                  <c:v>0.31273871956831539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19893962973806856</c:v>
+                  <c:v>0.41578742538524377</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15461868831216008</c:v>
+                  <c:v>0.53464242396195261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12953750749931403</c:v>
+                  <c:v>0.72109315694425313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,7 +4743,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4589,7 +4895,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9200,13 +9506,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>271145</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>99059</xdr:rowOff>
@@ -9238,13 +9544,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>266247</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>92528</xdr:rowOff>
@@ -9276,13 +9582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>272416</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>91258</xdr:rowOff>
@@ -9314,13 +9620,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>271144</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>89988</xdr:rowOff>
@@ -9352,13 +9658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>273685</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
@@ -9390,13 +9696,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>273867</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>89988</xdr:rowOff>
@@ -9428,13 +9734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>272416</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>89988</xdr:rowOff>
@@ -9466,13 +9772,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>274954</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>83638</xdr:rowOff>
@@ -9517,48 +9823,30 @@
           <cell r="F28">
             <v>1.8</v>
           </cell>
-          <cell r="Q28">
-            <v>5.8386682072143845E-3</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="F29">
             <v>2.5</v>
-          </cell>
-          <cell r="Q29">
-            <v>7.3301208723085525E-3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="F30">
             <v>3.9</v>
           </cell>
-          <cell r="Q30">
-            <v>1.009585658731935E-2</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="F31">
             <v>5.7</v>
-          </cell>
-          <cell r="Q31">
-            <v>1.3887680307737106E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32">
             <v>8.1999999999999993</v>
           </cell>
-          <cell r="Q32">
-            <v>1.914788131248011E-2</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="F33">
             <v>10.3</v>
-          </cell>
-          <cell r="Q33">
-            <v>2.3697841964277998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -9913,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -11258,177 +11546,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ59" sqref="AJ59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1015625" customWidth="1"/>
-    <col min="12" max="12" width="10.68359375" customWidth="1"/>
-    <col min="15" max="15" width="15.62890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1015625" customWidth="1"/>
+    <col min="14" max="14" width="8.83984375" customWidth="1"/>
+    <col min="17" max="17" width="6.5234375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.578125" customWidth="1"/>
+    <col min="25" max="25" width="16.20703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.89453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.9453125" customWidth="1"/>
+    <col min="30" max="31" width="6.20703125" customWidth="1"/>
+    <col min="32" max="32" width="7.5234375" customWidth="1"/>
+    <col min="33" max="33" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="25" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="19">
-        <v>300000</v>
-      </c>
-      <c r="U1" t="s">
-        <v>95</v>
-      </c>
+      <c r="AB1" s="24"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AK1" s="19"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2">
         <v>0.45359237000000002</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="18">
-        <f>9165*$H$2</f>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="18">
+        <f>9165*$J$2</f>
         <v>4157.1740710499998</v>
       </c>
-      <c r="Q2" s="18">
-        <f>P2*9.80665</f>
+      <c r="AA2" s="18">
+        <f>Z2*9.80665</f>
         <v>40767.951103862477</v>
       </c>
-      <c r="S2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="19">
+      <c r="AB2" s="18"/>
+      <c r="AH2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="19">
         <v>30</v>
       </c>
+      <c r="AK2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="7">
         <v>43895</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="S3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" s="19">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AH3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="19">
         <v>2.0569000000000002</v>
       </c>
+      <c r="AK3" s="19"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="18">
-        <f>4100*$H$2</f>
+      <c r="Z4" s="18">
+        <f>4100*$J$2</f>
         <v>1859.7287170000002</v>
       </c>
-      <c r="Q4" s="18">
-        <f t="shared" ref="Q3:Q33" si="0">P4*9.80665</f>
+      <c r="AA4" s="18">
+        <f t="shared" ref="AA4:AA33" si="0">Z4*9.80665</f>
         <v>18237.70862256805</v>
       </c>
-      <c r="S4" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="19">
+      <c r="AB4" s="18"/>
+      <c r="AH4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" s="19">
         <v>15.911</v>
       </c>
+      <c r="AK4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="O5" s="21"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="18"/>
-      <c r="S5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="19">
-        <f>T4^2/T2</f>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AH5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="19">
+        <f>AI4^2/AI2</f>
         <v>8.4386640333333336</v>
       </c>
+      <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="16">
-        <f>D8</f>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" ref="Z6:Z14" si="1">D8</f>
         <v>80</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="AA6" s="18">
         <f t="shared" si="0"/>
         <v>784.53199999999993</v>
       </c>
-      <c r="S6" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="U6" t="s">
-        <v>96</v>
-      </c>
+      <c r="AB6" s="18"/>
+      <c r="AH6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="16">
-        <f>D9</f>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="16">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="AA7" s="18">
         <f t="shared" si="0"/>
         <v>1000.2782999999999</v>
       </c>
-      <c r="S7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="U7" t="s">
-        <v>96</v>
-      </c>
+      <c r="AB7" s="18"/>
+      <c r="AH7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -11440,17 +11751,19 @@
         <f>'Imperial Units'!$H8</f>
         <v>80</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="16">
-        <f>D10</f>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="AA8" s="18">
         <f t="shared" si="0"/>
         <v>588.399</v>
       </c>
+      <c r="AB8" s="18"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -11462,17 +11775,19 @@
         <f>'Imperial Units'!$H9</f>
         <v>102</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="16">
-        <f>D11</f>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="16">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="AA9" s="18">
         <f t="shared" si="0"/>
         <v>735.49874999999997</v>
       </c>
+      <c r="AB9" s="18"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -11484,17 +11799,19 @@
         <f>'Imperial Units'!$H10</f>
         <v>60</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="16">
-        <f>D12</f>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="16">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="AA10" s="18">
         <f t="shared" si="0"/>
         <v>813.9519499999999</v>
       </c>
+      <c r="AB10" s="18"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -11506,17 +11823,19 @@
         <f>'Imperial Units'!$H11</f>
         <v>75</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="16">
-        <f>D13</f>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="16">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="AA11" s="18">
         <f t="shared" si="0"/>
         <v>647.23889999999994</v>
       </c>
+      <c r="AB11" s="18"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11528,17 +11847,19 @@
         <f>'Imperial Units'!$H12</f>
         <v>83</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="16">
-        <f>D14</f>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="16">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="AA12" s="18">
         <f t="shared" si="0"/>
         <v>872.79184999999995</v>
       </c>
+      <c r="AB12" s="18"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -11550,17 +11871,19 @@
         <f>'Imperial Units'!$H13</f>
         <v>66</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="16">
-        <f>D15</f>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="16">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="AA13" s="18">
         <f t="shared" si="0"/>
         <v>833.56524999999999</v>
       </c>
+      <c r="AB13" s="18"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -11572,17 +11895,19 @@
         <f>'Imperial Units'!$H14</f>
         <v>89</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="16">
-        <f>D16</f>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="AA14" s="18">
         <f t="shared" si="0"/>
         <v>882.59849999999994</v>
       </c>
+      <c r="AB14" s="18"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -11594,11 +11919,13 @@
         <f>'Imperial Units'!$H15</f>
         <v>85</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -11610,69 +11937,88 @@
         <f>'Imperial Units'!$H16</f>
         <v>90</v>
       </c>
-      <c r="O16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="20">
-        <f>SUM(P2:P15)</f>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" s="20">
+        <f>SUM(Z2:Z15)</f>
         <v>6746.9027880499998</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="AA16" s="20">
         <f t="shared" si="0"/>
         <v>66164.514226430532</v>
       </c>
+      <c r="AB16" s="20"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O17" s="21"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="18"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X17" s="16"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="15"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="18"/>
+      <c r="E18" s="15"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O19" s="21"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="18"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X19" s="16"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O20" s="21"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X20" s="16"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O22" s="21"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="18"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X22" s="16"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O24" s="21"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="18"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="X24" s="16"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11686,31 +12032,57 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s">
+      <c r="M25" t="s">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
+      <c r="N25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" t="s">
+      <c r="O25" t="s">
         <v>25</v>
       </c>
-      <c r="K25" t="s">
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>97</v>
+      </c>
+      <c r="R25" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="18"/>
+      <c r="S25" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" t="s">
+        <v>110</v>
+      </c>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -11718,45 +12090,84 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="18"/>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s">
+        <v>104</v>
+      </c>
+      <c r="U26" t="s">
+        <v>104</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O27" s="21"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="T27" s="26" t="s">
-        <v>97</v>
-      </c>
+    <row r="27" spans="1:37" ht="17.7" x14ac:dyDescent="0.75">
+      <c r="X27" s="16"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD27" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE27" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF27" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11773,58 +12184,103 @@
         <v>1530.096</v>
       </c>
       <c r="E28" s="9">
+        <f>101325*(1+((0.00649*D28)/288.15))^(-9.80665/(0.00649*287))</f>
+        <v>84770.465011152628</v>
+      </c>
+      <c r="F28" s="9">
         <f>'Imperial Units'!E28*0.514444</f>
         <v>127.58211200000001</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="9">
+        <f>F28-2*0.514444</f>
+        <v>126.55322400000001</v>
+      </c>
+      <c r="H28" s="37">
         <f>'Imperial Units'!F28</f>
         <v>1.8</v>
       </c>
-      <c r="G28" s="9">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9">
         <f>'Imperial Units'!G28*0.45359237</f>
         <v>340.1942775</v>
       </c>
-      <c r="H28" s="9">
+      <c r="M28" s="9">
         <f>'Imperial Units'!H28*0.45359237</f>
         <v>364.23467311000002</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="9">
         <f>'Imperial Units'!I28*0.45359237</f>
         <v>134.71693389000001</v>
       </c>
-      <c r="J28" s="9">
-        <f>'Imperial Units'!J28</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K28" s="9">
-        <f>E28/SQRT(1.4*287*(J28+273.15))</f>
-        <v>0.37811439589565582</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="18">
-        <f>$P$16-I28</f>
+      <c r="O28" s="9">
+        <f>'Imperial Units'!J28+273.15</f>
+        <v>283.34999999999997</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28:P33" si="2">O28/(1+(0.4/2)*Q28^2)</f>
+        <v>274.3378190594953</v>
+      </c>
+      <c r="Q28" s="34">
+        <f t="shared" ref="Q28:Q33" si="3">SQRT(2/0.4*((1+101325/E28*((1+0.4/2.8*1.225/101325*G28^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.40528181054053536</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" ref="R28:R33" si="4">Q28*SQRT(1.4*287*P28)</f>
+        <v>134.55657363902333</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" ref="S28:S33" si="5">R28*SQRT(E28/101325)</f>
+        <v>123.07473128318065</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" ref="T28:T33" si="6">288.15-0.00649*D28</f>
+        <v>278.21967695999996</v>
+      </c>
+      <c r="U28" s="33">
+        <f>P28-T28</f>
+        <v>-3.8818579005046558</v>
+      </c>
+      <c r="V28">
+        <v>7131.7199999999993</v>
+      </c>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" s="18">
+        <f t="shared" ref="Z28:Z33" si="7">$Z$16-N28</f>
         <v>6612.1858541599995</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="AA28" s="18">
         <f t="shared" si="0"/>
         <v>64843.392406698156</v>
       </c>
-      <c r="R28" s="27">
-        <f>2*Q28/(1.225*E28^2*$T$2)</f>
-        <v>0.21679976422288083</v>
-      </c>
-      <c r="S28" s="27">
-        <f>$T$6+R28^2/(PI()*$T$5*$T$7)</f>
-        <v>4.2216175016557923E-2</v>
-      </c>
-      <c r="T28" s="28">
-        <f>R28^2</f>
-        <v>4.7002137767096719E-2</v>
-      </c>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="26">
+        <f>2*AA28/(1.225*$S28^2*$AI$2)</f>
+        <v>0.23297031533557547</v>
+      </c>
+      <c r="AD28" s="26">
+        <f>2*V28/(1.225*$S28^2*$AI$2)</f>
+        <v>2.5622950860809738E-2</v>
+      </c>
+      <c r="AE28" s="35">
+        <f>H28</f>
+        <v>1.8</v>
+      </c>
+      <c r="AF28" s="27">
+        <f>AC28^2</f>
+        <v>5.4275167827557473E-2</v>
+      </c>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11833,7 +12289,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="1">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="8">B29-$B$28</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="D29" s="9">
@@ -11841,58 +12297,103 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="9">
+        <f t="shared" ref="E29:E33" si="9">101325*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
+        <v>84770.465011152628</v>
+      </c>
+      <c r="F29" s="9">
         <f>'Imperial Units'!E29*0.514444</f>
         <v>113.69212400000001</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="9">
+        <f t="shared" ref="G29:G33" si="10">F29-2*0.514444</f>
+        <v>112.66323600000001</v>
+      </c>
+      <c r="H29" s="37">
         <f>'Imperial Units'!F29</f>
         <v>2.5</v>
       </c>
-      <c r="G29" s="9">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9">
         <f>'Imperial Units'!G29*0.45359237</f>
         <v>288.48474732</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <f>'Imperial Units'!H29*0.45359237</f>
         <v>310.71077345000003</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <f>'Imperial Units'!I29*0.45359237</f>
         <v>151.49985158000001</v>
       </c>
-      <c r="J29" s="9">
-        <f>'Imperial Units'!J29</f>
-        <v>8.5</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" ref="K29:K33" si="2">E29/SQRT(1.4*287*(J29+273.15))</f>
-        <v>0.3379640735189966</v>
-      </c>
-      <c r="O29" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" ref="P29:P33" si="3">$P$16-I29</f>
+      <c r="O29" s="9">
+        <f>'Imperial Units'!J29+273.15</f>
+        <v>281.64999999999998</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="2"/>
+        <v>274.49427115187086</v>
+      </c>
+      <c r="Q29" s="34">
+        <f t="shared" si="3"/>
+        <v>0.36103166767869521</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="4"/>
+        <v>119.89937137404581</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="5"/>
+        <v>109.66824224040253</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="6"/>
+        <v>278.21967695999996</v>
+      </c>
+      <c r="U29" s="33">
+        <f t="shared" ref="U29:U33" si="11">P29-T29</f>
+        <v>-3.7254058081290964</v>
+      </c>
+      <c r="V29">
+        <v>5882.6399999999994</v>
+      </c>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z29" s="18">
+        <f t="shared" si="7"/>
         <v>6595.40293647</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="AA29" s="18">
         <f t="shared" si="0"/>
         <v>64678.808206933521</v>
       </c>
-      <c r="R29" s="27">
-        <f t="shared" ref="R29:R33" si="4">2*Q29/(1.225*E29^2*$T$2)</f>
-        <v>0.27231646512747643</v>
-      </c>
-      <c r="S29" s="27">
-        <f>$T$6+R29^2/(PI()*$T$5*$T$7)</f>
-        <v>4.3496505739740031E-2</v>
-      </c>
-      <c r="T29" s="28">
-        <f t="shared" ref="T29:T33" si="5">R29^2</f>
-        <v>7.4156257179524079E-2</v>
-      </c>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="26">
+        <f>2*AA29/(1.225*$S29^2*$AI$2)</f>
+        <v>0.2926664204145073</v>
+      </c>
+      <c r="AD29" s="26">
+        <f>2*V29/(1.225*$S29^2*$AI$2)</f>
+        <v>2.6618474259435056E-2</v>
+      </c>
+      <c r="AE29" s="35">
+        <f>H29</f>
+        <v>2.5</v>
+      </c>
+      <c r="AF29" s="27">
+        <f>AC29^2</f>
+        <v>8.5653633638241133E-2</v>
+      </c>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11901,7 +12402,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.15347222222222212</v>
       </c>
       <c r="D30" s="9">
@@ -11909,58 +12410,103 @@
         <v>1530.096</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="9"/>
+        <v>84770.465011152628</v>
+      </c>
+      <c r="F30" s="9">
         <f>'Imperial Units'!E30*0.514444</f>
         <v>96.715472000000005</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="9">
+        <f t="shared" si="10"/>
+        <v>95.686584000000011</v>
+      </c>
+      <c r="H30" s="37">
         <f>'Imperial Units'!F30</f>
         <v>3.9</v>
       </c>
-      <c r="G30" s="9">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9">
         <f>'Imperial Units'!G30*0.45359237</f>
         <v>244.03269506000001</v>
       </c>
-      <c r="H30" s="9">
+      <c r="M30" s="9">
         <f>'Imperial Units'!H30*0.45359237</f>
         <v>263.99075934000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <f>'Imperial Units'!I30*0.45359237</f>
         <v>164.20043794</v>
       </c>
-      <c r="J30" s="9">
-        <f>'Imperial Units'!J30</f>
-        <v>6.8</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="O30" s="9">
+        <f>'Imperial Units'!J30+273.15</f>
+        <v>279.95</v>
+      </c>
+      <c r="P30" s="9">
         <f t="shared" si="2"/>
-        <v>0.28837044891924335</v>
-      </c>
-      <c r="O30" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="18">
+        <v>274.77579979718604</v>
+      </c>
+      <c r="Q30" s="34">
         <f t="shared" si="3"/>
+        <v>0.30684381673853012</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="4"/>
+        <v>101.95571689441061</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="5"/>
+        <v>93.255737123826989</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="6"/>
+        <v>278.21967695999996</v>
+      </c>
+      <c r="U30" s="33">
+        <f t="shared" si="11"/>
+        <v>-3.4438771628139193</v>
+      </c>
+      <c r="V30">
+        <v>4885.1000000000004</v>
+      </c>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" s="18">
+        <f t="shared" si="7"/>
         <v>6582.7023501100002</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="AA30" s="18">
         <f t="shared" si="0"/>
         <v>64554.258001706228</v>
       </c>
-      <c r="R30" s="27">
-        <f t="shared" si="4"/>
-        <v>0.37558274748152998</v>
-      </c>
-      <c r="S30" s="27">
-        <f>$T$6+R30^2/(PI()*$T$5*$T$7)</f>
-        <v>4.6651164861071029E-2</v>
-      </c>
-      <c r="T30" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14106240020577471</v>
-      </c>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="26">
+        <f>2*AA30/(1.225*$S30^2*$AI$2)</f>
+        <v>0.40396750068752335</v>
+      </c>
+      <c r="AD30" s="26">
+        <f>2*V30/(1.225*$S30^2*$AI$2)</f>
+        <v>3.0569968561275404E-2</v>
+      </c>
+      <c r="AE30" s="35">
+        <f>H30</f>
+        <v>3.9</v>
+      </c>
+      <c r="AF30" s="27">
+        <f>AC30^2</f>
+        <v>0.16318974161172417</v>
+      </c>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11969,7 +12515,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.24513888888888891</v>
       </c>
       <c r="D31" s="9">
@@ -11977,58 +12523,103 @@
         <v>1530.096</v>
       </c>
       <c r="E31" s="9">
+        <f t="shared" si="9"/>
+        <v>84770.465011152628</v>
+      </c>
+      <c r="F31" s="9">
         <f>'Imperial Units'!E31*0.514444</f>
         <v>82.311040000000006</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="9">
+        <f t="shared" si="10"/>
+        <v>81.282152000000011</v>
+      </c>
+      <c r="H31" s="37">
         <f>'Imperial Units'!F31</f>
         <v>5.7</v>
       </c>
-      <c r="G31" s="9">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9">
         <f>'Imperial Units'!G31*0.45359237</f>
         <v>209.55967494000001</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <f>'Imperial Units'!H31*0.45359237</f>
         <v>225.43540789000002</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <f>'Imperial Units'!I31*0.45359237</f>
         <v>180.98335563000001</v>
       </c>
-      <c r="J31" s="9">
-        <f>'Imperial Units'!J31</f>
-        <v>5.2</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="O31" s="9">
+        <f>'Imperial Units'!J31+273.15</f>
+        <v>278.34999999999997</v>
+      </c>
+      <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>0.24612600925785433</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="18">
+        <v>274.61473062383413</v>
+      </c>
+      <c r="Q31" s="34">
         <f t="shared" si="3"/>
+        <v>0.26078586666376485</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="4"/>
+        <v>86.626532752483996</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="5"/>
+        <v>79.234607066522514</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="6"/>
+        <v>278.21967695999996</v>
+      </c>
+      <c r="U31" s="33">
+        <f t="shared" si="11"/>
+        <v>-3.6049463361658241</v>
+      </c>
+      <c r="V31">
+        <v>4046.33</v>
+      </c>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z31" s="18">
+        <f t="shared" si="7"/>
         <v>6565.9194324199998</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="AA31" s="18">
         <f t="shared" si="0"/>
         <v>64389.673801941586</v>
       </c>
-      <c r="R31" s="27">
-        <f t="shared" si="4"/>
-        <v>0.51721689068414878</v>
-      </c>
-      <c r="S31" s="27">
-        <f>$T$6+R31^2/(PI()*$T$5*$T$7)</f>
-        <v>5.2613390514462628E-2</v>
-      </c>
-      <c r="T31" s="28">
-        <f t="shared" si="5"/>
-        <v>0.26751331200897871</v>
-      </c>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="26">
+        <f>2*AA31/(1.225*$S31^2*$AI$2)</f>
+        <v>0.55816044999566483</v>
+      </c>
+      <c r="AD31" s="26">
+        <f>2*V31/(1.225*$S31^2*$AI$2)</f>
+        <v>3.5075521279669161E-2</v>
+      </c>
+      <c r="AE31" s="35">
+        <f>H31</f>
+        <v>5.7</v>
+      </c>
+      <c r="AF31" s="27">
+        <f>AC31^2</f>
+        <v>0.31154308793936308</v>
+      </c>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12037,7 +12628,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.30486111111111103</v>
       </c>
       <c r="D32" s="9">
@@ -12045,58 +12636,103 @@
         <v>1527.048</v>
       </c>
       <c r="E32" s="9">
+        <f t="shared" si="9"/>
+        <v>84800.089801482041</v>
+      </c>
+      <c r="F32" s="9">
         <f>'Imperial Units'!E32*0.514444</f>
         <v>69.964383999999995</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="9">
+        <f t="shared" si="10"/>
+        <v>68.935496000000001</v>
+      </c>
+      <c r="H32" s="37">
         <f>'Imperial Units'!F32</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="G32" s="9">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9">
         <f>'Imperial Units'!G32*0.45359237</f>
         <v>197.31268095000001</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <f>'Imperial Units'!H32*0.45359237</f>
         <v>216.81715286000002</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <f>'Imperial Units'!I32*0.45359237</f>
         <v>189.60161066000001</v>
       </c>
-      <c r="J32" s="9">
-        <f>'Imperial Units'!J32</f>
-        <v>4</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="O32" s="9">
+        <f>'Imperial Units'!J32+273.15</f>
+        <v>277.14999999999998</v>
+      </c>
+      <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>0.209659529607583</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P32" s="18">
+        <v>274.46368703018146</v>
+      </c>
+      <c r="Q32" s="34">
         <f t="shared" si="3"/>
+        <v>0.22121820294547892</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="4"/>
+        <v>73.462934574963541</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="5"/>
+        <v>67.206011619760446</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="6"/>
+        <v>278.23945848</v>
+      </c>
+      <c r="U32" s="33">
+        <f t="shared" si="11"/>
+        <v>-3.7757714498185351</v>
+      </c>
+      <c r="V32">
+        <v>3975.34</v>
+      </c>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z32" s="18">
+        <f t="shared" si="7"/>
         <v>6557.3011773899998</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="AA32" s="18">
         <f t="shared" si="0"/>
         <v>64305.157591251635</v>
       </c>
-      <c r="R32" s="27">
-        <f t="shared" si="4"/>
-        <v>0.71493149515459753</v>
-      </c>
-      <c r="S32" s="27">
-        <f>$T$6+R32^2/(PI()*$T$5*$T$7)</f>
-        <v>6.4099903457022128E-2</v>
-      </c>
-      <c r="T32" s="28">
-        <f t="shared" si="5"/>
-        <v>0.51112704276398835</v>
-      </c>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="26">
+        <f>2*AA32/(1.225*$S32^2*$AI$2)</f>
+        <v>0.77482248224934502</v>
+      </c>
+      <c r="AD32" s="26">
+        <f>2*V32/(1.225*$S32^2*$AI$2)</f>
+        <v>4.7899467507162341E-2</v>
+      </c>
+      <c r="AE32" s="35">
+        <f>H32</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF32" s="27">
+        <f>AC32^2</f>
+        <v>0.60034987899903658</v>
+      </c>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6</v>
       </c>
@@ -12104,7 +12740,7 @@
         <v>2.0187499999999998</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="D33" s="9">
@@ -12112,1550 +12748,1998 @@
         <v>1530.096</v>
       </c>
       <c r="E33" s="9">
+        <f t="shared" si="9"/>
+        <v>84770.465011152628</v>
+      </c>
+      <c r="F33" s="9">
         <f>'Imperial Units'!E33*0.514444</f>
         <v>62.762168000000003</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="9">
+        <f t="shared" si="10"/>
+        <v>61.733280000000001</v>
+      </c>
+      <c r="H33" s="37">
         <f>'Imperial Units'!F33</f>
         <v>10.3</v>
       </c>
-      <c r="G33" s="9">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9">
         <f>'Imperial Units'!G33*0.45359237</f>
         <v>195.95190384</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <f>'Imperial Units'!H33*0.45359237</f>
         <v>216.36356049</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <f>'Imperial Units'!I33*0.45359237</f>
         <v>200.03423517000002</v>
       </c>
-      <c r="J33" s="9">
-        <f>'Imperial Units'!J33</f>
-        <v>3.8</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="O33" s="9">
+        <f>'Imperial Units'!J33+273.15</f>
+        <v>276.95</v>
+      </c>
+      <c r="P33" s="9">
         <f t="shared" si="2"/>
-        <v>0.18814482878273514</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P33" s="18">
+        <v>274.79153123629254</v>
+      </c>
+      <c r="Q33" s="34">
         <f t="shared" si="3"/>
+        <v>0.19817835271423376</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="4"/>
+        <v>65.851072476370902</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="5"/>
+        <v>60.231936876461546</v>
+      </c>
+      <c r="T33" s="9">
+        <f t="shared" si="6"/>
+        <v>278.21967695999996</v>
+      </c>
+      <c r="U33" s="33">
+        <f t="shared" si="11"/>
+        <v>-3.4281457237074164</v>
+      </c>
+      <c r="V33">
+        <v>4103.7700000000004</v>
+      </c>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z33" s="18">
+        <f t="shared" si="7"/>
         <v>6546.8685528799997</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="AA33" s="18">
         <f t="shared" si="0"/>
         <v>64202.848494100646</v>
       </c>
-      <c r="R33" s="27">
-        <f t="shared" si="4"/>
-        <v>0.88701522655592502</v>
-      </c>
-      <c r="S33" s="27">
-        <f>$T$6+R33^2/(PI()*$T$5*$T$7)</f>
-        <v>7.7097837419158349E-2</v>
-      </c>
-      <c r="T33" s="28">
-        <f t="shared" si="5"/>
-        <v>0.78679601214205896</v>
-      </c>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="26">
+        <f>2*AA33/(1.225*$S33^2*$AI$2)</f>
+        <v>0.96310423186684524</v>
+      </c>
+      <c r="AD33" s="26">
+        <f>2*V33/(1.225*$S33^2*$AI$2)</f>
+        <v>6.1560481291906714E-2</v>
+      </c>
+      <c r="AE33" s="35">
+        <f>H33</f>
+        <v>10.3</v>
+      </c>
+      <c r="AF33" s="27">
+        <f>AC33^2</f>
+        <v>0.92756976143982595</v>
+      </c>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="G34" s="9"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="G35" s="9"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O36" s="21"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="X36" s="16"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O38" s="21"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="X39" s="16"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AE39" s="13"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AE40" s="13"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O40" s="21"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="X41" s="16"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AE41" s="13"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" t="s">
         <v>21</v>
       </c>
-      <c r="H41" t="s">
+      <c r="M42" t="s">
         <v>23</v>
       </c>
-      <c r="I41" t="s">
+      <c r="N42" t="s">
         <v>59</v>
       </c>
-      <c r="J41" t="s">
+      <c r="O42" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="P42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>97</v>
+      </c>
+      <c r="R42" t="s">
+        <v>103</v>
+      </c>
+      <c r="S42" t="s">
+        <v>106</v>
+      </c>
+      <c r="T42" t="s">
+        <v>107</v>
+      </c>
+      <c r="U42" t="s">
+        <v>108</v>
+      </c>
+      <c r="V42" t="s">
+        <v>99</v>
+      </c>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AE42" s="13"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
         <v>80</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
         <v>81</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="M43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" t="s">
         <v>82</v>
       </c>
-      <c r="H42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="O43" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="P43" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R43" t="s">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s">
+        <v>104</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AE43" s="13"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O43" s="21"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+    <row r="44" spans="1:38" ht="17.7" x14ac:dyDescent="0.75">
+      <c r="X44" s="16"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD44" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH44" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI44" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ44" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B44" s="8">
-        <f>'Imperial Units'!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <f>B44-$B$28</f>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D44" s="9">
-        <f>'Imperial Units'!D44*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
-        <f>'Imperial Units'!E44/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <f>'Imperial Units'!F44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <f>'Imperial Units'!G44*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <f>'Imperial Units'!H44*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
-        <f>'Imperial Units'!I44*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="9">
-        <f>'Imperial Units'!J44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8">
-        <f>'Imperial Units'!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="8">
-        <f t="shared" ref="C45:C49" si="6">B45-$B$28</f>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D45" s="9">
-        <f>'Imperial Units'!D45*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <f>'Imperial Units'!E45/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <f>'Imperial Units'!F45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <f>'Imperial Units'!G45*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <f>'Imperial Units'!H45*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <f>'Imperial Units'!I45*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="9">
-        <f>'Imperial Units'!J45</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" s="8">
-        <f>'Imperial Units'!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="8">
-        <f t="shared" si="6"/>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D46" s="9">
-        <f>'Imperial Units'!D46*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9">
-        <f>'Imperial Units'!E46/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <f>'Imperial Units'!F46</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <f>'Imperial Units'!G46*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <f>'Imperial Units'!H46*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
-        <f>'Imperial Units'!I46*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="9">
-        <f>'Imperial Units'!J46</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47" s="8">
-        <f>'Imperial Units'!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="8">
-        <f t="shared" si="6"/>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D47" s="9">
-        <f>'Imperial Units'!D47*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="9">
-        <f>'Imperial Units'!E47/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <f>'Imperial Units'!F47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <f>'Imperial Units'!G47*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <f>'Imperial Units'!H47*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <f>'Imperial Units'!I47*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <f>'Imperial Units'!J47</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" s="8">
-        <f>'Imperial Units'!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="8">
-        <f t="shared" si="6"/>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D48" s="9">
-        <f>'Imperial Units'!D48*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <f>'Imperial Units'!E48/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <f>'Imperial Units'!F48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <f>'Imperial Units'!G48*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <f>'Imperial Units'!H48*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <f>'Imperial Units'!I48*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
-        <f>'Imperial Units'!J48</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="21"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8">
-        <f t="shared" si="6"/>
-        <v>-0.65208333333333335</v>
-      </c>
-      <c r="D49" s="9">
-        <f>'Imperial Units'!D49*0.3048</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
-        <f>'Imperial Units'!E49/0.514444</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <f>'Imperial Units'!F49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <f>'Imperial Units'!G49*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <f>'Imperial Units'!H49*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <f>'Imperial Units'!I49*0.45359237</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <f>'Imperial Units'!J49</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O51" s="21"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O53" s="21"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O55" s="21"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" t="s">
-        <v>59</v>
-      </c>
-      <c r="M56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" t="s">
-        <v>82</v>
-      </c>
-      <c r="K57" t="s">
-        <v>82</v>
-      </c>
-      <c r="L57" t="s">
-        <v>83</v>
-      </c>
-      <c r="M57" t="s">
-        <v>26</v>
-      </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="O58" s="21"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" s="11">
+      <c r="B45" s="11">
         <f>'Imperial Units'!B59</f>
         <v>2.013888888888889E-2</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C45" s="12">
         <f>'Imperial Units'!C59</f>
         <v>25</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D45" s="12">
         <f>'Imperial Units'!D59*0.3048</f>
         <v>1990.3440000000001</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E45" s="9">
+        <f>101325*(1+((0.00649*D45)/288.15))^(-9.80665/(0.00649*287))</f>
+        <v>80435.102877343423</v>
+      </c>
+      <c r="F45" s="12">
         <f>'Imperial Units'!E59*0.514444</f>
         <v>82.311040000000006</v>
       </c>
-      <c r="F59" s="13">
+      <c r="G45" s="9">
+        <f>F45-2*0.514444</f>
+        <v>81.282152000000011</v>
+      </c>
+      <c r="H45" s="13">
         <f>'Imperial Units'!F59</f>
         <v>5.5</v>
       </c>
-      <c r="G59" s="13">
+      <c r="I45" s="13">
         <f>'Imperial Units'!G59</f>
         <v>-0.1</v>
       </c>
-      <c r="H59" s="13">
+      <c r="J45" s="13">
         <f>'Imperial Units'!H59</f>
         <v>3.1</v>
       </c>
-      <c r="I59" s="12">
+      <c r="K45" s="12">
         <f>'Imperial Units'!I59</f>
         <v>-1</v>
       </c>
-      <c r="J59" s="12">
+      <c r="L45" s="12">
         <f>'Imperial Units'!J59*0.45359237</f>
         <v>200.48782754000001</v>
       </c>
-      <c r="K59" s="12">
+      <c r="M45" s="12">
         <f>'Imperial Units'!K59*0.45359237</f>
         <v>217.27074523000002</v>
       </c>
-      <c r="L59" s="12">
+      <c r="N45" s="12">
         <f>'Imperial Units'!L59*0.45359237</f>
         <v>242.67191795000002</v>
       </c>
-      <c r="M59" s="13">
-        <f>'Imperial Units'!M59</f>
-        <v>2.5</v>
-      </c>
-      <c r="N59" s="9">
-        <f>E59/SQRT(1.4*287*(J28+273.15))</f>
-        <v>0.24394477154558439</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P59" s="18">
-        <f>$P$16-L59</f>
+      <c r="O45" s="13">
+        <f>'Imperial Units'!M59+273.15</f>
+        <v>275.64999999999998</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" ref="P45:P51" si="12">O45/(1+(0.4/2)*Q45^2)</f>
+        <v>271.75785059088309</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" ref="Q45:Q51" si="13">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*G45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.26760159913560244</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" ref="R45:R51" si="14">Q45*SQRT(1.4*287*P45)</f>
+        <v>88.426965134600351</v>
+      </c>
+      <c r="S45" s="9">
+        <f t="shared" ref="S45:S51" si="15">R45*SQRT(E45/101325)</f>
+        <v>78.78603136894526</v>
+      </c>
+      <c r="T45" s="9">
+        <f t="shared" ref="T45:T51" si="16">288.15-0.00649*D45</f>
+        <v>275.23266744</v>
+      </c>
+      <c r="U45" s="33">
+        <f>P45-T45</f>
+        <v>-3.4748168491169054</v>
+      </c>
+      <c r="V45">
+        <v>3929.46</v>
+      </c>
+      <c r="W45" s="12"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z45" s="18">
+        <f t="shared" ref="Z45:Z51" si="17">$Z$16-N45</f>
         <v>6504.2308701000002</v>
       </c>
-      <c r="Q59" s="18">
-        <f t="shared" ref="Q59:Q65" si="7">P59*9.80665</f>
+      <c r="AA45" s="18">
+        <f t="shared" ref="AA45:AA51" si="18">Z45*9.80665</f>
         <v>63784.715662266164</v>
       </c>
-      <c r="R59" s="29">
-        <f>2*Q59/(1.225*E59^2*$T$2)</f>
-        <v>0.51235750020238557</v>
-      </c>
-      <c r="S59" s="29">
-        <f>$T$6+R59^2/(PI()*$T$5*$T$7)</f>
-        <v>5.2377491582914923E-2</v>
-      </c>
-      <c r="T59" s="30">
-        <f>R59^2</f>
-        <v>0.26251020801363756</v>
-      </c>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="26">
+        <f>2*AA45/(1.225*$S45^2*$AI$2)</f>
+        <v>0.55923047088683875</v>
+      </c>
+      <c r="AD45" s="26">
+        <f>2*V45/(1.225*$S45^2*$AI$2)</f>
+        <v>3.4451415880983244E-2</v>
+      </c>
+      <c r="AE45" s="35">
+        <f>H45</f>
+        <v>5.5</v>
+      </c>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="40">
+        <f>AC51</f>
+        <v>0.38723338090377868</v>
+      </c>
+      <c r="AH45" s="40">
+        <f>AD51</f>
+        <v>2.332695998475437E-2</v>
+      </c>
+      <c r="AI45" s="40">
+        <f>AE51</f>
+        <v>3.6</v>
+      </c>
+      <c r="AJ45" s="40">
+        <f>AG45^2</f>
+        <v>0.14994969128617094</v>
+      </c>
+      <c r="AK45" s="41"/>
+      <c r="AL45" s="42"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B46" s="11">
         <f>'Imperial Units'!B60</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C46" s="12">
         <f>'Imperial Units'!C60</f>
         <v>35</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D46" s="12">
         <f>'Imperial Units'!D60*0.3048</f>
         <v>2045.2080000000001</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E46" s="9">
+        <f t="shared" ref="E46:E51" si="19">101325*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
+        <v>79936.102449549624</v>
+      </c>
+      <c r="F46" s="12">
         <f>'Imperial Units'!E60*0.514444</f>
         <v>76.652156000000005</v>
       </c>
-      <c r="F60" s="13">
+      <c r="G46" s="9">
+        <f t="shared" ref="G46:G51" si="20">F46-2*0.514444</f>
+        <v>75.62326800000001</v>
+      </c>
+      <c r="H46" s="13">
         <f>'Imperial Units'!F60</f>
         <v>6.5</v>
       </c>
-      <c r="G60" s="13">
+      <c r="I46" s="13">
         <f>'Imperial Units'!G60</f>
         <v>-0.4</v>
       </c>
-      <c r="H60" s="13">
+      <c r="J46" s="13">
         <f>'Imperial Units'!H60</f>
         <v>3.1</v>
       </c>
-      <c r="I60" s="12">
+      <c r="K46" s="12">
         <f>'Imperial Units'!I60</f>
         <v>-25</v>
       </c>
-      <c r="J60" s="12">
+      <c r="L46" s="12">
         <f>'Imperial Units'!J60*0.45359237</f>
         <v>198.67345806</v>
       </c>
-      <c r="K60" s="12">
+      <c r="M46" s="12">
         <f>'Imperial Units'!K60*0.45359237</f>
         <v>215.45637575000001</v>
       </c>
-      <c r="L60" s="12">
+      <c r="N46" s="12">
         <f>'Imperial Units'!L60*0.45359237</f>
         <v>252.65095009000001</v>
       </c>
-      <c r="M60" s="13">
-        <f>'Imperial Units'!M60</f>
-        <v>2</v>
-      </c>
-      <c r="N60" s="9">
-        <f t="shared" ref="N60:N65" si="8">E60/SQRT(1.4*287*(J29+273.15))</f>
-        <v>0.22785813101507013</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" s="18">
-        <f t="shared" ref="P60:P65" si="9">$P$16-L60</f>
+      <c r="O46" s="13">
+        <f>'Imperial Units'!M60+273.15</f>
+        <v>275.14999999999998</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" si="12"/>
+        <v>271.75858852704795</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" si="13"/>
+        <v>0.24979492204700235</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="14"/>
+        <v>82.542992732033952</v>
+      </c>
+      <c r="S46" s="9">
+        <f t="shared" si="15"/>
+        <v>73.315092891232794</v>
+      </c>
+      <c r="T46" s="9">
+        <f t="shared" si="16"/>
+        <v>274.87660008</v>
+      </c>
+      <c r="U46" s="33">
+        <f t="shared" ref="U46:U50" si="21">P46-T46</f>
+        <v>-3.1180115529520549</v>
+      </c>
+      <c r="V46">
+        <v>3999.92</v>
+      </c>
+      <c r="W46" s="12"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z46" s="18">
+        <f t="shared" si="17"/>
         <v>6494.2518379599996</v>
       </c>
-      <c r="Q60" s="18">
-        <f t="shared" si="7"/>
+      <c r="AA46" s="18">
+        <f t="shared" si="18"/>
         <v>63686.85478673043</v>
       </c>
-      <c r="R60" s="29">
-        <f t="shared" ref="R60:R64" si="10">2*Q60/(1.225*E60^2*$T$2)</f>
-        <v>0.58989362693827274</v>
-      </c>
-      <c r="S60" s="29">
-        <f>$T$6+R60^2/(PI()*$T$5*$T$7)</f>
-        <v>5.6407176571454255E-2</v>
-      </c>
-      <c r="T60" s="30">
-        <f t="shared" ref="T60:T64" si="11">R60^2</f>
-        <v>0.34797449110239009</v>
-      </c>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="26">
+        <f>2*AA46/(1.225*$S46^2*$AI$2)</f>
+        <v>0.64481580733201926</v>
+      </c>
+      <c r="AD46" s="26">
+        <f>2*V46/(1.225*$S46^2*$AI$2)</f>
+        <v>4.0498336001998425E-2</v>
+      </c>
+      <c r="AE46" s="35">
+        <f>H46</f>
+        <v>6.5</v>
+      </c>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="40">
+        <f>AC50</f>
+        <v>0.42714202196542572</v>
+      </c>
+      <c r="AH46" s="40">
+        <f>AD50</f>
+        <v>2.5753591665663003E-2</v>
+      </c>
+      <c r="AI46" s="40">
+        <f>AE50</f>
+        <v>4</v>
+      </c>
+      <c r="AJ46" s="40">
+        <f t="shared" ref="AJ46:AJ51" si="22">AG46^2</f>
+        <v>0.18245030692871222</v>
+      </c>
+      <c r="AK46" s="41"/>
+      <c r="AL46" s="42"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B47" s="11">
         <f>'Imperial Units'!B61</f>
         <v>2.1527777777777781E-2</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C47" s="12">
         <f>'Imperial Units'!C61</f>
         <v>28</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D47" s="12">
         <f>'Imperial Units'!D61*0.3048</f>
         <v>2097.0239999999999</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E47" s="9">
+        <f t="shared" si="19"/>
+        <v>79468.203194419417</v>
+      </c>
+      <c r="F47" s="12">
         <f>'Imperial Units'!E61*0.514444</f>
         <v>72.02216</v>
       </c>
-      <c r="F61" s="13">
+      <c r="G47" s="9">
+        <f t="shared" si="20"/>
+        <v>70.993272000000005</v>
+      </c>
+      <c r="H47" s="13">
         <f>'Imperial Units'!F61</f>
         <v>7.5</v>
       </c>
-      <c r="G61" s="13">
+      <c r="I47" s="13">
         <f>'Imperial Units'!G61</f>
         <v>-0.9</v>
       </c>
-      <c r="H61" s="13">
+      <c r="J47" s="13">
         <f>'Imperial Units'!H61</f>
         <v>3.1</v>
       </c>
-      <c r="I61" s="12">
+      <c r="K47" s="12">
         <f>'Imperial Units'!I61</f>
         <v>-39</v>
       </c>
-      <c r="J61" s="12">
+      <c r="L47" s="12">
         <f>'Imperial Units'!J61*0.45359237</f>
         <v>196.85908858000002</v>
       </c>
-      <c r="K61" s="12">
+      <c r="M47" s="12">
         <f>'Imperial Units'!K61*0.45359237</f>
         <v>213.64200627000002</v>
       </c>
-      <c r="L61" s="12">
+      <c r="N47" s="12">
         <f>'Imperial Units'!L61*0.45359237</f>
         <v>257.64046616000002</v>
       </c>
-      <c r="M61" s="13">
-        <f>'Imperial Units'!M61</f>
-        <v>1.5</v>
-      </c>
-      <c r="N61" s="9">
-        <f t="shared" si="8"/>
-        <v>0.21474395132284077</v>
-      </c>
-      <c r="O61" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P61" s="18">
-        <f t="shared" si="9"/>
+      <c r="O47" s="13">
+        <f>'Imperial Units'!M61+273.15</f>
+        <v>274.64999999999998</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="12"/>
+        <v>271.64392209300581</v>
+      </c>
+      <c r="Q47" s="34">
+        <f t="shared" si="13"/>
+        <v>0.23522589080588541</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="14"/>
+        <v>77.712357544673935</v>
+      </c>
+      <c r="S47" s="9">
+        <f t="shared" si="15"/>
+        <v>68.822187876151773</v>
+      </c>
+      <c r="T47" s="9">
+        <f t="shared" si="16"/>
+        <v>274.54031423999999</v>
+      </c>
+      <c r="U47" s="33">
+        <f t="shared" si="21"/>
+        <v>-2.8963921469941738</v>
+      </c>
+      <c r="V47">
+        <v>4057.88</v>
+      </c>
+      <c r="W47" s="12"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z47" s="18">
+        <f t="shared" si="17"/>
         <v>6489.2623218899998</v>
       </c>
-      <c r="Q61" s="18">
-        <f t="shared" si="7"/>
+      <c r="AA47" s="18">
+        <f t="shared" si="18"/>
         <v>63637.924348962566</v>
       </c>
-      <c r="R61" s="29">
-        <f t="shared" si="10"/>
-        <v>0.66766156198440596</v>
-      </c>
-      <c r="S61" s="29">
-        <f>$T$6+R61^2/(PI()*$T$5*$T$7)</f>
-        <v>6.1018377690061076E-2</v>
-      </c>
-      <c r="T61" s="30">
-        <f t="shared" si="11"/>
-        <v>0.44577196135145675</v>
-      </c>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="26">
+        <f>2*AA47/(1.225*$S47^2*$AI$2)</f>
+        <v>0.73119246711242358</v>
+      </c>
+      <c r="AD47" s="26">
+        <f>2*V47/(1.225*$S47^2*$AI$2)</f>
+        <v>4.6624576756713963E-2</v>
+      </c>
+      <c r="AE47" s="35">
+        <f>H47</f>
+        <v>7.5</v>
+      </c>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="40">
+        <f>AC49</f>
+        <v>0.48597842484991205</v>
+      </c>
+      <c r="AH47" s="40">
+        <f>AD49</f>
+        <v>2.9567378779607054E-2</v>
+      </c>
+      <c r="AI47" s="40">
+        <f>AE49</f>
+        <v>4.8</v>
+      </c>
+      <c r="AJ47" s="40">
+        <f t="shared" si="22"/>
+        <v>0.23617502941960161</v>
+      </c>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="42"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
         <v>4</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B48" s="11">
         <f>'Imperial Units'!B62</f>
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C48" s="12">
         <f>'Imperial Units'!C62</f>
         <v>17</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D48" s="12">
         <f>'Imperial Units'!D62*0.3048</f>
         <v>2179.3200000000002</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E48" s="9">
+        <f t="shared" si="19"/>
+        <v>78731.749499247249</v>
+      </c>
+      <c r="F48" s="12">
         <f>'Imperial Units'!E62*0.514444</f>
         <v>66.877719999999997</v>
       </c>
-      <c r="F62" s="13">
+      <c r="G48" s="9">
+        <f t="shared" si="20"/>
+        <v>65.848832000000002</v>
+      </c>
+      <c r="H48" s="13">
         <f>'Imperial Units'!F62</f>
         <v>9.1</v>
       </c>
-      <c r="G62" s="13">
+      <c r="I48" s="13">
         <f>'Imperial Units'!G62</f>
         <v>-1.5</v>
       </c>
-      <c r="H62" s="13">
+      <c r="J48" s="13">
         <f>'Imperial Units'!H62</f>
         <v>3.1</v>
       </c>
-      <c r="I62" s="12">
+      <c r="K48" s="12">
         <f>'Imperial Units'!I62</f>
         <v>-50</v>
       </c>
-      <c r="J62" s="12">
+      <c r="L48" s="12">
         <f>'Imperial Units'!J62*0.45359237</f>
         <v>195.04471910000001</v>
       </c>
-      <c r="K62" s="12">
+      <c r="M48" s="12">
         <f>'Imperial Units'!K62*0.45359237</f>
         <v>211.37404442000002</v>
       </c>
-      <c r="L62" s="12">
+      <c r="N48" s="12">
         <f>'Imperial Units'!L62*0.45359237</f>
         <v>268.52668304000002</v>
       </c>
-      <c r="M62" s="13">
-        <f>'Imperial Units'!M62</f>
-        <v>0.8</v>
-      </c>
-      <c r="N62" s="9">
-        <f t="shared" si="8"/>
-        <v>0.19997738252200661</v>
-      </c>
-      <c r="O62" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P62" s="18">
-        <f t="shared" si="9"/>
+      <c r="O48" s="13">
+        <f>'Imperial Units'!M62+273.15</f>
+        <v>273.95</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="12"/>
+        <v>271.34174185691398</v>
+      </c>
+      <c r="Q48" s="34">
+        <f t="shared" si="13"/>
+        <v>0.21923100958541789</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="14"/>
+        <v>72.38777942069926</v>
+      </c>
+      <c r="S48" s="9">
+        <f t="shared" si="15"/>
+        <v>63.808994215795799</v>
+      </c>
+      <c r="T48" s="9">
+        <f t="shared" si="16"/>
+        <v>274.00621319999999</v>
+      </c>
+      <c r="U48" s="33">
+        <f t="shared" si="21"/>
+        <v>-2.6644713430860065</v>
+      </c>
+      <c r="V48">
+        <v>4131.17</v>
+      </c>
+      <c r="W48" s="12"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z48" s="18">
+        <f t="shared" si="17"/>
         <v>6478.3761050100002</v>
       </c>
-      <c r="Q62" s="18">
-        <f t="shared" si="7"/>
+      <c r="AA48" s="18">
+        <f t="shared" si="18"/>
         <v>63531.167030196317</v>
       </c>
-      <c r="R62" s="29">
-        <f t="shared" si="10"/>
-        <v>0.77303039075602054</v>
-      </c>
-      <c r="S62" s="29">
-        <f>$T$6+R62^2/(PI()*$T$5*$T$7)</f>
-        <v>6.8176015633290898E-2</v>
-      </c>
-      <c r="T62" s="30">
-        <f t="shared" si="11"/>
-        <v>0.59757598503240583</v>
-      </c>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="26">
+        <f>2*AA48/(1.225*$S48^2*$AI$2)</f>
+        <v>0.84917204201754848</v>
+      </c>
+      <c r="AD48" s="26">
+        <f>2*V48/(1.225*$S48^2*$AI$2)</f>
+        <v>5.5218158721281649E-2</v>
+      </c>
+      <c r="AE48" s="35">
+        <f>H48</f>
+        <v>9.1</v>
+      </c>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="40">
+        <f>AC45</f>
+        <v>0.55923047088683875</v>
+      </c>
+      <c r="AH48" s="40">
+        <f>AD45</f>
+        <v>3.4451415880983244E-2</v>
+      </c>
+      <c r="AI48" s="40">
+        <f>AE45</f>
+        <v>5.5</v>
+      </c>
+      <c r="AJ48" s="40">
+        <f t="shared" si="22"/>
+        <v>0.31273871956831539</v>
+      </c>
+      <c r="AK48" s="41"/>
+      <c r="AL48" s="42"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B49" s="11">
         <f>'Imperial Units'!B63</f>
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C49" s="12">
         <f>'Imperial Units'!C63</f>
         <v>50</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D49" s="12">
         <f>'Imperial Units'!D63*0.3048</f>
         <v>1959.864</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E49" s="9">
+        <f t="shared" si="19"/>
+        <v>80713.926835132967</v>
+      </c>
+      <c r="F49" s="12">
         <f>'Imperial Units'!E63*0.514444</f>
         <v>87.969924000000006</v>
       </c>
-      <c r="F63" s="13">
+      <c r="G49" s="9">
+        <f t="shared" si="20"/>
+        <v>86.941036000000011</v>
+      </c>
+      <c r="H49" s="13">
         <f>'Imperial Units'!F63</f>
         <v>4.8</v>
       </c>
-      <c r="G63" s="13">
+      <c r="I49" s="13">
         <f>'Imperial Units'!G63</f>
         <v>0.3</v>
       </c>
-      <c r="H63" s="13">
+      <c r="J49" s="13">
         <f>'Imperial Units'!H63</f>
         <v>3.1</v>
       </c>
-      <c r="I63" s="12">
+      <c r="K49" s="12">
         <f>'Imperial Units'!I63</f>
         <v>29</v>
       </c>
-      <c r="J63" s="12">
+      <c r="L49" s="12">
         <f>'Imperial Units'!J63*0.45359237</f>
         <v>202.30219702000002</v>
       </c>
-      <c r="K63" s="12">
+      <c r="M49" s="12">
         <f>'Imperial Units'!K63*0.45359237</f>
         <v>219.08511471</v>
       </c>
-      <c r="L63" s="12">
+      <c r="N49" s="12">
         <f>'Imperial Units'!L63*0.45359237</f>
         <v>279.41289992000003</v>
       </c>
-      <c r="M63" s="13">
-        <f>'Imperial Units'!M63</f>
-        <v>3.2</v>
-      </c>
-      <c r="N63" s="9">
-        <f t="shared" si="8"/>
-        <v>0.26361602619776986</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P63" s="18">
-        <f t="shared" si="9"/>
+      <c r="O49" s="13">
+        <f>'Imperial Units'!M63+273.15</f>
+        <v>276.34999999999997</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="12"/>
+        <v>271.91186717209803</v>
+      </c>
+      <c r="Q49" s="34">
+        <f t="shared" si="13"/>
+        <v>0.28567423239659723</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="14"/>
+        <v>94.425678982229215</v>
+      </c>
+      <c r="S49" s="9">
+        <f t="shared" si="15"/>
+        <v>84.276414129073416</v>
+      </c>
+      <c r="T49" s="9">
+        <f t="shared" si="16"/>
+        <v>275.43048263999998</v>
+      </c>
+      <c r="U49" s="33">
+        <f t="shared" si="21"/>
+        <v>-3.5186154679019523</v>
+      </c>
+      <c r="V49">
+        <v>3858.8</v>
+      </c>
+      <c r="W49" s="12"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z49" s="18">
+        <f t="shared" si="17"/>
         <v>6467.4898881299996</v>
       </c>
-      <c r="Q63" s="18">
-        <f t="shared" si="7"/>
+      <c r="AA49" s="18">
+        <f t="shared" si="18"/>
         <v>63424.40971143006</v>
       </c>
-      <c r="R63" s="29">
-        <f t="shared" si="10"/>
-        <v>0.4460264899510662</v>
-      </c>
-      <c r="S63" s="29">
-        <f>$T$6+R63^2/(PI()*$T$5*$T$7)</f>
-        <v>4.9380106058440343E-2</v>
-      </c>
-      <c r="T63" s="30">
-        <f t="shared" si="11"/>
-        <v>0.19893962973806856</v>
-      </c>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="26">
+        <f>2*AA49/(1.225*$S49^2*$AI$2)</f>
+        <v>0.48597842484991205</v>
+      </c>
+      <c r="AD49" s="26">
+        <f>2*V49/(1.225*$S49^2*$AI$2)</f>
+        <v>2.9567378779607054E-2</v>
+      </c>
+      <c r="AE49" s="35">
+        <f>H49</f>
+        <v>4.8</v>
+      </c>
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="40">
+        <f>AC46</f>
+        <v>0.64481580733201926</v>
+      </c>
+      <c r="AH49" s="40">
+        <f>AD46</f>
+        <v>4.0498336001998425E-2</v>
+      </c>
+      <c r="AI49" s="40">
+        <f>AE46</f>
+        <v>6.5</v>
+      </c>
+      <c r="AJ49" s="40">
+        <f t="shared" si="22"/>
+        <v>0.41578742538524377</v>
+      </c>
+      <c r="AK49" s="41"/>
+      <c r="AL49" s="42"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
         <v>6</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B50" s="11">
         <f>'Imperial Units'!B64</f>
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C50" s="12">
         <f>'Imperial Units'!C64</f>
         <v>36</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D50" s="12">
         <f>'Imperial Units'!D64*0.3048</f>
         <v>1813.5600000000002</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E50" s="9">
+        <f t="shared" si="19"/>
+        <v>82068.399417247711</v>
+      </c>
+      <c r="F50" s="12">
         <f>'Imperial Units'!E64*0.514444</f>
         <v>93.628808000000006</v>
       </c>
-      <c r="F64" s="13">
+      <c r="G50" s="9">
+        <f t="shared" si="20"/>
+        <v>92.599920000000012</v>
+      </c>
+      <c r="H50" s="13">
         <f>'Imperial Units'!F64</f>
         <v>4</v>
       </c>
-      <c r="G64" s="13">
+      <c r="I50" s="13">
         <f>'Imperial Units'!G64</f>
         <v>0.6</v>
       </c>
-      <c r="H64" s="13">
+      <c r="J50" s="13">
         <f>'Imperial Units'!H64</f>
         <v>3.1</v>
       </c>
-      <c r="I64" s="12">
+      <c r="K50" s="12">
         <f>'Imperial Units'!I64</f>
         <v>43</v>
       </c>
-      <c r="J64" s="12">
+      <c r="L50" s="12">
         <f>'Imperial Units'!J64*0.45359237</f>
         <v>206.38452835000001</v>
       </c>
-      <c r="K64" s="12">
+      <c r="M50" s="12">
         <f>'Imperial Units'!K64*0.45359237</f>
         <v>222.71385367000002</v>
       </c>
-      <c r="L64" s="12">
+      <c r="N50" s="12">
         <f>'Imperial Units'!L64*0.45359237</f>
         <v>288.03115495000003</v>
       </c>
-      <c r="M64" s="13">
-        <f>'Imperial Units'!M64</f>
-        <v>4.2</v>
-      </c>
-      <c r="N64" s="9">
-        <f t="shared" si="8"/>
-        <v>0.28067507244637535</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P64" s="18">
-        <f t="shared" si="9"/>
+      <c r="O50" s="13">
+        <f>'Imperial Units'!M64+273.15</f>
+        <v>277.34999999999997</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="12"/>
+        <v>272.39049429548606</v>
+      </c>
+      <c r="Q50" s="34">
+        <f t="shared" si="13"/>
+        <v>0.30172286670196724</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="14"/>
+        <v>99.818069307958709</v>
+      </c>
+      <c r="S50" s="9">
+        <f t="shared" si="15"/>
+        <v>89.833607647007724</v>
+      </c>
+      <c r="T50" s="9">
+        <f t="shared" si="16"/>
+        <v>276.37999559999997</v>
+      </c>
+      <c r="U50" s="33">
+        <f t="shared" si="21"/>
+        <v>-3.9895013045139081</v>
+      </c>
+      <c r="V50">
+        <v>3818.9399999999996</v>
+      </c>
+      <c r="W50" s="12"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z50" s="18">
+        <f t="shared" si="17"/>
         <v>6458.8716330999996</v>
       </c>
-      <c r="Q64" s="18">
-        <f t="shared" si="7"/>
+      <c r="AA50" s="18">
+        <f t="shared" si="18"/>
         <v>63339.893500740109</v>
       </c>
-      <c r="R64" s="29">
-        <f t="shared" si="10"/>
-        <v>0.39321582917293663</v>
-      </c>
-      <c r="S64" s="29">
-        <f>$T$6+R64^2/(PI()*$T$5*$T$7)</f>
-        <v>4.7290350831026291E-2</v>
-      </c>
-      <c r="T64" s="30">
-        <f t="shared" si="11"/>
-        <v>0.15461868831216008</v>
-      </c>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="26">
+        <f>2*AA50/(1.225*$S50^2*$AI$2)</f>
+        <v>0.42714202196542572</v>
+      </c>
+      <c r="AD50" s="26">
+        <f>2*V50/(1.225*$S50^2*$AI$2)</f>
+        <v>2.5753591665663003E-2</v>
+      </c>
+      <c r="AE50" s="35">
+        <f>H50</f>
+        <v>4</v>
+      </c>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="40">
+        <f>AC47</f>
+        <v>0.73119246711242358</v>
+      </c>
+      <c r="AH50" s="40">
+        <f>AD47</f>
+        <v>4.6624576756713963E-2</v>
+      </c>
+      <c r="AI50" s="40">
+        <f>AE47</f>
+        <v>7.5</v>
+      </c>
+      <c r="AJ50" s="40">
+        <f t="shared" si="22"/>
+        <v>0.53464242396195261</v>
+      </c>
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="42"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
         <v>7</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B51" s="11">
         <f>'Imperial Units'!B65</f>
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C51" s="12">
         <f>'Imperial Units'!C65</f>
         <v>10</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D51" s="12">
         <f>'Imperial Units'!D65*0.3048</f>
         <v>1542.288</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E51" s="9">
+        <f t="shared" si="19"/>
+        <v>84652.088933241597</v>
+      </c>
+      <c r="F51" s="12">
         <f>'Imperial Units'!E65*0.514444</f>
         <v>97.74436</v>
       </c>
-      <c r="F65" s="13">
+      <c r="G51" s="9">
+        <f t="shared" si="20"/>
+        <v>96.715472000000005</v>
+      </c>
+      <c r="H51" s="13">
         <f>'Imperial Units'!F65</f>
         <v>3.6</v>
       </c>
-      <c r="G65" s="13">
+      <c r="I51" s="13">
         <f>'Imperial Units'!G65</f>
         <v>0.9</v>
       </c>
-      <c r="H65" s="13">
+      <c r="J51" s="13">
         <f>'Imperial Units'!H65</f>
         <v>3.1</v>
       </c>
-      <c r="I65" s="12">
+      <c r="K51" s="12">
         <f>'Imperial Units'!I65</f>
         <v>79</v>
       </c>
-      <c r="J65" s="12">
+      <c r="L51" s="12">
         <f>'Imperial Units'!J65*0.45359237</f>
         <v>211.37404442000002</v>
       </c>
-      <c r="K65" s="12">
+      <c r="M51" s="12">
         <f>'Imperial Units'!K65*0.45359237</f>
         <v>228.61055448000002</v>
       </c>
-      <c r="L65" s="12">
+      <c r="N51" s="12">
         <f>'Imperial Units'!L65*0.45359237</f>
         <v>303.90688790000002</v>
       </c>
-      <c r="M65" s="13">
-        <f>'Imperial Units'!M65</f>
-        <v>6.8</v>
-      </c>
-      <c r="N65" s="9">
-        <f t="shared" si="8"/>
-        <v>0.29504355938219456</v>
-      </c>
-      <c r="O65" s="21" t="s">
+      <c r="O51" s="13">
+        <f>'Imperial Units'!M65+273.15</f>
+        <v>279.95</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="12"/>
+        <v>274.65936999102138</v>
+      </c>
+      <c r="Q51" s="34">
+        <f t="shared" si="13"/>
+        <v>0.31034266689804529</v>
+      </c>
+      <c r="R51" s="9">
+        <f t="shared" si="14"/>
+        <v>103.09643877476087</v>
+      </c>
+      <c r="S51" s="9">
+        <f t="shared" si="15"/>
+        <v>94.23325601085709</v>
+      </c>
+      <c r="T51" s="9">
+        <f t="shared" si="16"/>
+        <v>278.14055087999998</v>
+      </c>
+      <c r="U51" s="33">
+        <f t="shared" ref="U51" si="23">P51-T51</f>
+        <v>-3.4811808889785993</v>
+      </c>
+      <c r="V51">
+        <v>3806.2200000000003</v>
+      </c>
+      <c r="W51" s="12"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z51" s="18">
+        <f t="shared" si="17"/>
+        <v>6442.9959001500001</v>
+      </c>
+      <c r="AA51" s="18">
+        <f t="shared" si="18"/>
+        <v>63184.205744205996</v>
+      </c>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="26">
+        <f>2*AA51/(1.225*$S51^2*$AI$2)</f>
+        <v>0.38723338090377868</v>
+      </c>
+      <c r="AD51" s="26">
+        <f>2*V51/(1.225*$S51^2*$AI$2)</f>
+        <v>2.332695998475437E-2</v>
+      </c>
+      <c r="AE51" s="35">
+        <f>H51</f>
+        <v>3.6</v>
+      </c>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="40">
+        <f>AC48</f>
+        <v>0.84917204201754848</v>
+      </c>
+      <c r="AH51" s="40">
+        <f>AD48</f>
+        <v>5.5218158721281649E-2</v>
+      </c>
+      <c r="AI51" s="40">
+        <f>AE48</f>
+        <v>9.1</v>
+      </c>
+      <c r="AJ51" s="40">
+        <f t="shared" si="22"/>
+        <v>0.72109315694425313</v>
+      </c>
+      <c r="AK51" s="41"/>
+      <c r="AL51" s="42"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>70</v>
+      </c>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>97</v>
+      </c>
+      <c r="R59" t="s">
+        <v>103</v>
+      </c>
+      <c r="S59" t="s">
+        <v>106</v>
+      </c>
+      <c r="T59" t="s">
+        <v>107</v>
+      </c>
+      <c r="U59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V59" t="s">
+        <v>99</v>
+      </c>
+      <c r="W59" s="9"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
         <v>102</v>
       </c>
-      <c r="P65" s="18">
-        <f t="shared" si="9"/>
-        <v>6442.9959001500001</v>
-      </c>
-      <c r="Q65" s="18">
-        <f t="shared" si="7"/>
-        <v>63184.205744205996</v>
-      </c>
-      <c r="R65" s="29">
-        <f t="shared" ref="R65" si="12">2*Q65/(1.225*E65^2*$T$2)</f>
-        <v>0.35991319439458458</v>
-      </c>
-      <c r="S65" s="29">
-        <f>$T$6+R65^2/(PI()*$T$5*$T$7)</f>
-        <v>4.6107760231027826E-2</v>
-      </c>
-      <c r="T65" s="30">
-        <f t="shared" ref="T65" si="13">R65^2</f>
-        <v>0.12953750749931403</v>
-      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" t="s">
+        <v>82</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>80</v>
+      </c>
+      <c r="R60" t="s">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s">
+        <v>104</v>
+      </c>
+      <c r="V60" t="s">
+        <v>32</v>
+      </c>
+      <c r="W60" s="9"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="N66" s="9"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
+    <row r="61" spans="1:38" ht="17.7" x14ac:dyDescent="0.75">
+      <c r="W61" s="9"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD61" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE61" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF61" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="N67" s="9"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N68" s="9"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="N69" s="9"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="N70" s="9"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N71" s="9"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="N72" s="9"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" t="s">
-        <v>31</v>
-      </c>
-      <c r="J73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" t="s">
-        <v>59</v>
-      </c>
-      <c r="M73" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="9"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" t="s">
-        <v>81</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" t="s">
-        <v>82</v>
-      </c>
-      <c r="K74" t="s">
-        <v>82</v>
-      </c>
-      <c r="L74" t="s">
-        <v>83</v>
-      </c>
-      <c r="M74" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="9"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
         <v>1</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B62" s="11">
         <f>'Imperial Units'!B75</f>
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C62" s="12">
         <f>'Imperial Units'!C75</f>
         <v>55</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D62" s="12">
         <f>'Imperial Units'!D75*0.3048</f>
         <v>1676.4</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E62" s="9">
+        <f t="shared" ref="E62:E63" si="24">101325*(1+((0.00649*D62)/288.15))^(-9.80665/(0.00649*287))</f>
+        <v>83362.847994307915</v>
+      </c>
+      <c r="F62" s="12">
         <f>'Imperial Units'!E75*0.514444</f>
         <v>81.796596000000008</v>
       </c>
-      <c r="F75" s="13">
+      <c r="G62" s="9">
+        <f t="shared" ref="G62:G63" si="25">F62-2*0.514444</f>
+        <v>80.767708000000013</v>
+      </c>
+      <c r="H62" s="13">
         <f>'Imperial Units'!F75</f>
         <v>5.7</v>
       </c>
-      <c r="G75" s="13">
+      <c r="I62" s="13">
         <f>'Imperial Units'!G75</f>
         <v>0</v>
       </c>
-      <c r="H75" s="13">
+      <c r="J62" s="13">
         <f>'Imperial Units'!H75</f>
         <v>3.1</v>
       </c>
-      <c r="I75" s="12">
+      <c r="K62" s="12">
         <f>'Imperial Units'!I75</f>
         <v>0</v>
       </c>
-      <c r="J75" s="12">
+      <c r="L62" s="12">
         <f>'Imperial Units'!J75*0.45359237</f>
         <v>203.20938176000001</v>
       </c>
-      <c r="K75" s="12">
+      <c r="M62" s="12">
         <f>'Imperial Units'!K75*0.45359237</f>
         <v>219.53870708000002</v>
       </c>
-      <c r="L75" s="12">
+      <c r="N62" s="12">
         <f>'Imperial Units'!L75*0.45359237</f>
         <v>317.06106663000003</v>
       </c>
-      <c r="M75" s="13">
-        <f>'Imperial Units'!M75</f>
-        <v>4.2</v>
-      </c>
-      <c r="N75" s="9">
-        <f t="shared" ref="N75:N76" si="14">E75/SQRT(1.4*287*(J44+273.15))</f>
-        <v>0.24690487337773126</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P75" s="18">
-        <f t="shared" ref="P75" si="15">$P$16-L75</f>
+      <c r="O62" s="13">
+        <f>'Imperial Units'!M75+273.15</f>
+        <v>277.34999999999997</v>
+      </c>
+      <c r="P62" s="9">
+        <f>O62/(1+(0.4/2)*Q62^2)</f>
+        <v>273.61416355801447</v>
+      </c>
+      <c r="Q62" s="34">
+        <f>SQRT(2/0.4*((1+101325/E62*((1+0.4/2.8*1.225/101325*G62^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.26128209033348937</v>
+      </c>
+      <c r="R62" s="9">
+        <f>Q62*SQRT(1.4*287*P62)</f>
+        <v>86.633108058922176</v>
+      </c>
+      <c r="S62" s="9">
+        <f>R62*SQRT(E62/101325)</f>
+        <v>78.579970412936149</v>
+      </c>
+      <c r="T62" s="9">
+        <f>288.15-0.00649*D62</f>
+        <v>277.27016399999997</v>
+      </c>
+      <c r="U62" s="33">
+        <f t="shared" ref="U62:U63" si="26">P62-T62</f>
+        <v>-3.6560004419854977</v>
+      </c>
+      <c r="V62">
+        <v>3911.01</v>
+      </c>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z62" s="18">
+        <f>$Z$16-N62</f>
         <v>6429.8417214199999</v>
       </c>
-      <c r="Q75" s="18">
-        <f t="shared" ref="Q75:Q76" si="16">P75*9.80665</f>
+      <c r="AA62" s="18">
+        <f t="shared" ref="AA62:AA63" si="27">Z62*9.80665</f>
         <v>63055.207317363442</v>
       </c>
-      <c r="R75" s="29">
-        <f t="shared" ref="R75:R76" si="17">2*Q75/(1.225*E75^2*$T$2)</f>
-        <v>0.51288872127463514</v>
-      </c>
-      <c r="S75" s="29">
-        <f>$T$6+R75^2/(PI()*$T$5*$T$7)</f>
-        <v>5.2403171281094313E-2</v>
-      </c>
-      <c r="T75" s="30">
-        <f t="shared" ref="T75:T76" si="18">R75^2</f>
-        <v>0.26305484041073035</v>
-      </c>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="26">
+        <f>2*AA62/(1.225*$S62^2*$AI$2)</f>
+        <v>0.55573773700445595</v>
+      </c>
+      <c r="AD62" s="26">
+        <f>2*V62/(1.225*$S62^2*$AI$2)</f>
+        <v>3.44697280251949E-2</v>
+      </c>
+      <c r="AE62" s="35">
+        <f>H62</f>
+        <v>5.7</v>
+      </c>
+      <c r="AF62" s="28">
+        <f>AC62^2</f>
+        <v>0.30884443233083386</v>
+      </c>
+      <c r="AG62" s="41"/>
+      <c r="AH62" s="41"/>
+      <c r="AI62" s="41"/>
+      <c r="AJ62" s="41"/>
+      <c r="AK62" s="41"/>
+      <c r="AL62" s="15"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
         <v>2</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B63" s="11">
         <f>'Imperial Units'!B76</f>
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C63" s="12">
         <f>'Imperial Units'!C76</f>
         <v>37</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D63" s="12">
         <f>'Imperial Units'!D76*0.3048</f>
         <v>1697.7360000000001</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E63" s="9">
+        <f t="shared" si="24"/>
+        <v>83159.902184557068</v>
+      </c>
+      <c r="F63" s="12">
         <f>'Imperial Units'!E76*0.514444</f>
         <v>81.282151999999996</v>
       </c>
-      <c r="F76" s="13">
+      <c r="G63" s="9">
+        <f t="shared" si="25"/>
+        <v>80.253264000000001</v>
+      </c>
+      <c r="H63" s="13">
         <f>'Imperial Units'!F76</f>
         <v>5.9</v>
       </c>
-      <c r="G76" s="13">
+      <c r="I63" s="13">
         <f>'Imperial Units'!G76</f>
         <v>-0.6</v>
       </c>
-      <c r="H76" s="13">
+      <c r="J63" s="13">
         <f>'Imperial Units'!H76</f>
         <v>3.1</v>
       </c>
-      <c r="I76" s="12">
+      <c r="K63" s="12">
         <f>'Imperial Units'!I76</f>
         <v>-33</v>
       </c>
-      <c r="J76" s="12">
+      <c r="L63" s="12">
         <f>'Imperial Units'!J76*0.45359237</f>
         <v>202.75578939000002</v>
       </c>
-      <c r="K76" s="12">
+      <c r="M63" s="12">
         <f>'Imperial Units'!K76*0.45359237</f>
         <v>219.08511471</v>
       </c>
-      <c r="L76" s="12">
+      <c r="N63" s="12">
         <f>'Imperial Units'!L76*0.45359237</f>
         <v>329.30806061999999</v>
       </c>
-      <c r="M76" s="13">
-        <f>'Imperial Units'!M76</f>
-        <v>4.2</v>
-      </c>
-      <c r="N76" s="9">
-        <f t="shared" si="14"/>
-        <v>0.24535201253887759</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P76" s="18">
-        <f t="shared" ref="P76" si="19">$P$16-L76</f>
+      <c r="O63" s="13">
+        <f>'Imperial Units'!M76+273.15</f>
+        <v>277.34999999999997</v>
+      </c>
+      <c r="P63" s="9">
+        <f>O63/(1+(0.4/2)*Q63^2)</f>
+        <v>273.65210046437221</v>
+      </c>
+      <c r="Q63" s="34">
+        <f>SQRT(2/0.4*((1+101325/E63*((1+0.4/2.8*1.225/101325*G63^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <v>0.25993404382592394</v>
+      </c>
+      <c r="R63" s="9">
+        <f>Q63*SQRT(1.4*287*P63)</f>
+        <v>86.192111977118728</v>
+      </c>
+      <c r="S63" s="9">
+        <f>R63*SQRT(E63/101325)</f>
+        <v>78.08474585544873</v>
+      </c>
+      <c r="T63" s="9">
+        <f>288.15-0.00649*D63</f>
+        <v>277.13169335999999</v>
+      </c>
+      <c r="U63" s="33">
+        <f t="shared" si="26"/>
+        <v>-3.4795928956277749</v>
+      </c>
+      <c r="V63">
+        <v>3915.6600000000003</v>
+      </c>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z63" s="18">
+        <f>$Z$16-N63</f>
         <v>6417.5947274299997</v>
       </c>
-      <c r="Q76" s="18">
-        <f t="shared" si="16"/>
+      <c r="AA63" s="18">
+        <f t="shared" si="27"/>
         <v>62935.105333751402</v>
       </c>
-      <c r="R76" s="29">
-        <f t="shared" si="17"/>
-        <v>0.5184122185962482</v>
-      </c>
-      <c r="S76" s="29">
-        <f>$T$6+R76^2/(PI()*$T$5*$T$7)</f>
-        <v>5.2671758909737437E-2</v>
-      </c>
-      <c r="T76" s="30">
-        <f t="shared" si="18"/>
-        <v>0.26875122838988424</v>
-      </c>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="26">
+        <f>2*AA63/(1.225*$S63^2*$AI$2)</f>
+        <v>0.56173723650947027</v>
+      </c>
+      <c r="AD63" s="26">
+        <f>2*V63/(1.225*$S63^2*$AI$2)</f>
+        <v>3.4949842633075982E-2</v>
+      </c>
+      <c r="AE63" s="35">
+        <f>H63</f>
+        <v>5.9</v>
+      </c>
+      <c r="AF63" s="28">
+        <f>AC63^2</f>
+        <v>0.31554872288129654</v>
+      </c>
+      <c r="AG63" s="41"/>
+      <c r="AH63" s="41"/>
+      <c r="AI63" s="41"/>
+      <c r="AJ63" s="41"/>
+      <c r="AK63" s="41"/>
+      <c r="AL63" s="15"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
         <v>36</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I68" t="s">
         <v>36</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
         <v>58</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I69" t="s">
         <v>58</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D70" s="8">
         <f>'Imperial Units'!D83</f>
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="E83" s="8" t="str">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="str">
         <f>'Imperial Units'!E83</f>
         <v>Dutch Roll</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8">
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8">
         <f>'Imperial Units'!G83</f>
         <v>3.1944444444444449E-2</v>
       </c>
-      <c r="H83" s="8" t="str">
+      <c r="J70" s="8" t="str">
         <f>'Imperial Units'!H83</f>
         <v>Aper. Roll</v>
       </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8">
+      <c r="K70" s="8"/>
+      <c r="L70" s="8">
         <f>'Imperial Units'!J83</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M70" s="8"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D71" s="8">
         <f>'Imperial Units'!D84</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E84" s="8" t="str">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="str">
         <f>'Imperial Units'!E84</f>
         <v>Dutch Roll YD</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8">
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8">
         <f>'Imperial Units'!G84</f>
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="H84" s="8" t="str">
+      <c r="J71" s="8" t="str">
         <f>'Imperial Units'!H84</f>
         <v xml:space="preserve">Spiral </v>
       </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8">
+      <c r="K71" s="8"/>
+      <c r="L71" s="8">
         <f>'Imperial Units'!J84</f>
         <v>3.6111111111111115E-2</v>
       </c>
+      <c r="M71" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AG45:AH51">
+    <sortCondition ref="AG45"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE30AD5-E732-49E1-979A-1859FDE1D933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6F7719-342E-4728-9E18-B62D9F19E529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13905,8 +13905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14058,7 +14058,7 @@
         <v>90</v>
       </c>
       <c r="AG6" s="16">
-        <f>D8</f>
+        <f t="shared" ref="AG6:AG14" si="1">D8</f>
         <v>80</v>
       </c>
       <c r="AH6" s="18">
@@ -14081,7 +14081,7 @@
       <c r="AE7" s="16"/>
       <c r="AF7" s="21"/>
       <c r="AG7" s="16">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="AH7" s="18">
@@ -14112,7 +14112,7 @@
       <c r="AE8" s="16"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="16">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AH8" s="18">
@@ -14142,7 +14142,7 @@
       <c r="AE9" s="16"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="16">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="AH9" s="18">
@@ -14166,7 +14166,7 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="16">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="AH10" s="18">
@@ -14190,7 +14190,7 @@
       <c r="AE11" s="16"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="16">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="AH11" s="18">
@@ -14214,7 +14214,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="16">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="AH12" s="18">
@@ -14238,7 +14238,7 @@
       <c r="AE13" s="16"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="16">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="AH13" s="18">
@@ -14262,7 +14262,7 @@
       <c r="AE14" s="16"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="16">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="AH14" s="18">
@@ -14587,27 +14587,27 @@
         <v>283.34999999999997</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" ref="Q28:Q33" si="1">P28/(1+(0.4/2)*R28^2)</f>
+        <f t="shared" ref="Q28:Q33" si="2">P28/(1+(0.4/2)*R28^2)</f>
         <v>274.3378190594953</v>
       </c>
       <c r="R28" s="34">
-        <f t="shared" ref="R28:R33" si="2">SQRT(2/0.4*((1+101325/E28*((1+0.4/2.8*1.225/101325*H28^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R28:R33" si="3">SQRT(2/0.4*((1+101325/E28*((1+0.4/2.8*1.225/101325*H28^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.40528181054053536</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" ref="S28:S33" si="3">R28*SQRT(1.4*287*Q28)</f>
+        <f t="shared" ref="S28:S33" si="4">R28*SQRT(1.4*287*Q28)</f>
         <v>134.55657363902333</v>
       </c>
       <c r="T28" s="9">
-        <f>S28*SQRT(E28/101325)</f>
+        <f t="shared" ref="T28:T33" si="5">S28*SQRT(E28/101325)</f>
         <v>123.07473128318065</v>
       </c>
       <c r="U28" s="9">
-        <f>288.15-0.00649*D28</f>
+        <f t="shared" ref="U28:U33" si="6">288.15-0.00649*D28</f>
         <v>278.21967695999996</v>
       </c>
       <c r="V28" s="33">
-        <f>Q28-U28</f>
+        <f t="shared" ref="V28:V33" si="7">Q28-U28</f>
         <v>-3.8818579005046558</v>
       </c>
       <c r="W28">
@@ -14618,7 +14618,7 @@
         <v>93</v>
       </c>
       <c r="AG28" s="18">
-        <f>$AG$16-O28</f>
+        <f t="shared" ref="AG28:AG33" si="8">$AG$16-O28</f>
         <v>6612.1858541599995</v>
       </c>
       <c r="AH28" s="18">
@@ -14627,23 +14627,23 @@
       </c>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="26">
-        <f>2*AH28/(1.225*$T28^2*$O$2)</f>
+        <f t="shared" ref="AJ28:AJ33" si="9">2*AH28/(1.225*$T28^2*$O$2)</f>
         <v>0.23297031533557547</v>
       </c>
       <c r="AK28" s="26">
-        <f>2*W28/(1.225*$T28^2*$O$2)</f>
+        <f t="shared" ref="AK28:AK33" si="10">2*W28/(1.225*$T28^2*$O$2)</f>
         <v>2.5622950860809738E-2</v>
       </c>
       <c r="AL28" s="35">
-        <f>I28</f>
+        <f t="shared" ref="AL28:AL33" si="11">I28</f>
         <v>1.8</v>
       </c>
       <c r="AM28" s="27">
-        <f t="shared" ref="AM28:AM33" si="4">AJ28^2</f>
+        <f t="shared" ref="AM28:AM33" si="12">AJ28^2</f>
         <v>5.4275167827557473E-2</v>
       </c>
       <c r="AN28" s="26">
-        <f>AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" ref="AN28:AN33" si="13">AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
         <v>0.83768319886166021</v>
       </c>
       <c r="AO28" s="40"/>
@@ -14657,7 +14657,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="5">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="14">B29-$B$28</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="D29" s="9">
@@ -14665,11 +14665,11 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" ref="E29:E33" si="6">101325*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="E29:E33" si="15">101325*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>84770.465011152628</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:F33" si="7">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="F29:F33" si="16">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>1.0248588170605673</v>
       </c>
       <c r="G29" s="9">
@@ -14677,7 +14677,7 @@
         <v>113.69212400000001</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" ref="H29:H33" si="8">G29-2*0.514444</f>
+        <f t="shared" ref="H29:H33" si="17">G29-2*0.514444</f>
         <v>112.66323600000001</v>
       </c>
       <c r="I29" s="37">
@@ -14704,27 +14704,27 @@
         <v>281.64999999999998</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274.49427115187086</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36103166767869521</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.89937137404581</v>
       </c>
       <c r="T29" s="9">
-        <f>S29*SQRT(E29/101325)</f>
+        <f t="shared" si="5"/>
         <v>109.66824224040253</v>
       </c>
       <c r="U29" s="9">
-        <f>288.15-0.00649*D29</f>
+        <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
       <c r="V29" s="33">
-        <f>Q29-U29</f>
+        <f t="shared" si="7"/>
         <v>-3.7254058081290964</v>
       </c>
       <c r="W29">
@@ -14735,7 +14735,7 @@
         <v>93</v>
       </c>
       <c r="AG29" s="18">
-        <f>$AG$16-O29</f>
+        <f t="shared" si="8"/>
         <v>6595.40293647</v>
       </c>
       <c r="AH29" s="18">
@@ -14744,23 +14744,23 @@
       </c>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="26">
-        <f>2*AH29/(1.225*$T29^2*$O$2)</f>
+        <f t="shared" si="9"/>
         <v>0.2926664204145073</v>
       </c>
       <c r="AK29" s="26">
-        <f>2*W29/(1.225*$T29^2*$O$2)</f>
+        <f t="shared" si="10"/>
         <v>2.6618474259435056E-2</v>
       </c>
       <c r="AL29" s="35">
-        <f>I29</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="AM29" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8.5653633638241133E-2</v>
       </c>
       <c r="AN29" s="26">
-        <f>AM29/(AK29-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" si="13"/>
         <v>0.93934768731723561</v>
       </c>
       <c r="AO29" s="40"/>
@@ -14774,7 +14774,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.15347222222222212</v>
       </c>
       <c r="D30" s="9">
@@ -14782,11 +14782,11 @@
         <v>1530.096</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>84770.465011152628</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G30" s="9">
@@ -14794,7 +14794,7 @@
         <v>96.715472000000005</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>95.686584000000011</v>
       </c>
       <c r="I30" s="37">
@@ -14821,27 +14821,27 @@
         <v>279.95</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274.77579979718604</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30684381673853012</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101.95571689441061</v>
       </c>
       <c r="T30" s="9">
-        <f>S30*SQRT(E30/101325)</f>
+        <f t="shared" si="5"/>
         <v>93.255737123826989</v>
       </c>
       <c r="U30" s="9">
-        <f>288.15-0.00649*D30</f>
+        <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
       <c r="V30" s="33">
-        <f>Q30-U30</f>
+        <f t="shared" si="7"/>
         <v>-3.4438771628139193</v>
       </c>
       <c r="W30">
@@ -14852,7 +14852,7 @@
         <v>93</v>
       </c>
       <c r="AG30" s="18">
-        <f>$AG$16-O30</f>
+        <f t="shared" si="8"/>
         <v>6582.7023501100002</v>
       </c>
       <c r="AH30" s="18">
@@ -14861,23 +14861,23 @@
       </c>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="26">
-        <f>2*AH30/(1.225*$T30^2*$O$2)</f>
+        <f t="shared" si="9"/>
         <v>0.40396750068752335</v>
       </c>
       <c r="AK30" s="26">
-        <f>2*W30/(1.225*$T30^2*$O$2)</f>
+        <f t="shared" si="10"/>
         <v>3.0569968561275404E-2</v>
       </c>
       <c r="AL30" s="35">
-        <f>I30</f>
+        <f t="shared" si="11"/>
         <v>3.9</v>
       </c>
       <c r="AM30" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.16318974161172417</v>
       </c>
       <c r="AN30" s="26">
-        <f>AM30/(AK30-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" si="13"/>
         <v>0.83284880624336355</v>
       </c>
       <c r="AO30" s="40"/>
@@ -14891,7 +14891,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.24513888888888891</v>
       </c>
       <c r="D31" s="9">
@@ -14899,11 +14899,11 @@
         <v>1530.096</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>84770.465011152628</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G31" s="9">
@@ -14911,7 +14911,7 @@
         <v>82.311040000000006</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>81.282152000000011</v>
       </c>
       <c r="I31" s="37">
@@ -14938,27 +14938,27 @@
         <v>278.34999999999997</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274.61473062383413</v>
       </c>
       <c r="R31" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26078586666376485</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86.626532752483996</v>
       </c>
       <c r="T31" s="9">
-        <f>S31*SQRT(E31/101325)</f>
+        <f t="shared" si="5"/>
         <v>79.234607066522514</v>
       </c>
       <c r="U31" s="9">
-        <f>288.15-0.00649*D31</f>
+        <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
       <c r="V31" s="33">
-        <f>Q31-U31</f>
+        <f t="shared" si="7"/>
         <v>-3.6049463361658241</v>
       </c>
       <c r="W31">
@@ -14969,7 +14969,7 @@
         <v>93</v>
       </c>
       <c r="AG31" s="18">
-        <f>$AG$16-O31</f>
+        <f t="shared" si="8"/>
         <v>6565.9194324199998</v>
       </c>
       <c r="AH31" s="18">
@@ -14978,23 +14978,23 @@
       </c>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="26">
-        <f>2*AH31/(1.225*$T31^2*$O$2)</f>
+        <f t="shared" si="9"/>
         <v>0.55816044999566483</v>
       </c>
       <c r="AK31" s="26">
-        <f>2*W31/(1.225*$T31^2*$O$2)</f>
+        <f t="shared" si="10"/>
         <v>3.5075521279669161E-2</v>
       </c>
       <c r="AL31" s="35">
-        <f>I31</f>
+        <f t="shared" si="11"/>
         <v>5.7</v>
       </c>
       <c r="AM31" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.31154308793936308</v>
       </c>
       <c r="AN31" s="26">
-        <f>AM31/(AK31-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" si="13"/>
         <v>0.98781011695884968</v>
       </c>
       <c r="AO31" s="40"/>
@@ -15008,7 +15008,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.30486111111111103</v>
       </c>
       <c r="D32" s="9">
@@ -15016,11 +15016,11 @@
         <v>1527.048</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>84800.089801482041</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0252169751474514</v>
       </c>
       <c r="G32" s="9">
@@ -15028,7 +15028,7 @@
         <v>69.964383999999995</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>68.935496000000001</v>
       </c>
       <c r="I32" s="37">
@@ -15055,27 +15055,27 @@
         <v>277.14999999999998</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274.46368703018146</v>
       </c>
       <c r="R32" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22121820294547892</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.462934574963541</v>
       </c>
       <c r="T32" s="9">
-        <f>S32*SQRT(E32/101325)</f>
+        <f t="shared" si="5"/>
         <v>67.206011619760446</v>
       </c>
       <c r="U32" s="9">
-        <f>288.15-0.00649*D32</f>
+        <f t="shared" si="6"/>
         <v>278.23945848</v>
       </c>
       <c r="V32" s="33">
-        <f>Q32-U32</f>
+        <f t="shared" si="7"/>
         <v>-3.7757714498185351</v>
       </c>
       <c r="W32">
@@ -15086,7 +15086,7 @@
         <v>93</v>
       </c>
       <c r="AG32" s="18">
-        <f>$AG$16-O32</f>
+        <f t="shared" si="8"/>
         <v>6557.3011773899998</v>
       </c>
       <c r="AH32" s="18">
@@ -15095,23 +15095,23 @@
       </c>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="26">
-        <f>2*AH32/(1.225*$T32^2*$O$2)</f>
+        <f t="shared" si="9"/>
         <v>0.77482248224934502</v>
       </c>
       <c r="AK32" s="26">
-        <f>2*W32/(1.225*$T32^2*$O$2)</f>
+        <f t="shared" si="10"/>
         <v>4.7899467507162341E-2</v>
       </c>
       <c r="AL32" s="35">
-        <f>I32</f>
+        <f t="shared" si="11"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="AM32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.60034987899903658</v>
       </c>
       <c r="AN32" s="26">
-        <f>AM32/(AK32-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" si="13"/>
         <v>0.91605943302852455</v>
       </c>
       <c r="AO32" s="40"/>
@@ -15124,7 +15124,7 @@
         <v>2.0187499999999998</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="D33" s="9">
@@ -15132,11 +15132,11 @@
         <v>1530.096</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>84770.465011152628</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G33" s="9">
@@ -15144,7 +15144,7 @@
         <v>62.762168000000003</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>61.733280000000001</v>
       </c>
       <c r="I33" s="37">
@@ -15171,27 +15171,27 @@
         <v>276.95</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274.79153123629254</v>
       </c>
       <c r="R33" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19817835271423376</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.851072476370902</v>
       </c>
       <c r="T33" s="9">
-        <f>S33*SQRT(E33/101325)</f>
+        <f t="shared" si="5"/>
         <v>60.231936876461546</v>
       </c>
       <c r="U33" s="9">
-        <f>288.15-0.00649*D33</f>
+        <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
       <c r="V33" s="33">
-        <f>Q33-U33</f>
+        <f t="shared" si="7"/>
         <v>-3.4281457237074164</v>
       </c>
       <c r="W33">
@@ -15202,7 +15202,7 @@
         <v>93</v>
       </c>
       <c r="AG33" s="18">
-        <f>$AG$16-O33</f>
+        <f t="shared" si="8"/>
         <v>6546.8685528799997</v>
       </c>
       <c r="AH33" s="18">
@@ -15211,23 +15211,23 @@
       </c>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="26">
-        <f>2*AH33/(1.225*$T33^2*$O$2)</f>
+        <f t="shared" si="9"/>
         <v>0.96310423186684524</v>
       </c>
       <c r="AK33" s="26">
-        <f>2*W33/(1.225*$T33^2*$O$2)</f>
+        <f t="shared" si="10"/>
         <v>6.1560481291906714E-2</v>
       </c>
       <c r="AL33" s="35">
-        <f>I33</f>
+        <f t="shared" si="11"/>
         <v>10.3</v>
       </c>
       <c r="AM33" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.92756976143982595</v>
       </c>
       <c r="AN33" s="26">
-        <f>AM33/(AK33-$AK$35)/(PI()*$O$5)</f>
+        <f t="shared" si="13"/>
         <v>0.9115929158400452</v>
       </c>
       <c r="AO33" s="40"/>
@@ -15601,27 +15601,27 @@
         <v>275.64999999999998</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" ref="Q45:Q51" si="9">P45/(1+(0.4/2)*R45^2)</f>
+        <f t="shared" ref="Q45:Q51" si="18">P45/(1+(0.4/2)*R45^2)</f>
         <v>271.75785059088309</v>
       </c>
       <c r="R45" s="34">
-        <f t="shared" ref="R45:R51" si="10">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*H45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R45:R51" si="19">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*H45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.26760159913560244</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" ref="S45:S51" si="11">R45*SQRT(1.4*287*Q45)</f>
+        <f t="shared" ref="S45:S51" si="20">R45*SQRT(1.4*287*Q45)</f>
         <v>88.426965134600351</v>
       </c>
       <c r="T45" s="9">
-        <f>S45*SQRT(E45/101325)</f>
+        <f t="shared" ref="T45:T51" si="21">S45*SQRT(E45/101325)</f>
         <v>78.78603136894526</v>
       </c>
       <c r="U45" s="9">
-        <f>288.15-0.00649*D45</f>
+        <f t="shared" ref="U45:U51" si="22">288.15-0.00649*D45</f>
         <v>275.23266744</v>
       </c>
       <c r="V45" s="33">
-        <f>Q45-U45</f>
+        <f t="shared" ref="V45:V51" si="23">Q45-U45</f>
         <v>-3.4748168491169054</v>
       </c>
       <c r="W45">
@@ -15654,24 +15654,24 @@
         <v>93</v>
       </c>
       <c r="AG45" s="18">
-        <f>$AG$16-O45</f>
+        <f t="shared" ref="AG45:AG51" si="24">$AG$16-O45</f>
         <v>6504.2308701000002</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" ref="AH45:AH51" si="12">AG45*9.80665</f>
+        <f t="shared" ref="AH45:AH51" si="25">AG45*9.80665</f>
         <v>63784.715662266164</v>
       </c>
       <c r="AI45" s="18"/>
       <c r="AJ45" s="26">
-        <f>2*AH45/(1.225*$T45^2*$O$2)</f>
+        <f t="shared" ref="AJ45:AJ51" si="26">2*AH45/(1.225*$T45^2*$O$2)</f>
         <v>0.55923047088683875</v>
       </c>
       <c r="AK45" s="26">
-        <f>2*W45/(1.225*$T45^2*$O$2)</f>
+        <f t="shared" ref="AK45:AK51" si="27">2*W45/(1.225*$T45^2*$O$2)</f>
         <v>3.4451415880983244E-2</v>
       </c>
       <c r="AL45" s="35">
-        <f>I45</f>
+        <f t="shared" ref="AL45:AL51" si="28">I45</f>
         <v>5.5</v>
       </c>
       <c r="AM45" s="38"/>
@@ -15693,11 +15693,11 @@
         <v>2045.2080000000001</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" ref="E46:E51" si="13">101325*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="E46:E51" si="29">101325*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>79936.102449549624</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" ref="F46:F51" si="14">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="F46:F51" si="30">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>0.96641229213617863</v>
       </c>
       <c r="G46" s="12">
@@ -15705,7 +15705,7 @@
         <v>76.652156000000005</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" ref="H46:H51" si="15">G46-2*0.514444</f>
+        <f t="shared" ref="H46:H51" si="31">G46-2*0.514444</f>
         <v>75.62326800000001</v>
       </c>
       <c r="I46" s="13">
@@ -15741,50 +15741,50 @@
         <v>275.14999999999998</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>271.75858852704795</v>
       </c>
       <c r="R46" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.24979492204700235</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>82.542992732033952</v>
       </c>
       <c r="T46" s="9">
-        <f>S46*SQRT(E46/101325)</f>
+        <f t="shared" si="21"/>
         <v>73.315092891232794</v>
       </c>
       <c r="U46" s="9">
-        <f>288.15-0.00649*D46</f>
+        <f t="shared" si="22"/>
         <v>274.87660008</v>
       </c>
       <c r="V46" s="33">
-        <f>Q46-U46</f>
+        <f t="shared" si="23"/>
         <v>-3.1180115529520549</v>
       </c>
       <c r="W46">
         <v>3999.92</v>
       </c>
       <c r="X46" s="9">
-        <f t="shared" ref="X46:X51" si="16">T46*SQRT($O$6/AG46)</f>
+        <f t="shared" ref="X46:X51" si="32">T46*SQRT($O$6/AG46)</f>
         <v>71.455011147191541</v>
       </c>
       <c r="Y46" s="33">
-        <f t="shared" ref="Y46:Y51" si="17">W46/(0.5*F46*T46^2*$O$7^2)</f>
+        <f t="shared" ref="Y46:Y51" si="33">W46/(0.5*F46*T46^2*$O$7^2)</f>
         <v>3.2725315786516704</v>
       </c>
       <c r="Z46" s="33">
-        <f t="shared" ref="Z46:Z51" si="18">W46/(0.5*F46*X46^2*$O$7^2)</f>
+        <f t="shared" ref="Z46:Z51" si="34">W46/(0.5*F46*X46^2*$O$7^2)</f>
         <v>3.4451270436286445</v>
       </c>
       <c r="AA46" s="33">
-        <f t="shared" ref="AA46:AA51" si="19">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
+        <f t="shared" ref="AA46:AA51" si="35">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
         <v>-7.9301324828550315E-3</v>
       </c>
       <c r="AB46" s="33">
-        <f t="shared" ref="AB46:AB51" si="20">L46*$O$6/AG46</f>
+        <f t="shared" ref="AB46:AB51" si="36">L46*$O$6/AG46</f>
         <v>-23.747539185121127</v>
       </c>
       <c r="AC46" s="33"/>
@@ -15794,24 +15794,24 @@
         <v>93</v>
       </c>
       <c r="AG46" s="18">
-        <f>$AG$16-O46</f>
+        <f t="shared" si="24"/>
         <v>6494.2518379599996</v>
       </c>
       <c r="AH46" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63686.85478673043</v>
       </c>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26">
-        <f>2*AH46/(1.225*$T46^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.64481580733201926</v>
       </c>
       <c r="AK46" s="26">
-        <f>2*W46/(1.225*$T46^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>4.0498336001998425E-2</v>
       </c>
       <c r="AL46" s="35">
-        <f>I46</f>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="AM46" s="38"/>
@@ -15833,11 +15833,11 @@
         <v>2097.0239999999999</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>79468.203194419417</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.96075547903443159</v>
       </c>
       <c r="G47" s="12">
@@ -15845,7 +15845,7 @@
         <v>72.02216</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>70.993272000000005</v>
       </c>
       <c r="I47" s="13">
@@ -15881,50 +15881,50 @@
         <v>274.64999999999998</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>271.64392209300581</v>
       </c>
       <c r="R47" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.23522589080588541</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>77.712357544673935</v>
       </c>
       <c r="T47" s="9">
-        <f>S47*SQRT(E47/101325)</f>
+        <f t="shared" si="21"/>
         <v>68.822187876151773</v>
       </c>
       <c r="U47" s="9">
-        <f>288.15-0.00649*D47</f>
+        <f t="shared" si="22"/>
         <v>274.54031423999999</v>
       </c>
       <c r="V47" s="33">
-        <f>Q47-U47</f>
+        <f t="shared" si="23"/>
         <v>-2.8963921469941738</v>
       </c>
       <c r="W47">
         <v>4057.88</v>
       </c>
       <c r="X47" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>67.101877950805573</v>
       </c>
       <c r="Y47" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>3.7897550871034218</v>
       </c>
       <c r="Z47" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>3.9865640383101031</v>
       </c>
       <c r="AA47" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>-1.6789888442079494E-2</v>
       </c>
       <c r="AB47" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>-37.074645478336727</v>
       </c>
       <c r="AC47" s="33"/>
@@ -15934,24 +15934,24 @@
         <v>93</v>
       </c>
       <c r="AG47" s="18">
-        <f>$AG$16-O47</f>
+        <f t="shared" si="24"/>
         <v>6489.2623218899998</v>
       </c>
       <c r="AH47" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63637.924348962566</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26">
-        <f>2*AH47/(1.225*$T47^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.73119246711242358</v>
       </c>
       <c r="AK47" s="26">
-        <f>2*W47/(1.225*$T47^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>4.6624576756713963E-2</v>
       </c>
       <c r="AL47" s="35">
-        <f>I47</f>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="AM47" s="38"/>
@@ -15973,11 +15973,11 @@
         <v>2179.3200000000002</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>78731.749499247249</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.95185189377328283</v>
       </c>
       <c r="G48" s="12">
@@ -15985,7 +15985,7 @@
         <v>66.877719999999997</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>65.848832000000002</v>
       </c>
       <c r="I48" s="13">
@@ -16021,50 +16021,50 @@
         <v>273.95</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>271.34174185691398</v>
       </c>
       <c r="R48" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.21923100958541789</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>72.38777942069926</v>
       </c>
       <c r="T48" s="9">
-        <f>S48*SQRT(E48/101325)</f>
+        <f t="shared" si="21"/>
         <v>63.808994215795799</v>
       </c>
       <c r="U48" s="9">
-        <f>288.15-0.00649*D48</f>
+        <f t="shared" si="22"/>
         <v>274.00621319999999</v>
       </c>
       <c r="V48" s="33">
-        <f>Q48-U48</f>
+        <f t="shared" si="23"/>
         <v>-2.6644713430860065</v>
       </c>
       <c r="W48">
         <v>4131.17</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>62.266246338452099</v>
       </c>
       <c r="Y48" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>4.5302446324231234</v>
       </c>
       <c r="Z48" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>4.7575140748820335</v>
       </c>
       <c r="AA48" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>-2.7429315546567603E-2</v>
       </c>
       <c r="AB48" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>-47.611468522407421</v>
       </c>
       <c r="AC48" s="33"/>
@@ -16074,24 +16074,24 @@
         <v>93</v>
       </c>
       <c r="AG48" s="18">
-        <f>$AG$16-O48</f>
+        <f t="shared" si="24"/>
         <v>6478.3761050100002</v>
       </c>
       <c r="AH48" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63531.167030196317</v>
       </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26">
-        <f>2*AH48/(1.225*$T48^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.84917204201754848</v>
       </c>
       <c r="AK48" s="26">
-        <f>2*W48/(1.225*$T48^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>5.5218158721281649E-2</v>
       </c>
       <c r="AL48" s="35">
-        <f>I48</f>
+        <f t="shared" si="28"/>
         <v>9.1</v>
       </c>
       <c r="AM48" s="38"/>
@@ -16113,11 +16113,11 @@
         <v>1959.864</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>80713.926835132967</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.9758160411846819</v>
       </c>
       <c r="G49" s="12">
@@ -16125,7 +16125,7 @@
         <v>87.969924000000006</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>86.941036000000011</v>
       </c>
       <c r="I49" s="13">
@@ -16161,50 +16161,50 @@
         <v>276.34999999999997</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>271.91186717209803</v>
       </c>
       <c r="R49" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.28567423239659723</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>94.425678982229215</v>
       </c>
       <c r="T49" s="9">
-        <f>S49*SQRT(E49/101325)</f>
+        <f t="shared" si="21"/>
         <v>84.276414129073416</v>
       </c>
       <c r="U49" s="9">
-        <f>288.15-0.00649*D49</f>
+        <f t="shared" si="22"/>
         <v>275.43048263999998</v>
       </c>
       <c r="V49" s="33">
-        <f>Q49-U49</f>
+        <f t="shared" si="23"/>
         <v>-3.5186154679019523</v>
       </c>
       <c r="W49">
         <v>3858.8</v>
       </c>
       <c r="X49" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>82.307997269263851</v>
       </c>
       <c r="Y49" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>2.3662138054646258</v>
       </c>
       <c r="Z49" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>2.4807443563675977</v>
       </c>
       <c r="AA49" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>4.6063746948431317E-3</v>
       </c>
       <c r="AB49" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>27.661133313611767</v>
       </c>
       <c r="AC49" s="33"/>
@@ -16214,24 +16214,24 @@
         <v>93</v>
       </c>
       <c r="AG49" s="18">
-        <f>$AG$16-O49</f>
+        <f t="shared" si="24"/>
         <v>6467.4898881299996</v>
       </c>
       <c r="AH49" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63424.40971143006</v>
       </c>
       <c r="AI49" s="18"/>
       <c r="AJ49" s="26">
-        <f>2*AH49/(1.225*$T49^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.48597842484991205</v>
       </c>
       <c r="AK49" s="26">
-        <f>2*W49/(1.225*$T49^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>2.9567378779607054E-2</v>
       </c>
       <c r="AL49" s="35">
-        <f>I49</f>
+        <f t="shared" si="28"/>
         <v>4.8</v>
       </c>
       <c r="AM49" s="38"/>
@@ -16253,11 +16253,11 @@
         <v>1813.5600000000002</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>82068.399417247711</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.9921913573760518</v>
       </c>
       <c r="G50" s="12">
@@ -16265,7 +16265,7 @@
         <v>93.628808000000006</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>92.599920000000012</v>
       </c>
       <c r="I50" s="13">
@@ -16301,50 +16301,50 @@
         <v>277.34999999999997</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>272.39049429548606</v>
       </c>
       <c r="R50" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.30172286670196724</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>99.818069307958709</v>
       </c>
       <c r="T50" s="9">
-        <f>S50*SQRT(E50/101325)</f>
+        <f t="shared" si="21"/>
         <v>89.833607647007724</v>
       </c>
       <c r="U50" s="9">
-        <f>288.15-0.00649*D50</f>
+        <f t="shared" si="22"/>
         <v>276.37999559999997</v>
       </c>
       <c r="V50" s="33">
-        <f>Q50-U50</f>
+        <f t="shared" si="23"/>
         <v>-3.9895013045139081</v>
       </c>
       <c r="W50">
         <v>3818.9399999999996</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>87.793907616332831</v>
       </c>
       <c r="Y50" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>2.0269894008113147</v>
       </c>
       <c r="Z50" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>2.1222688553055757</v>
       </c>
       <c r="AA50" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>9.9481922197796925E-3</v>
       </c>
       <c r="AB50" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>41.069511064533195</v>
       </c>
       <c r="AC50" s="33"/>
@@ -16354,24 +16354,24 @@
         <v>93</v>
       </c>
       <c r="AG50" s="18">
-        <f>$AG$16-O50</f>
+        <f t="shared" si="24"/>
         <v>6458.8716330999996</v>
       </c>
       <c r="AH50" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63339.893500740109</v>
       </c>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26">
-        <f>2*AH50/(1.225*$T50^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.42714202196542572</v>
       </c>
       <c r="AK50" s="26">
-        <f>2*W50/(1.225*$T50^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>2.5753591665663003E-2</v>
       </c>
       <c r="AL50" s="35">
-        <f>I50</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AM50" s="38"/>
@@ -16393,11 +16393,11 @@
         <v>1542.288</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>84652.088933241597</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>1.0234276727680331</v>
       </c>
       <c r="G51" s="12">
@@ -16405,7 +16405,7 @@
         <v>97.74436</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>96.715472000000005</v>
       </c>
       <c r="I51" s="13">
@@ -16441,50 +16441,50 @@
         <v>279.95</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>274.65936999102138</v>
       </c>
       <c r="R51" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.31034266689804529</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>103.09643877476087</v>
       </c>
       <c r="T51" s="9">
-        <f>S51*SQRT(E51/101325)</f>
+        <f t="shared" si="21"/>
         <v>94.23325601085709</v>
       </c>
       <c r="U51" s="9">
-        <f>288.15-0.00649*D51</f>
+        <f t="shared" si="22"/>
         <v>278.14055087999998</v>
       </c>
       <c r="V51" s="33">
-        <f>Q51-U51</f>
+        <f t="shared" si="23"/>
         <v>-3.4811808889785993</v>
       </c>
       <c r="W51">
         <v>3806.2200000000003</v>
       </c>
       <c r="X51" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>92.207051542855709</v>
       </c>
       <c r="Y51" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>1.7799594171584008</v>
       </c>
       <c r="Z51" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>1.8590463822050876</v>
       </c>
       <c r="AA51" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>1.5273195550805181E-2</v>
       </c>
       <c r="AB51" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>75.639206908179787</v>
       </c>
       <c r="AC51" s="33"/>
@@ -16494,24 +16494,24 @@
         <v>93</v>
       </c>
       <c r="AG51" s="18">
-        <f>$AG$16-O51</f>
+        <f t="shared" si="24"/>
         <v>6442.9959001500001</v>
       </c>
       <c r="AH51" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>63184.205744205996</v>
       </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26">
-        <f>2*AH51/(1.225*$T51^2*$O$2)</f>
+        <f t="shared" si="26"/>
         <v>0.38723338090377868</v>
       </c>
       <c r="AK51" s="26">
-        <f>2*W51/(1.225*$T51^2*$O$2)</f>
+        <f t="shared" si="27"/>
         <v>2.332695998475437E-2</v>
       </c>
       <c r="AL51" s="35">
-        <f>I51</f>
+        <f t="shared" si="28"/>
         <v>3.6</v>
       </c>
       <c r="AM51" s="38"/>
@@ -16666,7 +16666,7 @@
         <v>0.14994969128617094</v>
       </c>
       <c r="H55" s="39">
-        <f>1/((E55-$AK$52)/G55)/($O$5*PI())</f>
+        <f t="shared" ref="H55:H61" si="37">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
         <v>0.24247326595061547</v>
       </c>
       <c r="I55" s="46">
@@ -16732,15 +16732,15 @@
         <v>4</v>
       </c>
       <c r="G56" s="39">
-        <f t="shared" ref="G56:G61" si="21">D56^2</f>
+        <f t="shared" ref="G56:G61" si="38">D56^2</f>
         <v>0.18245030692871222</v>
       </c>
       <c r="H56" s="39">
-        <f>1/((E56-$AK$52)/G56)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.2672287765524281</v>
       </c>
       <c r="I56" s="46">
-        <f t="shared" ref="I56:I61" si="22">AA46</f>
+        <f t="shared" ref="I56:I61" si="39">AA46</f>
         <v>-7.9301324828550315E-3</v>
       </c>
       <c r="J56" s="39">
@@ -16748,7 +16748,7 @@
         <v>-1.6789888442079494E-2</v>
       </c>
       <c r="K56" s="46">
-        <f t="shared" ref="K56:K61" si="23">X46</f>
+        <f t="shared" ref="K56:K61" si="40">X46</f>
         <v>71.455011147191541</v>
       </c>
       <c r="L56" s="39">
@@ -16756,7 +16756,7 @@
         <v>67.101877950805573</v>
       </c>
       <c r="M56" s="46">
-        <f t="shared" ref="M56:M61" si="24">AB46</f>
+        <f t="shared" ref="M56:M61" si="41">AB46</f>
         <v>-23.747539185121127</v>
       </c>
       <c r="N56" s="39">
@@ -16805,15 +16805,15 @@
         <v>4.8</v>
       </c>
       <c r="G57" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>0.23617502941960161</v>
       </c>
       <c r="H57" s="39">
-        <f>1/((E57-$AK$52)/G57)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.30129892607218201</v>
       </c>
       <c r="I57" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>-1.6789888442079494E-2</v>
       </c>
       <c r="J57" s="39">
@@ -16821,7 +16821,7 @@
         <v>-7.9301324828550315E-3</v>
       </c>
       <c r="K57" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>67.101877950805573</v>
       </c>
       <c r="L57" s="39">
@@ -16829,7 +16829,7 @@
         <v>71.455011147191541</v>
       </c>
       <c r="M57" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>-37.074645478336727</v>
       </c>
       <c r="N57" s="39">
@@ -16867,27 +16867,27 @@
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="39">
-        <f>AJ45</f>
+        <f t="shared" ref="D58:F61" si="42">AJ45</f>
         <v>0.55923047088683875</v>
       </c>
       <c r="E58" s="39">
-        <f>AK45</f>
+        <f t="shared" si="42"/>
         <v>3.4451415880983244E-2</v>
       </c>
       <c r="F58" s="39">
-        <f>AL45</f>
+        <f t="shared" si="42"/>
         <v>5.5</v>
       </c>
       <c r="G58" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>0.31273871956831539</v>
       </c>
       <c r="H58" s="39">
-        <f>1/((E58-$AK$52)/G58)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.34241360267090754</v>
       </c>
       <c r="I58" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>-2.7429315546567603E-2</v>
       </c>
       <c r="J58" s="39">
@@ -16895,7 +16895,7 @@
         <v>-2.5720698676369837E-3</v>
       </c>
       <c r="K58" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>62.266246338452099</v>
       </c>
       <c r="L58" s="39">
@@ -16903,7 +16903,7 @@
         <v>76.728218653285182</v>
       </c>
       <c r="M58" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>-47.611468522407421</v>
       </c>
       <c r="N58" s="39">
@@ -16941,27 +16941,27 @@
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="39">
-        <f>AJ46</f>
+        <f t="shared" si="42"/>
         <v>0.64481580733201926</v>
       </c>
       <c r="E59" s="39">
-        <f>AK46</f>
+        <f t="shared" si="42"/>
         <v>4.0498336001998425E-2</v>
       </c>
       <c r="F59" s="39">
-        <f>AL46</f>
+        <f t="shared" si="42"/>
         <v>6.5</v>
       </c>
       <c r="G59" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>0.41578742538524377</v>
       </c>
       <c r="H59" s="39">
-        <f>1/((E59-$AK$52)/G59)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.38726709891188654</v>
       </c>
       <c r="I59" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>4.6063746948431317E-3</v>
       </c>
       <c r="J59" s="39">
@@ -16969,7 +16969,7 @@
         <v>4.6063746948431317E-3</v>
       </c>
       <c r="K59" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>82.307997269263851</v>
       </c>
       <c r="L59" s="39">
@@ -16977,7 +16977,7 @@
         <v>82.307997269263851</v>
       </c>
       <c r="M59" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>27.661133313611767</v>
       </c>
       <c r="N59" s="39">
@@ -17015,47 +17015,47 @@
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="39">
-        <f>AJ47</f>
+        <f t="shared" si="42"/>
         <v>0.73119246711242358</v>
       </c>
       <c r="E60" s="39">
-        <f>AK47</f>
+        <f t="shared" si="42"/>
         <v>4.6624576756713963E-2</v>
       </c>
       <c r="F60" s="39">
-        <f>AL47</f>
+        <f t="shared" si="42"/>
         <v>7.5</v>
       </c>
       <c r="G60" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>0.53464242396195261</v>
       </c>
       <c r="H60" s="39">
-        <f>1/((E60-$AK$52)/G60)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.4325386746966417</v>
       </c>
       <c r="I60" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>9.9481922197796925E-3</v>
       </c>
       <c r="J60" s="39">
-        <f t="shared" ref="J60:L61" si="25">I60</f>
+        <f t="shared" ref="J60:L61" si="43">I60</f>
         <v>9.9481922197796925E-3</v>
       </c>
       <c r="K60" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>87.793907616332831</v>
       </c>
       <c r="L60" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>87.793907616332831</v>
       </c>
       <c r="M60" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>41.069511064533195</v>
       </c>
       <c r="N60" s="39">
-        <f t="shared" ref="N60" si="26">M60</f>
+        <f t="shared" ref="N60" si="44">M60</f>
         <v>41.069511064533195</v>
       </c>
       <c r="O60" s="39"/>
@@ -17087,47 +17087,47 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="39">
-        <f>AJ48</f>
+        <f t="shared" si="42"/>
         <v>0.84917204201754848</v>
       </c>
       <c r="E61" s="39">
-        <f>AK48</f>
+        <f t="shared" si="42"/>
         <v>5.5218158721281649E-2</v>
       </c>
       <c r="F61" s="39">
-        <f>AL48</f>
+        <f t="shared" si="42"/>
         <v>9.1</v>
       </c>
       <c r="G61" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>0.72109315694425313</v>
       </c>
       <c r="H61" s="39">
-        <f>1/((E61-$AK$52)/G61)/($O$5*PI())</f>
+        <f t="shared" si="37"/>
         <v>0.4925903322582923</v>
       </c>
       <c r="I61" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>1.5273195550805181E-2</v>
       </c>
       <c r="J61" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>1.5273195550805181E-2</v>
       </c>
       <c r="K61" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>92.207051542855709</v>
       </c>
       <c r="L61" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="43"/>
         <v>92.207051542855709</v>
       </c>
       <c r="M61" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>75.639206908179787</v>
       </c>
       <c r="N61" s="39">
-        <f t="shared" ref="N61" si="27">M61</f>
+        <f t="shared" ref="N61" si="45">M61</f>
         <v>75.639206908179787</v>
       </c>
       <c r="O61" s="39"/>
@@ -17481,7 +17481,7 @@
         <v>1676.4</v>
       </c>
       <c r="E72" s="9">
-        <f t="shared" ref="E72:E73" si="28">101325*(1+((0.00649*D72)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="E72:E73" si="46">101325*(1+((0.00649*D72)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>83362.847994307915</v>
       </c>
       <c r="F72" s="9"/>
@@ -17490,7 +17490,7 @@
         <v>81.796596000000008</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" ref="H72:H73" si="29">G72-2*0.514444</f>
+        <f t="shared" ref="H72:H73" si="47">G72-2*0.514444</f>
         <v>80.767708000000013</v>
       </c>
       <c r="I72" s="13">
@@ -17564,7 +17564,7 @@
         <v>6429.8417214199999</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" ref="AH72:AH73" si="30">AG72*9.80665</f>
+        <f t="shared" ref="AH72:AH73" si="48">AG72*9.80665</f>
         <v>63055.207317363442</v>
       </c>
       <c r="AI72" s="18"/>
@@ -17602,7 +17602,7 @@
         <v>1697.7360000000001</v>
       </c>
       <c r="E73" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="46"/>
         <v>83159.902184557068</v>
       </c>
       <c r="F73" s="9"/>
@@ -17611,7 +17611,7 @@
         <v>81.282151999999996</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>80.253264000000001</v>
       </c>
       <c r="I73" s="13">
@@ -17685,7 +17685,7 @@
         <v>6417.5947274299997</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>62935.105333751402</v>
       </c>
       <c r="AI73" s="18"/>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25E8A786-7441-444D-8C99-FB49118896D8}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1900" windowWidth="30470" windowHeight="17170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="640" windowWidth="30470" windowHeight="17170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
@@ -11206,7 +11206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6F7719-342E-4728-9E18-B62D9F19E529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23FBADA-0716-4FF2-A9BB-C5C8158BD7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
     <sheet name="Metric Units" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -590,6 +587,18 @@
   <si>
     <t>dx_cg</t>
   </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>[kg/m^3]</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Cma</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +752,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -785,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -850,6 +865,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,22 +1300,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5622950860809738E-2</c:v>
+                  <c:v>2.5600046374981152E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6618474259435056E-2</c:v>
+                  <c:v>2.6591837811334246E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0569968561275404E-2</c:v>
+                  <c:v>3.0529940564449604E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5075521279669161E-2</c:v>
+                  <c:v>3.5037703063025338E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7899467507162341E-2</c:v>
+                  <c:v>4.7850029242160114E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1560481291906714E-2</c:v>
+                  <c:v>6.1505101845398515E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,22 +1327,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23297031533557547</c:v>
+                  <c:v>0.23307220529561296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2926664204145073</c:v>
+                  <c:v>0.29276921465969619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40396750068752335</c:v>
+                  <c:v>0.4040713200492545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55816044999566483</c:v>
+                  <c:v>0.55826504215259565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77482248224934502</c:v>
+                  <c:v>0.77492725997005707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96310423186684524</c:v>
+                  <c:v>0.96320954217681853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,25 +1797,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.266246338452099</c:v>
+                  <c:v>62.257791602744703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.101877950805573</c:v>
+                  <c:v>67.09219691914916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.455011147191541</c:v>
+                  <c:v>71.443985063506801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.728218653285182</c:v>
+                  <c:v>76.715397358423132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.307997269263851</c:v>
+                  <c:v>82.292857340384487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.793907616332831</c:v>
+                  <c:v>87.778547573001845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.207051542855709</c:v>
+                  <c:v>92.194748535195046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,6 +2238,496 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>d_e_eq* - V_REAS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$R$55:$R$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metric Units'!$P$55:$P$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.5714448673066228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.96187072113651795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45426080909598632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14728147988194035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26399036259862152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57003906160955176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87512168509825561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB1D-41F2-8391-628B13D05489}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755222975"/>
+        <c:axId val="661598095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755222975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="1" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661598095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661598095"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="-25000">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>e_eq</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755222975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2270,6 +2778,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2348,22 +2870,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23297031533557547</c:v>
+                  <c:v>0.23307220529561296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2926664204145073</c:v>
+                  <c:v>0.29276921465969619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40396750068752335</c:v>
+                  <c:v>0.4040713200492545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55816044999566483</c:v>
+                  <c:v>0.55826504215259565</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77482248224934502</c:v>
+                  <c:v>0.77492725997005707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96310423186684524</c:v>
+                  <c:v>0.96320954217681853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,27 +3288,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$28:$F$33</c:f>
+              <c:f>'Metric Units'!$AL$28:$AL$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,22 +3320,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5622950860809738E-2</c:v>
+                  <c:v>2.5600046374981152E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6618474259435056E-2</c:v>
+                  <c:v>2.6591837811334246E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0569968561275404E-2</c:v>
+                  <c:v>3.0529940564449604E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5075521279669161E-2</c:v>
+                  <c:v>3.5037703063025338E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7899467507162341E-2</c:v>
+                  <c:v>4.7850029242160114E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1560481291906714E-2</c:v>
+                  <c:v>6.1505101845398515E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +3448,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3019,7 +3541,7 @@
                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>D</a:t>
+                  <a:t>D </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
@@ -3259,22 +3781,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5622950860809738E-2</c:v>
+                  <c:v>2.5600046374981152E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6618474259435056E-2</c:v>
+                  <c:v>2.6591837811334246E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0569968561275404E-2</c:v>
+                  <c:v>3.0529940564449604E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5075521279669161E-2</c:v>
+                  <c:v>3.5037703063025338E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7899467507162341E-2</c:v>
+                  <c:v>4.7850029242160114E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1560481291906714E-2</c:v>
+                  <c:v>6.1505101845398515E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,22 +3808,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.4275167827557473E-2</c:v>
+                  <c:v>5.4322652881360352E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5653633638241133E-2</c:v>
+                  <c:v>8.5713813052455262E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16318974161172417</c:v>
+                  <c:v>0.16327363168634706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31154308793936308</c:v>
+                  <c:v>0.31165985728963941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60034987899903658</c:v>
+                  <c:v>0.60051225824470045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92756976143982595</c:v>
+                  <c:v>0.9277726221404764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,25 +4285,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.332695998475437E-2</c:v>
+                  <c:v>2.3296956230591272E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5753591665663003E-2</c:v>
+                  <c:v>2.5710998533073456E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9567378779607054E-2</c:v>
+                  <c:v>2.9514485168266557E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4451415880983244E-2</c:v>
+                  <c:v>3.4387945526984272E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0498336001998425E-2</c:v>
+                  <c:v>4.0422116826135043E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6624576756713963E-2</c:v>
+                  <c:v>4.6535053976125493E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5218158721281649E-2</c:v>
+                  <c:v>5.5110823015101264E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,25 +4315,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.38723338090377868</c:v>
+                  <c:v>0.3873367371839247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42714202196542572</c:v>
+                  <c:v>0.42729152304929774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48597842484991205</c:v>
+                  <c:v>0.48615725824678063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55923047088683875</c:v>
+                  <c:v>0.55941741270475198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64481580733201926</c:v>
+                  <c:v>0.64501485394680125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73119246711242358</c:v>
+                  <c:v>0.73140349636633073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84917204201754848</c:v>
+                  <c:v>0.84940269628579812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,25 +4813,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.38723338090377868</c:v>
+                  <c:v>0.3873367371839247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42714202196542572</c:v>
+                  <c:v>0.42729152304929774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48597842484991205</c:v>
+                  <c:v>0.48615725824678063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55923047088683875</c:v>
+                  <c:v>0.55941741270475198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64481580733201926</c:v>
+                  <c:v>0.64501485394680125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73119246711242358</c:v>
+                  <c:v>0.73140349636633073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84917204201754848</c:v>
+                  <c:v>0.84940269628579812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4747,25 +5269,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.332695998475437E-2</c:v>
+                  <c:v>2.3296956230591272E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5753591665663003E-2</c:v>
+                  <c:v>2.5710998533073456E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9567378779607054E-2</c:v>
+                  <c:v>2.9514485168266557E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4451415880983244E-2</c:v>
+                  <c:v>3.4387945526984272E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0498336001998425E-2</c:v>
+                  <c:v>4.0422116826135043E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6624576756713963E-2</c:v>
+                  <c:v>4.6535053976125493E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5218158721281649E-2</c:v>
+                  <c:v>5.5110823015101264E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,25 +5728,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.332695998475437E-2</c:v>
+                  <c:v>2.3296956230591272E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5753591665663003E-2</c:v>
+                  <c:v>2.5710998533073456E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9567378779607054E-2</c:v>
+                  <c:v>2.9514485168266557E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4451415880983244E-2</c:v>
+                  <c:v>3.4387945526984272E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0498336001998425E-2</c:v>
+                  <c:v>4.0422116826135043E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6624576756713963E-2</c:v>
+                  <c:v>4.6535053976125493E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5218158721281649E-2</c:v>
+                  <c:v>5.5110823015101264E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,25 +5758,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14994969128617094</c:v>
+                  <c:v>0.15002974797228874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18245030692871222</c:v>
+                  <c:v>0.18257804566978855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23617502941960161</c:v>
+                  <c:v>0.23634887974602695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31273871956831539</c:v>
+                  <c:v>0.31294784163727879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41578742538524377</c:v>
+                  <c:v>0.41604416181201337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53464242396195261</c:v>
+                  <c:v>0.53495107449689316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72109315694425313</c:v>
+                  <c:v>0.72148494045758382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5716,55 +6238,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.266246338452099</c:v>
+                  <c:v>62.257791602744703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.101877950805573</c:v>
+                  <c:v>67.09219691914916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.455011147191541</c:v>
+                  <c:v>71.443985063506801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.728218653285182</c:v>
+                  <c:v>76.715397358423132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.307997269263851</c:v>
+                  <c:v>82.292857340384487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.793907616332831</c:v>
+                  <c:v>87.778547573001845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.207051542855709</c:v>
+                  <c:v>92.194748535195046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metric Units'!$J$55:$J$61</c:f>
+              <c:f>'Metric Units'!$P$55:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.7429315546567603E-2</c:v>
+                  <c:v>-1.5714448673066228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6789888442079494E-2</c:v>
+                  <c:v>-0.96187072113651795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.9301324828550315E-3</c:v>
+                  <c:v>-0.45426080909598632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5720698676369837E-3</c:v>
+                  <c:v>-0.14728147988194035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6063746948431317E-3</c:v>
+                  <c:v>0.26399036259862152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9481922197796925E-3</c:v>
+                  <c:v>0.57003906160955176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5273195550805181E-2</c:v>
+                  <c:v>0.87512168509825561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5793,7 +6315,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5968,7 +6490,7 @@
       <c:valAx>
         <c:axId val="661598095"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6031,7 +6553,7 @@
                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>[-]</a:t>
+                  <a:t>[°]</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL" sz="1400" i="1">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6198,6 +6720,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7589,6 +8151,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11793,10 +12871,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>271145</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>462375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11834,7 +12912,7 @@
       <xdr:col>57</xdr:col>
       <xdr:colOff>462375</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>126233</xdr:rowOff>
+      <xdr:rowOff>131313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11872,7 +12950,7 @@
       <xdr:col>66</xdr:col>
       <xdr:colOff>462375</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>126233</xdr:rowOff>
+      <xdr:rowOff>131313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11910,7 +12988,7 @@
       <xdr:col>75</xdr:col>
       <xdr:colOff>462375</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>126233</xdr:rowOff>
+      <xdr:rowOff>131313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12165,51 +13243,45 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>463645</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>8123</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A41D5-AA2B-41E7-8B0E-AEA918B4D3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="F28" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12535,7 +13607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -13905,8 +14977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP36" sqref="AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14399,6 +15471,9 @@
       <c r="E25" t="s">
         <v>98</v>
       </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
@@ -14460,6 +15535,9 @@
       <c r="E26" t="s">
         <v>99</v>
       </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
@@ -14485,7 +15563,7 @@
         <v>101</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="S26" t="s">
         <v>80</v>
@@ -14548,8 +15626,8 @@
         <v>1530.096</v>
       </c>
       <c r="E28" s="9">
-        <f>101325*(1+((0.00649*D28)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>84770.465011152628</v>
+        <f>101325*(1+((-0.00649*D28)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>84241.741928410906</v>
       </c>
       <c r="F28" s="9">
         <f>1.225*(1+((0.00649*D28)/288.15))^(-9.80665/(0.00649*287))</f>
@@ -14588,30 +15666,30 @@
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q33" si="2">P28/(1+(0.4/2)*R28^2)</f>
-        <v>274.3378190594953</v>
+        <v>274.28522076441391</v>
       </c>
       <c r="R28" s="34">
         <f t="shared" ref="R28:R33" si="3">SQRT(2/0.4*((1+101325/E28*((1+0.4/2.8*1.225/101325*H28^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
-        <v>0.40528181054053536</v>
+        <v>0.4065017451430889</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" ref="S28:S33" si="4">R28*SQRT(1.4*287*Q28)</f>
-        <v>134.55657363902333</v>
+        <v>134.94866240275354</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" ref="T28:T33" si="5">S28*SQRT(E28/101325)</f>
-        <v>123.07473128318065</v>
+        <v>123.04782663738078</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" ref="U28:U33" si="6">288.15-0.00649*D28</f>
         <v>278.21967695999996</v>
       </c>
-      <c r="V28" s="33">
+      <c r="V28" s="54">
         <f t="shared" ref="V28:V33" si="7">Q28-U28</f>
-        <v>-3.8818579005046558</v>
+        <v>-3.9344561955860513</v>
       </c>
       <c r="W28">
-        <v>7131.7199999999993</v>
+        <v>7122.23</v>
       </c>
       <c r="AE28" s="16"/>
       <c r="AF28" s="21" t="s">
@@ -14628,11 +15706,11 @@
       <c r="AI28" s="18"/>
       <c r="AJ28" s="26">
         <f t="shared" ref="AJ28:AJ33" si="9">2*AH28/(1.225*$T28^2*$O$2)</f>
-        <v>0.23297031533557547</v>
+        <v>0.23307220529561296</v>
       </c>
       <c r="AK28" s="26">
         <f t="shared" ref="AK28:AK33" si="10">2*W28/(1.225*$T28^2*$O$2)</f>
-        <v>2.5622950860809738E-2</v>
+        <v>2.5600046374981152E-2</v>
       </c>
       <c r="AL28" s="35">
         <f t="shared" ref="AL28:AL33" si="11">I28</f>
@@ -14640,11 +15718,11 @@
       </c>
       <c r="AM28" s="27">
         <f t="shared" ref="AM28:AM33" si="12">AJ28^2</f>
-        <v>5.4275167827557473E-2</v>
+        <v>5.4322652881360352E-2</v>
       </c>
       <c r="AN28" s="26">
         <f t="shared" ref="AN28:AN33" si="13">AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
-        <v>0.83768319886166021</v>
+        <v>0.83698952080050737</v>
       </c>
       <c r="AO28" s="40"/>
     </row>
@@ -14665,8 +15743,8 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" ref="E29:E33" si="15">101325*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>84770.465011152628</v>
+        <f t="shared" ref="E29:E33" si="15">101325*(1+((-0.00649*D29)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>84241.741928410906</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" ref="F29:F33" si="16">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
@@ -14705,30 +15783,30 @@
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="2"/>
-        <v>274.49427115187086</v>
+        <v>274.45188815435927</v>
       </c>
       <c r="R29" s="34">
         <f t="shared" si="3"/>
-        <v>0.36103166767869521</v>
+        <v>0.36212723276838826</v>
       </c>
       <c r="S29" s="9">
         <f t="shared" si="4"/>
-        <v>119.89937137404581</v>
+        <v>120.25392591467534</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>109.66824224040253</v>
+        <v>109.64898773321579</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
-      <c r="V29" s="33">
+      <c r="V29" s="54">
         <f t="shared" si="7"/>
-        <v>-3.7254058081290964</v>
+        <v>-3.7677888056406914</v>
       </c>
       <c r="W29">
-        <v>5882.6399999999994</v>
+        <v>5874.69</v>
       </c>
       <c r="AE29" s="16"/>
       <c r="AF29" s="21" t="s">
@@ -14745,11 +15823,11 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="26">
         <f t="shared" si="9"/>
-        <v>0.2926664204145073</v>
+        <v>0.29276921465969619</v>
       </c>
       <c r="AK29" s="26">
         <f t="shared" si="10"/>
-        <v>2.6618474259435056E-2</v>
+        <v>2.6591837811334246E-2</v>
       </c>
       <c r="AL29" s="35">
         <f t="shared" si="11"/>
@@ -14757,11 +15835,11 @@
       </c>
       <c r="AM29" s="27">
         <f t="shared" si="12"/>
-        <v>8.5653633638241133E-2</v>
+        <v>8.5713813052455262E-2</v>
       </c>
       <c r="AN29" s="26">
         <f t="shared" si="13"/>
-        <v>0.93934768731723561</v>
+        <v>0.9398891902284795</v>
       </c>
       <c r="AO29" s="40"/>
     </row>
@@ -14783,7 +15861,7 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" si="15"/>
-        <v>84770.465011152628</v>
+        <v>84241.741928410906</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="16"/>
@@ -14822,30 +15900,30 @@
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="2"/>
-        <v>274.77579979718604</v>
+        <v>274.74466293889776</v>
       </c>
       <c r="R30" s="34">
         <f t="shared" si="3"/>
-        <v>0.30684381673853012</v>
+        <v>0.30778312021751913</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="4"/>
-        <v>101.95571689441061</v>
+        <v>102.26202694917757</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
-        <v>93.255737123826989</v>
+        <v>93.243756103897567</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
-      <c r="V30" s="33">
+      <c r="V30" s="54">
         <f t="shared" si="7"/>
-        <v>-3.4438771628139193</v>
+        <v>-3.4750140211021971</v>
       </c>
       <c r="W30">
-        <v>4885.1000000000004</v>
+        <v>4877.45</v>
       </c>
       <c r="AE30" s="16"/>
       <c r="AF30" s="21" t="s">
@@ -14862,11 +15940,11 @@
       <c r="AI30" s="18"/>
       <c r="AJ30" s="26">
         <f t="shared" si="9"/>
-        <v>0.40396750068752335</v>
+        <v>0.4040713200492545</v>
       </c>
       <c r="AK30" s="26">
         <f t="shared" si="10"/>
-        <v>3.0569968561275404E-2</v>
+        <v>3.0529940564449604E-2</v>
       </c>
       <c r="AL30" s="35">
         <f t="shared" si="11"/>
@@ -14874,11 +15952,11 @@
       </c>
       <c r="AM30" s="27">
         <f t="shared" si="12"/>
-        <v>0.16318974161172417</v>
+        <v>0.16327363168634706</v>
       </c>
       <c r="AN30" s="26">
         <f t="shared" si="13"/>
-        <v>0.83284880624336355</v>
+        <v>0.83474042235258505</v>
       </c>
       <c r="AO30" s="40"/>
     </row>
@@ -14900,7 +15978,7 @@
       </c>
       <c r="E31" s="9">
         <f t="shared" si="15"/>
-        <v>84770.465011152628</v>
+        <v>84241.741928410906</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="16"/>
@@ -14939,30 +16017,30 @@
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="2"/>
-        <v>274.61473062383413</v>
+        <v>274.5919913046742</v>
       </c>
       <c r="R31" s="34">
         <f t="shared" si="3"/>
-        <v>0.26078586666376485</v>
+        <v>0.26158929006409126</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="4"/>
-        <v>86.626532752483996</v>
+        <v>86.889812227380361</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
-        <v>79.234607066522514</v>
+        <v>79.227184331773799</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
-      <c r="V31" s="33">
+      <c r="V31" s="54">
         <f t="shared" si="7"/>
-        <v>-3.6049463361658241</v>
+        <v>-3.627685655325763</v>
       </c>
       <c r="W31">
-        <v>4046.33</v>
+        <v>4041.21</v>
       </c>
       <c r="AE31" s="16"/>
       <c r="AF31" s="21" t="s">
@@ -14979,11 +16057,11 @@
       <c r="AI31" s="18"/>
       <c r="AJ31" s="26">
         <f t="shared" si="9"/>
-        <v>0.55816044999566483</v>
+        <v>0.55826504215259565</v>
       </c>
       <c r="AK31" s="26">
         <f t="shared" si="10"/>
-        <v>3.5075521279669161E-2</v>
+        <v>3.5037703063025338E-2</v>
       </c>
       <c r="AL31" s="35">
         <f t="shared" si="11"/>
@@ -14991,11 +16069,11 @@
       </c>
       <c r="AM31" s="27">
         <f t="shared" si="12"/>
-        <v>0.31154308793936308</v>
+        <v>0.31165985728963941</v>
       </c>
       <c r="AN31" s="26">
         <f t="shared" si="13"/>
-        <v>0.98781011695884968</v>
+        <v>0.98907395963662803</v>
       </c>
       <c r="AO31" s="40"/>
     </row>
@@ -15017,7 +16095,7 @@
       </c>
       <c r="E32" s="9">
         <f t="shared" si="15"/>
-        <v>84800.089801482041</v>
+        <v>84273.281739349419</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="16"/>
@@ -15056,30 +16134,30 @@
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="2"/>
-        <v>274.46368703018146</v>
+        <v>274.44725987109803</v>
       </c>
       <c r="R32" s="34">
         <f t="shared" si="3"/>
-        <v>0.22121820294547892</v>
+        <v>0.22190020199457133</v>
       </c>
       <c r="S32" s="9">
         <f t="shared" si="4"/>
-        <v>73.462934574963541</v>
+        <v>73.687210009363156</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
-        <v>67.206011619760446</v>
+        <v>67.201468012171773</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="6"/>
         <v>278.23945848</v>
       </c>
-      <c r="V32" s="33">
+      <c r="V32" s="54">
         <f t="shared" si="7"/>
-        <v>-3.7757714498185351</v>
+        <v>-3.7921986089019697</v>
       </c>
       <c r="W32">
-        <v>3975.34</v>
+        <v>3970.7</v>
       </c>
       <c r="AE32" s="16"/>
       <c r="AF32" s="21" t="s">
@@ -15096,11 +16174,11 @@
       <c r="AI32" s="18"/>
       <c r="AJ32" s="26">
         <f t="shared" si="9"/>
-        <v>0.77482248224934502</v>
+        <v>0.77492725997005707</v>
       </c>
       <c r="AK32" s="26">
         <f t="shared" si="10"/>
-        <v>4.7899467507162341E-2</v>
+        <v>4.7850029242160114E-2</v>
       </c>
       <c r="AL32" s="35">
         <f t="shared" si="11"/>
@@ -15108,11 +16186,11 @@
       </c>
       <c r="AM32" s="27">
         <f t="shared" si="12"/>
-        <v>0.60034987899903658</v>
+        <v>0.60051225824470045</v>
       </c>
       <c r="AN32" s="26">
         <f t="shared" si="13"/>
-        <v>0.91605943302852455</v>
+        <v>0.9171370722287342</v>
       </c>
       <c r="AO32" s="40"/>
     </row>
@@ -15133,7 +16211,7 @@
       </c>
       <c r="E33" s="9">
         <f t="shared" si="15"/>
-        <v>84770.465011152628</v>
+        <v>84241.741928410906</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="16"/>
@@ -15172,30 +16250,30 @@
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="2"/>
-        <v>274.79153123629254</v>
+        <v>274.77822159731903</v>
       </c>
       <c r="R33" s="34">
         <f t="shared" si="3"/>
-        <v>0.19817835271423376</v>
+        <v>0.19879323583509675</v>
       </c>
       <c r="S33" s="9">
         <f t="shared" si="4"/>
-        <v>65.851072476370902</v>
+        <v>66.053787256947075</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
-        <v>60.231936876461546</v>
+        <v>60.228644126000709</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="6"/>
         <v>278.21967695999996</v>
       </c>
-      <c r="V33" s="33">
+      <c r="V33" s="54">
         <f t="shared" si="7"/>
-        <v>-3.4281457237074164</v>
+        <v>-3.4414553626809266</v>
       </c>
       <c r="W33">
-        <v>4103.7700000000004</v>
+        <v>4099.63</v>
       </c>
       <c r="AE33" s="16"/>
       <c r="AF33" s="21" t="s">
@@ -15212,11 +16290,11 @@
       <c r="AI33" s="18"/>
       <c r="AJ33" s="26">
         <f t="shared" si="9"/>
-        <v>0.96310423186684524</v>
+        <v>0.96320954217681853</v>
       </c>
       <c r="AK33" s="26">
         <f t="shared" si="10"/>
-        <v>6.1560481291906714E-2</v>
+        <v>6.1505101845398515E-2</v>
       </c>
       <c r="AL33" s="35">
         <f t="shared" si="11"/>
@@ -15224,11 +16302,11 @@
       </c>
       <c r="AM33" s="27">
         <f t="shared" si="12"/>
-        <v>0.92756976143982595</v>
+        <v>0.9277726221404764</v>
       </c>
       <c r="AN33" s="26">
         <f t="shared" si="13"/>
-        <v>0.9115929158400452</v>
+        <v>0.91246529881034144</v>
       </c>
       <c r="AO33" s="40"/>
     </row>
@@ -15238,6 +16316,11 @@
       </c>
       <c r="B34" s="8"/>
       <c r="H34" s="9"/>
+      <c r="R34" s="34">
+        <f>MIN(R28:R33)</f>
+        <v>0.19879323583509675</v>
+      </c>
+      <c r="V34" s="15"/>
       <c r="AE34" s="16"/>
       <c r="AF34" s="21"/>
       <c r="AG34" s="16"/>
@@ -15246,7 +16329,7 @@
       <c r="AL34" s="13"/>
       <c r="AN34" s="33">
         <f>AVERAGE(AN28:AN33)</f>
-        <v>0.9042236930416131</v>
+        <v>0.90504924400954589</v>
       </c>
     </row>
     <row r="35" spans="1:41" ht="16.8" x14ac:dyDescent="0.75">
@@ -15254,6 +16337,11 @@
         <v>43</v>
       </c>
       <c r="H35" s="9"/>
+      <c r="R35" s="34">
+        <f>MAX(R28:R33)</f>
+        <v>0.4065017451430889</v>
+      </c>
+      <c r="V35" s="15"/>
       <c r="AE35" s="16"/>
       <c r="AF35" s="21"/>
       <c r="AG35" s="16"/>
@@ -15263,13 +16351,15 @@
         <v>115</v>
       </c>
       <c r="AK35" s="19">
-        <v>2.317897E-2</v>
+        <v>2.31519E-2</v>
       </c>
       <c r="AL35" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="R36" s="15"/>
+      <c r="V36" s="15"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="21"/>
       <c r="AG36" s="16"/>
@@ -15295,7 +16385,8 @@
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
+      <c r="R37" s="53"/>
+      <c r="V37" s="15"/>
       <c r="AE37" s="16"/>
       <c r="AF37" s="21"/>
       <c r="AG37" s="16"/>
@@ -15307,6 +16398,8 @@
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R38" s="15"/>
+      <c r="V38" s="15"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="21"/>
       <c r="AG38" s="16"/>
@@ -15315,6 +16408,8 @@
       <c r="AL38" s="13"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="R39" s="15"/>
+      <c r="V39" s="15"/>
       <c r="AE39" s="16"/>
       <c r="AF39" s="21"/>
       <c r="AG39" s="16"/>
@@ -15329,6 +16424,8 @@
       <c r="D40" t="s">
         <v>78</v>
       </c>
+      <c r="R40" s="15"/>
+      <c r="V40" s="15"/>
       <c r="AE40" s="16"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="16"/>
@@ -15337,6 +16434,8 @@
       <c r="AL40" s="13"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="R41" s="15"/>
+      <c r="V41" s="15"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="21"/>
       <c r="AG41" s="16"/>
@@ -15393,7 +16492,7 @@
       <c r="Q42" t="s">
         <v>102</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="15" t="s">
         <v>94</v>
       </c>
       <c r="S42" t="s">
@@ -15405,7 +16504,7 @@
       <c r="U42" t="s">
         <v>104</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42" s="15" t="s">
         <v>105</v>
       </c>
       <c r="W42" t="s">
@@ -15479,7 +16578,7 @@
       <c r="Q43" t="s">
         <v>101</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S43" t="s">
@@ -15491,7 +16590,7 @@
       <c r="U43" t="s">
         <v>101</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43" s="15" t="s">
         <v>101</v>
       </c>
       <c r="W43" t="s">
@@ -15520,6 +16619,8 @@
       <c r="AL43" s="13"/>
     </row>
     <row r="44" spans="1:41" ht="16.8" x14ac:dyDescent="0.75">
+      <c r="R44" s="15"/>
+      <c r="V44" s="15"/>
       <c r="AE44" s="16"/>
       <c r="AF44" s="21"/>
       <c r="AG44" s="16"/>
@@ -15553,8 +16654,8 @@
         <v>1990.3440000000001</v>
       </c>
       <c r="E45" s="9">
-        <f>101325*(1+((0.00649*D45)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>80435.102877343423</v>
+        <f>101325*(1+((-0.00649*D45)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>79587.705545401011</v>
       </c>
       <c r="F45" s="9">
         <f>1.225*(1+((0.00649*D45)/288.15))^(-9.80665/(0.00649*287))</f>
@@ -15602,46 +16703,46 @@
       </c>
       <c r="Q45" s="9">
         <f t="shared" ref="Q45:Q51" si="18">P45/(1+(0.4/2)*R45^2)</f>
-        <v>271.75785059088309</v>
+        <v>271.71772405127092</v>
       </c>
       <c r="R45" s="34">
         <f t="shared" ref="R45:R51" si="19">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*H45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
-        <v>0.26760159913560244</v>
+        <v>0.2689973561540952</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" ref="S45:S51" si="20">R45*SQRT(1.4*287*Q45)</f>
-        <v>88.426965134600351</v>
+        <v>88.881620040347158</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" ref="T45:T51" si="21">S45*SQRT(E45/101325)</f>
-        <v>78.78603136894526</v>
+        <v>78.772866213322956</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" ref="U45:U51" si="22">288.15-0.00649*D45</f>
         <v>275.23266744</v>
       </c>
-      <c r="V45" s="33">
+      <c r="V45" s="54">
         <f t="shared" ref="V45:V51" si="23">Q45-U45</f>
-        <v>-3.4748168491169054</v>
+        <v>-3.5149433887290797</v>
       </c>
       <c r="W45">
-        <v>3929.46</v>
+        <v>3920.91</v>
       </c>
       <c r="X45" s="9">
         <f>T45*SQRT($O$6/AG45)</f>
-        <v>76.728218653285182</v>
+        <v>76.715397358423132</v>
       </c>
       <c r="Y45" s="33">
         <f>W45/(0.5*F45*T45^2*$O$7^2)</f>
-        <v>2.7666300471072276</v>
+        <v>2.7615330435738827</v>
       </c>
       <c r="Z45" s="33">
         <f>W45/(0.5*F45*X45^2*$O$7^2)</f>
-        <v>2.9170193322214741</v>
+        <v>2.9116452642796049</v>
       </c>
       <c r="AA45" s="33">
         <f>RADIANS(J45)-$O$9/$O$8*(Z45-Y45)</f>
-        <v>-2.5720698676369837E-3</v>
+        <v>-2.5705467511496485E-3</v>
       </c>
       <c r="AB45" s="33">
         <f>L45*$O$6/AG45</f>
@@ -15664,11 +16765,11 @@
       <c r="AI45" s="18"/>
       <c r="AJ45" s="26">
         <f t="shared" ref="AJ45:AJ51" si="26">2*AH45/(1.225*$T45^2*$O$2)</f>
-        <v>0.55923047088683875</v>
+        <v>0.55941741270475198</v>
       </c>
       <c r="AK45" s="26">
         <f t="shared" ref="AK45:AK51" si="27">2*W45/(1.225*$T45^2*$O$2)</f>
-        <v>3.4451415880983244E-2</v>
+        <v>3.4387945526984272E-2</v>
       </c>
       <c r="AL45" s="35">
         <f t="shared" ref="AL45:AL51" si="28">I45</f>
@@ -15693,8 +16794,8 @@
         <v>2045.2080000000001</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" ref="E46:E51" si="29">101325*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>79936.102449549624</v>
+        <f t="shared" ref="E46:E51" si="29">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>79047.10787883235</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" ref="F46:F51" si="30">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
@@ -15742,46 +16843,46 @@
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="18"/>
-        <v>271.75858852704795</v>
+        <v>271.72150572589618</v>
       </c>
       <c r="R46" s="34">
         <f t="shared" si="19"/>
-        <v>0.24979492204700235</v>
+        <v>0.25117401634856878</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="20"/>
-        <v>82.542992732033952</v>
+        <v>82.993041856980582</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="21"/>
-        <v>73.315092891232794</v>
+        <v>73.303779781954731</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="22"/>
         <v>274.87660008</v>
       </c>
-      <c r="V46" s="33">
+      <c r="V46" s="54">
         <f t="shared" si="23"/>
-        <v>-3.1180115529520549</v>
+        <v>-3.1550943541038237</v>
       </c>
       <c r="W46">
-        <v>3999.92</v>
+        <v>3991.16</v>
       </c>
       <c r="X46" s="9">
         <f t="shared" ref="X46:X51" si="32">T46*SQRT($O$6/AG46)</f>
-        <v>71.455011147191541</v>
+        <v>71.443985063506801</v>
       </c>
       <c r="Y46" s="33">
         <f t="shared" ref="Y46:Y51" si="33">W46/(0.5*F46*T46^2*$O$7^2)</f>
-        <v>3.2725315786516704</v>
+        <v>3.2663725685654428</v>
       </c>
       <c r="Z46" s="33">
         <f t="shared" ref="Z46:Z51" si="34">W46/(0.5*F46*X46^2*$O$7^2)</f>
-        <v>3.4451270436286445</v>
+        <v>3.4386432033050061</v>
       </c>
       <c r="AA46" s="33">
         <f t="shared" ref="AA46:AA51" si="35">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
-        <v>-7.9301324828550315E-3</v>
+        <v>-7.9283467814983671E-3</v>
       </c>
       <c r="AB46" s="33">
         <f t="shared" ref="AB46:AB51" si="36">L46*$O$6/AG46</f>
@@ -15804,11 +16905,11 @@
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26">
         <f t="shared" si="26"/>
-        <v>0.64481580733201926</v>
+        <v>0.64501485394680125</v>
       </c>
       <c r="AK46" s="26">
         <f t="shared" si="27"/>
-        <v>4.0498336001998425E-2</v>
+        <v>4.0422116826135043E-2</v>
       </c>
       <c r="AL46" s="35">
         <f t="shared" si="28"/>
@@ -15834,7 +16935,7 @@
       </c>
       <c r="E47" s="9">
         <f t="shared" si="29"/>
-        <v>79468.203194419417</v>
+        <v>78539.27842640446</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="30"/>
@@ -15882,46 +16983,46 @@
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="18"/>
-        <v>271.64392209300581</v>
+        <v>271.60924524235162</v>
       </c>
       <c r="R47" s="34">
         <f t="shared" si="19"/>
-        <v>0.23522589080588541</v>
+        <v>0.23659383575469919</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>77.712357544673935</v>
+        <v>78.159300842034028</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="21"/>
-        <v>68.822187876151773</v>
+        <v>68.812258649133994</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="22"/>
         <v>274.54031423999999</v>
       </c>
-      <c r="V47" s="33">
+      <c r="V47" s="54">
         <f t="shared" si="23"/>
-        <v>-2.8963921469941738</v>
+        <v>-2.9310689976483673</v>
       </c>
       <c r="W47">
-        <v>4057.88</v>
+        <v>4048.92</v>
       </c>
       <c r="X47" s="9">
         <f t="shared" si="32"/>
-        <v>67.101877950805573</v>
+        <v>67.09219691914916</v>
       </c>
       <c r="Y47" s="33">
         <f t="shared" si="33"/>
-        <v>3.7897550871034218</v>
+        <v>3.782478465271184</v>
       </c>
       <c r="Z47" s="33">
         <f t="shared" si="34"/>
-        <v>3.9865640383101031</v>
+        <v>3.9789095281240754</v>
       </c>
       <c r="AA47" s="33">
         <f t="shared" si="35"/>
-        <v>-1.6789888442079494E-2</v>
+        <v>-1.678781106236445E-2</v>
       </c>
       <c r="AB47" s="33">
         <f t="shared" si="36"/>
@@ -15944,11 +17045,11 @@
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26">
         <f t="shared" si="26"/>
-        <v>0.73119246711242358</v>
+        <v>0.73140349636633073</v>
       </c>
       <c r="AK47" s="26">
         <f t="shared" si="27"/>
-        <v>4.6624576756713963E-2</v>
+        <v>4.6535053976125493E-2</v>
       </c>
       <c r="AL47" s="35">
         <f t="shared" si="28"/>
@@ -15974,7 +17075,7 @@
       </c>
       <c r="E48" s="9">
         <f t="shared" si="29"/>
-        <v>78731.749499247249</v>
+        <v>77738.160125595576</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="30"/>
@@ -16022,46 +17123,46 @@
       </c>
       <c r="Q48" s="9">
         <f t="shared" si="18"/>
-        <v>271.34174185691398</v>
+        <v>271.30912242924001</v>
       </c>
       <c r="R48" s="34">
         <f t="shared" si="19"/>
-        <v>0.21923100958541789</v>
+        <v>0.22061088554067693</v>
       </c>
       <c r="S48" s="9">
         <f t="shared" si="20"/>
-        <v>72.38777942069926</v>
+        <v>72.839021407874739</v>
       </c>
       <c r="T48" s="9">
         <f t="shared" si="21"/>
-        <v>63.808994215795799</v>
+        <v>63.800330000212334</v>
       </c>
       <c r="U48" s="9">
         <f t="shared" si="22"/>
         <v>274.00621319999999</v>
       </c>
-      <c r="V48" s="33">
+      <c r="V48" s="54">
         <f t="shared" si="23"/>
-        <v>-2.6644713430860065</v>
+        <v>-2.6970907707599849</v>
       </c>
       <c r="W48">
-        <v>4131.17</v>
+        <v>4122.0200000000004</v>
       </c>
       <c r="X48" s="9">
         <f t="shared" si="32"/>
-        <v>62.266246338452099</v>
+        <v>62.257791602744703</v>
       </c>
       <c r="Y48" s="33">
         <f t="shared" si="33"/>
-        <v>4.5302446324231234</v>
+        <v>4.5214385255544496</v>
       </c>
       <c r="Z48" s="33">
         <f t="shared" si="34"/>
-        <v>4.7575140748820335</v>
+        <v>4.748266190767171</v>
       </c>
       <c r="AA48" s="33">
         <f t="shared" si="35"/>
-        <v>-2.7429315546567603E-2</v>
+        <v>-2.7426886948065964E-2</v>
       </c>
       <c r="AB48" s="33">
         <f t="shared" si="36"/>
@@ -16084,11 +17185,11 @@
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26">
         <f t="shared" si="26"/>
-        <v>0.84917204201754848</v>
+        <v>0.84940269628579812</v>
       </c>
       <c r="AK48" s="26">
         <f t="shared" si="27"/>
-        <v>5.5218158721281649E-2</v>
+        <v>5.5110823015101264E-2</v>
       </c>
       <c r="AL48" s="35">
         <f t="shared" si="28"/>
@@ -16114,7 +17215,7 @@
       </c>
       <c r="E49" s="9">
         <f t="shared" si="29"/>
-        <v>80713.926835132967</v>
+        <v>79889.329187296884</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="30"/>
@@ -16162,46 +17263,46 @@
       </c>
       <c r="Q49" s="9">
         <f t="shared" si="18"/>
-        <v>271.91186717209803</v>
+        <v>271.86770729882028</v>
       </c>
       <c r="R49" s="34">
         <f t="shared" si="19"/>
-        <v>0.28567423239659723</v>
+        <v>0.28711527377691809</v>
       </c>
       <c r="S49" s="9">
         <f t="shared" si="20"/>
-        <v>94.425678982229215</v>
+        <v>94.894288746320171</v>
       </c>
       <c r="T49" s="9">
         <f t="shared" si="21"/>
-        <v>84.276414129073416</v>
+        <v>84.260912124912778</v>
       </c>
       <c r="U49" s="9">
         <f t="shared" si="22"/>
         <v>275.43048263999998</v>
       </c>
-      <c r="V49" s="33">
+      <c r="V49" s="54">
         <f t="shared" si="23"/>
-        <v>-3.5186154679019523</v>
+        <v>-3.5627753411797016</v>
       </c>
       <c r="W49">
-        <v>3858.8</v>
+        <v>3850.48</v>
       </c>
       <c r="X49" s="9">
         <f t="shared" si="32"/>
-        <v>82.307997269263851</v>
+        <v>82.292857340384487</v>
       </c>
       <c r="Y49" s="33">
         <f t="shared" si="33"/>
-        <v>2.3662138054646258</v>
+        <v>2.361980843378007</v>
       </c>
       <c r="Z49" s="33">
         <f t="shared" si="34"/>
-        <v>2.4807443563675977</v>
+        <v>2.4763065085354006</v>
       </c>
       <c r="AA49" s="33">
         <f t="shared" si="35"/>
-        <v>4.6063746948431317E-3</v>
+        <v>4.6075010208796391E-3</v>
       </c>
       <c r="AB49" s="33">
         <f t="shared" si="36"/>
@@ -16224,11 +17325,11 @@
       <c r="AI49" s="18"/>
       <c r="AJ49" s="26">
         <f t="shared" si="26"/>
-        <v>0.48597842484991205</v>
+        <v>0.48615725824678063</v>
       </c>
       <c r="AK49" s="26">
         <f t="shared" si="27"/>
-        <v>2.9567378779607054E-2</v>
+        <v>2.9514485168266557E-2</v>
       </c>
       <c r="AL49" s="35">
         <f t="shared" si="28"/>
@@ -16254,7 +17355,7 @@
       </c>
       <c r="E50" s="9">
         <f t="shared" si="29"/>
-        <v>82068.399417247711</v>
+        <v>81350.04145788787</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="30"/>
@@ -16302,46 +17403,46 @@
       </c>
       <c r="Q50" s="9">
         <f t="shared" si="18"/>
-        <v>272.39049429548606</v>
+        <v>272.34845015728195</v>
       </c>
       <c r="R50" s="34">
         <f t="shared" si="19"/>
-        <v>0.30172286670196724</v>
+        <v>0.30302248027393347</v>
       </c>
       <c r="S50" s="9">
         <f t="shared" si="20"/>
-        <v>99.818069307958709</v>
+        <v>100.24027949891466</v>
       </c>
       <c r="T50" s="9">
         <f t="shared" si="21"/>
-        <v>89.833607647007724</v>
+        <v>89.817890746558689</v>
       </c>
       <c r="U50" s="9">
         <f t="shared" si="22"/>
         <v>276.37999559999997</v>
       </c>
-      <c r="V50" s="33">
+      <c r="V50" s="54">
         <f t="shared" si="23"/>
-        <v>-3.9895013045139081</v>
+        <v>-4.0315454427180271</v>
       </c>
       <c r="W50">
-        <v>3818.9399999999996</v>
+        <v>3811.29</v>
       </c>
       <c r="X50" s="9">
         <f t="shared" si="32"/>
-        <v>87.793907616332831</v>
+        <v>87.778547573001845</v>
       </c>
       <c r="Y50" s="33">
         <f t="shared" si="33"/>
-        <v>2.0269894008113147</v>
+        <v>2.0236370207073202</v>
       </c>
       <c r="Z50" s="33">
         <f t="shared" si="34"/>
-        <v>2.1222688553055757</v>
+        <v>2.1187588952224066</v>
       </c>
       <c r="AA50" s="33">
         <f t="shared" si="35"/>
-        <v>9.9481922197796925E-3</v>
+        <v>9.9490584900654849E-3</v>
       </c>
       <c r="AB50" s="33">
         <f t="shared" si="36"/>
@@ -16364,11 +17465,11 @@
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26">
         <f t="shared" si="26"/>
-        <v>0.42714202196542572</v>
+        <v>0.42729152304929774</v>
       </c>
       <c r="AK50" s="26">
         <f t="shared" si="27"/>
-        <v>2.5753591665663003E-2</v>
+        <v>2.5710998533073456E-2</v>
       </c>
       <c r="AL50" s="35">
         <f t="shared" si="28"/>
@@ -16394,7 +17495,7 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" si="29"/>
-        <v>84652.088933241597</v>
+        <v>84115.678289078729</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="30"/>
@@ -16442,46 +17543,46 @@
       </c>
       <c r="Q51" s="9">
         <f t="shared" si="18"/>
-        <v>274.65936999102138</v>
+        <v>274.62705207678562</v>
       </c>
       <c r="R51" s="34">
         <f t="shared" si="19"/>
-        <v>0.31034266689804529</v>
+        <v>0.31130740643337551</v>
       </c>
       <c r="S51" s="9">
         <f t="shared" si="20"/>
-        <v>103.09643877476087</v>
+        <v>103.41084265074728</v>
       </c>
       <c r="T51" s="9">
         <f t="shared" si="21"/>
-        <v>94.23325601085709</v>
+        <v>94.220682650672671</v>
       </c>
       <c r="U51" s="9">
         <f t="shared" si="22"/>
         <v>278.14055087999998</v>
       </c>
-      <c r="V51" s="33">
+      <c r="V51" s="54">
         <f t="shared" si="23"/>
-        <v>-3.4811808889785993</v>
+        <v>-3.513498803214361</v>
       </c>
       <c r="W51">
-        <v>3806.2200000000003</v>
+        <v>3800.31</v>
       </c>
       <c r="X51" s="9">
         <f t="shared" si="32"/>
-        <v>92.207051542855709</v>
+        <v>92.194748535195046</v>
       </c>
       <c r="Y51" s="33">
         <f t="shared" si="33"/>
-        <v>1.7799594171584008</v>
+        <v>1.7776699861820704</v>
       </c>
       <c r="Z51" s="33">
         <f t="shared" si="34"/>
-        <v>1.8590463822050876</v>
+        <v>1.8566552274782839</v>
       </c>
       <c r="AA51" s="33">
         <f t="shared" si="35"/>
-        <v>1.5273195550805181E-2</v>
+        <v>1.5273754760565555E-2</v>
       </c>
       <c r="AB51" s="33">
         <f t="shared" si="36"/>
@@ -16504,11 +17605,11 @@
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26">
         <f t="shared" si="26"/>
-        <v>0.38723338090377868</v>
+        <v>0.3873367371839247</v>
       </c>
       <c r="AK51" s="26">
         <f t="shared" si="27"/>
-        <v>2.332695998475437E-2</v>
+        <v>2.3296956230591272E-2</v>
       </c>
       <c r="AL51" s="35">
         <f t="shared" si="28"/>
@@ -16625,8 +17726,12 @@
       </c>
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
+      <c r="P54" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q54" s="52" t="s">
+        <v>136</v>
+      </c>
       <c r="R54" s="44"/>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
@@ -16651,11 +17756,11 @@
       <c r="C55" s="12"/>
       <c r="D55" s="39">
         <f>AJ51</f>
-        <v>0.38723338090377868</v>
+        <v>0.3873367371839247</v>
       </c>
       <c r="E55" s="39">
         <f>AK51</f>
-        <v>2.332695998475437E-2</v>
+        <v>2.3296956230591272E-2</v>
       </c>
       <c r="F55" s="39">
         <f>AL51</f>
@@ -16663,27 +17768,27 @@
       </c>
       <c r="G55" s="39">
         <f>D55^2</f>
-        <v>0.14994969128617094</v>
+        <v>0.15002974797228874</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" ref="H55:H61" si="37">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
-        <v>0.24247326595061547</v>
+        <v>0.24291516399792293</v>
       </c>
       <c r="I55" s="46">
         <f>AA45</f>
-        <v>-2.5720698676369837E-3</v>
+        <v>-2.5705467511496485E-3</v>
       </c>
       <c r="J55" s="39">
         <f>I58</f>
-        <v>-2.7429315546567603E-2</v>
+        <v>-2.7426886948065964E-2</v>
       </c>
       <c r="K55" s="46">
         <f>X45</f>
-        <v>76.728218653285182</v>
+        <v>76.715397358423132</v>
       </c>
       <c r="L55" s="39">
         <f>K58</f>
-        <v>62.266246338452099</v>
+        <v>62.257791602744703</v>
       </c>
       <c r="M55" s="46">
         <f>AB45</f>
@@ -16694,9 +17799,18 @@
         <v>-47.611468522407421</v>
       </c>
       <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
+      <c r="P55" s="39">
+        <f>J55*180/PI()</f>
+        <v>-1.5714448673066228</v>
+      </c>
+      <c r="Q55" s="46">
+        <f>I45</f>
+        <v>5.5</v>
+      </c>
+      <c r="R55" s="39">
+        <f>Q58</f>
+        <v>9.1</v>
+      </c>
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="39"/>
@@ -16721,11 +17835,11 @@
       <c r="C56" s="12"/>
       <c r="D56" s="39">
         <f>AJ50</f>
-        <v>0.42714202196542572</v>
+        <v>0.42729152304929774</v>
       </c>
       <c r="E56" s="39">
         <f>AK50</f>
-        <v>2.5753591665663003E-2</v>
+        <v>2.5710998533073456E-2</v>
       </c>
       <c r="F56" s="39">
         <f>AL50</f>
@@ -16733,27 +17847,27 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" ref="G56:G61" si="38">D56^2</f>
-        <v>0.18245030692871222</v>
+        <v>0.18257804566978855</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="37"/>
-        <v>0.2672287765524281</v>
+        <v>0.26785887532764313</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" ref="I56:I61" si="39">AA46</f>
-        <v>-7.9301324828550315E-3</v>
+        <v>-7.9283467814983671E-3</v>
       </c>
       <c r="J56" s="39">
         <f>I57</f>
-        <v>-1.6789888442079494E-2</v>
+        <v>-1.678781106236445E-2</v>
       </c>
       <c r="K56" s="46">
         <f t="shared" ref="K56:K61" si="40">X46</f>
-        <v>71.455011147191541</v>
+        <v>71.443985063506801</v>
       </c>
       <c r="L56" s="39">
         <f>K57</f>
-        <v>67.101877950805573</v>
+        <v>67.09219691914916</v>
       </c>
       <c r="M56" s="46">
         <f t="shared" ref="M56:M61" si="41">AB46</f>
@@ -16764,9 +17878,18 @@
         <v>-37.074645478336727</v>
       </c>
       <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
+      <c r="P56" s="39">
+        <f t="shared" ref="P56:P61" si="42">J56*180/PI()</f>
+        <v>-0.96187072113651795</v>
+      </c>
+      <c r="Q56" s="46">
+        <f t="shared" ref="Q56:Q61" si="43">I46</f>
+        <v>6.5</v>
+      </c>
+      <c r="R56" s="39">
+        <f>Q57</f>
+        <v>7.5</v>
+      </c>
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="39"/>
@@ -16794,11 +17917,11 @@
       <c r="C57" s="12"/>
       <c r="D57" s="39">
         <f>AJ49</f>
-        <v>0.48597842484991205</v>
+        <v>0.48615725824678063</v>
       </c>
       <c r="E57" s="39">
         <f>AK49</f>
-        <v>2.9567378779607054E-2</v>
+        <v>2.9514485168266557E-2</v>
       </c>
       <c r="F57" s="39">
         <f>AL49</f>
@@ -16806,27 +17929,27 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="38"/>
-        <v>0.23617502941960161</v>
+        <v>0.23634887974602695</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="37"/>
-        <v>0.30129892607218201</v>
+        <v>0.3020610770684618</v>
       </c>
       <c r="I57" s="46">
         <f t="shared" si="39"/>
-        <v>-1.6789888442079494E-2</v>
+        <v>-1.678781106236445E-2</v>
       </c>
       <c r="J57" s="39">
         <f>I56</f>
-        <v>-7.9301324828550315E-3</v>
+        <v>-7.9283467814983671E-3</v>
       </c>
       <c r="K57" s="46">
         <f t="shared" si="40"/>
-        <v>67.101877950805573</v>
+        <v>67.09219691914916</v>
       </c>
       <c r="L57" s="39">
         <f>K56</f>
-        <v>71.455011147191541</v>
+        <v>71.443985063506801</v>
       </c>
       <c r="M57" s="46">
         <f t="shared" si="41"/>
@@ -16837,9 +17960,18 @@
         <v>-23.747539185121127</v>
       </c>
       <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
+      <c r="P57" s="39">
+        <f t="shared" si="42"/>
+        <v>-0.45426080909598632</v>
+      </c>
+      <c r="Q57" s="46">
+        <f t="shared" si="43"/>
+        <v>7.5</v>
+      </c>
+      <c r="R57" s="39">
+        <f>Q56</f>
+        <v>6.5</v>
+      </c>
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="39"/>
@@ -16867,40 +17999,40 @@
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="39">
-        <f t="shared" ref="D58:F61" si="42">AJ45</f>
-        <v>0.55923047088683875</v>
+        <f t="shared" ref="D58:F61" si="44">AJ45</f>
+        <v>0.55941741270475198</v>
       </c>
       <c r="E58" s="39">
-        <f t="shared" si="42"/>
-        <v>3.4451415880983244E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.4387945526984272E-2</v>
       </c>
       <c r="F58" s="39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.5</v>
       </c>
       <c r="G58" s="39">
         <f t="shared" si="38"/>
-        <v>0.31273871956831539</v>
+        <v>0.31294784163727879</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="37"/>
-        <v>0.34241360267090754</v>
+        <v>0.34327498833305448</v>
       </c>
       <c r="I58" s="46">
         <f t="shared" si="39"/>
-        <v>-2.7429315546567603E-2</v>
+        <v>-2.7426886948065964E-2</v>
       </c>
       <c r="J58" s="39">
         <f>I55</f>
-        <v>-2.5720698676369837E-3</v>
+        <v>-2.5705467511496485E-3</v>
       </c>
       <c r="K58" s="46">
         <f t="shared" si="40"/>
-        <v>62.266246338452099</v>
+        <v>62.257791602744703</v>
       </c>
       <c r="L58" s="39">
         <f>K55</f>
-        <v>76.728218653285182</v>
+        <v>76.715397358423132</v>
       </c>
       <c r="M58" s="46">
         <f t="shared" si="41"/>
@@ -16911,9 +18043,18 @@
         <v>-0.94844419320330109</v>
       </c>
       <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
+      <c r="P58" s="39">
+        <f t="shared" si="42"/>
+        <v>-0.14728147988194035</v>
+      </c>
+      <c r="Q58" s="46">
+        <f t="shared" si="43"/>
+        <v>9.1</v>
+      </c>
+      <c r="R58" s="39">
+        <f>Q55</f>
+        <v>5.5</v>
+      </c>
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="39"/>
@@ -16941,40 +18082,40 @@
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="39">
-        <f t="shared" si="42"/>
-        <v>0.64481580733201926</v>
+        <f t="shared" si="44"/>
+        <v>0.64501485394680125</v>
       </c>
       <c r="E59" s="39">
-        <f t="shared" si="42"/>
-        <v>4.0498336001998425E-2</v>
+        <f t="shared" si="44"/>
+        <v>4.0422116826135043E-2</v>
       </c>
       <c r="F59" s="39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.5</v>
       </c>
       <c r="G59" s="39">
         <f t="shared" si="38"/>
-        <v>0.41578742538524377</v>
+        <v>0.41604416181201337</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="37"/>
-        <v>0.38726709891188654</v>
+        <v>0.38823689926015237</v>
       </c>
       <c r="I59" s="46">
         <f t="shared" si="39"/>
-        <v>4.6063746948431317E-3</v>
+        <v>4.6075010208796391E-3</v>
       </c>
       <c r="J59" s="39">
         <f>I59</f>
-        <v>4.6063746948431317E-3</v>
+        <v>4.6075010208796391E-3</v>
       </c>
       <c r="K59" s="46">
         <f t="shared" si="40"/>
-        <v>82.307997269263851</v>
+        <v>82.292857340384487</v>
       </c>
       <c r="L59" s="39">
         <f>K59</f>
-        <v>82.307997269263851</v>
+        <v>82.292857340384487</v>
       </c>
       <c r="M59" s="46">
         <f t="shared" si="41"/>
@@ -16985,9 +18126,18 @@
         <v>27.661133313611767</v>
       </c>
       <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
+      <c r="P59" s="39">
+        <f t="shared" si="42"/>
+        <v>0.26399036259862152</v>
+      </c>
+      <c r="Q59" s="46">
+        <f t="shared" si="43"/>
+        <v>4.8</v>
+      </c>
+      <c r="R59" s="39">
+        <f>Q59</f>
+        <v>4.8</v>
+      </c>
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="39"/>
@@ -17015,53 +18165,62 @@
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="39">
-        <f t="shared" si="42"/>
-        <v>0.73119246711242358</v>
+        <f t="shared" si="44"/>
+        <v>0.73140349636633073</v>
       </c>
       <c r="E60" s="39">
-        <f t="shared" si="42"/>
-        <v>4.6624576756713963E-2</v>
+        <f t="shared" si="44"/>
+        <v>4.6535053976125493E-2</v>
       </c>
       <c r="F60" s="39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>7.5</v>
       </c>
       <c r="G60" s="39">
         <f t="shared" si="38"/>
-        <v>0.53464242396195261</v>
+        <v>0.53495107449689316</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="37"/>
-        <v>0.4325386746966417</v>
+        <v>0.43362096613045287</v>
       </c>
       <c r="I60" s="46">
         <f t="shared" si="39"/>
-        <v>9.9481922197796925E-3</v>
+        <v>9.9490584900654849E-3</v>
       </c>
       <c r="J60" s="39">
-        <f t="shared" ref="J60:L61" si="43">I60</f>
-        <v>9.9481922197796925E-3</v>
+        <f t="shared" ref="J60:L61" si="45">I60</f>
+        <v>9.9490584900654849E-3</v>
       </c>
       <c r="K60" s="46">
         <f t="shared" si="40"/>
-        <v>87.793907616332831</v>
+        <v>87.778547573001845</v>
       </c>
       <c r="L60" s="39">
-        <f t="shared" si="43"/>
-        <v>87.793907616332831</v>
+        <f t="shared" si="45"/>
+        <v>87.778547573001845</v>
       </c>
       <c r="M60" s="46">
         <f t="shared" si="41"/>
         <v>41.069511064533195</v>
       </c>
       <c r="N60" s="39">
-        <f t="shared" ref="N60" si="44">M60</f>
+        <f t="shared" ref="N60" si="46">M60</f>
         <v>41.069511064533195</v>
       </c>
       <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
+      <c r="P60" s="39">
+        <f t="shared" si="42"/>
+        <v>0.57003906160955176</v>
+      </c>
+      <c r="Q60" s="46">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="R60" s="39">
+        <f t="shared" ref="R60:R61" si="47">Q60</f>
+        <v>4</v>
+      </c>
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="39"/>
@@ -17087,53 +18246,62 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="39">
-        <f t="shared" si="42"/>
-        <v>0.84917204201754848</v>
+        <f t="shared" si="44"/>
+        <v>0.84940269628579812</v>
       </c>
       <c r="E61" s="39">
-        <f t="shared" si="42"/>
-        <v>5.5218158721281649E-2</v>
+        <f t="shared" si="44"/>
+        <v>5.5110823015101264E-2</v>
       </c>
       <c r="F61" s="39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.1</v>
       </c>
       <c r="G61" s="39">
         <f t="shared" si="38"/>
-        <v>0.72109315694425313</v>
+        <v>0.72148494045758382</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="37"/>
-        <v>0.4925903322582923</v>
+        <v>0.4938178727504377</v>
       </c>
       <c r="I61" s="46">
         <f t="shared" si="39"/>
-        <v>1.5273195550805181E-2</v>
+        <v>1.5273754760565555E-2</v>
       </c>
       <c r="J61" s="39">
-        <f t="shared" si="43"/>
-        <v>1.5273195550805181E-2</v>
+        <f t="shared" si="45"/>
+        <v>1.5273754760565555E-2</v>
       </c>
       <c r="K61" s="46">
         <f t="shared" si="40"/>
-        <v>92.207051542855709</v>
+        <v>92.194748535195046</v>
       </c>
       <c r="L61" s="39">
-        <f t="shared" si="43"/>
-        <v>92.207051542855709</v>
+        <f t="shared" si="45"/>
+        <v>92.194748535195046</v>
       </c>
       <c r="M61" s="46">
         <f t="shared" si="41"/>
         <v>75.639206908179787</v>
       </c>
       <c r="N61" s="39">
-        <f t="shared" ref="N61" si="45">M61</f>
+        <f t="shared" ref="N61" si="48">M61</f>
         <v>75.639206908179787</v>
       </c>
       <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
+      <c r="P61" s="39">
+        <f t="shared" si="42"/>
+        <v>0.87512168509825561</v>
+      </c>
+      <c r="Q61" s="46">
+        <f t="shared" si="43"/>
+        <v>3.6</v>
+      </c>
+      <c r="R61" s="39">
+        <f t="shared" si="47"/>
+        <v>3.6</v>
+      </c>
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="39"/>
@@ -17481,8 +18649,8 @@
         <v>1676.4</v>
       </c>
       <c r="E72" s="9">
-        <f t="shared" ref="E72:E73" si="46">101325*(1+((0.00649*D72)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>83362.847994307915</v>
+        <f>101325*(1+((-0.00649*D72)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>82739.035873671543</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="12">
@@ -17490,7 +18658,7 @@
         <v>81.796596000000008</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" ref="H72:H73" si="47">G72-2*0.514444</f>
+        <f t="shared" ref="H72:H73" si="49">G72-2*0.514444</f>
         <v>80.767708000000013</v>
       </c>
       <c r="I72" s="13">
@@ -17527,19 +18695,19 @@
       </c>
       <c r="Q72" s="9">
         <f>P72/(1+(0.4/2)*R72^2)</f>
-        <v>273.61416355801447</v>
+        <v>273.58684740766807</v>
       </c>
       <c r="R72" s="34">
         <f>SQRT(2/0.4*((1+101325/E72*((1+0.4/2.8*1.225/101325*H72^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
-        <v>0.26128209033348937</v>
+        <v>0.26224867893139758</v>
       </c>
       <c r="S72" s="9">
         <f>R72*SQRT(1.4*287*Q72)</f>
-        <v>86.633108058922176</v>
+        <v>86.949258524697825</v>
       </c>
       <c r="T72" s="9">
         <f>S72*SQRT(E72/101325)</f>
-        <v>78.579970412936149</v>
+        <v>78.571094798499431</v>
       </c>
       <c r="U72" s="9">
         <f>288.15-0.00649*D72</f>
@@ -17547,10 +18715,10 @@
       </c>
       <c r="V72" s="33">
         <f>Q72-U72</f>
-        <v>-3.6560004419854977</v>
+        <v>-3.6833165923318916</v>
       </c>
       <c r="W72">
-        <v>3911.01</v>
+        <v>3905.43</v>
       </c>
       <c r="X72">
         <v>0.50170000000000003</v>
@@ -17564,17 +18732,17 @@
         <v>6429.8417214199999</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" ref="AH72:AH73" si="48">AG72*9.80665</f>
+        <f t="shared" ref="AH72:AH73" si="50">AG72*9.80665</f>
         <v>63055.207317363442</v>
       </c>
       <c r="AI72" s="18"/>
       <c r="AJ72" s="26">
         <f>2*AH72/(1.225*$T72^2*$O$2)</f>
-        <v>0.55573773700445595</v>
-      </c>
-      <c r="AK72" s="26">
-        <f>2*W72/(1.225*$T72^2*$O$2)</f>
-        <v>3.44697280251949E-2</v>
+        <v>0.55586329952817115</v>
+      </c>
+      <c r="AK72" s="26" t="e">
+        <f>2*#REF!/(1.225*$T72^2*$O$2)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL72" s="35">
         <f>I72</f>
@@ -17582,7 +18750,7 @@
       </c>
       <c r="AM72" s="28">
         <f>AJ72^2</f>
-        <v>0.30884443233083386</v>
+        <v>0.3089840077623453</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -17602,8 +18770,8 @@
         <v>1697.7360000000001</v>
       </c>
       <c r="E73" s="9">
-        <f t="shared" si="46"/>
-        <v>83159.902184557068</v>
+        <f>101325*(1+((-0.00649*D73)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <v>82521.717427235679</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="12">
@@ -17611,7 +18779,7 @@
         <v>81.282151999999996</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>80.253264000000001</v>
       </c>
       <c r="I73" s="13">
@@ -17648,19 +18816,19 @@
       </c>
       <c r="Q73" s="9">
         <f>P73/(1+(0.4/2)*R73^2)</f>
-        <v>273.65210046437221</v>
+        <v>273.62435737843623</v>
       </c>
       <c r="R73" s="34">
         <f>SQRT(2/0.4*((1+101325/E73*((1+0.4/2.8*1.225/101325*H73^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
-        <v>0.25993404382592394</v>
+        <v>0.26092051167233943</v>
       </c>
       <c r="S73" s="9">
         <f>R73*SQRT(1.4*287*Q73)</f>
-        <v>86.192111977118728</v>
+        <v>86.514831252922036</v>
       </c>
       <c r="T73" s="9">
         <f>S73*SQRT(E73/101325)</f>
-        <v>78.08474585544873</v>
+        <v>78.075790084413057</v>
       </c>
       <c r="U73" s="9">
         <f>288.15-0.00649*D73</f>
@@ -17668,10 +18836,10 @@
       </c>
       <c r="V73" s="33">
         <f>Q73-U73</f>
-        <v>-3.4795928956277749</v>
+        <v>-3.5073359815637559</v>
       </c>
       <c r="W73">
-        <v>3915.6600000000003</v>
+        <v>3916.01</v>
       </c>
       <c r="X73">
         <v>0.4456</v>
@@ -17685,17 +18853,17 @@
         <v>6417.5947274299997</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>62935.105333751402</v>
       </c>
       <c r="AI73" s="18"/>
       <c r="AJ73" s="26">
         <f>2*AH73/(1.225*$T73^2*$O$2)</f>
-        <v>0.56173723650947027</v>
+        <v>0.56186611329952674</v>
       </c>
       <c r="AK73" s="26">
         <f>2*W73/(1.225*$T73^2*$O$2)</f>
-        <v>3.4949842633075982E-2</v>
+        <v>3.4960985711770906E-2</v>
       </c>
       <c r="AL73" s="35">
         <f>I73</f>
@@ -17703,7 +18871,7 @@
       </c>
       <c r="AM73" s="28">
         <f>AJ73^2</f>
-        <v>0.31554872288129654</v>
+        <v>0.3156935292743166</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="18.3" x14ac:dyDescent="0.7">
@@ -17740,10 +18908,7 @@
         <v>0.50170000000000003</v>
       </c>
       <c r="U77" s="50"/>
-      <c r="V77" s="50">
-        <f>J73/(I73-I72)</f>
-        <v>-2.9999999999999973</v>
-      </c>
+      <c r="V77" s="50"/>
       <c r="W77" s="50"/>
       <c r="X77" s="50"/>
       <c r="Y77" s="50"/>
@@ -17880,22 +19045,24 @@
         <v>124</v>
       </c>
       <c r="T82" s="51">
-        <f>-1/(J72-J73)*AVERAGE(AJ72:AJ73)*(X73-X72)/O3</f>
-        <v>2.5398393218812817E-2</v>
+        <f>-1/RADIANS(J73-J72)*AVERAGE(AJ72:AJ73)*(X73-X72)/O3</f>
+        <v>-1.4555520789328533</v>
       </c>
       <c r="U82" s="50"/>
-      <c r="V82" s="50">
-        <f>T82*-V77</f>
-        <v>7.6195179656438378E-2</v>
-      </c>
+      <c r="V82" s="50"/>
       <c r="W82" s="50"/>
       <c r="X82" s="50"/>
       <c r="Y82" s="50"/>
       <c r="Z82" s="50"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="S83" s="50"/>
-      <c r="T83" s="50"/>
+      <c r="S83" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="T83" s="50">
+        <f>T82*0.4368</f>
+        <v>-0.63578514807787034</v>
+      </c>
       <c r="U83" s="50"/>
       <c r="V83" s="50"/>
       <c r="W83" s="50"/>
@@ -17930,6 +19097,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K55 K56:K61 M55:M61" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23FBADA-0716-4FF2-A9BB-C5C8158BD7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813C195E-20EE-4BA0-ACE2-4ABB58885CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14977,8 +14977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP36" sqref="AP36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16350,7 +16350,7 @@
       <c r="AJ35" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AK35" s="19">
+      <c r="AK35">
         <v>2.31519E-2</v>
       </c>
       <c r="AL35" s="13" t="s">

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{87D9673C-669A-48EE-84EB-126651A6B02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25E8A786-7441-444D-8C99-FB49118896D8}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="640" windowWidth="30470" windowHeight="17170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="580" windowWidth="30470" windowHeight="17170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
@@ -11206,7 +11206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>

--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813C195E-20EE-4BA0-ACE2-4ABB58885CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867C601-F323-4DA9-B8F9-15390F878130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
     <sheet name="Metric Units" sheetId="2" r:id="rId2"/>
+    <sheet name="thrust" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -612,7 +613,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +681,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -800,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -868,6 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,22 +1309,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5600046374981152E-2</c:v>
+                  <c:v>2.4254374919290604E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6591837811334246E-2</c:v>
+                  <c:v>2.540473091597446E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0529940564449604E-2</c:v>
+                  <c:v>2.9014994446215869E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5037703063025338E-2</c:v>
+                  <c:v>3.3488202434060373E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7850029242160114E-2</c:v>
+                  <c:v>4.5741856558050464E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1505101845398515E-2</c:v>
+                  <c:v>5.8545282440473211E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,22 +1336,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23307220529561296</c:v>
+                  <c:v>0.22181671315831439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29276921465969619</c:v>
+                  <c:v>0.27880015041011486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4040713200492545</c:v>
+                  <c:v>0.38520211607614463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55826504215259565</c:v>
+                  <c:v>0.53189961172252587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77492725997005707</c:v>
+                  <c:v>0.73794026971378945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96320954217681853</c:v>
+                  <c:v>0.91834202261667053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,25 +1806,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.257791602744703</c:v>
+                  <c:v>64.166865753247251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.09219691914916</c:v>
+                  <c:v>69.111298391704324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.443985063506801</c:v>
+                  <c:v>73.578847031429945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.715397358423132</c:v>
+                  <c:v>79.008327461824393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.292857340384487</c:v>
+                  <c:v>84.729109713642799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.778547573001845</c:v>
+                  <c:v>90.297400910846775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.194748535195046</c:v>
+                  <c:v>94.446058878503024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,6 +2297,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Metric Units'!$R$55:$R$61</c:f>
@@ -2325,25 +2392,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.5714448673066228</c:v>
+                  <c:v>-1.5673185697654379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.96187072113651795</c:v>
+                  <c:v>-0.95800511214498441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45426080909598632</c:v>
+                  <c:v>-0.45128761942335577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14728147988194035</c:v>
+                  <c:v>-0.14446565252317842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26399036259862152</c:v>
+                  <c:v>0.26621771117859949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57003906160955176</c:v>
+                  <c:v>0.57154991788594889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87512168509825561</c:v>
+                  <c:v>0.87623639514902774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,64 +2845,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Metric Units'!$I$28:$I$33</c:f>
@@ -2870,22 +2879,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23307220529561296</c:v>
+                  <c:v>0.22181671315831439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29276921465969619</c:v>
+                  <c:v>0.27880015041011486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4040713200492545</c:v>
+                  <c:v>0.38520211607614463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55826504215259565</c:v>
+                  <c:v>0.53189961172252587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77492725997005707</c:v>
+                  <c:v>0.73794026971378945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96320954217681853</c:v>
+                  <c:v>0.91834202261667053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,22 +3329,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5600046374981152E-2</c:v>
+                  <c:v>2.4254374919290604E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6591837811334246E-2</c:v>
+                  <c:v>2.540473091597446E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0529940564449604E-2</c:v>
+                  <c:v>2.9014994446215869E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5037703063025338E-2</c:v>
+                  <c:v>3.3488202434060373E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7850029242160114E-2</c:v>
+                  <c:v>4.5741856558050464E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1505101845398515E-2</c:v>
+                  <c:v>5.8545282440473211E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,22 +3790,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5600046374981152E-2</c:v>
+                  <c:v>2.4254374919290604E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6591837811334246E-2</c:v>
+                  <c:v>2.540473091597446E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0529940564449604E-2</c:v>
+                  <c:v>2.9014994446215869E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5037703063025338E-2</c:v>
+                  <c:v>3.3488202434060373E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7850029242160114E-2</c:v>
+                  <c:v>4.5741856558050464E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1505101845398515E-2</c:v>
+                  <c:v>5.8545282440473211E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,22 +3817,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.4322652881360352E-2</c:v>
+                  <c:v>4.9202654236357925E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5713813052455262E-2</c:v>
+                  <c:v>7.772952386870266E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16327363168634706</c:v>
+                  <c:v>0.1483806702295396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31165985728963941</c:v>
+                  <c:v>0.28291719695057377</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60051225824470045</c:v>
+                  <c:v>0.54455584166526028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9277726221404764</c:v>
+                  <c:v>0.84335207050367744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,25 +4294,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3296956230591272E-2</c:v>
+                  <c:v>2.225310131657468E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5710998533073456E-2</c:v>
+                  <c:v>2.4414456248586014E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9514485168266557E-2</c:v>
+                  <c:v>2.7688889261938576E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4387945526984272E-2</c:v>
+                  <c:v>3.233998683219981E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0422116826135043E-2</c:v>
+                  <c:v>3.8207210297912776E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6535053976125493E-2</c:v>
+                  <c:v>4.362759920968285E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5110823015101264E-2</c:v>
+                  <c:v>5.1927898025907998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4315,25 +4324,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.3873367371839247</c:v>
+                  <c:v>0.36909093420443628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42729152304929774</c:v>
+                  <c:v>0.40378535024568535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48615725824678063</c:v>
+                  <c:v>0.45860181779817211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55941741270475198</c:v>
+                  <c:v>0.5274184542057766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64501485394680125</c:v>
+                  <c:v>0.6081281421864555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73140349636633073</c:v>
+                  <c:v>0.68929154887028254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84940269628579812</c:v>
+                  <c:v>0.7996121874572113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,25 +4822,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.3873367371839247</c:v>
+                  <c:v>0.36909093420443628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42729152304929774</c:v>
+                  <c:v>0.40378535024568535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48615725824678063</c:v>
+                  <c:v>0.45860181779817211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55941741270475198</c:v>
+                  <c:v>0.5274184542057766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64501485394680125</c:v>
+                  <c:v>0.6081281421864555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73140349636633073</c:v>
+                  <c:v>0.68929154887028254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84940269628579812</c:v>
+                  <c:v>0.7996121874572113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,25 +5278,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3296956230591272E-2</c:v>
+                  <c:v>2.225310131657468E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5710998533073456E-2</c:v>
+                  <c:v>2.4414456248586014E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9514485168266557E-2</c:v>
+                  <c:v>2.7688889261938576E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4387945526984272E-2</c:v>
+                  <c:v>3.233998683219981E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0422116826135043E-2</c:v>
+                  <c:v>3.8207210297912776E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6535053976125493E-2</c:v>
+                  <c:v>4.362759920968285E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5110823015101264E-2</c:v>
+                  <c:v>5.1927898025907998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5493,7 +5502,7 @@
                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>D</a:t>
+                  <a:t>D </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1400" i="0" baseline="0">
@@ -5728,25 +5737,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3296956230591272E-2</c:v>
+                  <c:v>2.225310131657468E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5710998533073456E-2</c:v>
+                  <c:v>2.4414456248586014E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9514485168266557E-2</c:v>
+                  <c:v>2.7688889261938576E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4387945526984272E-2</c:v>
+                  <c:v>3.233998683219981E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0422116826135043E-2</c:v>
+                  <c:v>3.8207210297912776E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6535053976125493E-2</c:v>
+                  <c:v>4.362759920968285E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5110823015101264E-2</c:v>
+                  <c:v>5.1927898025907998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,25 +5767,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.15002974797228874</c:v>
+                  <c:v>0.13622811771190352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18257804566978855</c:v>
+                  <c:v>0.16304260907303078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23634887974602695</c:v>
+                  <c:v>0.21031562728778785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31294784163727879</c:v>
+                  <c:v>0.27817022583681089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41604416181201337</c:v>
+                  <c:v>0.36981983731914986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53495107449689316</c:v>
+                  <c:v>0.47512283934399313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72148494045758382</c:v>
+                  <c:v>0.63937965033010646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6238,25 +6247,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.257791602744703</c:v>
+                  <c:v>64.166865753247251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.09219691914916</c:v>
+                  <c:v>69.111298391704324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.443985063506801</c:v>
+                  <c:v>73.578847031429945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.715397358423132</c:v>
+                  <c:v>79.008327461824393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.292857340384487</c:v>
+                  <c:v>84.729109713642799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.778547573001845</c:v>
+                  <c:v>90.297400910846775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.194748535195046</c:v>
+                  <c:v>94.446058878503024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6268,25 +6277,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.5714448673066228</c:v>
+                  <c:v>-1.5673185697654379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.96187072113651795</c:v>
+                  <c:v>-0.95800511214498441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45426080909598632</c:v>
+                  <c:v>-0.45128761942335577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14728147988194035</c:v>
+                  <c:v>-0.14446565252317842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26399036259862152</c:v>
+                  <c:v>0.26621771117859949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57003906160955176</c:v>
+                  <c:v>0.57154991788594889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87512168509825561</c:v>
+                  <c:v>0.87623639514902774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12866,15 +12875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>77469</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>462375</xdr:colOff>
+      <xdr:colOff>546829</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>131313</xdr:rowOff>
+      <xdr:rowOff>115120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12903,16 +12912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>641349</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>462375</xdr:colOff>
+      <xdr:colOff>471899</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>131313</xdr:rowOff>
+      <xdr:rowOff>99880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13138,9 +13147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>462375</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>64955</xdr:rowOff>
+      <xdr:colOff>464915</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>37650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13607,7 +13616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -14977,8 +14986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK36" sqref="AK36"/>
+    <sheetView tabSelected="1" topLeftCell="P34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15677,26 +15686,27 @@
         <v>134.94866240275354</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28:T33" si="5">S28*SQRT(E28/101325)</f>
-        <v>123.04782663738078</v>
+        <f>S28*SQRT(E28/287/Q28/1.225)</f>
+        <v>126.1310633665162</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" ref="U28:U33" si="6">288.15-0.00649*D28</f>
+        <f t="shared" ref="U28:U33" si="5">288.15-0.00649*D28</f>
         <v>278.21967695999996</v>
       </c>
       <c r="V28" s="54">
-        <f t="shared" ref="V28:V33" si="7">Q28-U28</f>
+        <f t="shared" ref="V28:V33" si="6">Q28-U28</f>
         <v>-3.9344561955860513</v>
       </c>
       <c r="W28">
-        <v>7122.23</v>
+        <f>thrust!O1</f>
+        <v>7090.25</v>
       </c>
       <c r="AE28" s="16"/>
       <c r="AF28" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG28" s="18">
-        <f t="shared" ref="AG28:AG33" si="8">$AG$16-O28</f>
+        <f t="shared" ref="AG28:AG33" si="7">$AG$16-O28</f>
         <v>6612.1858541599995</v>
       </c>
       <c r="AH28" s="18">
@@ -15705,24 +15715,24 @@
       </c>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="26">
-        <f t="shared" ref="AJ28:AJ33" si="9">2*AH28/(1.225*$T28^2*$O$2)</f>
-        <v>0.23307220529561296</v>
+        <f t="shared" ref="AJ28:AJ33" si="8">2*AH28/(1.225*$T28^2*$O$2)</f>
+        <v>0.22181671315831439</v>
       </c>
       <c r="AK28" s="26">
-        <f t="shared" ref="AK28:AK33" si="10">2*W28/(1.225*$T28^2*$O$2)</f>
-        <v>2.5600046374981152E-2</v>
+        <f t="shared" ref="AK28:AK33" si="9">2*W28/(1.225*$T28^2*$O$2)</f>
+        <v>2.4254374919290604E-2</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" ref="AL28:AL33" si="11">I28</f>
+        <f t="shared" ref="AL28:AL33" si="10">I28</f>
         <v>1.8</v>
       </c>
       <c r="AM28" s="27">
-        <f t="shared" ref="AM28:AM33" si="12">AJ28^2</f>
-        <v>5.4322652881360352E-2</v>
+        <f t="shared" ref="AM28:AM33" si="11">AJ28^2</f>
+        <v>4.9202654236357925E-2</v>
       </c>
       <c r="AN28" s="26">
-        <f t="shared" ref="AN28:AN33" si="13">AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
-        <v>0.83698952080050737</v>
+        <f t="shared" ref="AN28:AN33" si="12">AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
+        <v>0.84193681636921047</v>
       </c>
       <c r="AO28" s="40"/>
     </row>
@@ -15735,7 +15745,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="14">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="13">B29-$B$28</f>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="D29" s="9">
@@ -15743,11 +15753,11 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" ref="E29:E33" si="15">101325*(1+((-0.00649*D29)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="E29:E33" si="14">101325*(1+((-0.00649*D29)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>84241.741928410906</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:F33" si="16">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="F29:F33" si="15">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>1.0248588170605673</v>
       </c>
       <c r="G29" s="9">
@@ -15755,7 +15765,7 @@
         <v>113.69212400000001</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" ref="H29:H33" si="17">G29-2*0.514444</f>
+        <f t="shared" ref="H29:H33" si="16">G29-2*0.514444</f>
         <v>112.66323600000001</v>
       </c>
       <c r="I29" s="37">
@@ -15794,26 +15804,27 @@
         <v>120.25392591467534</v>
       </c>
       <c r="T29" s="9">
+        <f t="shared" ref="T29:T33" si="17">S29*SQRT(E29/287/Q29/1.225)</f>
+        <v>112.36235388601577</v>
+      </c>
+      <c r="U29" s="9">
         <f t="shared" si="5"/>
-        <v>109.64898773321579</v>
-      </c>
-      <c r="U29" s="9">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V29" s="54">
         <f t="shared" si="6"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V29" s="54">
-        <f t="shared" si="7"/>
         <v>-3.7677888056406914</v>
       </c>
       <c r="W29">
-        <v>5874.69</v>
+        <f>thrust!O2</f>
+        <v>5893.6399999999903</v>
       </c>
       <c r="AE29" s="16"/>
       <c r="AF29" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG29" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6595.40293647</v>
       </c>
       <c r="AH29" s="18">
@@ -15822,24 +15833,24 @@
       </c>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="26">
+        <f t="shared" si="8"/>
+        <v>0.27880015041011486</v>
+      </c>
+      <c r="AK29" s="26">
         <f t="shared" si="9"/>
-        <v>0.29276921465969619</v>
-      </c>
-      <c r="AK29" s="26">
+        <v>2.540473091597446E-2</v>
+      </c>
+      <c r="AL29" s="35">
         <f t="shared" si="10"/>
-        <v>2.6591837811334246E-2</v>
-      </c>
-      <c r="AL29" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="AM29" s="27">
         <f t="shared" si="11"/>
-        <v>2.5</v>
-      </c>
-      <c r="AM29" s="27">
+        <v>7.772952386870266E-2</v>
+      </c>
+      <c r="AN29" s="26">
         <f t="shared" si="12"/>
-        <v>8.5713813052455262E-2</v>
-      </c>
-      <c r="AN29" s="26">
-        <f t="shared" si="13"/>
-        <v>0.9398891902284795</v>
+        <v>0.87398654551654953</v>
       </c>
       <c r="AO29" s="40"/>
     </row>
@@ -15852,7 +15863,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.15347222222222212</v>
       </c>
       <c r="D30" s="9">
@@ -15860,11 +15871,11 @@
         <v>1530.096</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="14"/>
+        <v>84241.741928410906</v>
+      </c>
+      <c r="F30" s="9">
         <f t="shared" si="15"/>
-        <v>84241.741928410906</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G30" s="9">
@@ -15872,7 +15883,7 @@
         <v>96.715472000000005</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95.686584000000011</v>
       </c>
       <c r="I30" s="37">
@@ -15911,26 +15922,27 @@
         <v>102.26202694917757</v>
       </c>
       <c r="T30" s="9">
+        <f t="shared" si="17"/>
+        <v>95.500235123553907</v>
+      </c>
+      <c r="U30" s="9">
         <f t="shared" si="5"/>
-        <v>93.243756103897567</v>
-      </c>
-      <c r="U30" s="9">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V30" s="54">
         <f t="shared" si="6"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V30" s="54">
-        <f t="shared" si="7"/>
         <v>-3.4750140211021971</v>
       </c>
       <c r="W30">
-        <v>4877.45</v>
+        <f>thrust!O3</f>
+        <v>4862.49</v>
       </c>
       <c r="AE30" s="16"/>
       <c r="AF30" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG30" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6582.7023501100002</v>
       </c>
       <c r="AH30" s="18">
@@ -15939,24 +15951,24 @@
       </c>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="26">
+        <f t="shared" si="8"/>
+        <v>0.38520211607614463</v>
+      </c>
+      <c r="AK30" s="26">
         <f t="shared" si="9"/>
-        <v>0.4040713200492545</v>
-      </c>
-      <c r="AK30" s="26">
+        <v>2.9014994446215869E-2</v>
+      </c>
+      <c r="AL30" s="35">
         <f t="shared" si="10"/>
-        <v>3.0529940564449604E-2</v>
-      </c>
-      <c r="AL30" s="35">
+        <v>3.9</v>
+      </c>
+      <c r="AM30" s="27">
         <f t="shared" si="11"/>
-        <v>3.9</v>
-      </c>
-      <c r="AM30" s="27">
+        <v>0.1483806702295396</v>
+      </c>
+      <c r="AN30" s="26">
         <f t="shared" si="12"/>
-        <v>0.16327363168634706</v>
-      </c>
-      <c r="AN30" s="26">
-        <f t="shared" si="13"/>
-        <v>0.83474042235258505</v>
+        <v>0.80358715205540265</v>
       </c>
       <c r="AO30" s="40"/>
     </row>
@@ -15969,7 +15981,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.24513888888888891</v>
       </c>
       <c r="D31" s="9">
@@ -15977,11 +15989,11 @@
         <v>1530.096</v>
       </c>
       <c r="E31" s="9">
+        <f t="shared" si="14"/>
+        <v>84241.741928410906</v>
+      </c>
+      <c r="F31" s="9">
         <f t="shared" si="15"/>
-        <v>84241.741928410906</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G31" s="9">
@@ -15989,7 +16001,7 @@
         <v>82.311040000000006</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>81.282152000000011</v>
       </c>
       <c r="I31" s="37">
@@ -16028,26 +16040,27 @@
         <v>86.889812227380361</v>
       </c>
       <c r="T31" s="9">
+        <f t="shared" si="17"/>
+        <v>81.167020105809826</v>
+      </c>
+      <c r="U31" s="9">
         <f t="shared" si="5"/>
-        <v>79.227184331773799</v>
-      </c>
-      <c r="U31" s="9">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V31" s="54">
         <f t="shared" si="6"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V31" s="54">
-        <f t="shared" si="7"/>
         <v>-3.627685655325763</v>
       </c>
       <c r="W31">
-        <v>4041.21</v>
+        <f>thrust!O4</f>
+        <v>4053.95</v>
       </c>
       <c r="AE31" s="16"/>
       <c r="AF31" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG31" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6565.9194324199998</v>
       </c>
       <c r="AH31" s="18">
@@ -16056,24 +16069,24 @@
       </c>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="26">
+        <f t="shared" si="8"/>
+        <v>0.53189961172252587</v>
+      </c>
+      <c r="AK31" s="26">
         <f t="shared" si="9"/>
-        <v>0.55826504215259565</v>
-      </c>
-      <c r="AK31" s="26">
+        <v>3.3488202434060373E-2</v>
+      </c>
+      <c r="AL31" s="35">
         <f t="shared" si="10"/>
-        <v>3.5037703063025338E-2</v>
-      </c>
-      <c r="AL31" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="AM31" s="27">
         <f t="shared" si="11"/>
-        <v>5.7</v>
-      </c>
-      <c r="AM31" s="27">
+        <v>0.28291719695057377</v>
+      </c>
+      <c r="AN31" s="26">
         <f t="shared" si="12"/>
-        <v>0.31165985728963941</v>
-      </c>
-      <c r="AN31" s="26">
-        <f t="shared" si="13"/>
-        <v>0.98907395963662803</v>
+        <v>0.9329921692987122</v>
       </c>
       <c r="AO31" s="40"/>
     </row>
@@ -16086,7 +16099,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.30486111111111103</v>
       </c>
       <c r="D32" s="9">
@@ -16094,11 +16107,11 @@
         <v>1527.048</v>
       </c>
       <c r="E32" s="9">
+        <f t="shared" si="14"/>
+        <v>84273.281739349419</v>
+      </c>
+      <c r="F32" s="9">
         <f t="shared" si="15"/>
-        <v>84273.281739349419</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="16"/>
         <v>1.0252169751474514</v>
       </c>
       <c r="G32" s="9">
@@ -16106,7 +16119,7 @@
         <v>69.964383999999995</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>68.935496000000001</v>
       </c>
       <c r="I32" s="37">
@@ -16145,26 +16158,27 @@
         <v>73.687210009363156</v>
       </c>
       <c r="T32" s="9">
+        <f t="shared" si="17"/>
+        <v>68.865011484900506</v>
+      </c>
+      <c r="U32" s="9">
         <f t="shared" si="5"/>
-        <v>67.201468012171773</v>
-      </c>
-      <c r="U32" s="9">
+        <v>278.23945848</v>
+      </c>
+      <c r="V32" s="54">
         <f t="shared" si="6"/>
-        <v>278.23945848</v>
-      </c>
-      <c r="V32" s="54">
-        <f t="shared" si="7"/>
         <v>-3.7921986089019697</v>
       </c>
       <c r="W32">
-        <v>3970.7</v>
+        <f>thrust!O5</f>
+        <v>3986.01</v>
       </c>
       <c r="AE32" s="16"/>
       <c r="AF32" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6557.3011773899998</v>
       </c>
       <c r="AH32" s="18">
@@ -16173,24 +16187,24 @@
       </c>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="26">
+        <f t="shared" si="8"/>
+        <v>0.73794026971378945</v>
+      </c>
+      <c r="AK32" s="26">
         <f t="shared" si="9"/>
-        <v>0.77492725997005707</v>
-      </c>
-      <c r="AK32" s="26">
+        <v>4.5741856558050464E-2</v>
+      </c>
+      <c r="AL32" s="35">
         <f t="shared" si="10"/>
-        <v>4.7850029242160114E-2</v>
-      </c>
-      <c r="AL32" s="35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AM32" s="27">
         <f t="shared" si="11"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AM32" s="27">
+        <v>0.54455584166526028</v>
+      </c>
+      <c r="AN32" s="26">
         <f t="shared" si="12"/>
-        <v>0.60051225824470045</v>
-      </c>
-      <c r="AN32" s="26">
-        <f t="shared" si="13"/>
-        <v>0.9171370722287342</v>
+        <v>0.86700131713590112</v>
       </c>
       <c r="AO32" s="40"/>
     </row>
@@ -16202,7 +16216,7 @@
         <v>2.0187499999999998</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="D33" s="9">
@@ -16210,11 +16224,11 @@
         <v>1530.096</v>
       </c>
       <c r="E33" s="9">
+        <f t="shared" si="14"/>
+        <v>84241.741928410906</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="15"/>
-        <v>84241.741928410906</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="16"/>
         <v>1.0248588170605673</v>
       </c>
       <c r="G33" s="9">
@@ -16222,7 +16236,7 @@
         <v>62.762168000000003</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>61.733280000000001</v>
       </c>
       <c r="I33" s="37">
@@ -16261,26 +16275,27 @@
         <v>66.053787256947075</v>
       </c>
       <c r="T33" s="9">
+        <f t="shared" si="17"/>
+        <v>61.682397494075524</v>
+      </c>
+      <c r="U33" s="9">
         <f t="shared" si="5"/>
-        <v>60.228644126000709</v>
-      </c>
-      <c r="U33" s="9">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V33" s="54">
         <f t="shared" si="6"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V33" s="54">
-        <f t="shared" si="7"/>
         <v>-3.4414553626809266</v>
       </c>
       <c r="W33">
-        <v>4099.63</v>
+        <f>thrust!O6</f>
+        <v>4093</v>
       </c>
       <c r="AE33" s="16"/>
       <c r="AF33" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG33" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6546.8685528799997</v>
       </c>
       <c r="AH33" s="18">
@@ -16289,24 +16304,24 @@
       </c>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="26">
+        <f t="shared" si="8"/>
+        <v>0.91834202261667053</v>
+      </c>
+      <c r="AK33" s="26">
         <f t="shared" si="9"/>
-        <v>0.96320954217681853</v>
-      </c>
-      <c r="AK33" s="26">
+        <v>5.8545282440473211E-2</v>
+      </c>
+      <c r="AL33" s="35">
         <f t="shared" si="10"/>
-        <v>6.1505101845398515E-2</v>
-      </c>
-      <c r="AL33" s="35">
+        <v>10.3</v>
+      </c>
+      <c r="AM33" s="27">
         <f t="shared" si="11"/>
-        <v>10.3</v>
-      </c>
-      <c r="AM33" s="27">
+        <v>0.84335207050367744</v>
+      </c>
+      <c r="AN33" s="26">
         <f t="shared" si="12"/>
-        <v>0.9277726221404764</v>
-      </c>
-      <c r="AN33" s="26">
-        <f t="shared" si="13"/>
-        <v>0.91246529881034144</v>
+        <v>0.87166301079865871</v>
       </c>
       <c r="AO33" s="40"/>
     </row>
@@ -16329,7 +16344,7 @@
       <c r="AL34" s="13"/>
       <c r="AN34" s="33">
         <f>AVERAGE(AN28:AN33)</f>
-        <v>0.90504924400954589</v>
+        <v>0.86519450186240576</v>
       </c>
     </row>
     <row r="35" spans="1:41" ht="16.8" x14ac:dyDescent="0.75">
@@ -16351,7 +16366,7 @@
         <v>115</v>
       </c>
       <c r="AK35">
-        <v>2.31519E-2</v>
+        <v>2.205E-2</v>
       </c>
       <c r="AL35" s="13" t="s">
         <v>116</v>
@@ -16714,8 +16729,8 @@
         <v>88.881620040347158</v>
       </c>
       <c r="T45" s="9">
-        <f t="shared" ref="T45:T51" si="21">S45*SQRT(E45/101325)</f>
-        <v>78.772866213322956</v>
+        <f t="shared" ref="T45:T51" si="21">S45*SQRT(E45/287/Q45/1.225)</f>
+        <v>81.127291563267349</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" ref="U45:U51" si="22">288.15-0.00649*D45</f>
@@ -16726,23 +16741,24 @@
         <v>-3.5149433887290797</v>
       </c>
       <c r="W45">
-        <v>3920.91</v>
+        <f>thrust!O7</f>
+        <v>3911.12</v>
       </c>
       <c r="X45" s="9">
         <f>T45*SQRT($O$6/AG45)</f>
-        <v>76.715397358423132</v>
+        <v>79.008327461824393</v>
       </c>
       <c r="Y45" s="33">
         <f>W45/(0.5*F45*T45^2*$O$7^2)</f>
-        <v>2.7615330435738827</v>
+        <v>2.5970711799512411</v>
       </c>
       <c r="Z45" s="33">
         <f>W45/(0.5*F45*X45^2*$O$7^2)</f>
-        <v>2.9116452642796049</v>
+        <v>2.7382435345824852</v>
       </c>
       <c r="AA45" s="33">
         <f>RADIANS(J45)-$O$9/$O$8*(Z45-Y45)</f>
-        <v>-2.5705467511496485E-3</v>
+        <v>-2.5214012925715173E-3</v>
       </c>
       <c r="AB45" s="33">
         <f>L45*$O$6/AG45</f>
@@ -16765,14 +16781,14 @@
       <c r="AI45" s="18"/>
       <c r="AJ45" s="26">
         <f t="shared" ref="AJ45:AJ51" si="26">2*AH45/(1.225*$T45^2*$O$2)</f>
-        <v>0.55941741270475198</v>
+        <v>0.5274184542057766</v>
       </c>
       <c r="AK45" s="26">
-        <f t="shared" ref="AK45:AK51" si="27">2*W45/(1.225*$T45^2*$O$2)</f>
-        <v>3.4387945526984272E-2</v>
+        <f>2*W45/(1.225*$T45^2*$O$2)</f>
+        <v>3.233998683219981E-2</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" ref="AL45:AL51" si="28">I45</f>
+        <f t="shared" ref="AL45:AL51" si="27">I45</f>
         <v>5.5</v>
       </c>
       <c r="AM45" s="38"/>
@@ -16794,11 +16810,11 @@
         <v>2045.2080000000001</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" ref="E46:E51" si="29">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="E46:E51" si="28">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>79047.10787883235</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" ref="F46:F51" si="30">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
+        <f t="shared" ref="F46:F51" si="29">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
         <v>0.96641229213617863</v>
       </c>
       <c r="G46" s="12">
@@ -16806,7 +16822,7 @@
         <v>76.652156000000005</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" ref="H46:H51" si="31">G46-2*0.514444</f>
+        <f t="shared" ref="H46:H51" si="30">G46-2*0.514444</f>
         <v>75.62326800000001</v>
       </c>
       <c r="I46" s="13">
@@ -16855,7 +16871,7 @@
       </c>
       <c r="T46" s="9">
         <f t="shared" si="21"/>
-        <v>73.303779781954731</v>
+        <v>75.494215427760338</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="22"/>
@@ -16866,26 +16882,27 @@
         <v>-3.1550943541038237</v>
       </c>
       <c r="W46">
-        <v>3991.16</v>
+        <f>thrust!O8</f>
+        <v>4001.29</v>
       </c>
       <c r="X46" s="9">
-        <f t="shared" ref="X46:X51" si="32">T46*SQRT($O$6/AG46)</f>
-        <v>71.443985063506801</v>
+        <f t="shared" ref="X46:X51" si="31">T46*SQRT($O$6/AG46)</f>
+        <v>73.578847031429945</v>
       </c>
       <c r="Y46" s="33">
-        <f t="shared" ref="Y46:Y51" si="33">W46/(0.5*F46*T46^2*$O$7^2)</f>
-        <v>3.2663725685654428</v>
+        <f t="shared" ref="Y46:Y51" si="32">W46/(0.5*F46*T46^2*$O$7^2)</f>
+        <v>3.0873935715762477</v>
       </c>
       <c r="Z46" s="33">
-        <f t="shared" ref="Z46:Z51" si="34">W46/(0.5*F46*X46^2*$O$7^2)</f>
-        <v>3.4386432033050061</v>
+        <f t="shared" ref="Z46:Z51" si="33">W46/(0.5*F46*X46^2*$O$7^2)</f>
+        <v>3.2502247364546242</v>
       </c>
       <c r="AA46" s="33">
-        <f t="shared" ref="AA46:AA51" si="35">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
-        <v>-7.9283467814983671E-3</v>
+        <f t="shared" ref="AA46:AA51" si="34">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
+        <v>-7.8764548324246723E-3</v>
       </c>
       <c r="AB46" s="33">
-        <f t="shared" ref="AB46:AB51" si="36">L46*$O$6/AG46</f>
+        <f t="shared" ref="AB46:AB51" si="35">L46*$O$6/AG46</f>
         <v>-23.747539185121127</v>
       </c>
       <c r="AC46" s="33"/>
@@ -16905,14 +16922,14 @@
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26">
         <f t="shared" si="26"/>
-        <v>0.64501485394680125</v>
+        <v>0.6081281421864555</v>
       </c>
       <c r="AK46" s="26">
+        <f t="shared" ref="AK46:AK51" si="36">2*W46/(1.225*$T46^2*$O$2)</f>
+        <v>3.8207210297912776E-2</v>
+      </c>
+      <c r="AL46" s="35">
         <f t="shared" si="27"/>
-        <v>4.0422116826135043E-2</v>
-      </c>
-      <c r="AL46" s="35">
-        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="AM46" s="38"/>
@@ -16934,11 +16951,11 @@
         <v>2097.0239999999999</v>
       </c>
       <c r="E47" s="9">
+        <f t="shared" si="28"/>
+        <v>78539.27842640446</v>
+      </c>
+      <c r="F47" s="9">
         <f t="shared" si="29"/>
-        <v>78539.27842640446</v>
-      </c>
-      <c r="F47" s="9">
-        <f t="shared" si="30"/>
         <v>0.96075547903443159</v>
       </c>
       <c r="G47" s="12">
@@ -16946,7 +16963,7 @@
         <v>72.02216</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>70.993272000000005</v>
       </c>
       <c r="I47" s="13">
@@ -16995,7 +17012,7 @@
       </c>
       <c r="T47" s="9">
         <f t="shared" si="21"/>
-        <v>68.812258649133994</v>
+        <v>70.883124400269622</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="22"/>
@@ -17006,26 +17023,27 @@
         <v>-2.9310689976483673</v>
       </c>
       <c r="W47">
-        <v>4048.92</v>
+        <f>thrust!O9</f>
+        <v>4027.86</v>
       </c>
       <c r="X47" s="9">
+        <f t="shared" si="31"/>
+        <v>69.111298391704324</v>
+      </c>
+      <c r="Y47" s="33">
         <f t="shared" si="32"/>
-        <v>67.09219691914916</v>
-      </c>
-      <c r="Y47" s="33">
+        <v>3.5461537142896651</v>
+      </c>
+      <c r="Z47" s="33">
         <f t="shared" si="33"/>
-        <v>3.782478465271184</v>
-      </c>
-      <c r="Z47" s="33">
+        <v>3.7303119982120321</v>
+      </c>
+      <c r="AA47" s="33">
         <f t="shared" si="34"/>
-        <v>3.9789095281240754</v>
-      </c>
-      <c r="AA47" s="33">
+        <v>-1.6720343457867493E-2</v>
+      </c>
+      <c r="AB47" s="33">
         <f t="shared" si="35"/>
-        <v>-1.678781106236445E-2</v>
-      </c>
-      <c r="AB47" s="33">
-        <f t="shared" si="36"/>
         <v>-37.074645478336727</v>
       </c>
       <c r="AC47" s="33"/>
@@ -17045,14 +17063,14 @@
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26">
         <f t="shared" si="26"/>
-        <v>0.73140349636633073</v>
+        <v>0.68929154887028254</v>
       </c>
       <c r="AK47" s="26">
+        <f t="shared" si="36"/>
+        <v>4.362759920968285E-2</v>
+      </c>
+      <c r="AL47" s="35">
         <f t="shared" si="27"/>
-        <v>4.6535053976125493E-2</v>
-      </c>
-      <c r="AL47" s="35">
-        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="AM47" s="38"/>
@@ -17074,11 +17092,11 @@
         <v>2179.3200000000002</v>
       </c>
       <c r="E48" s="9">
+        <f t="shared" si="28"/>
+        <v>77738.160125595576</v>
+      </c>
+      <c r="F48" s="9">
         <f t="shared" si="29"/>
-        <v>77738.160125595576</v>
-      </c>
-      <c r="F48" s="9">
-        <f t="shared" si="30"/>
         <v>0.95185189377328283</v>
       </c>
       <c r="G48" s="12">
@@ -17086,7 +17104,7 @@
         <v>66.877719999999997</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>65.848832000000002</v>
       </c>
       <c r="I48" s="13">
@@ -17135,7 +17153,7 @@
       </c>
       <c r="T48" s="9">
         <f t="shared" si="21"/>
-        <v>63.800330000212334</v>
+        <v>65.756704578580255</v>
       </c>
       <c r="U48" s="9">
         <f t="shared" si="22"/>
@@ -17146,26 +17164,27 @@
         <v>-2.6970907707599849</v>
       </c>
       <c r="W48">
-        <v>4122.0200000000004</v>
+        <f>thrust!O10</f>
+        <v>4125.8</v>
       </c>
       <c r="X48" s="9">
+        <f t="shared" si="31"/>
+        <v>64.166865753247251</v>
+      </c>
+      <c r="Y48" s="33">
         <f t="shared" si="32"/>
-        <v>62.257791602744703</v>
-      </c>
-      <c r="Y48" s="33">
+        <v>4.2603028922479949</v>
+      </c>
+      <c r="Z48" s="33">
         <f t="shared" si="33"/>
-        <v>4.5214385255544496</v>
-      </c>
-      <c r="Z48" s="33">
+        <v>4.4740301281013464</v>
+      </c>
+      <c r="AA48" s="33">
         <f t="shared" si="34"/>
-        <v>4.748266190767171</v>
-      </c>
-      <c r="AA48" s="33">
+        <v>-2.7354869470055342E-2</v>
+      </c>
+      <c r="AB48" s="33">
         <f t="shared" si="35"/>
-        <v>-2.7426886948065964E-2</v>
-      </c>
-      <c r="AB48" s="33">
-        <f t="shared" si="36"/>
         <v>-47.611468522407421</v>
       </c>
       <c r="AC48" s="33"/>
@@ -17185,14 +17204,14 @@
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26">
         <f t="shared" si="26"/>
-        <v>0.84940269628579812</v>
+        <v>0.7996121874572113</v>
       </c>
       <c r="AK48" s="26">
+        <f t="shared" si="36"/>
+        <v>5.1927898025907998E-2</v>
+      </c>
+      <c r="AL48" s="35">
         <f t="shared" si="27"/>
-        <v>5.5110823015101264E-2</v>
-      </c>
-      <c r="AL48" s="35">
-        <f t="shared" si="28"/>
         <v>9.1</v>
       </c>
       <c r="AM48" s="38"/>
@@ -17214,11 +17233,11 @@
         <v>1959.864</v>
       </c>
       <c r="E49" s="9">
+        <f t="shared" si="28"/>
+        <v>79889.329187296884</v>
+      </c>
+      <c r="F49" s="9">
         <f t="shared" si="29"/>
-        <v>79889.329187296884</v>
-      </c>
-      <c r="F49" s="9">
-        <f t="shared" si="30"/>
         <v>0.9758160411846819</v>
       </c>
       <c r="G49" s="12">
@@ -17226,7 +17245,7 @@
         <v>87.969924000000006</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>86.941036000000011</v>
       </c>
       <c r="I49" s="13">
@@ -17275,7 +17294,7 @@
       </c>
       <c r="T49" s="9">
         <f t="shared" si="21"/>
-        <v>84.260912124912778</v>
+        <v>86.755428098372462</v>
       </c>
       <c r="U49" s="9">
         <f t="shared" si="22"/>
@@ -17286,26 +17305,27 @@
         <v>-3.5627753411797016</v>
       </c>
       <c r="W49">
-        <v>3850.48</v>
+        <f>thrust!O11</f>
+        <v>3829.36</v>
       </c>
       <c r="X49" s="9">
+        <f t="shared" si="31"/>
+        <v>84.729109713642799</v>
+      </c>
+      <c r="Y49" s="33">
         <f t="shared" si="32"/>
-        <v>82.292857340384487</v>
-      </c>
-      <c r="Y49" s="33">
+        <v>2.2158823248399906</v>
+      </c>
+      <c r="Z49" s="33">
         <f t="shared" si="33"/>
-        <v>2.361980843378007</v>
-      </c>
-      <c r="Z49" s="33">
+        <v>2.3231364634195129</v>
+      </c>
+      <c r="AA49" s="33">
         <f t="shared" si="34"/>
-        <v>2.4763065085354006</v>
-      </c>
-      <c r="AA49" s="33">
+        <v>4.6463755871898743E-3</v>
+      </c>
+      <c r="AB49" s="33">
         <f t="shared" si="35"/>
-        <v>4.6075010208796391E-3</v>
-      </c>
-      <c r="AB49" s="33">
-        <f t="shared" si="36"/>
         <v>27.661133313611767</v>
       </c>
       <c r="AC49" s="33"/>
@@ -17325,14 +17345,14 @@
       <c r="AI49" s="18"/>
       <c r="AJ49" s="26">
         <f t="shared" si="26"/>
-        <v>0.48615725824678063</v>
+        <v>0.45860181779817211</v>
       </c>
       <c r="AK49" s="26">
+        <f t="shared" si="36"/>
+        <v>2.7688889261938576E-2</v>
+      </c>
+      <c r="AL49" s="35">
         <f t="shared" si="27"/>
-        <v>2.9514485168266557E-2</v>
-      </c>
-      <c r="AL49" s="35">
-        <f t="shared" si="28"/>
         <v>4.8</v>
       </c>
       <c r="AM49" s="38"/>
@@ -17354,11 +17374,11 @@
         <v>1813.5600000000002</v>
       </c>
       <c r="E50" s="9">
+        <f t="shared" si="28"/>
+        <v>81350.04145788787</v>
+      </c>
+      <c r="F50" s="9">
         <f t="shared" si="29"/>
-        <v>81350.04145788787</v>
-      </c>
-      <c r="F50" s="9">
-        <f t="shared" si="30"/>
         <v>0.9921913573760518</v>
       </c>
       <c r="G50" s="12">
@@ -17366,7 +17386,7 @@
         <v>93.628808000000006</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>92.599920000000012</v>
       </c>
       <c r="I50" s="13">
@@ -17415,7 +17435,7 @@
       </c>
       <c r="T50" s="9">
         <f t="shared" si="21"/>
-        <v>89.817890746558689</v>
+        <v>92.395264149974921</v>
       </c>
       <c r="U50" s="9">
         <f t="shared" si="22"/>
@@ -17426,26 +17446,27 @@
         <v>-4.0315454427180271</v>
       </c>
       <c r="W50">
-        <v>3811.29</v>
+        <f>thrust!O12</f>
+        <v>3829.7799999999902</v>
       </c>
       <c r="X50" s="9">
+        <f t="shared" si="31"/>
+        <v>90.297400910846775</v>
+      </c>
+      <c r="Y50" s="33">
         <f t="shared" si="32"/>
-        <v>87.778547573001845</v>
-      </c>
-      <c r="Y50" s="33">
+        <v>1.9215899935400871</v>
+      </c>
+      <c r="Z50" s="33">
         <f t="shared" si="33"/>
-        <v>2.0236370207073202</v>
-      </c>
-      <c r="Z50" s="33">
+        <v>2.0119151063763203</v>
+      </c>
+      <c r="AA50" s="33">
         <f t="shared" si="34"/>
-        <v>2.1187588952224066</v>
-      </c>
-      <c r="AA50" s="33">
+        <v>9.9754279066130366E-3</v>
+      </c>
+      <c r="AB50" s="33">
         <f t="shared" si="35"/>
-        <v>9.9490584900654849E-3</v>
-      </c>
-      <c r="AB50" s="33">
-        <f t="shared" si="36"/>
         <v>41.069511064533195</v>
       </c>
       <c r="AC50" s="33"/>
@@ -17465,14 +17486,14 @@
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26">
         <f t="shared" si="26"/>
-        <v>0.42729152304929774</v>
+        <v>0.40378535024568535</v>
       </c>
       <c r="AK50" s="26">
+        <f t="shared" si="36"/>
+        <v>2.4414456248586014E-2</v>
+      </c>
+      <c r="AL50" s="35">
         <f t="shared" si="27"/>
-        <v>2.5710998533073456E-2</v>
-      </c>
-      <c r="AL50" s="35">
-        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AM50" s="38"/>
@@ -17494,11 +17515,11 @@
         <v>1542.288</v>
       </c>
       <c r="E51" s="9">
+        <f t="shared" si="28"/>
+        <v>84115.678289078729</v>
+      </c>
+      <c r="F51" s="9">
         <f t="shared" si="29"/>
-        <v>84115.678289078729</v>
-      </c>
-      <c r="F51" s="9">
-        <f t="shared" si="30"/>
         <v>1.0234276727680331</v>
       </c>
       <c r="G51" s="12">
@@ -17506,7 +17527,7 @@
         <v>97.74436</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>96.715472000000005</v>
       </c>
       <c r="I51" s="13">
@@ -17555,7 +17576,7 @@
       </c>
       <c r="T51" s="9">
         <f t="shared" si="21"/>
-        <v>94.220682650672671</v>
+        <v>96.521464428107876</v>
       </c>
       <c r="U51" s="9">
         <f t="shared" si="22"/>
@@ -17566,26 +17587,27 @@
         <v>-3.513498803214361</v>
       </c>
       <c r="W51">
-        <v>3800.31</v>
+        <f>thrust!O13</f>
+        <v>3809.48</v>
       </c>
       <c r="X51" s="9">
+        <f t="shared" si="31"/>
+        <v>94.446058878503024</v>
+      </c>
+      <c r="Y51" s="33">
         <f t="shared" si="32"/>
-        <v>92.194748535195046</v>
-      </c>
-      <c r="Y51" s="33">
+        <v>1.6980188277985848</v>
+      </c>
+      <c r="Z51" s="33">
         <f t="shared" si="33"/>
-        <v>1.7776699861820704</v>
-      </c>
-      <c r="Z51" s="33">
+        <v>1.773465017407283</v>
+      </c>
+      <c r="AA51" s="33">
         <f t="shared" si="34"/>
-        <v>1.8566552274782839</v>
-      </c>
-      <c r="AA51" s="33">
+        <v>1.5293210121156604E-2</v>
+      </c>
+      <c r="AB51" s="33">
         <f t="shared" si="35"/>
-        <v>1.5273754760565555E-2</v>
-      </c>
-      <c r="AB51" s="33">
-        <f t="shared" si="36"/>
         <v>75.639206908179787</v>
       </c>
       <c r="AC51" s="33"/>
@@ -17605,14 +17627,14 @@
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26">
         <f t="shared" si="26"/>
-        <v>0.3873367371839247</v>
+        <v>0.36909093420443628</v>
       </c>
       <c r="AK51" s="26">
+        <f t="shared" si="36"/>
+        <v>2.225310131657468E-2</v>
+      </c>
+      <c r="AL51" s="35">
         <f t="shared" si="27"/>
-        <v>2.3296956230591272E-2</v>
-      </c>
-      <c r="AL51" s="35">
-        <f t="shared" si="28"/>
         <v>3.6</v>
       </c>
       <c r="AM51" s="38"/>
@@ -17756,11 +17778,11 @@
       <c r="C55" s="12"/>
       <c r="D55" s="39">
         <f>AJ51</f>
-        <v>0.3873367371839247</v>
+        <v>0.36909093420443628</v>
       </c>
       <c r="E55" s="39">
         <f>AK51</f>
-        <v>2.3296956230591272E-2</v>
+        <v>2.225310131657468E-2</v>
       </c>
       <c r="F55" s="39">
         <f>AL51</f>
@@ -17768,27 +17790,27 @@
       </c>
       <c r="G55" s="39">
         <f>D55^2</f>
-        <v>0.15002974797228874</v>
+        <v>0.13622811771190352</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" ref="H55:H61" si="37">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
-        <v>0.24291516399792293</v>
+        <v>0.23091526377150712</v>
       </c>
       <c r="I55" s="46">
         <f>AA45</f>
-        <v>-2.5705467511496485E-3</v>
+        <v>-2.5214012925715173E-3</v>
       </c>
       <c r="J55" s="39">
         <f>I58</f>
-        <v>-2.7426886948065964E-2</v>
+        <v>-2.7354869470055342E-2</v>
       </c>
       <c r="K55" s="46">
         <f>X45</f>
-        <v>76.715397358423132</v>
+        <v>79.008327461824393</v>
       </c>
       <c r="L55" s="39">
         <f>K58</f>
-        <v>62.257791602744703</v>
+        <v>64.166865753247251</v>
       </c>
       <c r="M55" s="46">
         <f>AB45</f>
@@ -17801,7 +17823,7 @@
       <c r="O55" s="39"/>
       <c r="P55" s="39">
         <f>J55*180/PI()</f>
-        <v>-1.5714448673066228</v>
+        <v>-1.5673185697654379</v>
       </c>
       <c r="Q55" s="46">
         <f>I45</f>
@@ -17835,11 +17857,11 @@
       <c r="C56" s="12"/>
       <c r="D56" s="39">
         <f>AJ50</f>
-        <v>0.42729152304929774</v>
+        <v>0.40378535024568535</v>
       </c>
       <c r="E56" s="39">
         <f>AK50</f>
-        <v>2.5710998533073456E-2</v>
+        <v>2.4414456248586014E-2</v>
       </c>
       <c r="F56" s="39">
         <f>AL50</f>
@@ -17847,27 +17869,27 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" ref="G56:G61" si="38">D56^2</f>
-        <v>0.18257804566978855</v>
+        <v>0.16304260907303078</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="37"/>
-        <v>0.26785887532764313</v>
+        <v>0.25190134754878241</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" ref="I56:I61" si="39">AA46</f>
-        <v>-7.9283467814983671E-3</v>
+        <v>-7.8764548324246723E-3</v>
       </c>
       <c r="J56" s="39">
         <f>I57</f>
-        <v>-1.678781106236445E-2</v>
+        <v>-1.6720343457867493E-2</v>
       </c>
       <c r="K56" s="46">
         <f t="shared" ref="K56:K61" si="40">X46</f>
-        <v>71.443985063506801</v>
+        <v>73.578847031429945</v>
       </c>
       <c r="L56" s="39">
         <f>K57</f>
-        <v>67.09219691914916</v>
+        <v>69.111298391704324</v>
       </c>
       <c r="M56" s="46">
         <f t="shared" ref="M56:M61" si="41">AB46</f>
@@ -17880,7 +17902,7 @@
       <c r="O56" s="39"/>
       <c r="P56" s="39">
         <f t="shared" ref="P56:P61" si="42">J56*180/PI()</f>
-        <v>-0.96187072113651795</v>
+        <v>-0.95800511214498441</v>
       </c>
       <c r="Q56" s="46">
         <f t="shared" ref="Q56:Q61" si="43">I46</f>
@@ -17917,11 +17939,11 @@
       <c r="C57" s="12"/>
       <c r="D57" s="39">
         <f>AJ49</f>
-        <v>0.48615725824678063</v>
+        <v>0.45860181779817211</v>
       </c>
       <c r="E57" s="39">
         <f>AK49</f>
-        <v>2.9514485168266557E-2</v>
+        <v>2.7688889261938576E-2</v>
       </c>
       <c r="F57" s="39">
         <f>AL49</f>
@@ -17929,27 +17951,27 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="38"/>
-        <v>0.23634887974602695</v>
+        <v>0.21031562728778785</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="37"/>
-        <v>0.3020610770684618</v>
+        <v>0.28651175166486137</v>
       </c>
       <c r="I57" s="46">
         <f t="shared" si="39"/>
-        <v>-1.678781106236445E-2</v>
+        <v>-1.6720343457867493E-2</v>
       </c>
       <c r="J57" s="39">
         <f>I56</f>
-        <v>-7.9283467814983671E-3</v>
+        <v>-7.8764548324246723E-3</v>
       </c>
       <c r="K57" s="46">
         <f t="shared" si="40"/>
-        <v>67.09219691914916</v>
+        <v>69.111298391704324</v>
       </c>
       <c r="L57" s="39">
         <f>K56</f>
-        <v>71.443985063506801</v>
+        <v>73.578847031429945</v>
       </c>
       <c r="M57" s="46">
         <f t="shared" si="41"/>
@@ -17962,7 +17984,7 @@
       <c r="O57" s="39"/>
       <c r="P57" s="39">
         <f t="shared" si="42"/>
-        <v>-0.45426080909598632</v>
+        <v>-0.45128761942335577</v>
       </c>
       <c r="Q57" s="46">
         <f t="shared" si="43"/>
@@ -18000,11 +18022,11 @@
       <c r="C58" s="12"/>
       <c r="D58" s="39">
         <f t="shared" ref="D58:F61" si="44">AJ45</f>
-        <v>0.55941741270475198</v>
+        <v>0.5274184542057766</v>
       </c>
       <c r="E58" s="39">
         <f t="shared" si="44"/>
-        <v>3.4387945526984272E-2</v>
+        <v>3.233998683219981E-2</v>
       </c>
       <c r="F58" s="39">
         <f t="shared" si="44"/>
@@ -18012,27 +18034,27 @@
       </c>
       <c r="G58" s="39">
         <f t="shared" si="38"/>
-        <v>0.31294784163727879</v>
+        <v>0.27817022583681089</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="37"/>
-        <v>0.34327498833305448</v>
+        <v>0.32444959390121175</v>
       </c>
       <c r="I58" s="46">
         <f t="shared" si="39"/>
-        <v>-2.7426886948065964E-2</v>
+        <v>-2.7354869470055342E-2</v>
       </c>
       <c r="J58" s="39">
         <f>I55</f>
-        <v>-2.5705467511496485E-3</v>
+        <v>-2.5214012925715173E-3</v>
       </c>
       <c r="K58" s="46">
         <f t="shared" si="40"/>
-        <v>62.257791602744703</v>
+        <v>64.166865753247251</v>
       </c>
       <c r="L58" s="39">
         <f>K55</f>
-        <v>76.715397358423132</v>
+        <v>79.008327461824393</v>
       </c>
       <c r="M58" s="46">
         <f t="shared" si="41"/>
@@ -18045,7 +18067,7 @@
       <c r="O58" s="39"/>
       <c r="P58" s="39">
         <f t="shared" si="42"/>
-        <v>-0.14728147988194035</v>
+        <v>-0.14446565252317842</v>
       </c>
       <c r="Q58" s="46">
         <f t="shared" si="43"/>
@@ -18083,11 +18105,11 @@
       <c r="C59" s="12"/>
       <c r="D59" s="39">
         <f t="shared" si="44"/>
-        <v>0.64501485394680125</v>
+        <v>0.6081281421864555</v>
       </c>
       <c r="E59" s="39">
         <f t="shared" si="44"/>
-        <v>4.0422116826135043E-2</v>
+        <v>3.8207210297912776E-2</v>
       </c>
       <c r="F59" s="39">
         <f t="shared" si="44"/>
@@ -18095,27 +18117,27 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="38"/>
-        <v>0.41604416181201337</v>
+        <v>0.36981983731914986</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="37"/>
-        <v>0.38823689926015237</v>
+        <v>0.36510796295913517</v>
       </c>
       <c r="I59" s="46">
         <f t="shared" si="39"/>
-        <v>4.6075010208796391E-3</v>
+        <v>4.6463755871898743E-3</v>
       </c>
       <c r="J59" s="39">
         <f>I59</f>
-        <v>4.6075010208796391E-3</v>
+        <v>4.6463755871898743E-3</v>
       </c>
       <c r="K59" s="46">
         <f t="shared" si="40"/>
-        <v>82.292857340384487</v>
+        <v>84.729109713642799</v>
       </c>
       <c r="L59" s="39">
         <f>K59</f>
-        <v>82.292857340384487</v>
+        <v>84.729109713642799</v>
       </c>
       <c r="M59" s="46">
         <f t="shared" si="41"/>
@@ -18128,7 +18150,7 @@
       <c r="O59" s="39"/>
       <c r="P59" s="39">
         <f t="shared" si="42"/>
-        <v>0.26399036259862152</v>
+        <v>0.26621771117859949</v>
       </c>
       <c r="Q59" s="46">
         <f t="shared" si="43"/>
@@ -18166,11 +18188,11 @@
       <c r="C60" s="12"/>
       <c r="D60" s="39">
         <f t="shared" si="44"/>
-        <v>0.73140349636633073</v>
+        <v>0.68929154887028254</v>
       </c>
       <c r="E60" s="39">
         <f t="shared" si="44"/>
-        <v>4.6535053976125493E-2</v>
+        <v>4.362759920968285E-2</v>
       </c>
       <c r="F60" s="39">
         <f t="shared" si="44"/>
@@ -18178,27 +18200,27 @@
       </c>
       <c r="G60" s="39">
         <f t="shared" si="38"/>
-        <v>0.53495107449689316</v>
+        <v>0.47512283934399313</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="37"/>
-        <v>0.43362096613045287</v>
+        <v>0.41079109771124506</v>
       </c>
       <c r="I60" s="46">
         <f t="shared" si="39"/>
-        <v>9.9490584900654849E-3</v>
+        <v>9.9754279066130366E-3</v>
       </c>
       <c r="J60" s="39">
         <f t="shared" ref="J60:L61" si="45">I60</f>
-        <v>9.9490584900654849E-3</v>
+        <v>9.9754279066130366E-3</v>
       </c>
       <c r="K60" s="46">
         <f t="shared" si="40"/>
-        <v>87.778547573001845</v>
+        <v>90.297400910846775</v>
       </c>
       <c r="L60" s="39">
         <f t="shared" si="45"/>
-        <v>87.778547573001845</v>
+        <v>90.297400910846775</v>
       </c>
       <c r="M60" s="46">
         <f t="shared" si="41"/>
@@ -18211,7 +18233,7 @@
       <c r="O60" s="39"/>
       <c r="P60" s="39">
         <f t="shared" si="42"/>
-        <v>0.57003906160955176</v>
+        <v>0.57154991788594889</v>
       </c>
       <c r="Q60" s="46">
         <f t="shared" si="43"/>
@@ -18247,11 +18269,11 @@
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="39">
         <f t="shared" si="44"/>
-        <v>0.84940269628579812</v>
+        <v>0.7996121874572113</v>
       </c>
       <c r="E61" s="39">
         <f t="shared" si="44"/>
-        <v>5.5110823015101264E-2</v>
+        <v>5.1927898025907998E-2</v>
       </c>
       <c r="F61" s="39">
         <f t="shared" si="44"/>
@@ -18259,27 +18281,27 @@
       </c>
       <c r="G61" s="39">
         <f t="shared" si="38"/>
-        <v>0.72148494045758382</v>
+        <v>0.63937965033010646</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="37"/>
-        <v>0.4938178727504377</v>
+        <v>0.46444521947000195</v>
       </c>
       <c r="I61" s="46">
         <f t="shared" si="39"/>
-        <v>1.5273754760565555E-2</v>
+        <v>1.5293210121156604E-2</v>
       </c>
       <c r="J61" s="39">
         <f t="shared" si="45"/>
-        <v>1.5273754760565555E-2</v>
+        <v>1.5293210121156604E-2</v>
       </c>
       <c r="K61" s="46">
         <f t="shared" si="40"/>
-        <v>92.194748535195046</v>
+        <v>94.446058878503024</v>
       </c>
       <c r="L61" s="39">
         <f t="shared" si="45"/>
-        <v>92.194748535195046</v>
+        <v>94.446058878503024</v>
       </c>
       <c r="M61" s="46">
         <f t="shared" si="41"/>
@@ -18292,7 +18314,7 @@
       <c r="O61" s="39"/>
       <c r="P61" s="39">
         <f t="shared" si="42"/>
-        <v>0.87512168509825561</v>
+        <v>0.87623639514902774</v>
       </c>
       <c r="Q61" s="46">
         <f t="shared" si="43"/>
@@ -18706,8 +18728,8 @@
         <v>86.949258524697825</v>
       </c>
       <c r="T72" s="9">
-        <f>S72*SQRT(E72/101325)</f>
-        <v>78.571094798499431</v>
+        <f t="shared" ref="T72:T73" si="50">S72*SQRT(E72/287/Q72/1.225)</f>
+        <v>80.642597985560002</v>
       </c>
       <c r="U72" s="9">
         <f>288.15-0.00649*D72</f>
@@ -18718,7 +18740,8 @@
         <v>-3.6833165923318916</v>
       </c>
       <c r="W72">
-        <v>3905.43</v>
+        <f>thrust!O14</f>
+        <v>3921.63</v>
       </c>
       <c r="X72">
         <v>0.50170000000000003</v>
@@ -18732,13 +18755,13 @@
         <v>6429.8417214199999</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" ref="AH72:AH73" si="50">AG72*9.80665</f>
+        <f t="shared" ref="AH72:AH73" si="51">AG72*9.80665</f>
         <v>63055.207317363442</v>
       </c>
       <c r="AI72" s="18"/>
       <c r="AJ72" s="26">
         <f>2*AH72/(1.225*$T72^2*$O$2)</f>
-        <v>0.55586329952817115</v>
+        <v>0.52767265527537333</v>
       </c>
       <c r="AK72" s="26" t="e">
         <f>2*#REF!/(1.225*$T72^2*$O$2)</f>
@@ -18750,7 +18773,7 @@
       </c>
       <c r="AM72" s="28">
         <f>AJ72^2</f>
-        <v>0.3089840077623453</v>
+        <v>0.27843843112536298</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -18827,8 +18850,8 @@
         <v>86.514831252922036</v>
       </c>
       <c r="T73" s="9">
-        <f>S73*SQRT(E73/101325)</f>
-        <v>78.075790084413057</v>
+        <f t="shared" si="50"/>
+        <v>80.128741897492304</v>
       </c>
       <c r="U73" s="9">
         <f>288.15-0.00649*D73</f>
@@ -18839,7 +18862,8 @@
         <v>-3.5073359815637559</v>
       </c>
       <c r="W73">
-        <v>3916.01</v>
+        <f>thrust!O15</f>
+        <v>3914.09</v>
       </c>
       <c r="X73">
         <v>0.4456</v>
@@ -18853,17 +18877,17 @@
         <v>6417.5947274299997</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>62935.105333751402</v>
       </c>
       <c r="AI73" s="18"/>
       <c r="AJ73" s="26">
         <f>2*AH73/(1.225*$T73^2*$O$2)</f>
-        <v>0.56186611329952674</v>
+        <v>0.53344416348232127</v>
       </c>
       <c r="AK73" s="26">
         <f>2*W73/(1.225*$T73^2*$O$2)</f>
-        <v>3.4960985711770906E-2</v>
+        <v>3.3176213097156369E-2</v>
       </c>
       <c r="AL73" s="35">
         <f>I73</f>
@@ -18871,7 +18895,7 @@
       </c>
       <c r="AM73" s="28">
         <f>AJ73^2</f>
-        <v>0.3156935292743166</v>
+        <v>0.28456267555335352</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="18.3" x14ac:dyDescent="0.7">
@@ -19046,7 +19070,7 @@
       </c>
       <c r="T82" s="51">
         <f>-1/RADIANS(J73-J72)*AVERAGE(AJ72:AJ73)*(X73-X72)/O3</f>
-        <v>-1.4555520789328533</v>
+        <v>-1.3818288879291307</v>
       </c>
       <c r="U82" s="50"/>
       <c r="V82" s="50"/>
@@ -19061,7 +19085,7 @@
       </c>
       <c r="T83" s="50">
         <f>T82*0.4368</f>
-        <v>-0.63578514807787034</v>
+        <v>-0.60358285824744429</v>
       </c>
       <c r="U83" s="50"/>
       <c r="V83" s="50"/>
@@ -19102,4 +19126,587 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B56201-44BA-4F23-A768-669D8B89E2C2}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9">
+        <f>'Metric Units'!D28</f>
+        <v>1530.096</v>
+      </c>
+      <c r="B1" s="9">
+        <f>'Metric Units'!R28</f>
+        <v>0.4065017451430889</v>
+      </c>
+      <c r="C1" s="9">
+        <f>'Metric Units'!V28</f>
+        <v>-3.9344561955860513</v>
+      </c>
+      <c r="D1">
+        <f>J1/3600</f>
+        <v>9.4498410416666664E-2</v>
+      </c>
+      <c r="E1">
+        <f>K1/3600</f>
+        <v>0.10117629808611112</v>
+      </c>
+      <c r="J1" s="55">
+        <f>'Metric Units'!M28</f>
+        <v>340.1942775</v>
+      </c>
+      <c r="K1" s="55">
+        <f>'Metric Units'!N28</f>
+        <v>364.23467311000002</v>
+      </c>
+      <c r="O1">
+        <v>7090.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9">
+        <f>'Metric Units'!D29</f>
+        <v>1530.096</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'Metric Units'!R29</f>
+        <v>0.36212723276838826</v>
+      </c>
+      <c r="C2" s="9">
+        <f>'Metric Units'!V29</f>
+        <v>-3.7677888056406914</v>
+      </c>
+      <c r="D2">
+        <f>J2/3600</f>
+        <v>8.0134652033333337E-2</v>
+      </c>
+      <c r="E2">
+        <f>K2/3600</f>
+        <v>8.6308548180555569E-2</v>
+      </c>
+      <c r="J2" s="55">
+        <f>'Metric Units'!M29</f>
+        <v>288.48474732</v>
+      </c>
+      <c r="K2" s="55">
+        <f>'Metric Units'!N29</f>
+        <v>310.71077345000003</v>
+      </c>
+      <c r="O2">
+        <v>5893.6399999999903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9">
+        <f>'Metric Units'!D30</f>
+        <v>1530.096</v>
+      </c>
+      <c r="B3" s="9">
+        <f>'Metric Units'!R30</f>
+        <v>0.30778312021751913</v>
+      </c>
+      <c r="C3" s="9">
+        <f>'Metric Units'!V30</f>
+        <v>-3.4750140211021971</v>
+      </c>
+      <c r="D3">
+        <f>J3/3600</f>
+        <v>6.7786859738888885E-2</v>
+      </c>
+      <c r="E3">
+        <f>K3/3600</f>
+        <v>7.3330766483333337E-2</v>
+      </c>
+      <c r="J3" s="55">
+        <f>'Metric Units'!M30</f>
+        <v>244.03269506000001</v>
+      </c>
+      <c r="K3" s="55">
+        <f>'Metric Units'!N30</f>
+        <v>263.99075934000001</v>
+      </c>
+      <c r="O3">
+        <v>4862.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9">
+        <f>'Metric Units'!D31</f>
+        <v>1530.096</v>
+      </c>
+      <c r="B4" s="9">
+        <f>'Metric Units'!R31</f>
+        <v>0.26158929006409126</v>
+      </c>
+      <c r="C4" s="9">
+        <f>'Metric Units'!V31</f>
+        <v>-3.627685655325763</v>
+      </c>
+      <c r="D4">
+        <f>J4/3600</f>
+        <v>5.8211020816666667E-2</v>
+      </c>
+      <c r="E4">
+        <f>K4/3600</f>
+        <v>6.2620946636111119E-2</v>
+      </c>
+      <c r="J4" s="55">
+        <f>'Metric Units'!M31</f>
+        <v>209.55967494000001</v>
+      </c>
+      <c r="K4" s="55">
+        <f>'Metric Units'!N31</f>
+        <v>225.43540789000002</v>
+      </c>
+      <c r="O4">
+        <v>4053.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9">
+        <f>'Metric Units'!D32</f>
+        <v>1527.048</v>
+      </c>
+      <c r="B5" s="9">
+        <f>'Metric Units'!R32</f>
+        <v>0.22190020199457133</v>
+      </c>
+      <c r="C5" s="9">
+        <f>'Metric Units'!V32</f>
+        <v>-3.7921986089019697</v>
+      </c>
+      <c r="D5">
+        <f>J5/3600</f>
+        <v>5.4809078041666674E-2</v>
+      </c>
+      <c r="E5">
+        <f>K5/3600</f>
+        <v>6.0226986905555564E-2</v>
+      </c>
+      <c r="J5" s="55">
+        <f>'Metric Units'!M32</f>
+        <v>197.31268095000001</v>
+      </c>
+      <c r="K5" s="55">
+        <f>'Metric Units'!N32</f>
+        <v>216.81715286000002</v>
+      </c>
+      <c r="O5">
+        <v>3986.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9">
+        <f>'Metric Units'!D33</f>
+        <v>1530.096</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'Metric Units'!R33</f>
+        <v>0.19879323583509675</v>
+      </c>
+      <c r="C6" s="9">
+        <f>'Metric Units'!V33</f>
+        <v>-3.4414553626809266</v>
+      </c>
+      <c r="D6">
+        <f>J6/3600</f>
+        <v>5.4431084400000003E-2</v>
+      </c>
+      <c r="E6">
+        <f>K6/3600</f>
+        <v>6.0100989025000003E-2</v>
+      </c>
+      <c r="J6" s="55">
+        <f>'Metric Units'!M33</f>
+        <v>195.95190384</v>
+      </c>
+      <c r="K6" s="55">
+        <f>'Metric Units'!N33</f>
+        <v>216.36356049</v>
+      </c>
+      <c r="O6">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9">
+        <f>'Metric Units'!D45</f>
+        <v>1990.3440000000001</v>
+      </c>
+      <c r="B7" s="9">
+        <f>'Metric Units'!R45</f>
+        <v>0.2689973561540952</v>
+      </c>
+      <c r="C7" s="9">
+        <f>'Metric Units'!V45</f>
+        <v>-3.5149433887290797</v>
+      </c>
+      <c r="D7">
+        <f>J7/3600</f>
+        <v>5.5691063205555558E-2</v>
+      </c>
+      <c r="E7">
+        <f>K7/3600</f>
+        <v>6.0352984786111119E-2</v>
+      </c>
+      <c r="J7" s="55">
+        <f>'Metric Units'!M45</f>
+        <v>200.48782754000001</v>
+      </c>
+      <c r="K7" s="55">
+        <f>'Metric Units'!N45</f>
+        <v>217.27074523000002</v>
+      </c>
+      <c r="O7">
+        <v>3911.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9">
+        <f>'Metric Units'!D46</f>
+        <v>2045.2080000000001</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'Metric Units'!R46</f>
+        <v>0.25117401634856878</v>
+      </c>
+      <c r="C8" s="9">
+        <f>'Metric Units'!V46</f>
+        <v>-3.1550943541038237</v>
+      </c>
+      <c r="D8">
+        <f>J8/3600</f>
+        <v>5.5187071683333332E-2</v>
+      </c>
+      <c r="E8">
+        <f>K8/3600</f>
+        <v>5.9848993263888893E-2</v>
+      </c>
+      <c r="J8" s="55">
+        <f>'Metric Units'!M46</f>
+        <v>198.67345806</v>
+      </c>
+      <c r="K8" s="55">
+        <f>'Metric Units'!N46</f>
+        <v>215.45637575000001</v>
+      </c>
+      <c r="O8">
+        <v>4001.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9">
+        <f>'Metric Units'!D47</f>
+        <v>2097.0239999999999</v>
+      </c>
+      <c r="B9" s="9">
+        <f>'Metric Units'!R47</f>
+        <v>0.23659383575469919</v>
+      </c>
+      <c r="C9" s="9">
+        <f>'Metric Units'!V47</f>
+        <v>-2.9310689976483673</v>
+      </c>
+      <c r="D9">
+        <f>J9/3600</f>
+        <v>5.4683080161111119E-2</v>
+      </c>
+      <c r="E9">
+        <f>K9/3600</f>
+        <v>5.9345001741666674E-2</v>
+      </c>
+      <c r="J9" s="55">
+        <f>'Metric Units'!M47</f>
+        <v>196.85908858000002</v>
+      </c>
+      <c r="K9" s="55">
+        <f>'Metric Units'!N47</f>
+        <v>213.64200627000002</v>
+      </c>
+      <c r="O9">
+        <v>4027.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9">
+        <f>'Metric Units'!D48</f>
+        <v>2179.3200000000002</v>
+      </c>
+      <c r="B10" s="9">
+        <f>'Metric Units'!R48</f>
+        <v>0.22061088554067693</v>
+      </c>
+      <c r="C10" s="9">
+        <f>'Metric Units'!V48</f>
+        <v>-2.6970907707599849</v>
+      </c>
+      <c r="D10">
+        <f>J10/3600</f>
+        <v>5.4179088638888893E-2</v>
+      </c>
+      <c r="E10">
+        <f>K10/3600</f>
+        <v>5.8715012338888893E-2</v>
+      </c>
+      <c r="J10" s="55">
+        <f>'Metric Units'!M48</f>
+        <v>195.04471910000001</v>
+      </c>
+      <c r="K10" s="55">
+        <f>'Metric Units'!N48</f>
+        <v>211.37404442000002</v>
+      </c>
+      <c r="O10">
+        <v>4125.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9">
+        <f>'Metric Units'!D49</f>
+        <v>1959.864</v>
+      </c>
+      <c r="B11" s="9">
+        <f>'Metric Units'!R49</f>
+        <v>0.28711527377691809</v>
+      </c>
+      <c r="C11" s="9">
+        <f>'Metric Units'!V49</f>
+        <v>-3.5627753411797016</v>
+      </c>
+      <c r="D11">
+        <f>J11/3600</f>
+        <v>5.6195054727777784E-2</v>
+      </c>
+      <c r="E11">
+        <f>K11/3600</f>
+        <v>6.0856976308333331E-2</v>
+      </c>
+      <c r="J11" s="55">
+        <f>'Metric Units'!M49</f>
+        <v>202.30219702000002</v>
+      </c>
+      <c r="K11" s="55">
+        <f>'Metric Units'!N49</f>
+        <v>219.08511471</v>
+      </c>
+      <c r="O11">
+        <v>3829.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9">
+        <f>'Metric Units'!D50</f>
+        <v>1813.5600000000002</v>
+      </c>
+      <c r="B12" s="9">
+        <f>'Metric Units'!R50</f>
+        <v>0.30302248027393347</v>
+      </c>
+      <c r="C12" s="9">
+        <f>'Metric Units'!V50</f>
+        <v>-4.0315454427180271</v>
+      </c>
+      <c r="D12">
+        <f>J12/3600</f>
+        <v>5.7329035652777784E-2</v>
+      </c>
+      <c r="E12">
+        <f>K12/3600</f>
+        <v>6.1864959352777783E-2</v>
+      </c>
+      <c r="J12" s="55">
+        <f>'Metric Units'!M50</f>
+        <v>206.38452835000001</v>
+      </c>
+      <c r="K12" s="55">
+        <f>'Metric Units'!N50</f>
+        <v>222.71385367000002</v>
+      </c>
+      <c r="O12">
+        <v>3829.7799999999902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9">
+        <f>'Metric Units'!D51</f>
+        <v>1542.288</v>
+      </c>
+      <c r="B13" s="9">
+        <f>'Metric Units'!R51</f>
+        <v>0.31130740643337551</v>
+      </c>
+      <c r="C13" s="9">
+        <f>'Metric Units'!V51</f>
+        <v>-3.513498803214361</v>
+      </c>
+      <c r="D13">
+        <f>J13/3600</f>
+        <v>5.8715012338888893E-2</v>
+      </c>
+      <c r="E13">
+        <f>K13/3600</f>
+        <v>6.3502931800000009E-2</v>
+      </c>
+      <c r="J13" s="55">
+        <f>'Metric Units'!M51</f>
+        <v>211.37404442000002</v>
+      </c>
+      <c r="K13" s="55">
+        <f>'Metric Units'!N51</f>
+        <v>228.61055448000002</v>
+      </c>
+      <c r="O13">
+        <v>3809.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9">
+        <f>'Metric Units'!D72</f>
+        <v>1676.4</v>
+      </c>
+      <c r="B14" s="9">
+        <f>'Metric Units'!R72</f>
+        <v>0.26224867893139758</v>
+      </c>
+      <c r="C14" s="9">
+        <f>'Metric Units'!V72</f>
+        <v>-3.6833165923318916</v>
+      </c>
+      <c r="D14">
+        <f>J14/3600</f>
+        <v>5.6447050488888893E-2</v>
+      </c>
+      <c r="E14">
+        <f>K14/3600</f>
+        <v>6.0982974188888893E-2</v>
+      </c>
+      <c r="J14" s="55">
+        <f>'Metric Units'!M72</f>
+        <v>203.20938176000001</v>
+      </c>
+      <c r="K14" s="55">
+        <f>'Metric Units'!N72</f>
+        <v>219.53870708000002</v>
+      </c>
+      <c r="O14">
+        <v>3921.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9">
+        <f>'Metric Units'!D73</f>
+        <v>1697.7360000000001</v>
+      </c>
+      <c r="B15" s="9">
+        <f>'Metric Units'!R73</f>
+        <v>0.26092051167233943</v>
+      </c>
+      <c r="C15" s="9">
+        <f>'Metric Units'!V73</f>
+        <v>-3.5073359815637559</v>
+      </c>
+      <c r="D15">
+        <f>J15/3600</f>
+        <v>5.6321052608333338E-2</v>
+      </c>
+      <c r="E15">
+        <f>K15/3600</f>
+        <v>6.0856976308333331E-2</v>
+      </c>
+      <c r="J15" s="55">
+        <f>'Metric Units'!M73</f>
+        <v>202.75578939000002</v>
+      </c>
+      <c r="K15" s="55">
+        <f>'Metric Units'!N73</f>
+        <v>219.08511471</v>
+      </c>
+      <c r="O15">
+        <v>3914.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testflightdata/20200305_V3.xlsx
+++ b/Testflightdata/20200305_V3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\Testflightdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867C601-F323-4DA9-B8F9-15390F878130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3C6E73-0D01-4715-A09D-6366F0219B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66" yWindow="-66" windowWidth="23172" windowHeight="12636" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial Units" sheetId="1" r:id="rId1"/>
     <sheet name="Metric Units" sheetId="2" r:id="rId2"/>
     <sheet name="thrust" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="140">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -512,22 +513,6 @@
     <t>From graph</t>
   </si>
   <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>REAS</t>
   </si>
   <si>
@@ -599,6 +584,15 @@
   </si>
   <si>
     <t>Cma</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -808,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -877,6 +871,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,64 +2293,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Metric Units'!$R$55:$R$61</c:f>
@@ -2392,25 +2330,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.5673185697654379</c:v>
+                  <c:v>-1.5706228886911484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95800511214498441</c:v>
+                  <c:v>-0.96074476631387828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45128761942335577</c:v>
+                  <c:v>-0.4536501427048098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14446565252317842</c:v>
+                  <c:v>-0.14645898107129332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26621771117859949</c:v>
+                  <c:v>0.26472649337841075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57154991788594889</c:v>
+                  <c:v>0.57038782317256098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87623639514902774</c:v>
+                  <c:v>0.87541092024476408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2377,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2606,7 +2544,7 @@
       <c:valAx>
         <c:axId val="661598095"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2845,6 +2783,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Metric Units'!$I$28:$I$33</c:f>
@@ -3751,37 +3733,7 @@
             <c:trendlineType val="linear"/>
             <c:backward val="1.0000000000000002E-2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -6277,25 +6229,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.5673185697654379</c:v>
+                  <c:v>-1.5706228886911484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95800511214498441</c:v>
+                  <c:v>-0.96074476631387828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45128761942335577</c:v>
+                  <c:v>-0.4536501427048098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14446565252317842</c:v>
+                  <c:v>-0.14645898107129332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26621771117859949</c:v>
+                  <c:v>0.26472649337841075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57154991788594889</c:v>
+                  <c:v>0.57038782317256098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87623639514902774</c:v>
+                  <c:v>0.87541092024476408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13616,7 +13568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -14984,10 +14936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AACE1-108F-4DFD-BAD3-8A4DFF8C9086}">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:CA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ64" sqref="AJ64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14997,6 +14949,8 @@
     <col min="15" max="15" width="8.83984375" customWidth="1"/>
     <col min="18" max="18" width="6.5234375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.15625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.578125" customWidth="1"/>
     <col min="32" max="32" width="16.20703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.89453125" bestFit="1" customWidth="1"/>
@@ -15007,7 +14961,7 @@
     <col min="40" max="40" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -15026,7 +14980,7 @@
       </c>
       <c r="AI1" s="24"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="J2" t="s">
         <v>91</v>
       </c>
@@ -15054,7 +15008,7 @@
       </c>
       <c r="AI2" s="18"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -15077,7 +15031,7 @@
       <c r="AH3" s="18"/>
       <c r="AI3" s="18"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -15108,11 +15062,11 @@
       </c>
       <c r="AI4" s="18"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="N5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="57">
         <f>O4^2/O2</f>
         <v>8.4386640333333336</v>
       </c>
@@ -15123,12 +15077,9 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="N6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O6" s="28">
         <v>6168.9</v>
@@ -15148,12 +15099,15 @@
       </c>
       <c r="AI6" s="18"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O7" s="28">
         <v>0.68600000000000005</v>
@@ -15171,7 +15125,7 @@
       </c>
       <c r="AI7" s="18"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -15184,7 +15138,7 @@
         <v>80</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="28">
         <v>-1.1641999999999999</v>
@@ -15201,8 +15155,18 @@
         <v>588.399</v>
       </c>
       <c r="AI8" s="18"/>
+      <c r="BY8">
+        <v>2.206E-2</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <f>23.142*BZ8-0.5105</f>
+        <v>22.631499999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -15215,7 +15179,7 @@
         <v>102</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O9" s="28">
         <v>-6.4000000000000003E-3</v>
@@ -15231,8 +15195,12 @@
         <v>735.49874999999997</v>
       </c>
       <c r="AI9" s="18"/>
+      <c r="CA9">
+        <f>CA8/(BZ8-BY8)/PI()/O5</f>
+        <v>0.87292626322188505</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -15244,6 +15212,9 @@
         <f>'Imperial Units'!$H10</f>
         <v>60</v>
       </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="16">
@@ -15256,7 +15227,7 @@
       </c>
       <c r="AI10" s="18"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -15280,7 +15251,7 @@
       </c>
       <c r="AI11" s="18"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -15304,7 +15275,7 @@
       </c>
       <c r="AI12" s="18"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -15328,7 +15299,7 @@
       </c>
       <c r="AI13" s="18"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -15352,7 +15323,7 @@
       </c>
       <c r="AI14" s="18"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -15370,7 +15341,7 @@
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -15481,7 +15452,7 @@
         <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -15524,6 +15495,12 @@
       </c>
       <c r="W25" t="s">
         <v>107</v>
+      </c>
+      <c r="X25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>137</v>
       </c>
       <c r="AE25" s="16"/>
       <c r="AF25" s="21"/>
@@ -15545,7 +15522,7 @@
         <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
         <v>80</v>
@@ -15572,7 +15549,7 @@
         <v>101</v>
       </c>
       <c r="R26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S26" t="s">
         <v>80</v>
@@ -15614,7 +15591,7 @@
         <v>108</v>
       </c>
       <c r="AN27" s="42" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AO27" s="15"/>
     </row>
@@ -15639,8 +15616,8 @@
         <v>84241.741928410906</v>
       </c>
       <c r="F28" s="9">
-        <f>1.225*(1+((0.00649*D28)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>1.0248588170605673</v>
+        <f>1.225*(1+((0.00649*D28)/288.15))^(-9.80665/(0.00649*287)-1)</f>
+        <v>0.99071641202017147</v>
       </c>
       <c r="G28" s="9">
         <f>'Imperial Units'!E28*0.514444</f>
@@ -15701,6 +15678,14 @@
         <f>thrust!O1</f>
         <v>7090.25</v>
       </c>
+      <c r="X28">
+        <f>0.00001716*(Q28/273.15)^(2/3)</f>
+        <v>1.7207512159751993E-5</v>
+      </c>
+      <c r="Y28" s="56">
+        <f>S28*$O$3*F28/X28</f>
+        <v>15981334.246352959</v>
+      </c>
       <c r="AE28" s="16"/>
       <c r="AF28" s="21" t="s">
         <v>93</v>
@@ -15757,8 +15742,8 @@
         <v>84241.741928410906</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:F33" si="15">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>1.0248588170605673</v>
+        <f t="shared" ref="F29:F33" si="15">1.225*(1+((0.00649*D29)/288.15))^(-9.80665/(0.00649*287)-1)</f>
+        <v>0.99071641202017147</v>
       </c>
       <c r="G29" s="9">
         <f>'Imperial Units'!E29*0.514444</f>
@@ -15819,6 +15804,14 @@
         <f>thrust!O2</f>
         <v>5893.6399999999903</v>
       </c>
+      <c r="X29">
+        <f t="shared" ref="X29:X33" si="18">0.00001716*(Q29/273.15)^(2/3)</f>
+        <v>1.7214482132501137E-5</v>
+      </c>
+      <c r="Y29" s="56">
+        <f t="shared" ref="Y29:Y33" si="19">S29*$O$3*F29/X29</f>
+        <v>14235339.75950158</v>
+      </c>
       <c r="AE29" s="16"/>
       <c r="AF29" s="21" t="s">
         <v>93</v>
@@ -15876,7 +15869,7 @@
       </c>
       <c r="F30" s="9">
         <f t="shared" si="15"/>
-        <v>1.0248588170605673</v>
+        <v>0.99071641202017147</v>
       </c>
       <c r="G30" s="9">
         <f>'Imperial Units'!E30*0.514444</f>
@@ -15937,6 +15930,14 @@
         <f>thrust!O3</f>
         <v>4862.49</v>
       </c>
+      <c r="X30">
+        <f t="shared" si="18"/>
+        <v>1.7226722457953315E-5</v>
+      </c>
+      <c r="Y30" s="56">
+        <f t="shared" si="19"/>
+        <v>12096905.15372357</v>
+      </c>
       <c r="AE30" s="16"/>
       <c r="AF30" s="21" t="s">
         <v>93</v>
@@ -15994,7 +15995,7 @@
       </c>
       <c r="F31" s="9">
         <f t="shared" si="15"/>
-        <v>1.0248588170605673</v>
+        <v>0.99071641202017147</v>
       </c>
       <c r="G31" s="9">
         <f>'Imperial Units'!E31*0.514444</f>
@@ -16055,6 +16056,14 @@
         <f>thrust!O4</f>
         <v>4053.95</v>
       </c>
+      <c r="X31">
+        <f t="shared" si="18"/>
+        <v>1.7220340106474777E-5</v>
+      </c>
+      <c r="Y31" s="56">
+        <f t="shared" si="19"/>
+        <v>10282285.768025264</v>
+      </c>
       <c r="AE31" s="16"/>
       <c r="AF31" s="21" t="s">
         <v>93</v>
@@ -16112,7 +16121,7 @@
       </c>
       <c r="F32" s="9">
         <f t="shared" si="15"/>
-        <v>1.0252169751474514</v>
+        <v>0.99112841264470286</v>
       </c>
       <c r="G32" s="9">
         <f>'Imperial Units'!E32*0.514444</f>
@@ -16173,6 +16182,14 @@
         <f>thrust!O5</f>
         <v>3986.01</v>
       </c>
+      <c r="X32">
+        <f t="shared" si="18"/>
+        <v>1.721428859834117E-5</v>
+      </c>
+      <c r="Y32" s="56">
+        <f t="shared" si="19"/>
+        <v>8726621.4666682463</v>
+      </c>
       <c r="AE32" s="16"/>
       <c r="AF32" s="21" t="s">
         <v>93</v>
@@ -16229,7 +16246,7 @@
       </c>
       <c r="F33" s="9">
         <f t="shared" si="15"/>
-        <v>1.0248588170605673</v>
+        <v>0.99071641202017147</v>
       </c>
       <c r="G33" s="9">
         <f>'Imperial Units'!E33*0.514444</f>
@@ -16289,6 +16306,14 @@
       <c r="W33">
         <f>thrust!O6</f>
         <v>4093</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="18"/>
+        <v>1.7228125200219202E-5</v>
+      </c>
+      <c r="Y33" s="56">
+        <f t="shared" si="19"/>
+        <v>7813079.4358069226</v>
       </c>
       <c r="AE33" s="16"/>
       <c r="AF33" s="21" t="s">
@@ -16526,19 +16551,19 @@
         <v>96</v>
       </c>
       <c r="X42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB42" t="s">
         <v>126</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>127</v>
       </c>
       <c r="AE42" s="16"/>
       <c r="AF42" s="21"/>
@@ -16615,16 +16640,16 @@
         <v>80</v>
       </c>
       <c r="Y43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE43" s="16"/>
       <c r="AF43" s="21"/>
@@ -16673,8 +16698,8 @@
         <v>79587.705545401011</v>
       </c>
       <c r="F45" s="9">
-        <f>1.225*(1+((0.00649*D45)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>0.9724451125067427</v>
+        <f t="shared" ref="F45:F51" si="20">1.225*(1+((0.00649*D45)/288.15))^(-9.80665/(0.00649*287)-1)</f>
+        <v>0.9307222300944078</v>
       </c>
       <c r="G45" s="12">
         <f>'Imperial Units'!E59*0.514444</f>
@@ -16717,27 +16742,27 @@
         <v>275.64999999999998</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" ref="Q45:Q51" si="18">P45/(1+(0.4/2)*R45^2)</f>
+        <f t="shared" ref="Q45:Q51" si="21">P45/(1+(0.4/2)*R45^2)</f>
         <v>271.71772405127092</v>
       </c>
       <c r="R45" s="34">
-        <f t="shared" ref="R45:R51" si="19">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*H45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R45:R51" si="22">SQRT(2/0.4*((1+101325/E45*((1+0.4/2.8*1.225/101325*H45^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.2689973561540952</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" ref="S45:S51" si="20">R45*SQRT(1.4*287*Q45)</f>
+        <f t="shared" ref="S45:S51" si="23">R45*SQRT(1.4*287*Q45)</f>
         <v>88.881620040347158</v>
       </c>
       <c r="T45" s="9">
-        <f t="shared" ref="T45:T51" si="21">S45*SQRT(E45/287/Q45/1.225)</f>
+        <f t="shared" ref="T45:T51" si="24">S45*SQRT(E45/287/Q45/1.225)</f>
         <v>81.127291563267349</v>
       </c>
       <c r="U45" s="9">
-        <f t="shared" ref="U45:U51" si="22">288.15-0.00649*D45</f>
+        <f t="shared" ref="U45:U51" si="25">288.15-0.00649*D45</f>
         <v>275.23266744</v>
       </c>
       <c r="V45" s="54">
-        <f t="shared" ref="V45:V51" si="23">Q45-U45</f>
+        <f t="shared" ref="V45:V51" si="26">Q45-U45</f>
         <v>-3.5149433887290797</v>
       </c>
       <c r="W45">
@@ -16750,37 +16775,43 @@
       </c>
       <c r="Y45" s="33">
         <f>W45/(0.5*F45*T45^2*$O$7^2)</f>
-        <v>2.5970711799512411</v>
+        <v>2.7134939879103657</v>
       </c>
       <c r="Z45" s="33">
         <f>W45/(0.5*F45*X45^2*$O$7^2)</f>
-        <v>2.7382435345824852</v>
+        <v>2.8609948875808255</v>
       </c>
       <c r="AA45" s="33">
         <f>RADIANS(J45)-$O$9/$O$8*(Z45-Y45)</f>
-        <v>-2.5214012925715173E-3</v>
+        <v>-2.5561914388101204E-3</v>
       </c>
       <c r="AB45" s="33">
         <f>L45*$O$6/AG45</f>
         <v>-0.94844419320330109</v>
       </c>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
+      <c r="AC45" s="56">
+        <f>0.00001716*(Q45/273.15)^(2/3)</f>
+        <v>1.7099961230833875E-5</v>
+      </c>
+      <c r="AD45" s="56">
+        <f>S45*F45*$O$3/AC45</f>
+        <v>9950619.080830412</v>
+      </c>
       <c r="AE45" s="30"/>
       <c r="AF45" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" ref="AG45:AG51" si="24">$AG$16-O45</f>
+        <f t="shared" ref="AG45:AG51" si="27">$AG$16-O45</f>
         <v>6504.2308701000002</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" ref="AH45:AH51" si="25">AG45*9.80665</f>
+        <f t="shared" ref="AH45:AH51" si="28">AG45*9.80665</f>
         <v>63784.715662266164</v>
       </c>
       <c r="AI45" s="18"/>
       <c r="AJ45" s="26">
-        <f t="shared" ref="AJ45:AJ51" si="26">2*AH45/(1.225*$T45^2*$O$2)</f>
+        <f t="shared" ref="AJ45:AJ51" si="29">2*AH45/(1.225*$T45^2*$O$2)</f>
         <v>0.5274184542057766</v>
       </c>
       <c r="AK45" s="26">
@@ -16788,7 +16819,7 @@
         <v>3.233998683219981E-2</v>
       </c>
       <c r="AL45" s="35">
-        <f t="shared" ref="AL45:AL51" si="27">I45</f>
+        <f t="shared" ref="AL45:AL51" si="30">I45</f>
         <v>5.5</v>
       </c>
       <c r="AM45" s="38"/>
@@ -16810,19 +16841,19 @@
         <v>2045.2080000000001</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" ref="E46:E51" si="28">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="E46:E51" si="31">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>79047.10787883235</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" ref="F46:F51" si="29">1.225*(1+((0.00649*D46)/288.15))^(-9.80665/(0.00649*287))</f>
-        <v>0.96641229213617863</v>
+        <f t="shared" si="20"/>
+        <v>0.92385561987871001</v>
       </c>
       <c r="G46" s="12">
         <f>'Imperial Units'!E60*0.514444</f>
         <v>76.652156000000005</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" ref="H46:H51" si="30">G46-2*0.514444</f>
+        <f t="shared" ref="H46:H51" si="32">G46-2*0.514444</f>
         <v>75.62326800000001</v>
       </c>
       <c r="I46" s="13">
@@ -16858,27 +16889,27 @@
         <v>275.14999999999998</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271.72150572589618</v>
       </c>
       <c r="R46" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.25117401634856878</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>82.993041856980582</v>
       </c>
       <c r="T46" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>75.494215427760338</v>
       </c>
       <c r="U46" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>274.87660008</v>
       </c>
       <c r="V46" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.1550943541038237</v>
       </c>
       <c r="W46">
@@ -16886,50 +16917,56 @@
         <v>4001.29</v>
       </c>
       <c r="X46" s="9">
-        <f t="shared" ref="X46:X51" si="31">T46*SQRT($O$6/AG46)</f>
+        <f t="shared" ref="X46:X51" si="33">T46*SQRT($O$6/AG46)</f>
         <v>73.578847031429945</v>
       </c>
       <c r="Y46" s="33">
-        <f t="shared" ref="Y46:Y51" si="32">W46/(0.5*F46*T46^2*$O$7^2)</f>
-        <v>3.0873935715762477</v>
+        <f t="shared" ref="Y46:Y51" si="34">W46/(0.5*F46*T46^2*$O$7^2)</f>
+        <v>3.2296118939290794</v>
       </c>
       <c r="Z46" s="33">
-        <f t="shared" ref="Z46:Z51" si="33">W46/(0.5*F46*X46^2*$O$7^2)</f>
-        <v>3.2502247364546242</v>
+        <f t="shared" ref="Z46:Z51" si="35">W46/(0.5*F46*X46^2*$O$7^2)</f>
+        <v>3.3999437465425597</v>
       </c>
       <c r="AA46" s="33">
-        <f t="shared" ref="AA46:AA51" si="34">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
-        <v>-7.8764548324246723E-3</v>
+        <f t="shared" ref="AA46:AA51" si="36">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
+        <v>-7.9176886423410649E-3</v>
       </c>
       <c r="AB46" s="33">
-        <f t="shared" ref="AB46:AB51" si="35">L46*$O$6/AG46</f>
+        <f t="shared" ref="AB46:AB51" si="37">L46*$O$6/AG46</f>
         <v>-23.747539185121127</v>
       </c>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
+      <c r="AC46" s="56">
+        <f t="shared" ref="AC46:AC51" si="38">0.00001716*(Q46/273.15)^(2/3)</f>
+        <v>1.710011989141863E-5</v>
+      </c>
+      <c r="AD46" s="56">
+        <f t="shared" ref="AD46:AD51" si="39">S46*F46*$O$3/AC46</f>
+        <v>9222736.7075107209</v>
+      </c>
       <c r="AE46" s="30"/>
       <c r="AF46" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG46" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6494.2518379599996</v>
       </c>
       <c r="AH46" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63686.85478673043</v>
       </c>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.6081281421864555</v>
       </c>
       <c r="AK46" s="26">
-        <f t="shared" ref="AK46:AK51" si="36">2*W46/(1.225*$T46^2*$O$2)</f>
+        <f t="shared" ref="AK46:AK51" si="40">2*W46/(1.225*$T46^2*$O$2)</f>
         <v>3.8207210297912776E-2</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.5</v>
       </c>
       <c r="AM46" s="38"/>
@@ -16951,19 +16988,19 @@
         <v>2097.0239999999999</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>78539.27842640446</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="29"/>
-        <v>0.96075547903443159</v>
+        <f t="shared" si="20"/>
+        <v>0.91742437558061785</v>
       </c>
       <c r="G47" s="12">
         <f>'Imperial Units'!E61*0.514444</f>
         <v>72.02216</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>70.993272000000005</v>
       </c>
       <c r="I47" s="13">
@@ -16999,27 +17036,27 @@
         <v>274.64999999999998</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271.60924524235162</v>
       </c>
       <c r="R47" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.23659383575469919</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>78.159300842034028</v>
       </c>
       <c r="T47" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>70.883124400269622</v>
       </c>
       <c r="U47" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>274.54031423999999</v>
       </c>
       <c r="V47" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.9310689976483673</v>
       </c>
       <c r="W47">
@@ -17027,50 +17064,56 @@
         <v>4027.86</v>
       </c>
       <c r="X47" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>69.111298391704324</v>
       </c>
       <c r="Y47" s="33">
-        <f t="shared" si="32"/>
-        <v>3.5461537142896651</v>
+        <f t="shared" si="34"/>
+        <v>3.7136430001065635</v>
       </c>
       <c r="Z47" s="33">
-        <f t="shared" si="33"/>
-        <v>3.7303119982120321</v>
+        <f t="shared" si="35"/>
+        <v>3.9064993106618795</v>
       </c>
       <c r="AA47" s="33">
-        <f t="shared" si="34"/>
-        <v>-1.6720343457867493E-2</v>
+        <f t="shared" si="36"/>
+        <v>-1.676815944348068E-2</v>
       </c>
       <c r="AB47" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-37.074645478336727</v>
       </c>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
+      <c r="AC47" s="56">
+        <f t="shared" si="38"/>
+        <v>1.7095409676743818E-5</v>
+      </c>
+      <c r="AD47" s="56">
+        <f t="shared" si="39"/>
+        <v>8627492.8140765019</v>
+      </c>
       <c r="AE47" s="30"/>
       <c r="AF47" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG47" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6489.2623218899998</v>
       </c>
       <c r="AH47" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63637.924348962566</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.68929154887028254</v>
       </c>
       <c r="AK47" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.362759920968285E-2</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.5</v>
       </c>
       <c r="AM47" s="38"/>
@@ -17092,19 +17135,19 @@
         <v>2179.3200000000002</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>77738.160125595576</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="29"/>
-        <v>0.95185189377328283</v>
+        <f t="shared" si="20"/>
+        <v>0.90731644237277931</v>
       </c>
       <c r="G48" s="12">
         <f>'Imperial Units'!E62*0.514444</f>
         <v>66.877719999999997</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>65.848832000000002</v>
       </c>
       <c r="I48" s="13">
@@ -17140,27 +17183,27 @@
         <v>273.95</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271.30912242924001</v>
       </c>
       <c r="R48" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.22061088554067693</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>72.839021407874739</v>
       </c>
       <c r="T48" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>65.756704578580255</v>
       </c>
       <c r="U48" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>274.00621319999999</v>
       </c>
       <c r="V48" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.6970907707599849</v>
       </c>
       <c r="W48">
@@ -17168,50 +17211,56 @@
         <v>4125.8</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>64.166865753247251</v>
       </c>
       <c r="Y48" s="33">
-        <f t="shared" si="32"/>
-        <v>4.2603028922479949</v>
+        <f t="shared" si="34"/>
+        <v>4.4694190324922385</v>
       </c>
       <c r="Z48" s="33">
-        <f t="shared" si="33"/>
-        <v>4.4740301281013464</v>
+        <f t="shared" si="35"/>
+        <v>4.6936370282180997</v>
       </c>
       <c r="AA48" s="33">
-        <f t="shared" si="34"/>
-        <v>-2.7354869470055342E-2</v>
+        <f t="shared" si="36"/>
+        <v>-2.741254071484495E-2</v>
       </c>
       <c r="AB48" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-47.611468522407421</v>
       </c>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
+      <c r="AC48" s="56">
+        <f t="shared" si="38"/>
+        <v>1.7082813964610188E-5</v>
+      </c>
+      <c r="AD48" s="56">
+        <f t="shared" si="39"/>
+        <v>7957500.058112558</v>
+      </c>
       <c r="AE48" s="30"/>
       <c r="AF48" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG48" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6478.3761050100002</v>
       </c>
       <c r="AH48" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63531.167030196317</v>
       </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.7996121874572113</v>
       </c>
       <c r="AK48" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.1927898025907998E-2</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.1</v>
       </c>
       <c r="AM48" s="38"/>
@@ -17233,19 +17282,19 @@
         <v>1959.864</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>79889.329187296884</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="29"/>
-        <v>0.9758160411846819</v>
+        <f t="shared" si="20"/>
+        <v>0.93456257960132116</v>
       </c>
       <c r="G49" s="12">
         <f>'Imperial Units'!E63*0.514444</f>
         <v>87.969924000000006</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>86.941036000000011</v>
       </c>
       <c r="I49" s="13">
@@ -17281,27 +17330,27 @@
         <v>276.34999999999997</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271.86770729882028</v>
       </c>
       <c r="R49" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.28711527377691809</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>94.894288746320171</v>
       </c>
       <c r="T49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>86.755428098372462</v>
       </c>
       <c r="U49" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>275.43048263999998</v>
       </c>
       <c r="V49" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.5627753411797016</v>
       </c>
       <c r="W49">
@@ -17309,50 +17358,56 @@
         <v>3829.36</v>
       </c>
       <c r="X49" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>84.729109713642799</v>
       </c>
       <c r="Y49" s="33">
-        <f t="shared" si="32"/>
-        <v>2.2158823248399906</v>
+        <f t="shared" si="34"/>
+        <v>2.3136958028844794</v>
       </c>
       <c r="Z49" s="33">
-        <f t="shared" si="33"/>
-        <v>2.3231364634195129</v>
+        <f t="shared" si="35"/>
+        <v>2.4256843536715125</v>
       </c>
       <c r="AA49" s="33">
-        <f t="shared" si="34"/>
-        <v>4.6463755871898743E-3</v>
+        <f t="shared" si="36"/>
+        <v>4.6203489267122345E-3</v>
       </c>
       <c r="AB49" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>27.661133313611767</v>
       </c>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
+      <c r="AC49" s="56">
+        <f t="shared" si="38"/>
+        <v>1.7106253230714371E-5</v>
+      </c>
+      <c r="AD49" s="56">
+        <f t="shared" si="39"/>
+        <v>10663671.159193546</v>
+      </c>
       <c r="AE49" s="30"/>
       <c r="AF49" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG49" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6467.4898881299996</v>
       </c>
       <c r="AH49" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63424.40971143006</v>
       </c>
       <c r="AI49" s="18"/>
       <c r="AJ49" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.45860181779817211</v>
       </c>
       <c r="AK49" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.7688889261938576E-2</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.8</v>
       </c>
       <c r="AM49" s="38"/>
@@ -17374,19 +17429,19 @@
         <v>1813.5600000000002</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>81350.04145788787</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="29"/>
-        <v>0.9921913573760518</v>
+        <f t="shared" si="20"/>
+        <v>0.95325398584153032</v>
       </c>
       <c r="G50" s="12">
         <f>'Imperial Units'!E64*0.514444</f>
         <v>93.628808000000006</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>92.599920000000012</v>
       </c>
       <c r="I50" s="13">
@@ -17422,27 +17477,27 @@
         <v>277.34999999999997</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>272.34845015728195</v>
       </c>
       <c r="R50" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.30302248027393347</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>100.24027949891466</v>
       </c>
       <c r="T50" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>92.395264149974921</v>
       </c>
       <c r="U50" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>276.37999559999997</v>
       </c>
       <c r="V50" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-4.0315454427180271</v>
       </c>
       <c r="W50">
@@ -17450,50 +17505,56 @@
         <v>3829.7799999999902</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>90.297400910846775</v>
       </c>
       <c r="Y50" s="33">
-        <f t="shared" si="32"/>
-        <v>1.9215899935400871</v>
+        <f t="shared" si="34"/>
+        <v>2.0000807888861321</v>
       </c>
       <c r="Z50" s="33">
-        <f t="shared" si="33"/>
-        <v>2.0119151063763203</v>
+        <f t="shared" si="35"/>
+        <v>2.0940953932216293</v>
       </c>
       <c r="AA50" s="33">
-        <f t="shared" si="34"/>
-        <v>9.9754279066130366E-3</v>
+        <f t="shared" si="36"/>
+        <v>9.9551455276443972E-3</v>
       </c>
       <c r="AB50" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>41.069511064533195</v>
       </c>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
+      <c r="AC50" s="56">
+        <f t="shared" si="38"/>
+        <v>1.7126413249963321E-5</v>
+      </c>
+      <c r="AD50" s="56">
+        <f t="shared" si="39"/>
+        <v>11476188.09938341</v>
+      </c>
       <c r="AE50" s="30"/>
       <c r="AF50" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG50" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6458.8716330999996</v>
       </c>
       <c r="AH50" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63339.893500740109</v>
       </c>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.40378535024568535</v>
       </c>
       <c r="AK50" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.4414456248586014E-2</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="AM50" s="38"/>
@@ -17515,19 +17576,19 @@
         <v>1542.288</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>84115.678289078729</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="29"/>
-        <v>1.0234276727680331</v>
+        <f t="shared" si="20"/>
+        <v>0.98907039430912114</v>
       </c>
       <c r="G51" s="12">
         <f>'Imperial Units'!E65*0.514444</f>
         <v>97.74436</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>96.715472000000005</v>
       </c>
       <c r="I51" s="13">
@@ -17563,27 +17624,27 @@
         <v>279.95</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>274.62705207678562</v>
       </c>
       <c r="R51" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.31130740643337551</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>103.41084265074728</v>
       </c>
       <c r="T51" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>96.521464428107876</v>
       </c>
       <c r="U51" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>278.14055087999998</v>
       </c>
       <c r="V51" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.513498803214361</v>
       </c>
       <c r="W51">
@@ -17591,50 +17652,56 @@
         <v>3809.48</v>
       </c>
       <c r="X51" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>94.446058878503024</v>
       </c>
       <c r="Y51" s="33">
-        <f t="shared" si="32"/>
-        <v>1.6980188277985848</v>
+        <f t="shared" si="34"/>
+        <v>1.7570028051078057</v>
       </c>
       <c r="Z51" s="33">
-        <f t="shared" si="33"/>
-        <v>1.773465017407283</v>
+        <f t="shared" si="35"/>
+        <v>1.8350697644412519</v>
       </c>
       <c r="AA51" s="33">
-        <f t="shared" si="34"/>
-        <v>1.5293210121156604E-2</v>
+        <f t="shared" si="36"/>
+        <v>1.5278802866184618E-2</v>
       </c>
       <c r="AB51" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>75.639206908179787</v>
       </c>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
+      <c r="AC51" s="56">
+        <f t="shared" si="38"/>
+        <v>1.7221805906866405E-5</v>
+      </c>
+      <c r="AD51" s="56">
+        <f t="shared" si="39"/>
+        <v>12215964.648335189</v>
+      </c>
       <c r="AE51" s="30"/>
       <c r="AF51" s="21" t="s">
         <v>93</v>
       </c>
       <c r="AG51" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6442.9959001500001</v>
       </c>
       <c r="AH51" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>63184.205744205996</v>
       </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.36909093420443628</v>
       </c>
       <c r="AK51" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.225310131657468E-2</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.6</v>
       </c>
       <c r="AM51" s="38"/>
@@ -17733,26 +17800,26 @@
         <v>108</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J54" s="44"/>
       <c r="K54" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L54" s="44"/>
       <c r="M54" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
       <c r="P54" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q54" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R54" s="44"/>
       <c r="S54" s="44"/>
@@ -17793,16 +17860,16 @@
         <v>0.13622811771190352</v>
       </c>
       <c r="H55" s="39">
-        <f t="shared" ref="H55:H61" si="37">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
+        <f t="shared" ref="H55:H61" si="41">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
         <v>0.23091526377150712</v>
       </c>
       <c r="I55" s="46">
         <f>AA45</f>
-        <v>-2.5214012925715173E-3</v>
+        <v>-2.5561914388101204E-3</v>
       </c>
       <c r="J55" s="39">
         <f>I58</f>
-        <v>-2.7354869470055342E-2</v>
+        <v>-2.741254071484495E-2</v>
       </c>
       <c r="K55" s="46">
         <f>X45</f>
@@ -17823,7 +17890,7 @@
       <c r="O55" s="39"/>
       <c r="P55" s="39">
         <f>J55*180/PI()</f>
-        <v>-1.5673185697654379</v>
+        <v>-1.5706228886911484</v>
       </c>
       <c r="Q55" s="46">
         <f>I45</f>
@@ -17868,23 +17935,23 @@
         <v>4</v>
       </c>
       <c r="G56" s="39">
-        <f t="shared" ref="G56:G61" si="38">D56^2</f>
+        <f t="shared" ref="G56:G61" si="42">D56^2</f>
         <v>0.16304260907303078</v>
       </c>
       <c r="H56" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.25190134754878241</v>
       </c>
       <c r="I56" s="46">
-        <f t="shared" ref="I56:I61" si="39">AA46</f>
-        <v>-7.8764548324246723E-3</v>
+        <f t="shared" ref="I56:I61" si="43">AA46</f>
+        <v>-7.9176886423410649E-3</v>
       </c>
       <c r="J56" s="39">
         <f>I57</f>
-        <v>-1.6720343457867493E-2</v>
+        <v>-1.676815944348068E-2</v>
       </c>
       <c r="K56" s="46">
-        <f t="shared" ref="K56:K61" si="40">X46</f>
+        <f t="shared" ref="K56:K61" si="44">X46</f>
         <v>73.578847031429945</v>
       </c>
       <c r="L56" s="39">
@@ -17892,7 +17959,7 @@
         <v>69.111298391704324</v>
       </c>
       <c r="M56" s="46">
-        <f t="shared" ref="M56:M61" si="41">AB46</f>
+        <f t="shared" ref="M56:M61" si="45">AB46</f>
         <v>-23.747539185121127</v>
       </c>
       <c r="N56" s="39">
@@ -17901,11 +17968,11 @@
       </c>
       <c r="O56" s="39"/>
       <c r="P56" s="39">
-        <f t="shared" ref="P56:P61" si="42">J56*180/PI()</f>
-        <v>-0.95800511214498441</v>
+        <f t="shared" ref="P56:P61" si="46">J56*180/PI()</f>
+        <v>-0.96074476631387828</v>
       </c>
       <c r="Q56" s="46">
-        <f t="shared" ref="Q56:Q61" si="43">I46</f>
+        <f t="shared" ref="Q56:Q61" si="47">I46</f>
         <v>6.5</v>
       </c>
       <c r="R56" s="39">
@@ -17950,23 +18017,23 @@
         <v>4.8</v>
       </c>
       <c r="G57" s="39">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.21031562728778785</v>
       </c>
       <c r="H57" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.28651175166486137</v>
       </c>
       <c r="I57" s="46">
-        <f t="shared" si="39"/>
-        <v>-1.6720343457867493E-2</v>
+        <f t="shared" si="43"/>
+        <v>-1.676815944348068E-2</v>
       </c>
       <c r="J57" s="39">
         <f>I56</f>
-        <v>-7.8764548324246723E-3</v>
+        <v>-7.9176886423410649E-3</v>
       </c>
       <c r="K57" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>69.111298391704324</v>
       </c>
       <c r="L57" s="39">
@@ -17974,7 +18041,7 @@
         <v>73.578847031429945</v>
       </c>
       <c r="M57" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-37.074645478336727</v>
       </c>
       <c r="N57" s="39">
@@ -17983,11 +18050,11 @@
       </c>
       <c r="O57" s="39"/>
       <c r="P57" s="39">
-        <f t="shared" si="42"/>
-        <v>-0.45128761942335577</v>
+        <f t="shared" si="46"/>
+        <v>-0.4536501427048098</v>
       </c>
       <c r="Q57" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>7.5</v>
       </c>
       <c r="R57" s="39">
@@ -18021,35 +18088,35 @@
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="39">
-        <f t="shared" ref="D58:F61" si="44">AJ45</f>
+        <f t="shared" ref="D58:F61" si="48">AJ45</f>
         <v>0.5274184542057766</v>
       </c>
       <c r="E58" s="39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>3.233998683219981E-2</v>
       </c>
       <c r="F58" s="39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>5.5</v>
       </c>
       <c r="G58" s="39">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.27817022583681089</v>
       </c>
       <c r="H58" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.32444959390121175</v>
       </c>
       <c r="I58" s="46">
-        <f t="shared" si="39"/>
-        <v>-2.7354869470055342E-2</v>
+        <f t="shared" si="43"/>
+        <v>-2.741254071484495E-2</v>
       </c>
       <c r="J58" s="39">
         <f>I55</f>
-        <v>-2.5214012925715173E-3</v>
+        <v>-2.5561914388101204E-3</v>
       </c>
       <c r="K58" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>64.166865753247251</v>
       </c>
       <c r="L58" s="39">
@@ -18057,7 +18124,7 @@
         <v>79.008327461824393</v>
       </c>
       <c r="M58" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-47.611468522407421</v>
       </c>
       <c r="N58" s="39">
@@ -18066,11 +18133,11 @@
       </c>
       <c r="O58" s="39"/>
       <c r="P58" s="39">
-        <f t="shared" si="42"/>
-        <v>-0.14446565252317842</v>
+        <f t="shared" si="46"/>
+        <v>-0.14645898107129332</v>
       </c>
       <c r="Q58" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>9.1</v>
       </c>
       <c r="R58" s="39">
@@ -18104,35 +18171,35 @@
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.6081281421864555</v>
       </c>
       <c r="E59" s="39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>3.8207210297912776E-2</v>
       </c>
       <c r="F59" s="39">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>6.5</v>
       </c>
       <c r="G59" s="39">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.36981983731914986</v>
       </c>
       <c r="H59" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.36510796295913517</v>
       </c>
       <c r="I59" s="46">
-        <f t="shared" si="39"/>
-        <v>4.6463755871898743E-3</v>
+        <f t="shared" si="43"/>
+        <v>4.6203489267122345E-3</v>
       </c>
       <c r="J59" s="39">
         <f>I59</f>
-        <v>4.6463755871898743E-3</v>
+        <v>4.6203489267122345E-3</v>
       </c>
       <c r="K59" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>84.729109713642799</v>
       </c>
       <c r="L59" s="39">
@@ -18140,7 +18207,7 @@
         <v>84.729109713642799</v>
       </c>
       <c r="M59" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>27.661133313611767</v>
       </c>
       <c r="N59" s="39">
@@ -18149,11 +18216,11 @@
       </c>
       <c r="O59" s="39"/>
       <c r="P59" s="39">
-        <f t="shared" si="42"/>
-        <v>0.26621771117859949</v>
+        <f t="shared" si="46"/>
+        <v>0.26472649337841075</v>
       </c>
       <c r="Q59" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4.8</v>
       </c>
       <c r="R59" s="39">
@@ -18187,60 +18254,60 @@
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="39">
+        <f t="shared" si="48"/>
+        <v>0.68929154887028254</v>
+      </c>
+      <c r="E60" s="39">
+        <f t="shared" si="48"/>
+        <v>4.362759920968285E-2</v>
+      </c>
+      <c r="F60" s="39">
+        <f t="shared" si="48"/>
+        <v>7.5</v>
+      </c>
+      <c r="G60" s="39">
+        <f t="shared" si="42"/>
+        <v>0.47512283934399313</v>
+      </c>
+      <c r="H60" s="39">
+        <f t="shared" si="41"/>
+        <v>0.41079109771124506</v>
+      </c>
+      <c r="I60" s="46">
+        <f t="shared" si="43"/>
+        <v>9.9551455276443972E-3</v>
+      </c>
+      <c r="J60" s="39">
+        <f t="shared" ref="J60:L61" si="49">I60</f>
+        <v>9.9551455276443972E-3</v>
+      </c>
+      <c r="K60" s="46">
         <f t="shared" si="44"/>
-        <v>0.68929154887028254</v>
-      </c>
-      <c r="E60" s="39">
-        <f t="shared" si="44"/>
-        <v>4.362759920968285E-2</v>
-      </c>
-      <c r="F60" s="39">
-        <f t="shared" si="44"/>
-        <v>7.5</v>
-      </c>
-      <c r="G60" s="39">
-        <f t="shared" si="38"/>
-        <v>0.47512283934399313</v>
-      </c>
-      <c r="H60" s="39">
-        <f t="shared" si="37"/>
-        <v>0.41079109771124506</v>
-      </c>
-      <c r="I60" s="46">
-        <f t="shared" si="39"/>
-        <v>9.9754279066130366E-3</v>
-      </c>
-      <c r="J60" s="39">
-        <f t="shared" ref="J60:L61" si="45">I60</f>
-        <v>9.9754279066130366E-3</v>
-      </c>
-      <c r="K60" s="46">
-        <f t="shared" si="40"/>
         <v>90.297400910846775</v>
       </c>
       <c r="L60" s="39">
+        <f t="shared" si="49"/>
+        <v>90.297400910846775</v>
+      </c>
+      <c r="M60" s="46">
         <f t="shared" si="45"/>
-        <v>90.297400910846775</v>
-      </c>
-      <c r="M60" s="46">
-        <f t="shared" si="41"/>
         <v>41.069511064533195</v>
       </c>
       <c r="N60" s="39">
-        <f t="shared" ref="N60" si="46">M60</f>
+        <f t="shared" ref="N60" si="50">M60</f>
         <v>41.069511064533195</v>
       </c>
       <c r="O60" s="39"/>
       <c r="P60" s="39">
-        <f t="shared" si="42"/>
-        <v>0.57154991788594889</v>
+        <f t="shared" si="46"/>
+        <v>0.57038782317256098</v>
       </c>
       <c r="Q60" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="R60" s="39">
-        <f t="shared" ref="R60:R61" si="47">Q60</f>
+        <f t="shared" ref="R60:R61" si="51">Q60</f>
         <v>4</v>
       </c>
       <c r="S60" s="39"/>
@@ -18268,60 +18335,60 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="39">
+        <f t="shared" si="48"/>
+        <v>0.7996121874572113</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" si="48"/>
+        <v>5.1927898025907998E-2</v>
+      </c>
+      <c r="F61" s="39">
+        <f t="shared" si="48"/>
+        <v>9.1</v>
+      </c>
+      <c r="G61" s="39">
+        <f t="shared" si="42"/>
+        <v>0.63937965033010646</v>
+      </c>
+      <c r="H61" s="39">
+        <f t="shared" si="41"/>
+        <v>0.46444521947000195</v>
+      </c>
+      <c r="I61" s="46">
+        <f t="shared" si="43"/>
+        <v>1.5278802866184618E-2</v>
+      </c>
+      <c r="J61" s="39">
+        <f t="shared" si="49"/>
+        <v>1.5278802866184618E-2</v>
+      </c>
+      <c r="K61" s="46">
         <f t="shared" si="44"/>
-        <v>0.7996121874572113</v>
-      </c>
-      <c r="E61" s="39">
-        <f t="shared" si="44"/>
-        <v>5.1927898025907998E-2</v>
-      </c>
-      <c r="F61" s="39">
-        <f t="shared" si="44"/>
-        <v>9.1</v>
-      </c>
-      <c r="G61" s="39">
-        <f t="shared" si="38"/>
-        <v>0.63937965033010646</v>
-      </c>
-      <c r="H61" s="39">
-        <f t="shared" si="37"/>
-        <v>0.46444521947000195</v>
-      </c>
-      <c r="I61" s="46">
-        <f t="shared" si="39"/>
-        <v>1.5293210121156604E-2</v>
-      </c>
-      <c r="J61" s="39">
+        <v>94.446058878503024</v>
+      </c>
+      <c r="L61" s="39">
+        <f t="shared" si="49"/>
+        <v>94.446058878503024</v>
+      </c>
+      <c r="M61" s="46">
         <f t="shared" si="45"/>
-        <v>1.5293210121156604E-2</v>
-      </c>
-      <c r="K61" s="46">
-        <f t="shared" si="40"/>
-        <v>94.446058878503024</v>
-      </c>
-      <c r="L61" s="39">
-        <f t="shared" si="45"/>
-        <v>94.446058878503024</v>
-      </c>
-      <c r="M61" s="46">
-        <f t="shared" si="41"/>
         <v>75.639206908179787</v>
       </c>
       <c r="N61" s="39">
-        <f t="shared" ref="N61" si="48">M61</f>
+        <f t="shared" ref="N61" si="52">M61</f>
         <v>75.639206908179787</v>
       </c>
       <c r="O61" s="39"/>
       <c r="P61" s="39">
-        <f t="shared" si="42"/>
-        <v>0.87623639514902774</v>
+        <f t="shared" si="46"/>
+        <v>0.87541092024476408</v>
       </c>
       <c r="Q61" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.6</v>
       </c>
       <c r="R61" s="39">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3.6</v>
       </c>
       <c r="S61" s="39"/>
@@ -18548,7 +18615,7 @@
         <v>96</v>
       </c>
       <c r="X69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -18642,7 +18709,7 @@
       <c r="AH71" s="16"/>
       <c r="AI71" s="16"/>
       <c r="AJ71" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK71" s="25" t="s">
         <v>110</v>
@@ -18674,13 +18741,16 @@
         <f>101325*(1+((-0.00649*D72)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>82739.035873671543</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="9">
+        <f t="shared" ref="F72:F73" si="53">1.225*(1+((0.00649*D72)/288.15))^(-9.80665/(0.00649*287)-1)</f>
+        <v>0.97117192893476167</v>
+      </c>
       <c r="G72" s="12">
         <f>'Imperial Units'!E75*0.514444</f>
         <v>81.796596000000008</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" ref="H72:H73" si="49">G72-2*0.514444</f>
+        <f t="shared" ref="H72:H73" si="54">G72-2*0.514444</f>
         <v>80.767708000000013</v>
       </c>
       <c r="I72" s="13">
@@ -18728,7 +18798,7 @@
         <v>86.949258524697825</v>
       </c>
       <c r="T72" s="9">
-        <f t="shared" ref="T72:T73" si="50">S72*SQRT(E72/287/Q72/1.225)</f>
+        <f t="shared" ref="T72:T73" si="55">S72*SQRT(E72/287/Q72/1.225)</f>
         <v>80.642597985560002</v>
       </c>
       <c r="U72" s="9">
@@ -18755,7 +18825,7 @@
         <v>6429.8417214199999</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" ref="AH72:AH73" si="51">AG72*9.80665</f>
+        <f t="shared" ref="AH72:AH73" si="56">AG72*9.80665</f>
         <v>63055.207317363442</v>
       </c>
       <c r="AI72" s="18"/>
@@ -18796,13 +18866,16 @@
         <f>101325*(1+((-0.00649*D73)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>82521.717427235679</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="9">
+        <f t="shared" si="53"/>
+        <v>0.96835920851612722</v>
+      </c>
       <c r="G73" s="12">
         <f>'Imperial Units'!E76*0.514444</f>
         <v>81.282151999999996</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>80.253264000000001</v>
       </c>
       <c r="I73" s="13">
@@ -18850,7 +18923,7 @@
         <v>86.514831252922036</v>
       </c>
       <c r="T73" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>80.128741897492304</v>
       </c>
       <c r="U73" s="9">
@@ -18877,7 +18950,7 @@
         <v>6417.5947274299997</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>62935.105333751402</v>
       </c>
       <c r="AI73" s="18"/>
@@ -18900,7 +18973,7 @@
     </row>
     <row r="75" spans="1:39" ht="18.3" x14ac:dyDescent="0.7">
       <c r="S75" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T75" s="49"/>
       <c r="U75" s="49"/>
@@ -18925,7 +18998,7 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="S77" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T77" s="50">
         <f>X72</f>
@@ -18949,7 +19022,7 @@
         <v>36</v>
       </c>
       <c r="S78" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T78" s="50">
         <f>X73</f>
@@ -18973,7 +19046,7 @@
         <v>58</v>
       </c>
       <c r="S79" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T79" s="50">
         <f>T78-T77</f>
@@ -19066,7 +19139,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S82" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T82" s="51">
         <f>-1/RADIANS(J73-J72)*AVERAGE(AJ72:AJ73)*(X73-X72)/O3</f>
@@ -19081,7 +19154,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S83" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T83" s="50">
         <f>T82*0.4368</f>
@@ -19152,11 +19225,11 @@
         <v>-3.9344561955860513</v>
       </c>
       <c r="D1">
-        <f>J1/3600</f>
+        <f t="shared" ref="D1:D15" si="0">J1/3600</f>
         <v>9.4498410416666664E-2</v>
       </c>
       <c r="E1">
-        <f>K1/3600</f>
+        <f t="shared" ref="E1:E15" si="1">K1/3600</f>
         <v>0.10117629808611112</v>
       </c>
       <c r="J1" s="55">
@@ -19185,11 +19258,11 @@
         <v>-3.7677888056406914</v>
       </c>
       <c r="D2">
-        <f>J2/3600</f>
+        <f t="shared" si="0"/>
         <v>8.0134652033333337E-2</v>
       </c>
       <c r="E2">
-        <f>K2/3600</f>
+        <f t="shared" si="1"/>
         <v>8.6308548180555569E-2</v>
       </c>
       <c r="J2" s="55">
@@ -19218,11 +19291,11 @@
         <v>-3.4750140211021971</v>
       </c>
       <c r="D3">
-        <f>J3/3600</f>
+        <f t="shared" si="0"/>
         <v>6.7786859738888885E-2</v>
       </c>
       <c r="E3">
-        <f>K3/3600</f>
+        <f t="shared" si="1"/>
         <v>7.3330766483333337E-2</v>
       </c>
       <c r="J3" s="55">
@@ -19251,11 +19324,11 @@
         <v>-3.627685655325763</v>
       </c>
       <c r="D4">
-        <f>J4/3600</f>
+        <f t="shared" si="0"/>
         <v>5.8211020816666667E-2</v>
       </c>
       <c r="E4">
-        <f>K4/3600</f>
+        <f t="shared" si="1"/>
         <v>6.2620946636111119E-2</v>
       </c>
       <c r="J4" s="55">
@@ -19284,11 +19357,11 @@
         <v>-3.7921986089019697</v>
       </c>
       <c r="D5">
-        <f>J5/3600</f>
+        <f t="shared" si="0"/>
         <v>5.4809078041666674E-2</v>
       </c>
       <c r="E5">
-        <f>K5/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0226986905555564E-2</v>
       </c>
       <c r="J5" s="55">
@@ -19317,11 +19390,11 @@
         <v>-3.4414553626809266</v>
       </c>
       <c r="D6">
-        <f>J6/3600</f>
+        <f t="shared" si="0"/>
         <v>5.4431084400000003E-2</v>
       </c>
       <c r="E6">
-        <f>K6/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0100989025000003E-2</v>
       </c>
       <c r="J6" s="55">
@@ -19350,11 +19423,11 @@
         <v>-3.5149433887290797</v>
       </c>
       <c r="D7">
-        <f>J7/3600</f>
+        <f t="shared" si="0"/>
         <v>5.5691063205555558E-2</v>
       </c>
       <c r="E7">
-        <f>K7/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0352984786111119E-2</v>
       </c>
       <c r="J7" s="55">
@@ -19383,11 +19456,11 @@
         <v>-3.1550943541038237</v>
       </c>
       <c r="D8">
-        <f>J8/3600</f>
+        <f t="shared" si="0"/>
         <v>5.5187071683333332E-2</v>
       </c>
       <c r="E8">
-        <f>K8/3600</f>
+        <f t="shared" si="1"/>
         <v>5.9848993263888893E-2</v>
       </c>
       <c r="J8" s="55">
@@ -19416,11 +19489,11 @@
         <v>-2.9310689976483673</v>
       </c>
       <c r="D9">
-        <f>J9/3600</f>
+        <f t="shared" si="0"/>
         <v>5.4683080161111119E-2</v>
       </c>
       <c r="E9">
-        <f>K9/3600</f>
+        <f t="shared" si="1"/>
         <v>5.9345001741666674E-2</v>
       </c>
       <c r="J9" s="55">
@@ -19449,11 +19522,11 @@
         <v>-2.6970907707599849</v>
       </c>
       <c r="D10">
-        <f>J10/3600</f>
+        <f t="shared" si="0"/>
         <v>5.4179088638888893E-2</v>
       </c>
       <c r="E10">
-        <f>K10/3600</f>
+        <f t="shared" si="1"/>
         <v>5.8715012338888893E-2</v>
       </c>
       <c r="J10" s="55">
@@ -19482,11 +19555,11 @@
         <v>-3.5627753411797016</v>
       </c>
       <c r="D11">
-        <f>J11/3600</f>
+        <f t="shared" si="0"/>
         <v>5.6195054727777784E-2</v>
       </c>
       <c r="E11">
-        <f>K11/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0856976308333331E-2</v>
       </c>
       <c r="J11" s="55">
@@ -19515,11 +19588,11 @@
         <v>-4.0315454427180271</v>
       </c>
       <c r="D12">
-        <f>J12/3600</f>
+        <f t="shared" si="0"/>
         <v>5.7329035652777784E-2</v>
       </c>
       <c r="E12">
-        <f>K12/3600</f>
+        <f t="shared" si="1"/>
         <v>6.1864959352777783E-2</v>
       </c>
       <c r="J12" s="55">
@@ -19548,11 +19621,11 @@
         <v>-3.513498803214361</v>
       </c>
       <c r="D13">
-        <f>J13/3600</f>
+        <f t="shared" si="0"/>
         <v>5.8715012338888893E-2</v>
       </c>
       <c r="E13">
-        <f>K13/3600</f>
+        <f t="shared" si="1"/>
         <v>6.3502931800000009E-2</v>
       </c>
       <c r="J13" s="55">
@@ -19581,11 +19654,11 @@
         <v>-3.6833165923318916</v>
       </c>
       <c r="D14">
-        <f>J14/3600</f>
+        <f t="shared" si="0"/>
         <v>5.6447050488888893E-2</v>
       </c>
       <c r="E14">
-        <f>K14/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0982974188888893E-2</v>
       </c>
       <c r="J14" s="55">
@@ -19614,11 +19687,11 @@
         <v>-3.5073359815637559</v>
       </c>
       <c r="D15">
-        <f>J15/3600</f>
+        <f t="shared" si="0"/>
         <v>5.6321052608333338E-2</v>
       </c>
       <c r="E15">
-        <f>K15/3600</f>
+        <f t="shared" si="1"/>
         <v>6.0856976308333331E-2</v>
       </c>
       <c r="J15" s="55">
@@ -19709,4 +19782,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E6F3A2-3856-4E64-AF6A-389D860B7170}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>